--- a/FairyList.xlsx
+++ b/FairyList.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\MirageFairyMod-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBFFEF6-B810-43E5-B123-062F6E9B9597}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977A7BD8-1F6A-4888-A85D-F9540F5DFDA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
+    <workbookView xWindow="12855" yWindow="855" windowWidth="15750" windowHeight="14730" activeTab="2" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
   <sheets>
     <sheet name="妖精リスト" sheetId="1" r:id="rId1"/>
     <sheet name="旧作妖精カラー" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,22 +33,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="402">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>air</t>
+  </si>
+  <si>
+    <t>air</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>water</t>
+  </si>
+  <si>
+    <t>water</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>fire</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dirt</t>
   </si>
   <si>
     <t>dirt</t>
@@ -205,130 +218,226 @@
   </si>
   <si>
     <t>iron</t>
+  </si>
+  <si>
+    <t>iron</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>gold</t>
+  </si>
+  <si>
+    <t>gold</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>diamond</t>
+  </si>
+  <si>
+    <t>diamond</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>emerald</t>
+  </si>
+  <si>
+    <t>emerald</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>lapislazuli</t>
+  </si>
+  <si>
+    <t>lapislazuli</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>redstone</t>
+  </si>
+  <si>
+    <t>redstone</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>stone</t>
+  </si>
+  <si>
+    <t>stone</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>sand</t>
+  </si>
+  <si>
+    <t>sand</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>gravel</t>
+  </si>
+  <si>
+    <t>gravel</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>lava</t>
+  </si>
+  <si>
+    <t>lava</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>lilac</t>
+  </si>
+  <si>
+    <t>lilac</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>zombie</t>
+  </si>
+  <si>
+    <t>zombie</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>creeper</t>
+  </si>
+  <si>
+    <t>creeper</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>skeleton</t>
+  </si>
+  <si>
+    <t>skeleton</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>spider</t>
+  </si>
+  <si>
+    <t>spider</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>wheat</t>
+  </si>
+  <si>
+    <t>wheat</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>bread</t>
+  </si>
+  <si>
+    <t>bread</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>furnace</t>
+  </si>
+  <si>
+    <t>furnace</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>plains</t>
+  </si>
+  <si>
+    <t>plains</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>forest</t>
+  </si>
+  <si>
+    <t>forest</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>sun</t>
+  </si>
+  <si>
+    <t>sun</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>moon</t>
+  </si>
+  <si>
+    <t>moon</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>star</t>
+  </si>
+  <si>
+    <t>star</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>thunder</t>
+  </si>
+  <si>
+    <t>thunder</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>rain</t>
+  </si>
+  <si>
+    <t>rain</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>fine</t>
+  </si>
+  <si>
+    <t>fine</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>night</t>
+  </si>
+  <si>
+    <t>night</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>daytime</t>
+  </si>
+  <si>
+    <t>daytime</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>morning</t>
+  </si>
+  <si>
+    <t>morning</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>wither</t>
+  </si>
+  <si>
+    <t>wither</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>enderman</t>
+  </si>
+  <si>
+    <t>enderman</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>witherskeleton</t>
+  </si>
+  <si>
+    <t>witherskeleton</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -409,6 +518,9 @@
   </si>
   <si>
     <t>torch</t>
+  </si>
+  <si>
+    <t>torch</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -602,6 +714,9 @@
   <si>
     <t>Endermania</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enderdragon</t>
   </si>
   <si>
     <t>enderdragon</t>
@@ -1151,11 +1266,32 @@
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>C</t>
@@ -1193,6 +1329,9 @@
   </si>
   <si>
     <t>Cプラズマ</t>
+  </si>
+  <si>
+    <t>Cプラズマ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1243,6 +1382,9 @@
       <t>ドウブツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bアンデッド</t>
   </si>
   <si>
     <t>Bアンデッド</t>
@@ -1305,7 +1447,13 @@
   </si>
   <si>
     <t>Cバイオーム</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cバイオーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chicken</t>
   </si>
   <si>
     <t>chicken</t>
@@ -1811,7 +1959,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AC41" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:AC41" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC41">
-    <sortCondition ref="H1:H41"/>
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="32"/>
@@ -2155,11 +2303,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0BFE0B-651F-45A6-A399-6D829AC20A31}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="H41" sqref="H2:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2173,9 +2321,7 @@
     <col min="16" max="18" width="4" style="1" customWidth="1"/>
     <col min="19" max="19" width="4.75" style="1" customWidth="1"/>
     <col min="20" max="25" width="4" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.25" style="1" customWidth="1"/>
-    <col min="28" max="29" width="18.375" style="1" customWidth="1"/>
+    <col min="26" max="29" width="7.375" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2184,88 +2330,88 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="Z1" s="2" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
@@ -2273,22 +2419,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -2368,22 +2514,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -2462,65 +2608,65 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8">
+        <v>20</v>
+      </c>
+      <c r="J4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
-        <v>83</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7">
+        <v>10</v>
+      </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="7">
-        <v>10</v>
-      </c>
+      <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7">
-        <v>15</v>
-      </c>
+      <c r="O4" s="7"/>
       <c r="P4" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="Q4" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J4:O4)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9117224885582168</v>
+        <v>0.9862327044933592</v>
       </c>
       <c r="R4" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9117224885582168</v>
+        <v>1.1728349492318788</v>
       </c>
       <c r="S4" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>75.672966550331992</v>
+        <v>23.456698984637576</v>
       </c>
       <c r="T4" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>2.132427180421598</v>
       </c>
       <c r="U4" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>21.324271804215979</v>
       </c>
       <c r="V4" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -2528,7 +2674,7 @@
       </c>
       <c r="W4" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.269186620132796</v>
+        <v>0</v>
       </c>
       <c r="X4" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -2536,153 +2682,155 @@
       </c>
       <c r="Y4" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>45.4037799301992</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy stone;</v>
+        <v>public static VariantMirageFairy fire;</v>
       </c>
       <c r="AA4" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(4, stone = v(t("stone", 1, 1, 83, m(0.00, 0.00, 0.00, 30.27, 0.00, 45.40), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
+        <v>r(2, fire = v(t("fire", 2, 1, 20, m(2.13, 21.32, 0.00, 0.00, 0.00, 0.00), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
       </c>
       <c r="AB4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.stone.name=Stonia</v>
+        <v>item.mirageFairy.fire.name=Firia</v>
       </c>
       <c r="AC4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.stone.name=ストーニャ</v>
+        <v>item.mirageFairy.fire.name=フィーリャ</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
       <c r="I5" s="8">
-        <v>70</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="J5" s="7">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7">
+        <v>28</v>
+      </c>
+      <c r="L5" s="7">
+        <v>24</v>
+      </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>3</v>
-      </c>
-      <c r="O5" s="7">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="O5" s="7"/>
       <c r="P5" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J5:O5)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9376639403055067</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="R5" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9376639403055067</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="S5" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>65.636475821385474</v>
+        <v>140.00714267493643</v>
       </c>
       <c r="T5" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>14.286443130095554</v>
       </c>
       <c r="U5" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>40.002040764267555</v>
       </c>
       <c r="V5" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>34.28746351222933</v>
       </c>
       <c r="W5" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>16.008896541801334</v>
+        <v>25.715597634171996</v>
       </c>
       <c r="X5" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.8026689625404</v>
+        <v>25.715597634171996</v>
       </c>
       <c r="Y5" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>44.824910317043738</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy dirt;</v>
+        <v>public static VariantMirageFairy sun;</v>
       </c>
       <c r="AA5" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(5, dirt = v(t("dirt", 1, 1, 70, m(0.00, 0.00, 0.00, 16.01, 4.80, 44.82), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
+        <v>r(3, sun = v(t("sun", 5, 1, 99, m(14.29, 40.00, 34.29, 25.72, 25.72, 0.00), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
       </c>
       <c r="AB5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.dirt.name=Dirtia</v>
+        <v>item.mirageFairy.sun.name=Sunia</v>
       </c>
       <c r="AC5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.dirt.name=ディルチャ</v>
+        <v>item.mirageFairy.sun.name=スーニャ</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="I6" s="8">
-        <v>64</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7">
@@ -2690,7 +2838,7 @@
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P6" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
@@ -2698,19 +2846,19 @@
       </c>
       <c r="Q6" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J6:O6)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90909312952755927</v>
+        <v>0.9117224885582168</v>
       </c>
       <c r="R6" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.90909312952755927</v>
+        <v>0.9117224885582168</v>
       </c>
       <c r="S6" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>58.181960289763794</v>
+        <v>75.672966550331992</v>
       </c>
       <c r="T6" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.1548874181393995</v>
+        <v>0</v>
       </c>
       <c r="U6" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -2722,7 +2870,7 @@
       </c>
       <c r="W6" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.548874181393995</v>
+        <v>30.269186620132796</v>
       </c>
       <c r="X6" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -2730,66 +2878,64 @@
       </c>
       <c r="Y6" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.478198690230393</v>
+        <v>45.4037799301992</v>
       </c>
       <c r="Z6" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy sand;</v>
+        <v>public static VariantMirageFairy stone;</v>
       </c>
       <c r="AA6" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(11, sand = v(t("sand", 1, 1, 64, m(2.15, 0.00, 0.00, 21.55, 0.00, 34.48), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
+        <v>r(4, stone = v(t("stone", 1, 1, 83, m(0.00, 0.00, 0.00, 30.27, 0.00, 45.40), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
       </c>
       <c r="AB6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.sand.name=Sandia</v>
+        <v>item.mirageFairy.stone.name=Stonia</v>
       </c>
       <c r="AC6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.sand.name=サンジャ</v>
+        <v>item.mirageFairy.stone.name=ストーニャ</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
       </c>
       <c r="I7" s="8">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="7">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" s="7">
         <v>3</v>
       </c>
-      <c r="L7" s="7">
-        <v>10</v>
-      </c>
-      <c r="M7" s="7">
-        <v>5</v>
-      </c>
-      <c r="N7" s="7"/>
       <c r="O7" s="7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="P7" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
@@ -2797,15 +2943,15 @@
       </c>
       <c r="Q7" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J7:O7)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.80106987758962211</v>
+        <v>0.9376639403055067</v>
       </c>
       <c r="R7" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.80106987758962211</v>
+        <v>0.9376639403055067</v>
       </c>
       <c r="S7" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>39.252424001891484</v>
+        <v>65.636475821385474</v>
       </c>
       <c r="T7" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -2813,98 +2959,98 @@
       </c>
       <c r="U7" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.5291258463720947</v>
+        <v>0</v>
       </c>
       <c r="V7" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>15.097086154573647</v>
+        <v>0</v>
       </c>
       <c r="W7" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.5485430772868236</v>
+        <v>16.008896541801334</v>
       </c>
       <c r="X7" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>4.8026689625404</v>
       </c>
       <c r="Y7" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.077668923658917</v>
+        <v>44.824910317043738</v>
       </c>
       <c r="Z7" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy skeleton;</v>
+        <v>public static VariantMirageFairy dirt;</v>
       </c>
       <c r="AA7" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(14, skeleton = v(t("skeleton", 1, 1, 49, m(0.00, 4.53, 15.10, 7.55, 0.00, 12.08), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
+        <v>r(5, dirt = v(t("dirt", 1, 1, 70, m(0.00, 0.00, 0.00, 16.01, 4.80, 44.82), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
       </c>
       <c r="AB7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.skeleton.name=Skeletonia</v>
+        <v>item.mirageFairy.dirt.name=Dirtia</v>
       </c>
       <c r="AC7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
+        <v>item.mirageFairy.dirt.name=ディルチャ</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="8">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7">
+        <v>3</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7">
         <v>10</v>
       </c>
-      <c r="M8" s="7"/>
       <c r="N8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P8" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="Q8" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J8:O8)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.84674531236252715</v>
+        <v>0.83508791942836935</v>
       </c>
       <c r="R8" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.84674531236252715</v>
+        <v>0.99309249543703582</v>
       </c>
       <c r="S8" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>46.57099217993899</v>
+        <v>85.405954607585073</v>
       </c>
       <c r="T8" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -2912,120 +3058,118 @@
       </c>
       <c r="U8" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.1168632809063177</v>
+        <v>11.13990712272849</v>
       </c>
       <c r="V8" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.16863280906318</v>
+        <v>0</v>
       </c>
       <c r="W8" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>37.133023742428293</v>
       </c>
       <c r="X8" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.2337265618126354</v>
+        <v>14.853209496971317</v>
       </c>
       <c r="Y8" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>19.051769528156857</v>
+        <v>22.279814245456979</v>
       </c>
       <c r="Z8" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy zombie;</v>
+        <v>public static VariantMirageFairy iron;</v>
       </c>
       <c r="AA8" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(15, zombie = v(t("zombie", 1, 1, 55, m(0.00, 2.12, 21.17, 0.00, 4.23, 19.05), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
+        <v>r(6, iron = v(t("iron", 2, 1, 86, m(0.00, 11.14, 0.00, 37.13, 14.85, 22.28), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
       </c>
       <c r="AB8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.zombie.name=Zombia</v>
+        <v>item.mirageFairy.iron.name=Ironia</v>
       </c>
       <c r="AC8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.zombie.name=ゾンビャ</v>
+        <v>item.mirageFairy.iron.name=イローニャ</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="J9" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K9" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>10</v>
-      </c>
-      <c r="N9" s="7">
-        <v>4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="Q9" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J9:O9)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85856543643775374</v>
+        <v>0.7908842457011136</v>
       </c>
       <c r="R9" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.85856543643775374</v>
+        <v>1.3301034541814087</v>
       </c>
       <c r="S9" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>16.312743292317322</v>
+        <v>101.08786251778706</v>
       </c>
       <c r="T9" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.77679729963415822</v>
+        <v>14.441123216826723</v>
       </c>
       <c r="U9" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.883986498170791</v>
+        <v>18.773460181874739</v>
       </c>
       <c r="V9" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.77679729963415822</v>
+        <v>30.326358755336116</v>
       </c>
       <c r="W9" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.767972996341582</v>
+        <v>37.546920363749479</v>
       </c>
       <c r="X9" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.1071891985366329</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3033,64 +3177,68 @@
       </c>
       <c r="Z9" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy torch;</v>
+        <v>public static VariantMirageFairy diamond;</v>
       </c>
       <c r="AA9" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(19, torch = v(t("torch", 1, 1, 19, m(0.78, 3.88, 0.78, 7.77, 3.11, 0.00), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
+        <v>r(7, diamond = v(t("diamond", 4, 1, 76, m(14.44, 18.77, 30.33, 37.55, 0.00, 0.00), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
       </c>
       <c r="AB9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.torch.name=Torchia</v>
+        <v>item.mirageFairy.diamond.name=Diamondia</v>
       </c>
       <c r="AC9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.torch.name=トルキャ</v>
+        <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>339</v>
+        <v>50</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8">
+        <v>54</v>
+      </c>
+      <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="8">
-        <v>39</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7">
+        <v>35</v>
+      </c>
       <c r="L10" s="7">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
         <v>10</v>
       </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P10" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="Q10" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J10:O10)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
@@ -3098,312 +3246,316 @@
       </c>
       <c r="R10" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.89502507092797245</v>
+        <v>1.2657565939702802</v>
       </c>
       <c r="S10" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>34.905977766190922</v>
+        <v>68.350856074395125</v>
       </c>
       <c r="T10" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>1.0849342234030972</v>
       </c>
       <c r="U10" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>37.972697819108404</v>
       </c>
       <c r="V10" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.9392209870106067</v>
+        <v>11.93427645743407</v>
       </c>
       <c r="W10" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>10.849342234030971</v>
       </c>
       <c r="X10" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>19.392209870106068</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.574546909074249</v>
+        <v>6.5096053404185836</v>
       </c>
       <c r="Z10" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy chicken;</v>
+        <v>public static VariantMirageFairy redstone;</v>
       </c>
       <c r="AA10" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(29, chicken = v(t("chicken", 1, 1, 39, m(0.00, 0.00, 1.94, 0.00, 19.39, 13.57), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
+        <v>r(8, redstone = v(t("redstone", 3, 1, 54, m(1.08, 37.97, 11.93, 10.85, 0.00, 6.51), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
       </c>
       <c r="AB10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.chicken.name=Chickenia</v>
+        <v>item.mirageFairy.redstone.name=Redstonia</v>
       </c>
       <c r="AC10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.chicken.name=チッケーニャ</v>
+        <v>item.mirageFairy.redstone.name=レドストーニャ</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="8">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="7">
+        <v>18</v>
+      </c>
       <c r="L11" s="7">
+        <v>18</v>
+      </c>
+      <c r="M11" s="7">
+        <v>12</v>
+      </c>
+      <c r="N11" s="7">
         <v>10</v>
       </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7</v>
-      </c>
-      <c r="O11" s="7">
-        <v>6</v>
-      </c>
+      <c r="O11" s="7"/>
       <c r="P11" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="Q11" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J11:O11)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.74742462431746914</v>
+        <v>0.72922930513582751</v>
       </c>
       <c r="R11" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.74742462431746914</v>
+        <v>1.2264126171733489</v>
       </c>
       <c r="S11" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>65.77336693993729</v>
+        <v>58.867805624320752</v>
       </c>
       <c r="T11" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.1217215141915253</v>
+        <v>0.99775941736136864</v>
       </c>
       <c r="U11" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>17.959669512504636</v>
       </c>
       <c r="V11" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.217215141915258</v>
+        <v>17.959669512504636</v>
       </c>
       <c r="W11" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.852050599340677</v>
+        <v>11.973113008336425</v>
       </c>
       <c r="X11" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.852050599340677</v>
+        <v>9.9775941736136868</v>
       </c>
       <c r="Y11" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.730329085149153</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy daytime;</v>
+        <v>public static VariantMirageFairy enderman;</v>
       </c>
       <c r="AA11" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(33, daytime = v(t("daytime", 1, 1, 88, m(2.12, 0.00, 21.22, 14.85, 14.85, 12.73), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
+        <v>r(9, enderman = v(t("enderman", 4, 1, 48, m(1.00, 17.96, 17.96, 11.97, 9.98, 0.00), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
       </c>
       <c r="AB11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.daytime.name=Daytimia</v>
+        <v>item.mirageFairy.enderman.name=Endermania</v>
       </c>
       <c r="AC11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.daytime.name=ダイティーミャ</v>
+        <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" s="8">
-        <v>83</v>
-      </c>
-      <c r="J12" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
       <c r="K12" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L12" s="7">
-        <v>10</v>
-      </c>
-      <c r="M12" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9</v>
+      </c>
       <c r="N12" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O12" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P12" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J12:O12)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.87988361729131659</v>
+        <v>0.68302012837719772</v>
       </c>
       <c r="R12" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.87988361729131659</v>
+        <v>1.3660402567543954</v>
       </c>
       <c r="S12" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>73.030340235179281</v>
+        <v>129.77382439166757</v>
       </c>
       <c r="T12" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>12.359411846825484</v>
       </c>
       <c r="U12" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.224247632925099</v>
+        <v>29.66258843238116</v>
       </c>
       <c r="V12" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.606068047035855</v>
+        <v>34.606353171111351</v>
       </c>
       <c r="W12" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>11.123470662142935</v>
       </c>
       <c r="X12" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.224247632925099</v>
+        <v>11.123470662142935</v>
       </c>
       <c r="Y12" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.975776922293228</v>
+        <v>30.898529617063705</v>
       </c>
       <c r="Z12" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy night;</v>
+        <v>public static VariantMirageFairy moon;</v>
       </c>
       <c r="AA12" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(34, night = v(t("night", 1, 1, 83, m(0.00, 10.22, 14.61, 0.00, 10.22, 37.98), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
+        <v>r(10, moon = v(t("moon", 5, 1, 95, m(12.36, 29.66, 34.61, 11.12, 11.12, 30.90), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
       </c>
       <c r="AB12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.night.name=Nightia</v>
+        <v>item.mirageFairy.moon.name=Moonia</v>
       </c>
       <c r="AC12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.night.name=ニグチャ</v>
+        <v>item.mirageFairy.moon.name=モーニャ</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" s="8">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="7">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
         <v>10</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7">
-        <v>12</v>
-      </c>
-      <c r="O13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>16</v>
+      </c>
       <c r="P13" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1</v>
       </c>
       <c r="Q13" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J13:O13)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.88066587359614845</v>
+        <v>0.90909312952755927</v>
       </c>
       <c r="R13" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.88066587359614845</v>
+        <v>0.90909312952755927</v>
       </c>
       <c r="S13" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>19.374649219115266</v>
+        <v>58.181960289763794</v>
       </c>
       <c r="T13" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.84237605300501162</v>
+        <v>2.1548874181393995</v>
       </c>
       <c r="U13" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3411,96 +3563,96 @@
       </c>
       <c r="V13" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>8.4237605300501155</v>
+        <v>0</v>
       </c>
       <c r="W13" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>21.548874181393995</v>
       </c>
       <c r="X13" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.108512636060139</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>34.478198690230393</v>
       </c>
       <c r="Z13" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy fine;</v>
+        <v>public static VariantMirageFairy sand;</v>
       </c>
       <c r="AA13" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(36, fine = v(t("fine", 1, 1, 22, m(0.84, 0.00, 8.42, 0.00, 10.11, 0.00), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
+        <v>r(11, sand = v(t("sand", 1, 1, 64, m(2.15, 0.00, 0.00, 21.55, 0.00, 34.48), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
       </c>
       <c r="AB13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.fine.name=Finia</v>
+        <v>item.mirageFairy.sand.name=Sandia</v>
       </c>
       <c r="AC13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.fine.name=フィーニャ</v>
+        <v>item.mirageFairy.sand.name=サンジャ</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="8">
+        <v>93</v>
+      </c>
+      <c r="J14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="8">
-        <v>79</v>
-      </c>
-      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="7">
+        <v>9</v>
+      </c>
       <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>18</v>
-      </c>
-      <c r="O14" s="7">
         <v>10</v>
       </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="Q14" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J14:O14)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90472770463271524</v>
+        <v>0.87055056329612412</v>
       </c>
       <c r="R14" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.90472770463271524</v>
+        <v>1.2311444133449163</v>
       </c>
       <c r="S14" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>71.473488665984505</v>
+        <v>114.49643044107722</v>
       </c>
       <c r="T14" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>5.724821522053861</v>
       </c>
       <c r="U14" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3508,98 +3660,98 @@
       </c>
       <c r="V14" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>51.523393698484753</v>
       </c>
       <c r="W14" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.9167892257404358</v>
+        <v>57.248215220538611</v>
       </c>
       <c r="X14" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>41.500735354442618</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>23.055964085801453</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy plains;</v>
+        <v>public static VariantMirageFairy gold;</v>
       </c>
       <c r="AA14" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(38, plains = v(t("plains", 1, 1, 79, m(0.00, 0.00, 0.00, 6.92, 41.50, 23.06), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
+        <v>r(12, gold = v(t("gold", 3, 1, 93, m(5.72, 0.00, 51.52, 57.25, 0.00, 0.00), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
       </c>
       <c r="AB14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.plains.name=Plainsia</v>
+        <v>item.mirageFairy.gold.name=Goldia</v>
       </c>
       <c r="AC14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.plains.name=プラインシャ</v>
+        <v>item.mirageFairy.gold.name=ゴルジャ</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>322</v>
+        <v>375</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>143</v>
+        <v>272</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
       </c>
       <c r="I15" s="8">
-        <v>20</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>10</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="N15" s="7">
+        <v>10</v>
+      </c>
+      <c r="O15" s="7">
+        <v>4</v>
+      </c>
       <c r="P15" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
       <c r="Q15" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J15:O15)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9862327044933592</v>
+        <v>0.94605764672559589</v>
       </c>
       <c r="R15" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1728349492318788</v>
+        <v>1.1250584846888094</v>
       </c>
       <c r="S15" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>23.456698984637576</v>
+        <v>48.377514841618805</v>
       </c>
       <c r="T15" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.132427180421598</v>
+        <v>0</v>
       </c>
       <c r="U15" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.324271804215979</v>
+        <v>0</v>
       </c>
       <c r="V15" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3611,86 +3763,86 @@
       </c>
       <c r="X15" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>34.555367744013431</v>
       </c>
       <c r="Y15" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>13.822147097605372</v>
       </c>
       <c r="Z15" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy fire;</v>
+        <v>public static VariantMirageFairy spider;</v>
       </c>
       <c r="AA15" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(2, fire = v(t("fire", 2, 1, 20, m(2.13, 21.32, 0.00, 0.00, 0.00, 0.00), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
+        <v>r(13, spider = v(t("spider", 2, 1, 43, m(0.00, 0.00, 0.00, 0.00, 34.56, 13.82), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
       </c>
       <c r="AB15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.fire.name=Firia</v>
+        <v>item.mirageFairy.spider.name=Spideria</v>
       </c>
       <c r="AC15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.fire.name=フィーリャ</v>
+        <v>item.mirageFairy.spider.name=スピデーリャ</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="8">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7">
         <v>3</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7">
+        <v>10</v>
+      </c>
       <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P16" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J16:O16)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.83508791942836935</v>
+        <v>0.80106987758962211</v>
       </c>
       <c r="R16" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.99309249543703582</v>
+        <v>0.80106987758962211</v>
       </c>
       <c r="S16" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>85.405954607585073</v>
+        <v>39.252424001891484</v>
       </c>
       <c r="T16" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3698,94 +3850,98 @@
       </c>
       <c r="U16" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.13990712272849</v>
+        <v>4.5291258463720947</v>
       </c>
       <c r="V16" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>15.097086154573647</v>
       </c>
       <c r="W16" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.133023742428293</v>
+        <v>7.5485430772868236</v>
       </c>
       <c r="X16" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.853209496971317</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>22.279814245456979</v>
+        <v>12.077668923658917</v>
       </c>
       <c r="Z16" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy iron;</v>
+        <v>public static VariantMirageFairy skeleton;</v>
       </c>
       <c r="AA16" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(6, iron = v(t("iron", 2, 1, 86, m(0.00, 11.14, 0.00, 37.13, 14.85, 22.28), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
+        <v>r(14, skeleton = v(t("skeleton", 1, 1, 49, m(0.00, 4.53, 15.10, 7.55, 0.00, 12.08), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
       </c>
       <c r="AB16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.iron.name=Ironia</v>
+        <v>item.mirageFairy.skeleton.name=Skeletonia</v>
       </c>
       <c r="AC16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.iron.name=イローニャ</v>
+        <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="8">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7">
+        <v>10</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O17" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P17" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J17:O17)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.94605764672559589</v>
+        <v>0.84674531236252715</v>
       </c>
       <c r="R17" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1250584846888094</v>
+        <v>0.84674531236252715</v>
       </c>
       <c r="S17" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>48.377514841618805</v>
+        <v>46.57099217993899</v>
       </c>
       <c r="T17" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3793,11 +3949,11 @@
       </c>
       <c r="U17" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>2.1168632809063177</v>
       </c>
       <c r="V17" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>21.16863280906318</v>
       </c>
       <c r="W17" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3805,27 +3961,27 @@
       </c>
       <c r="X17" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.555367744013431</v>
+        <v>4.2337265618126354</v>
       </c>
       <c r="Y17" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.822147097605372</v>
+        <v>19.051769528156857</v>
       </c>
       <c r="Z17" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy spider;</v>
+        <v>public static VariantMirageFairy zombie;</v>
       </c>
       <c r="AA17" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(13, spider = v(t("spider", 2, 1, 43, m(0.00, 0.00, 0.00, 0.00, 34.56, 13.82), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
+        <v>r(15, zombie = v(t("zombie", 1, 1, 55, m(0.00, 2.12, 21.17, 0.00, 4.23, 19.05), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
       </c>
       <c r="AB17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.spider.name=Spideria</v>
+        <v>item.mirageFairy.zombie.name=Zombia</v>
       </c>
       <c r="AC17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.spider.name=スピデーリャ</v>
+        <v>item.mirageFairy.zombie.name=ゾンビャ</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.15">
@@ -3833,22 +3989,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="H18" s="3">
         <v>2</v>
@@ -3932,22 +4088,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -4024,39 +4180,39 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="H20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="8">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="K20" s="7">
-        <v>22</v>
-      </c>
-      <c r="L20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
         <v>10</v>
@@ -4064,19 +4220,19 @@
       <c r="O20" s="7"/>
       <c r="P20" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="Q20" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J20:O20)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89277196943365633</v>
+        <v>0.97265494741228553</v>
       </c>
       <c r="R20" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0616907781254958</v>
+        <v>1.3755418181397439</v>
       </c>
       <c r="S20" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>61.578065131278755</v>
+        <v>38.515170907912825</v>
       </c>
       <c r="T20" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4084,19 +4240,19 @@
       </c>
       <c r="U20" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>33.867935822203314</v>
+        <v>0</v>
       </c>
       <c r="V20" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>3.209597575659402</v>
       </c>
       <c r="W20" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.31561302625575</v>
+        <v>3.209597575659402</v>
       </c>
       <c r="X20" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>15.394516282819689</v>
+        <v>32.095975756594022</v>
       </c>
       <c r="Y20" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4104,171 +4260,177 @@
       </c>
       <c r="Z20" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy lava;</v>
+        <v>public static VariantMirageFairy lilac;</v>
       </c>
       <c r="AA20" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(20, lava = v(t("lava", 2, 1, 58, m(0.00, 33.87, 0.00, 12.32, 15.39, 0.00), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
+        <v>r(18, lilac = v(t("lilac", 3, 1, 28, m(0.00, 0.00, 3.21, 3.21, 32.10, 0.00), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
       </c>
       <c r="AB20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lava.name=Lavia</v>
+        <v>item.mirageFairy.lilac.name=Lilacia</v>
       </c>
       <c r="AC20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lava.name=ラービャ</v>
+        <v>item.mirageFairy.lilac.name=リラーキャ</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="H21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="8">
-        <v>77</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
+        <v>5</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
       <c r="M21" s="7">
         <v>10</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7">
-        <v>8</v>
-      </c>
+      <c r="N21" s="7">
+        <v>4</v>
+      </c>
+      <c r="O21" s="7"/>
       <c r="P21" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J21:O21)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
+        <v>0.85856543643775374</v>
       </c>
       <c r="R21" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0643701824533598</v>
+        <v>0.85856543643775374</v>
       </c>
       <c r="S21" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>81.956504048908698</v>
+        <v>16.312743292317322</v>
       </c>
       <c r="T21" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>0.77679729963415822</v>
       </c>
       <c r="U21" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>3.883986498170791</v>
       </c>
       <c r="V21" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>0.77679729963415822</v>
       </c>
       <c r="W21" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>45.531391138282608</v>
+        <v>7.767972996341582</v>
       </c>
       <c r="X21" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>3.1071891985366329</v>
       </c>
       <c r="Y21" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>36.42511291062609</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy gravel;</v>
+        <v>public static VariantMirageFairy torch;</v>
       </c>
       <c r="AA21" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(22, gravel = v(t("gravel", 2, 1, 77, m(0.00, 0.00, 0.00, 45.53, 0.00, 36.43), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
+        <v>r(19, torch = v(t("torch", 1, 1, 19, m(0.78, 3.88, 0.78, 7.77, 3.11, 0.00), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
       </c>
       <c r="AB21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.gravel.name=Gravelia</v>
+        <v>item.mirageFairy.torch.name=Torchia</v>
       </c>
       <c r="AC21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.gravel.name=グラベーリャ</v>
+        <v>item.mirageFairy.torch.name=トルキャ</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="H22" s="3">
         <v>2</v>
       </c>
       <c r="I22" s="8">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7">
+        <v>8</v>
+      </c>
+      <c r="N22" s="7">
         <v>10</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7">
-        <v>11</v>
-      </c>
+      <c r="O22" s="7"/>
       <c r="P22" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
       <c r="Q22" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J22:O22)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.8596481407459281</v>
+        <v>0.89277196943365633</v>
       </c>
       <c r="R22" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0222996853739181</v>
+        <v>1.0616907781254958</v>
       </c>
       <c r="S22" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>73.605577346922104</v>
+        <v>61.578065131278755</v>
       </c>
       <c r="T22" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4276,7 +4438,7 @@
       </c>
       <c r="U22" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.4004849866888787</v>
+        <v>33.867935822203314</v>
       </c>
       <c r="V22" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4284,173 +4446,171 @@
       </c>
       <c r="W22" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>32.002424933444395</v>
+        <v>12.31561302625575</v>
       </c>
       <c r="X22" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>15.394516282819689</v>
       </c>
       <c r="Y22" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>35.202667426788828</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy furnace;</v>
+        <v>public static VariantMirageFairy lava;</v>
       </c>
       <c r="AA22" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(30, furnace = v(t("furnace", 2, 1, 72, m(0.00, 6.40, 0.00, 32.00, 0.00, 35.20), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
+        <v>r(20, lava = v(t("lava", 2, 1, 58, m(0.00, 33.87, 0.00, 12.32, 15.39, 0.00), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
       </c>
       <c r="AB22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.furnace.name=Furnacia</v>
+        <v>item.mirageFairy.lava.name=Lavia</v>
       </c>
       <c r="AC22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.furnace.name=フルナーキャ</v>
+        <v>item.mirageFairy.lava.name=ラービャ</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="H23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23" s="8">
-        <v>35</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="J23" s="7">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7">
+        <v>16</v>
+      </c>
+      <c r="L23" s="7">
+        <v>16</v>
+      </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N23" s="7">
         <v>9</v>
       </c>
       <c r="O23" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="P23" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="Q23" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J23:O23)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.79004131186337712</v>
+        <v>0.80341122656688246</v>
       </c>
       <c r="R23" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.93952274921401169</v>
+        <v>1.3511712407893626</v>
       </c>
       <c r="S23" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>32.883296222490408</v>
+        <v>132.41478159735755</v>
       </c>
       <c r="T23" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>13.511712407893627</v>
       </c>
       <c r="U23" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>21.618739852629805</v>
       </c>
       <c r="V23" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>21.618739852629805</v>
       </c>
       <c r="W23" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.178998600922373</v>
+        <v>12.160541167104263</v>
       </c>
       <c r="X23" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.961098740830137</v>
+        <v>12.160541167104263</v>
       </c>
       <c r="Y23" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.7431988807378982</v>
+        <v>51.344507149995785</v>
       </c>
       <c r="Z23" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy bread;</v>
+        <v>public static VariantMirageFairy star;</v>
       </c>
       <c r="AA23" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(32, bread = v(t("bread", 2, 1, 35, m(0.00, 0.00, 0.00, 12.18, 10.96, 9.74), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
+        <v>r(21, star = v(t("star", 4, 1, 98, m(13.51, 21.62, 21.62, 12.16, 12.16, 51.34), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
       </c>
       <c r="AB23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.bread.name=Breadia</v>
+        <v>item.mirageFairy.star.name=Staria</v>
       </c>
       <c r="AC23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.bread.name=ブレアージャ</v>
+        <v>item.mirageFairy.star.name=スターリャ</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="H24" s="3">
         <v>2</v>
       </c>
       <c r="I24" s="8">
-        <v>85</v>
-      </c>
-      <c r="J24" s="7">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7">
-        <v>8</v>
-      </c>
-      <c r="L24" s="7">
+        <v>77</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7">
         <v>10</v>
       </c>
-      <c r="M24" s="7">
-        <v>8</v>
-      </c>
-      <c r="N24" s="7">
-        <v>12</v>
-      </c>
+      <c r="N24" s="7"/>
       <c r="O24" s="7">
         <v>8</v>
       </c>
@@ -4460,122 +4620,126 @@
       </c>
       <c r="Q24" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J24:O24)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.66741992708501718</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="R24" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.79370052598409968</v>
+        <v>1.0643701824533598</v>
       </c>
       <c r="S24" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>67.464544708648475</v>
+        <v>81.956504048908698</v>
       </c>
       <c r="T24" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.4354158448648611</v>
+        <v>0</v>
       </c>
       <c r="U24" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.483326758918889</v>
+        <v>0</v>
       </c>
       <c r="V24" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.354158448648612</v>
+        <v>0</v>
       </c>
       <c r="W24" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.483326758918889</v>
+        <v>45.531391138282608</v>
       </c>
       <c r="X24" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.224990138378335</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.483326758918889</v>
+        <v>36.42511291062609</v>
       </c>
       <c r="Z24" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy morning;</v>
+        <v>public static VariantMirageFairy gravel;</v>
       </c>
       <c r="AA24" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(35, morning = v(t("morning", 2, 1, 85, m(1.44, 11.48, 14.35, 11.48, 17.22, 11.48), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
+        <v>r(22, gravel = v(t("gravel", 2, 1, 77, m(0.00, 0.00, 0.00, 45.53, 0.00, 36.43), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
       </c>
       <c r="AB24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.morning.name=Morningia</v>
+        <v>item.mirageFairy.gravel.name=Gravelia</v>
       </c>
       <c r="AC24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.morning.name=モルニンギャ</v>
+        <v>item.mirageFairy.gravel.name=グラベーリャ</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>225</v>
+        <v>396</v>
       </c>
       <c r="H25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" s="8">
-        <v>25</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="J25" s="7">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7">
+        <v>16</v>
+      </c>
       <c r="L25" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M25" s="7"/>
-      <c r="N25" s="7">
-        <v>12</v>
-      </c>
-      <c r="O25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7">
+        <v>36</v>
+      </c>
       <c r="P25" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="Q25" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J25:O25)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89089871814033927</v>
+        <v>0.85394924037429032</v>
       </c>
       <c r="R25" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0594630943592951</v>
+        <v>1.4361657100787466</v>
       </c>
       <c r="S25" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>26.486577358982377</v>
+        <v>104.8400968357485</v>
       </c>
       <c r="T25" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>13.61559699165565</v>
       </c>
       <c r="U25" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>21.784955186649039</v>
       </c>
       <c r="V25" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.039353344991991</v>
+        <v>20.423395487483475</v>
       </c>
       <c r="W25" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4583,90 +4747,90 @@
       </c>
       <c r="X25" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.447224013990388</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>49.016149169960336</v>
       </c>
       <c r="Z25" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy rain;</v>
+        <v>public static VariantMirageFairy emerald;</v>
       </c>
       <c r="AA25" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(37, rain = v(t("rain", 2, 1, 25, m(0.00, 0.00, 12.04, 0.00, 14.45, 0.00), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
+        <v>r(23, emerald = v(t("emerald", 4, 1, 73, m(13.62, 21.78, 20.42, 0.00, 0.00, 49.02), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
       </c>
       <c r="AB25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.rain.name=Rainia</v>
+        <v>item.mirageFairy.emerald.name=Emeraldia</v>
       </c>
       <c r="AC25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.rain.name=ライニャ</v>
+        <v>item.mirageFairy.emerald.name=エメラルジャ</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="H26" s="3">
+        <v>4</v>
+      </c>
+      <c r="I26" s="8">
+        <v>62</v>
+      </c>
+      <c r="J26" s="7">
         <v>2</v>
       </c>
-      <c r="I26" s="8">
-        <v>83</v>
-      </c>
-      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M26" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N26" s="7">
-        <v>32</v>
-      </c>
-      <c r="O26" s="7">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="O26" s="7"/>
       <c r="P26" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="Q26" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J26:O26)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90125046261083019</v>
+        <v>0.85724398285307279</v>
       </c>
       <c r="R26" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0717734625362931</v>
+        <v>1.4417067843579312</v>
       </c>
       <c r="S26" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>88.957197390512334</v>
+        <v>89.385820630191731</v>
       </c>
       <c r="T26" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>4.7045168752732494</v>
       </c>
       <c r="U26" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4674,213 +4838,211 @@
       </c>
       <c r="V26" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.177042763946869</v>
+        <v>18.818067501092997</v>
       </c>
       <c r="W26" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>19.062256583681215</v>
+        <v>23.522584376366247</v>
       </c>
       <c r="X26" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>50.832684223149904</v>
+        <v>42.340651877459237</v>
       </c>
       <c r="Y26" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>15.885213819734345</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy forest;</v>
+        <v>public static VariantMirageFairy lapislazuli;</v>
       </c>
       <c r="AA26" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(39, forest = v(t("forest", 2, 1, 83, m(0.00, 0.00, 3.18, 19.06, 50.83, 15.89), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
+        <v>r(24, lapislazuli = v(t("lapislazuli", 4, 1, 62, m(4.70, 0.00, 18.82, 23.52, 42.34, 0.00), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
       </c>
       <c r="AB26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.forest.name=Forestia</v>
+        <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
       </c>
       <c r="AC26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.forest.name=フォレスチャ</v>
+        <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="H27" s="3">
+        <v>5</v>
+      </c>
+      <c r="I27" s="8">
+        <v>61</v>
+      </c>
+      <c r="J27" s="7">
         <v>3</v>
       </c>
-      <c r="I27" s="8">
-        <v>54</v>
-      </c>
-      <c r="J27" s="7">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7">
-        <v>35</v>
-      </c>
+      <c r="K27" s="7"/>
       <c r="L27" s="7">
-        <v>11</v>
-      </c>
-      <c r="M27" s="7">
+        <v>34</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7">
         <v>10</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7">
-        <v>6</v>
-      </c>
+      <c r="O27" s="7"/>
       <c r="P27" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J27:O27)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
+        <v>0.94837491720007905</v>
       </c>
       <c r="R27" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2657565939702802</v>
+        <v>1.8967498344001581</v>
       </c>
       <c r="S27" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>68.350856074395125</v>
+        <v>115.70173989840964</v>
       </c>
       <c r="T27" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.0849342234030972</v>
+        <v>7.3852174403240198</v>
       </c>
       <c r="U27" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.972697819108404</v>
+        <v>0</v>
       </c>
       <c r="V27" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.93427645743407</v>
+        <v>83.699130990338887</v>
       </c>
       <c r="W27" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.849342234030971</v>
+        <v>0</v>
       </c>
       <c r="X27" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>24.617391467746732</v>
       </c>
       <c r="Y27" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.5096053404185836</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy redstone;</v>
+        <v>public static VariantMirageFairy enderdragon;</v>
       </c>
       <c r="AA27" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(8, redstone = v(t("redstone", 3, 1, 54, m(1.08, 37.97, 11.93, 10.85, 0.00, 6.51), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
+        <v>r(25, enderdragon = v(t("enderdragon", 5, 1, 61, m(7.39, 0.00, 83.70, 0.00, 24.62, 0.00), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
       </c>
       <c r="AB27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.redstone.name=Redstonia</v>
+        <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
       </c>
       <c r="AC27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.redstone.name=レドストーニャ</v>
+        <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="H28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" s="8">
-        <v>93</v>
-      </c>
-      <c r="J28" s="7">
+        <v>69</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
+        <v>4</v>
+      </c>
+      <c r="L28" s="7">
+        <v>10</v>
+      </c>
+      <c r="M28" s="7">
+        <v>4</v>
+      </c>
+      <c r="N28" s="7">
         <v>1</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7">
-        <v>9</v>
-      </c>
-      <c r="M28" s="7">
-        <v>10</v>
-      </c>
-      <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="Q28" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J28:O28)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.87055056329612412</v>
+        <v>0.88270299629065485</v>
       </c>
       <c r="R28" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2311444133449163</v>
+        <v>1.4845235706290489</v>
       </c>
       <c r="S28" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>114.49643044107722</v>
+        <v>102.43212637340437</v>
       </c>
       <c r="T28" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.724821522053861</v>
+        <v>0</v>
       </c>
       <c r="U28" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>21.564658183874606</v>
       </c>
       <c r="V28" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>51.523393698484753</v>
+        <v>53.911645459686511</v>
       </c>
       <c r="W28" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>57.248215220538611</v>
+        <v>21.564658183874606</v>
       </c>
       <c r="X28" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>5.3911645459686515</v>
       </c>
       <c r="Y28" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4888,76 +5050,80 @@
       </c>
       <c r="Z28" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy gold;</v>
+        <v>public static VariantMirageFairy witherskeleton;</v>
       </c>
       <c r="AA28" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(12, gold = v(t("gold", 3, 1, 93, m(5.72, 0.00, 51.52, 57.25, 0.00, 0.00), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
+        <v>r(26, witherskeleton = v(t("witherskeleton", 4, 1, 69, m(0.00, 21.56, 53.91, 21.56, 5.39, 0.00), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
       </c>
       <c r="AB28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.gold.name=Goldia</v>
+        <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
       </c>
       <c r="AC28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.gold.name=ゴルジャ</v>
+        <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="8">
+        <v>52</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7">
+        <v>5</v>
+      </c>
+      <c r="L29" s="7">
+        <v>10</v>
+      </c>
+      <c r="M29" s="7">
         <v>3</v>
       </c>
-      <c r="I29" s="8">
-        <v>28</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7">
+      <c r="N29" s="7">
         <v>1</v>
       </c>
-      <c r="M29" s="7">
+      <c r="O29" s="7">
         <v>1</v>
       </c>
-      <c r="N29" s="7">
-        <v>10</v>
-      </c>
-      <c r="O29" s="7"/>
       <c r="P29" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>2</v>
       </c>
       <c r="Q29" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J29:O29)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.97265494741228553</v>
+        <v>0.87055056329612412</v>
       </c>
       <c r="R29" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3755418181397439</v>
+        <v>1.7411011265922482</v>
       </c>
       <c r="S29" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>38.515170907912825</v>
+        <v>90.537258582796909</v>
       </c>
       <c r="T29" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4965,39 +5131,39 @@
       </c>
       <c r="U29" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>22.634314645699227</v>
       </c>
       <c r="V29" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.209597575659402</v>
+        <v>45.268629291398454</v>
       </c>
       <c r="W29" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.209597575659402</v>
+        <v>13.580588787419538</v>
       </c>
       <c r="X29" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>32.095975756594022</v>
+        <v>4.5268629291398454</v>
       </c>
       <c r="Y29" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>4.5268629291398454</v>
       </c>
       <c r="Z29" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy lilac;</v>
+        <v>public static VariantMirageFairy wither;</v>
       </c>
       <c r="AA29" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(18, lilac = v(t("lilac", 3, 1, 28, m(0.00, 0.00, 3.21, 3.21, 32.10, 0.00), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
+        <v>r(27, wither = v(t("wither", 5, 1, 52, m(0.00, 22.63, 45.27, 13.58, 4.53, 4.53), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
       </c>
       <c r="AB29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lilac.name=Lilacia</v>
+        <v>item.mirageFairy.wither.name=Witheria</v>
       </c>
       <c r="AC29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lilac.name=リラーキャ</v>
+        <v>item.mirageFairy.wither.name=ウィテーリャ</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.15">
@@ -5005,22 +5171,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="H30" s="3">
         <v>3</v>
@@ -5101,61 +5267,59 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>5</v>
+        <v>388</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>12</v>
+        <v>390</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="H31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="8">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J31" s="7"/>
-      <c r="K31" s="7">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7">
         <v>1</v>
       </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7">
+      <c r="M31" s="7"/>
+      <c r="N31" s="7">
         <v>10</v>
       </c>
-      <c r="N31" s="7">
-        <v>6</v>
-      </c>
       <c r="O31" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P31" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J31:O31)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85856543643775374</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="R31" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.214194884395047</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="S31" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>72.851693063702811</v>
+        <v>34.905977766190922</v>
       </c>
       <c r="T31" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5163,114 +5327,112 @@
       </c>
       <c r="U31" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.4691282411287054</v>
+        <v>0</v>
       </c>
       <c r="V31" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>1.9392209870106067</v>
       </c>
       <c r="W31" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.691282411287048</v>
+        <v>0</v>
       </c>
       <c r="X31" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>20.814769446772232</v>
+        <v>19.392209870106068</v>
       </c>
       <c r="Y31" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.876512964514822</v>
+        <v>13.574546909074249</v>
       </c>
       <c r="Z31" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy magentaglazedterracotta;</v>
+        <v>public static VariantMirageFairy chicken;</v>
       </c>
       <c r="AA31" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(31, magentaglazedterracotta = v(t("magentaglazedterracotta", 3, 1, 60, m(0.00, 3.47, 0.00, 34.69, 20.81, 13.88), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
+        <v>r(29, chicken = v(t("chicken", 1, 1, 39, m(0.00, 0.00, 1.94, 0.00, 19.39, 13.57), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
       </c>
       <c r="AB31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.magentaglazedterracotta.name=Magenteglazedeterracottia</v>
+        <v>item.mirageFairy.chicken.name=Chickenia</v>
       </c>
       <c r="AC31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.magentaglazedterracotta.name=マゲンテグラゼデテッラコッチャ</v>
+        <v>item.mirageFairy.chicken.name=チッケーニャ</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>229</v>
+        <v>401</v>
       </c>
       <c r="H32" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32" s="8">
-        <v>76</v>
-      </c>
-      <c r="J32" s="7">
+        <v>72</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7">
+        <v>2</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7">
         <v>10</v>
       </c>
-      <c r="K32" s="7">
-        <v>13</v>
-      </c>
-      <c r="L32" s="7">
-        <v>21</v>
-      </c>
-      <c r="M32" s="7">
-        <v>26</v>
-      </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
+      <c r="O32" s="7">
+        <v>11</v>
+      </c>
       <c r="P32" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="Q32" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J32:O32)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.7908842457011136</v>
+        <v>0.8596481407459281</v>
       </c>
       <c r="R32" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3301034541814087</v>
+        <v>1.0222996853739181</v>
       </c>
       <c r="S32" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>101.08786251778706</v>
+        <v>73.605577346922104</v>
       </c>
       <c r="T32" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.441123216826723</v>
+        <v>0</v>
       </c>
       <c r="U32" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.773460181874739</v>
+        <v>6.4004849866888787</v>
       </c>
       <c r="V32" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.326358755336116</v>
+        <v>0</v>
       </c>
       <c r="W32" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.546920363749479</v>
+        <v>32.002424933444395</v>
       </c>
       <c r="X32" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5278,605 +5440,599 @@
       </c>
       <c r="Y32" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>35.202667426788828</v>
       </c>
       <c r="Z32" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy diamond;</v>
+        <v>public static VariantMirageFairy furnace;</v>
       </c>
       <c r="AA32" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(7, diamond = v(t("diamond", 4, 1, 76, m(14.44, 18.77, 30.33, 37.55, 0.00, 0.00), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
+        <v>r(30, furnace = v(t("furnace", 2, 1, 72, m(0.00, 6.40, 0.00, 32.00, 0.00, 35.20), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
       </c>
       <c r="AB32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.diamond.name=Diamondia</v>
+        <v>item.mirageFairy.furnace.name=Furnacia</v>
       </c>
       <c r="AC32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
+        <v>item.mirageFairy.furnace.name=フルナーキャ</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="H33" s="3">
+        <v>3</v>
+      </c>
+      <c r="I33" s="8">
+        <v>60</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7">
+        <v>10</v>
+      </c>
+      <c r="N33" s="7">
+        <v>6</v>
+      </c>
+      <c r="O33" s="7">
         <v>4</v>
       </c>
-      <c r="I33" s="8">
-        <v>48</v>
-      </c>
-      <c r="J33" s="7">
-        <v>1</v>
-      </c>
-      <c r="K33" s="7">
-        <v>18</v>
-      </c>
-      <c r="L33" s="7">
-        <v>18</v>
-      </c>
-      <c r="M33" s="7">
-        <v>12</v>
-      </c>
-      <c r="N33" s="7">
-        <v>10</v>
-      </c>
-      <c r="O33" s="7"/>
       <c r="P33" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="Q33" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J33:O33)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.72922930513582751</v>
+        <v>0.85856543643775374</v>
       </c>
       <c r="R33" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2264126171733489</v>
+        <v>1.214194884395047</v>
       </c>
       <c r="S33" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>58.867805624320752</v>
+        <v>72.851693063702811</v>
       </c>
       <c r="T33" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.99775941736136864</v>
+        <v>0</v>
       </c>
       <c r="U33" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.959669512504636</v>
+        <v>3.4691282411287054</v>
       </c>
       <c r="V33" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.959669512504636</v>
+        <v>0</v>
       </c>
       <c r="W33" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.973113008336425</v>
+        <v>34.691282411287048</v>
       </c>
       <c r="X33" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.9775941736136868</v>
+        <v>20.814769446772232</v>
       </c>
       <c r="Y33" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>13.876512964514822</v>
       </c>
       <c r="Z33" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy enderman;</v>
+        <v>public static VariantMirageFairy magentaglazedterracotta;</v>
       </c>
       <c r="AA33" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(9, enderman = v(t("enderman", 4, 1, 48, m(1.00, 17.96, 17.96, 11.97, 9.98, 0.00), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
+        <v>r(31, magentaglazedterracotta = v(t("magentaglazedterracotta", 3, 1, 60, m(0.00, 3.47, 0.00, 34.69, 20.81, 13.88), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
       </c>
       <c r="AB33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.enderman.name=Endermania</v>
+        <v>item.mirageFairy.magentaglazedterracotta.name=Magenteglazedeterracottia</v>
       </c>
       <c r="AC33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
+        <v>item.mirageFairy.magentaglazedterracotta.name=マゲンテグラゼデテッラコッチャ</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="H34" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" s="8">
-        <v>98</v>
-      </c>
-      <c r="J34" s="7">
+        <v>35</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7">
         <v>10</v>
-      </c>
-      <c r="K34" s="7">
-        <v>16</v>
-      </c>
-      <c r="L34" s="7">
-        <v>16</v>
-      </c>
-      <c r="M34" s="7">
-        <v>9</v>
       </c>
       <c r="N34" s="7">
         <v>9</v>
       </c>
       <c r="O34" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="P34" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="Q34" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J34:O34)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.80341122656688246</v>
+        <v>0.79004131186337712</v>
       </c>
       <c r="R34" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3511712407893626</v>
+        <v>0.93952274921401169</v>
       </c>
       <c r="S34" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>132.41478159735755</v>
+        <v>32.883296222490408</v>
       </c>
       <c r="T34" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.511712407893627</v>
+        <v>0</v>
       </c>
       <c r="U34" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.618739852629805</v>
+        <v>0</v>
       </c>
       <c r="V34" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.618739852629805</v>
+        <v>0</v>
       </c>
       <c r="W34" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.160541167104263</v>
+        <v>12.178998600922373</v>
       </c>
       <c r="X34" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.160541167104263</v>
+        <v>10.961098740830137</v>
       </c>
       <c r="Y34" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>51.344507149995785</v>
+        <v>9.7431988807378982</v>
       </c>
       <c r="Z34" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy star;</v>
+        <v>public static VariantMirageFairy bread;</v>
       </c>
       <c r="AA34" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(21, star = v(t("star", 4, 1, 98, m(13.51, 21.62, 21.62, 12.16, 12.16, 51.34), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
+        <v>r(32, bread = v(t("bread", 2, 1, 35, m(0.00, 0.00, 0.00, 12.18, 10.96, 9.74), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
       </c>
       <c r="AB34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.star.name=Staria</v>
+        <v>item.mirageFairy.bread.name=Breadia</v>
       </c>
       <c r="AC34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.star.name=スターリャ</v>
+        <v>item.mirageFairy.bread.name=ブレアージャ</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="H35" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35" s="8">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7">
         <v>10</v>
       </c>
-      <c r="K35" s="7">
-        <v>16</v>
-      </c>
-      <c r="L35" s="7">
-        <v>15</v>
-      </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
+      <c r="M35" s="7">
+        <v>7</v>
+      </c>
+      <c r="N35" s="7">
+        <v>7</v>
+      </c>
       <c r="O35" s="7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="P35" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J35:O35)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85394924037429032</v>
+        <v>0.74742462431746914</v>
       </c>
       <c r="R35" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4361657100787466</v>
+        <v>0.74742462431746914</v>
       </c>
       <c r="S35" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>104.8400968357485</v>
+        <v>65.77336693993729</v>
       </c>
       <c r="T35" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.61559699165565</v>
+        <v>2.1217215141915253</v>
       </c>
       <c r="U35" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.784955186649039</v>
+        <v>0</v>
       </c>
       <c r="V35" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>20.423395487483475</v>
+        <v>21.217215141915258</v>
       </c>
       <c r="W35" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>14.852050599340677</v>
       </c>
       <c r="X35" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>14.852050599340677</v>
       </c>
       <c r="Y35" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>49.016149169960336</v>
+        <v>12.730329085149153</v>
       </c>
       <c r="Z35" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy emerald;</v>
+        <v>public static VariantMirageFairy daytime;</v>
       </c>
       <c r="AA35" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(23, emerald = v(t("emerald", 4, 1, 73, m(13.62, 21.78, 20.42, 0.00, 0.00, 49.02), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
+        <v>r(33, daytime = v(t("daytime", 1, 1, 88, m(2.12, 0.00, 21.22, 14.85, 14.85, 12.73), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
       </c>
       <c r="AB35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.emerald.name=Emeraldia</v>
+        <v>item.mirageFairy.daytime.name=Daytimia</v>
       </c>
       <c r="AC35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.emerald.name=エメラルジャ</v>
+        <v>item.mirageFairy.daytime.name=ダイティーミャ</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="H36" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I36" s="8">
-        <v>62</v>
-      </c>
-      <c r="J36" s="7">
-        <v>2</v>
-      </c>
-      <c r="K36" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7">
+        <v>7</v>
+      </c>
       <c r="L36" s="7">
-        <v>8</v>
-      </c>
-      <c r="M36" s="7">
         <v>10</v>
       </c>
+      <c r="M36" s="7"/>
       <c r="N36" s="7">
-        <v>18</v>
-      </c>
-      <c r="O36" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="O36" s="7">
+        <v>26</v>
+      </c>
       <c r="P36" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J36:O36)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85724398285307279</v>
+        <v>0.87988361729131659</v>
       </c>
       <c r="R36" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4417067843579312</v>
+        <v>0.87988361729131659</v>
       </c>
       <c r="S36" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>89.385820630191731</v>
+        <v>73.030340235179281</v>
       </c>
       <c r="T36" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.7045168752732494</v>
+        <v>0</v>
       </c>
       <c r="U36" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>10.224247632925099</v>
       </c>
       <c r="V36" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.818067501092997</v>
+        <v>14.606068047035855</v>
       </c>
       <c r="W36" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>23.522584376366247</v>
+        <v>0</v>
       </c>
       <c r="X36" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>42.340651877459237</v>
+        <v>10.224247632925099</v>
       </c>
       <c r="Y36" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>37.975776922293228</v>
       </c>
       <c r="Z36" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy lapislazuli;</v>
+        <v>public static VariantMirageFairy night;</v>
       </c>
       <c r="AA36" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(24, lapislazuli = v(t("lapislazuli", 4, 1, 62, m(4.70, 0.00, 18.82, 23.52, 42.34, 0.00), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
+        <v>r(34, night = v(t("night", 1, 1, 83, m(0.00, 10.22, 14.61, 0.00, 10.22, 37.98), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
       </c>
       <c r="AB36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
+        <v>item.mirageFairy.night.name=Nightia</v>
       </c>
       <c r="AC36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
+        <v>item.mirageFairy.night.name=ニグチャ</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>233</v>
+        <v>398</v>
       </c>
       <c r="H37" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37" s="8">
-        <v>69</v>
-      </c>
-      <c r="J37" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
       <c r="K37" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L37" s="7">
         <v>10</v>
       </c>
       <c r="M37" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N37" s="7">
-        <v>1</v>
-      </c>
-      <c r="O37" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="O37" s="7">
+        <v>8</v>
+      </c>
       <c r="P37" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="Q37" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J37:O37)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.88270299629065485</v>
+        <v>0.66741992708501718</v>
       </c>
       <c r="R37" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4845235706290489</v>
+        <v>0.79370052598409968</v>
       </c>
       <c r="S37" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>102.43212637340437</v>
+        <v>67.464544708648475</v>
       </c>
       <c r="T37" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>1.4354158448648611</v>
       </c>
       <c r="U37" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.564658183874606</v>
+        <v>11.483326758918889</v>
       </c>
       <c r="V37" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>53.911645459686511</v>
+        <v>14.354158448648612</v>
       </c>
       <c r="W37" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.564658183874606</v>
+        <v>11.483326758918889</v>
       </c>
       <c r="X37" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.3911645459686515</v>
+        <v>17.224990138378335</v>
       </c>
       <c r="Y37" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>11.483326758918889</v>
       </c>
       <c r="Z37" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy witherskeleton;</v>
+        <v>public static VariantMirageFairy morning;</v>
       </c>
       <c r="AA37" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(26, witherskeleton = v(t("witherskeleton", 4, 1, 69, m(0.00, 21.56, 53.91, 21.56, 5.39, 0.00), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
+        <v>r(35, morning = v(t("morning", 2, 1, 85, m(1.44, 11.48, 14.35, 11.48, 17.22, 11.48), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
       </c>
       <c r="AB37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
+        <v>item.mirageFairy.morning.name=Morningia</v>
       </c>
       <c r="AC37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
+        <v>item.mirageFairy.morning.name=モルニンギャ</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="H38" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I38" s="8">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7">
         <v>10</v>
       </c>
-      <c r="K38" s="7">
-        <v>28</v>
-      </c>
-      <c r="L38" s="7">
-        <v>24</v>
-      </c>
-      <c r="M38" s="7">
-        <v>18</v>
-      </c>
+      <c r="M38" s="7"/>
       <c r="N38" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J38:O38)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.70710678118654757</v>
+        <v>0.88066587359614845</v>
       </c>
       <c r="R38" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4142135623730951</v>
+        <v>0.88066587359614845</v>
       </c>
       <c r="S38" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>140.00714267493643</v>
+        <v>19.374649219115266</v>
       </c>
       <c r="T38" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.286443130095554</v>
+        <v>0.84237605300501162</v>
       </c>
       <c r="U38" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>40.002040764267555</v>
+        <v>0</v>
       </c>
       <c r="V38" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.28746351222933</v>
+        <v>8.4237605300501155</v>
       </c>
       <c r="W38" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>25.715597634171996</v>
+        <v>0</v>
       </c>
       <c r="X38" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>25.715597634171996</v>
+        <v>10.108512636060139</v>
       </c>
       <c r="Y38" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5884,183 +6040,175 @@
       </c>
       <c r="Z38" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy sun;</v>
+        <v>public static VariantMirageFairy fine;</v>
       </c>
       <c r="AA38" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(3, sun = v(t("sun", 5, 1, 99, m(14.29, 40.00, 34.29, 25.72, 25.72, 0.00), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
+        <v>r(36, fine = v(t("fine", 1, 1, 22, m(0.84, 0.00, 8.42, 0.00, 10.11, 0.00), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
       </c>
       <c r="AB38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.sun.name=Sunia</v>
+        <v>item.mirageFairy.fine.name=Finia</v>
       </c>
       <c r="AC38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.sun.name=スーニャ</v>
+        <v>item.mirageFairy.fine.name=フィーニャ</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="8">
+        <v>25</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7">
         <v>10</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H39" s="3">
-        <v>5</v>
-      </c>
-      <c r="I39" s="8">
-        <v>95</v>
-      </c>
-      <c r="J39" s="7">
-        <v>10</v>
-      </c>
-      <c r="K39" s="7">
-        <v>24</v>
-      </c>
-      <c r="L39" s="7">
-        <v>28</v>
-      </c>
-      <c r="M39" s="7">
-        <v>9</v>
-      </c>
+      <c r="M39" s="7"/>
       <c r="N39" s="7">
-        <v>9</v>
-      </c>
-      <c r="O39" s="7">
-        <v>25</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O39" s="7"/>
       <c r="P39" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="Q39" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J39:O39)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.68302012837719772</v>
+        <v>0.89089871814033927</v>
       </c>
       <c r="R39" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3660402567543954</v>
+        <v>1.0594630943592951</v>
       </c>
       <c r="S39" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>129.77382439166757</v>
+        <v>26.486577358982377</v>
       </c>
       <c r="T39" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.359411846825484</v>
+        <v>0</v>
       </c>
       <c r="U39" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>29.66258843238116</v>
+        <v>0</v>
       </c>
       <c r="V39" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.606353171111351</v>
+        <v>12.039353344991991</v>
       </c>
       <c r="W39" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.123470662142935</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.123470662142935</v>
+        <v>14.447224013990388</v>
       </c>
       <c r="Y39" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.898529617063705</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy moon;</v>
+        <v>public static VariantMirageFairy rain;</v>
       </c>
       <c r="AA39" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(10, moon = v(t("moon", 5, 1, 95, m(12.36, 29.66, 34.61, 11.12, 11.12, 30.90), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
+        <v>r(37, rain = v(t("rain", 2, 1, 25, m(0.00, 0.00, 12.04, 0.00, 14.45, 0.00), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
       </c>
       <c r="AB39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.moon.name=Moonia</v>
+        <v>item.mirageFairy.rain.name=Rainia</v>
       </c>
       <c r="AC39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.moon.name=モーニャ</v>
+        <v>item.mirageFairy.rain.name=ライニャ</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="H40" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I40" s="8">
-        <v>61</v>
-      </c>
-      <c r="J40" s="7">
+        <v>79</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7">
         <v>3</v>
       </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7">
-        <v>34</v>
-      </c>
-      <c r="M40" s="7"/>
       <c r="N40" s="7">
+        <v>18</v>
+      </c>
+      <c r="O40" s="7">
         <v>10</v>
       </c>
-      <c r="O40" s="7"/>
       <c r="P40" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J40:O40)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.94837491720007905</v>
+        <v>0.90472770463271524</v>
       </c>
       <c r="R40" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.8967498344001581</v>
+        <v>0.90472770463271524</v>
       </c>
       <c r="S40" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>115.70173989840964</v>
+        <v>71.473488665984505</v>
       </c>
       <c r="T40" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.3852174403240198</v>
+        <v>0</v>
       </c>
       <c r="U40" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -6068,96 +6216,94 @@
       </c>
       <c r="V40" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>83.699130990338887</v>
+        <v>0</v>
       </c>
       <c r="W40" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>6.9167892257404358</v>
       </c>
       <c r="X40" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>24.617391467746732</v>
+        <v>41.500735354442618</v>
       </c>
       <c r="Y40" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>23.055964085801453</v>
       </c>
       <c r="Z40" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy enderdragon;</v>
+        <v>public static VariantMirageFairy plains;</v>
       </c>
       <c r="AA40" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(25, enderdragon = v(t("enderdragon", 5, 1, 61, m(7.39, 0.00, 83.70, 0.00, 24.62, 0.00), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
+        <v>r(38, plains = v(t("plains", 1, 1, 79, m(0.00, 0.00, 0.00, 6.92, 41.50, 23.06), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
       </c>
       <c r="AB40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
+        <v>item.mirageFairy.plains.name=Plainsia</v>
       </c>
       <c r="AC40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
+        <v>item.mirageFairy.plains.name=プラインシャ</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="H41" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I41" s="8">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="J41" s="7"/>
-      <c r="K41" s="7">
-        <v>5</v>
-      </c>
+      <c r="K41" s="7"/>
       <c r="L41" s="7">
+        <v>2</v>
+      </c>
+      <c r="M41" s="7">
+        <v>12</v>
+      </c>
+      <c r="N41" s="7">
+        <v>32</v>
+      </c>
+      <c r="O41" s="7">
         <v>10</v>
-      </c>
-      <c r="M41" s="7">
-        <v>3</v>
-      </c>
-      <c r="N41" s="7">
-        <v>1</v>
-      </c>
-      <c r="O41" s="7">
-        <v>1</v>
       </c>
       <c r="P41" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="Q41" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J41:O41)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.87055056329612412</v>
+        <v>0.90125046261083019</v>
       </c>
       <c r="R41" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.7411011265922482</v>
+        <v>1.0717734625362931</v>
       </c>
       <c r="S41" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>90.537258582796909</v>
+        <v>88.957197390512334</v>
       </c>
       <c r="T41" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -6165,39 +6311,39 @@
       </c>
       <c r="U41" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>22.634314645699227</v>
+        <v>0</v>
       </c>
       <c r="V41" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>45.268629291398454</v>
+        <v>3.177042763946869</v>
       </c>
       <c r="W41" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.580588787419538</v>
+        <v>19.062256583681215</v>
       </c>
       <c r="X41" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.5268629291398454</v>
+        <v>50.832684223149904</v>
       </c>
       <c r="Y41" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.5268629291398454</v>
+        <v>15.885213819734345</v>
       </c>
       <c r="Z41" s="13" t="str">
         <f>"public static VariantMirageFairy "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy wither;</v>
+        <v>public static VariantMirageFairy forest;</v>
       </c>
       <c r="AA41" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", 1, "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;TEXT(テーブル1[[#This Row],[Shine]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Fire]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Wind]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Gaia]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Aqua]],"0.00")&amp;", "&amp;TEXT(テーブル1[[#This Row],[Dark]],"0.00")&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(27, wither = v(t("wither", 5, 1, 52, m(0.00, 22.63, 45.27, 13.58, 4.53, 4.53), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
+        <v>r(39, forest = v(t("forest", 2, 1, 83, m(0.00, 0.00, 3.18, 19.06, 50.83, 15.89), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
       </c>
       <c r="AB41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.wither.name=Witheria</v>
+        <v>item.mirageFairy.forest.name=Forestia</v>
       </c>
       <c r="AC41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.wither.name=ウィテーリャ</v>
+        <v>item.mirageFairy.forest.name=フォレスチャ</v>
       </c>
     </row>
   </sheetData>
@@ -6226,554 +6372,554 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -6784,4 +6930,1189 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D158FE-E208-495B-854F-3CD598537D48}">
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E2" si="0">0.3^(D1-1)</f>
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ref="G1:G39" si="1">E1*F1</f>
+        <v>1</v>
+      </c>
+      <c r="H1" t="str">
+        <f>"ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes."&amp;C1&amp;".createItemStack(), "&amp;G1&amp;"));"</f>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.air.createItemStack(), 1));</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H40" si="2">"ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes."&amp;C2&amp;".createItemStack(), "&amp;G2&amp;"));"</f>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.water.createItemStack(), 0.5));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>0.3^(D3-1)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.lava.createItemStack(), 0.15));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E40" si="3">0.3^(D4-1)</f>
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.05</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.fire.createItemStack(), 0.015));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="F5">
+        <v>0.05</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.thunder.createItemStack(), 0.0045));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.sun.createItemStack(), 0.000081));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>8.1000000000000004E-5</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.moon.createItemStack(), 0.000081));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2.7E-4</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.star.createItemStack(), 0.00027));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.stone.createItemStack(), 0.5));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.dirt.createItemStack(), 0.5));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.sand.createItemStack(), 0.5));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.gravel.createItemStack(), 0.15));</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.iron.createItemStack(), 0.06));</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.gold.createItemStack(), 0.018));</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.diamond.createItemStack(), 0.0054));</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.emerald.createItemStack(), 0.0054));</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.redstone.createItemStack(), 0.018));</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.lapislazuli.createItemStack(), 0.0054));</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.enderman.createItemStack(), 0.0027));</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.spider.createItemStack(), 0.03));</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="F21">
+        <v>0.1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>8.0999999999999996E-4</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.enderdragon.createItemStack(), 0.00081));</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.chicken.createItemStack(), 0.1));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.skeleton.createItemStack(), 0.1));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.zombie.createItemStack(), 0.1));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.witherskeleton.createItemStack(), 0.0027));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>354</v>
+      </c>
+      <c r="B26" t="s">
+        <v>376</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>8.0999999999999996E-4</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.wither.createItemStack(), 0.00081));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="F27">
+        <v>0.1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.creeper.createItemStack(), 0.03));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.wheat.createItemStack(), 0.03));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.lilac.createItemStack(), 0.009));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.torch.createItemStack(), 0.1));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B31" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.furnace.createItemStack(), 0.03));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="F32">
+        <v>0.1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.magentaglazedterracotta.createItemStack(), 0.009));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>356</v>
+      </c>
+      <c r="B33" t="s">
+        <v>382</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="F33">
+        <v>0.1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.bread.createItemStack(), 0.03));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" t="s">
+        <v>383</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.02</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.daytime.createItemStack(), 0.02));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B35" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.02</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.night.createItemStack(), 0.02));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="F36">
+        <v>0.02</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.morning.createItemStack(), 0.006));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.02</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.fine.createItemStack(), 0.02));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>353</v>
+      </c>
+      <c r="B38" t="s">
+        <v>384</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="F38">
+        <v>0.02</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.rain.createItemStack(), 0.006));</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>353</v>
+      </c>
+      <c r="B39" t="s">
+        <v>385</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0.05</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.plains.createItemStack(), 0.05));</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" t="s">
+        <v>385</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="F40">
+        <v>0.05</v>
+      </c>
+      <c r="G40">
+        <f>E40*F40</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes.forest.createItemStack(), 0.015));</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F40">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FairyList.xlsx
+++ b/FairyList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\MirageFairyMod-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB722928-A62D-472F-8A33-7D025AF86F8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A665242-2B17-40E4-9843-091882DBA40E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ATTACKReal</t>
+    <t>CRAFT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1816,7 +1816,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1865,12 +1865,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1886,7 +1880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1932,9 +1926,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1951,21 +1942,21 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
@@ -2307,7 +2298,7 @@
     <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="33"/>
     <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="12"/>
-    <tableColumn id="43" xr3:uid="{F9A89BF2-14D8-4F19-A026-A4FBD2302B39}" name="ポエム" dataDxfId="1"/>
+    <tableColumn id="43" xr3:uid="{F9A89BF2-14D8-4F19-A026-A4FBD2302B39}" name="ポエム" dataDxfId="2"/>
     <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="32"/>
     <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="31"/>
     <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="30"/>
@@ -2347,14 +2338,12 @@
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="40" xr3:uid="{FF31EB97-6C72-4B4F-9C7D-7FE5546BDC56}" name="ATTACK" dataDxfId="4"/>
-    <tableColumn id="42" xr3:uid="{0713012C-F6E2-4018-AD90-F6347E1D5867}" name="ATTACKReal" dataDxfId="2">
-      <calculatedColumnFormula>S2*AA2</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="44" xr3:uid="{D91E944B-F524-4F9B-9D06-B8EE217F8C86}" name="CRAFT" dataDxfId="1"/>
     <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="3">
       <calculatedColumnFormula>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="0">
-      <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
+      <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="14">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</calculatedColumnFormula>
@@ -2674,7 +2663,7 @@
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AD2" sqref="AD2:AD41"/>
@@ -2691,8 +2680,7 @@
     <col min="17" max="19" width="4" style="1" customWidth="1"/>
     <col min="20" max="20" width="4.75" style="1" customWidth="1"/>
     <col min="21" max="26" width="4" style="1" customWidth="1"/>
-    <col min="27" max="27" width="2.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="6.125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="2.625" style="1" customWidth="1"/>
     <col min="29" max="29" width="12.75" style="1" customWidth="1"/>
     <col min="30" max="30" width="44.75" style="1" customWidth="1"/>
     <col min="31" max="32" width="12.75" style="1" customWidth="1"/>
@@ -2883,17 +2871,14 @@
         <v>0</v>
       </c>
       <c r="AA2" s="14"/>
-      <c r="AB2" s="15">
-        <f>S2*AA2</f>
-        <v>0</v>
-      </c>
+      <c r="AB2" s="14"/>
       <c r="AC2" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] air;</v>
       </c>
       <c r="AD2" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(0, air = v(t("air", 1, 15, m(1, 0, 10, 0, 0, 0), a(e(ATTACK, 0)), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(0, air = v(t("air", 1, 15, m(1, 0, 10, 0, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
       </c>
       <c r="AE2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -2991,17 +2976,14 @@
       <c r="AA3" s="14">
         <v>4</v>
       </c>
-      <c r="AB3" s="15">
-        <f>S3*AA3</f>
-        <v>3.6300766212686435</v>
-      </c>
+      <c r="AB3" s="14"/>
       <c r="AC3" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] water;</v>
       </c>
       <c r="AD3" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(1, water = v(t("water", 1, 50, m(0, 0, 0, 1, 10, 6), a(e(ATTACK, 4)), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(1, water = v(t("water", 1, 50, m(0, 0, 0, 1, 10, 6), a(e(ATTACK, 4), e(CRAFT, 0)), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
       </c>
       <c r="AE3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3097,17 +3079,16 @@
       <c r="AA4" s="14">
         <v>9</v>
       </c>
-      <c r="AB4" s="15">
-        <f>S4*AA4</f>
-        <v>10.555514543086909</v>
+      <c r="AB4" s="14">
+        <v>4</v>
       </c>
       <c r="AC4" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] fire;</v>
       </c>
       <c r="AD4" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(2, fire = v(t("fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(e(ATTACK, 9)), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(2, fire = v(t("fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(e(ATTACK, 9), e(CRAFT, 4)), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
       </c>
       <c r="AE4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3209,17 +3190,16 @@
       <c r="AA5" s="14">
         <v>5</v>
       </c>
-      <c r="AB5" s="15">
-        <f>S5*AA5</f>
-        <v>7.0710678118654755</v>
+      <c r="AB5" s="14">
+        <v>2</v>
       </c>
       <c r="AC5" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] sun;</v>
       </c>
       <c r="AD5" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(3, sun = v(t("sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(e(ATTACK, 5)), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(3, sun = v(t("sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(e(ATTACK, 5), e(CRAFT, 2)), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
       </c>
       <c r="AE5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3315,17 +3295,16 @@
       <c r="AA6" s="14">
         <v>6</v>
       </c>
-      <c r="AB6" s="15">
-        <f>S6*AA6</f>
-        <v>5.470334931349301</v>
+      <c r="AB6" s="14">
+        <v>1</v>
       </c>
       <c r="AC6" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] stone;</v>
       </c>
       <c r="AD6" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(4, stone = v(t("stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(e(ATTACK, 6)), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(4, stone = v(t("stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(e(ATTACK, 6), e(CRAFT, 1)), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
       </c>
       <c r="AE6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3419,17 +3398,14 @@
         <v>44.824910317043738</v>
       </c>
       <c r="AA7" s="14"/>
-      <c r="AB7" s="15">
-        <f>S7*AA7</f>
-        <v>0</v>
-      </c>
+      <c r="AB7" s="14"/>
       <c r="AC7" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] dirt;</v>
       </c>
       <c r="AD7" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(5, dirt = v(t("dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(e(ATTACK, 0)), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(5, dirt = v(t("dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
       </c>
       <c r="AE7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3525,17 +3501,14 @@
         <v>22.279814245456979</v>
       </c>
       <c r="AA8" s="14"/>
-      <c r="AB8" s="15">
-        <f>S8*AA8</f>
-        <v>0</v>
-      </c>
+      <c r="AB8" s="14"/>
       <c r="AC8" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] iron;</v>
       </c>
       <c r="AD8" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(6, iron = v(t("iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(e(ATTACK, 0)), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(6, iron = v(t("iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
       </c>
       <c r="AE8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3631,17 +3604,14 @@
         <v>0</v>
       </c>
       <c r="AA9" s="14"/>
-      <c r="AB9" s="15">
-        <f>S9*AA9</f>
-        <v>0</v>
-      </c>
+      <c r="AB9" s="14"/>
       <c r="AC9" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] diamond;</v>
       </c>
       <c r="AD9" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(7, diamond = v(t("diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(e(ATTACK, 0)), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(7, diamond = v(t("diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
       </c>
       <c r="AE9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3739,17 +3709,14 @@
         <v>6.5096053404185836</v>
       </c>
       <c r="AA10" s="14"/>
-      <c r="AB10" s="15">
-        <f>S10*AA10</f>
-        <v>0</v>
-      </c>
+      <c r="AB10" s="14"/>
       <c r="AC10" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] redstone;</v>
       </c>
       <c r="AD10" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(8, redstone = v(t("redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(e(ATTACK, 0)), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(8, redstone = v(t("redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
       </c>
       <c r="AE10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3849,17 +3816,16 @@
       <c r="AA11" s="14">
         <v>11</v>
       </c>
-      <c r="AB11" s="15">
-        <f>S11*AA11</f>
-        <v>13.490538788906838</v>
+      <c r="AB11" s="14">
+        <v>7</v>
       </c>
       <c r="AC11" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] enderman;</v>
       </c>
       <c r="AD11" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(9, enderman = v(t("enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(e(ATTACK, 11)), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(9, enderman = v(t("enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(e(ATTACK, 11), e(CRAFT, 7)), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
       </c>
       <c r="AE11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3961,17 +3927,14 @@
         <v>30.898529617063705</v>
       </c>
       <c r="AA12" s="14"/>
-      <c r="AB12" s="15">
-        <f>S12*AA12</f>
-        <v>0</v>
-      </c>
+      <c r="AB12" s="14"/>
       <c r="AC12" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] moon;</v>
       </c>
       <c r="AD12" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(10, moon = v(t("moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(e(ATTACK, 0)), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(10, moon = v(t("moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
       </c>
       <c r="AE12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4067,17 +4030,16 @@
       <c r="AA13" s="14">
         <v>2</v>
       </c>
-      <c r="AB13" s="15">
-        <f>S13*AA13</f>
-        <v>1.8181862590551185</v>
+      <c r="AB13" s="14">
+        <v>1</v>
       </c>
       <c r="AC13" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] sand;</v>
       </c>
       <c r="AD13" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(11, sand = v(t("sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(e(ATTACK, 2)), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(11, sand = v(t("sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(e(ATTACK, 2), e(CRAFT, 1)), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
       </c>
       <c r="AE13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4171,17 +4133,14 @@
         <v>0</v>
       </c>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="15">
-        <f>S14*AA14</f>
-        <v>0</v>
-      </c>
+      <c r="AB14" s="14"/>
       <c r="AC14" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] gold;</v>
       </c>
       <c r="AD14" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(12, gold = v(t("gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(e(ATTACK, 0)), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(12, gold = v(t("gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
       </c>
       <c r="AE14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4275,17 +4234,14 @@
       <c r="AA15" s="14">
         <v>10</v>
       </c>
-      <c r="AB15" s="15">
-        <f>S15*AA15</f>
-        <v>11.250584846888094</v>
-      </c>
+      <c r="AB15" s="14"/>
       <c r="AC15" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] spider;</v>
       </c>
       <c r="AD15" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(13, spider = v(t("spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(e(ATTACK, 10)), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(13, spider = v(t("spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(e(ATTACK, 10), e(CRAFT, 0)), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
       </c>
       <c r="AE15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4383,17 +4339,16 @@
       <c r="AA16" s="14">
         <v>12</v>
       </c>
-      <c r="AB16" s="15">
-        <f>S16*AA16</f>
-        <v>8.9690954918096306</v>
+      <c r="AB16" s="14">
+        <v>5</v>
       </c>
       <c r="AC16" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] skeleton;</v>
       </c>
       <c r="AD16" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(14, skeleton = v(t("skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(e(ATTACK, 12)), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(14, skeleton = v(t("skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(e(ATTACK, 12), e(CRAFT, 5)), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
       </c>
       <c r="AE16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4491,17 +4446,14 @@
       <c r="AA17" s="14">
         <v>13</v>
       </c>
-      <c r="AB17" s="15">
-        <f>S17*AA17</f>
-        <v>9.8521576823175891</v>
-      </c>
+      <c r="AB17" s="14"/>
       <c r="AC17" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] zombie;</v>
       </c>
       <c r="AD17" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(15, zombie = v(t("zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(e(ATTACK, 13)), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(15, zombie = v(t("zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(e(ATTACK, 13), e(CRAFT, 0)), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
       </c>
       <c r="AE17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4599,17 +4551,14 @@
       <c r="AA18" s="14">
         <v>10</v>
       </c>
-      <c r="AB18" s="15">
-        <f>S18*AA18</f>
-        <v>9.5484160391041648</v>
-      </c>
+      <c r="AB18" s="14"/>
       <c r="AC18" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] creeper;</v>
       </c>
       <c r="AD18" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(16, creeper = v(t("creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(e(ATTACK, 10)), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(16, creeper = v(t("creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(e(ATTACK, 10), e(CRAFT, 0)), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
       </c>
       <c r="AE18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4701,17 +4650,14 @@
         <v>11.465551211367732</v>
       </c>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="15">
-        <f>S19*AA19</f>
-        <v>0</v>
-      </c>
+      <c r="AB19" s="14"/>
       <c r="AC19" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] wheat;</v>
       </c>
       <c r="AD19" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(17, wheat = v(t("wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(e(ATTACK, 0)), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(17, wheat = v(t("wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
       </c>
       <c r="AE19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4805,17 +4751,14 @@
         <v>0</v>
       </c>
       <c r="AA20" s="14"/>
-      <c r="AB20" s="15">
-        <f>S20*AA20</f>
-        <v>0</v>
-      </c>
+      <c r="AB20" s="14"/>
       <c r="AC20" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lilac;</v>
       </c>
       <c r="AD20" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(18, lilac = v(t("lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(e(ATTACK, 0)), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(18, lilac = v(t("lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
       </c>
       <c r="AE20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4915,17 +4858,14 @@
       <c r="AA21" s="14">
         <v>1</v>
       </c>
-      <c r="AB21" s="15">
-        <f>S21*AA21</f>
-        <v>0.85856543643775374</v>
-      </c>
+      <c r="AB21" s="14"/>
       <c r="AC21" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] torch;</v>
       </c>
       <c r="AD21" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(19, torch = v(t("torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(e(ATTACK, 1)), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(19, torch = v(t("torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(e(ATTACK, 1), e(CRAFT, 0)), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
       </c>
       <c r="AE21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5021,17 +4961,16 @@
       <c r="AA22" s="14">
         <v>7</v>
       </c>
-      <c r="AB22" s="15">
-        <f>S22*AA22</f>
-        <v>7.4318354468784706</v>
+      <c r="AB22" s="14">
+        <v>3</v>
       </c>
       <c r="AC22" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lava;</v>
       </c>
       <c r="AD22" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(20, lava = v(t("lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(e(ATTACK, 7)), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(20, lava = v(t("lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(e(ATTACK, 7), e(CRAFT, 3)), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
       </c>
       <c r="AE22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5131,17 +5070,14 @@
         <v>51.344507149995785</v>
       </c>
       <c r="AA23" s="14"/>
-      <c r="AB23" s="15">
-        <f>S23*AA23</f>
-        <v>0</v>
-      </c>
+      <c r="AB23" s="14"/>
       <c r="AC23" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] star;</v>
       </c>
       <c r="AD23" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(21, star = v(t("star", 4, 98, m(10, 16, 16, 9, 9, 38), a(e(ATTACK, 0)), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(21, star = v(t("star", 4, 98, m(10, 16, 16, 9, 9, 38), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
       </c>
       <c r="AE23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5235,17 +5171,14 @@
       <c r="AA24" s="14">
         <v>3</v>
       </c>
-      <c r="AB24" s="15">
-        <f>S24*AA24</f>
-        <v>3.1931105473600794</v>
-      </c>
+      <c r="AB24" s="14"/>
       <c r="AC24" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] gravel;</v>
       </c>
       <c r="AD24" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(22, gravel = v(t("gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(e(ATTACK, 3)), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(22, gravel = v(t("gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(e(ATTACK, 3), e(CRAFT, 0)), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
       </c>
       <c r="AE24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5341,17 +5274,14 @@
         <v>49.016149169960336</v>
       </c>
       <c r="AA25" s="14"/>
-      <c r="AB25" s="15">
-        <f>S25*AA25</f>
-        <v>0</v>
-      </c>
+      <c r="AB25" s="14"/>
       <c r="AC25" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] emerald;</v>
       </c>
       <c r="AD25" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(23, emerald = v(t("emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(e(ATTACK, 0)), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(23, emerald = v(t("emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
       </c>
       <c r="AE25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5447,17 +5377,14 @@
         <v>0</v>
       </c>
       <c r="AA26" s="14"/>
-      <c r="AB26" s="15">
-        <f>S26*AA26</f>
-        <v>0</v>
-      </c>
+      <c r="AB26" s="14"/>
       <c r="AC26" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lapislazuli;</v>
       </c>
       <c r="AD26" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(24, lapislazuli = v(t("lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(e(ATTACK, 0)), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(24, lapislazuli = v(t("lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
       </c>
       <c r="AE26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5553,17 +5480,14 @@
       <c r="AA27" s="14">
         <v>20</v>
       </c>
-      <c r="AB27" s="15">
-        <f>S27*AA27</f>
-        <v>37.93499668800316</v>
-      </c>
+      <c r="AB27" s="14"/>
       <c r="AC27" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] enderdragon;</v>
       </c>
       <c r="AD27" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(25, enderdragon = v(t("enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(e(ATTACK, 20)), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(25, enderdragon = v(t("enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(e(ATTACK, 20), e(CRAFT, 0)), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
       </c>
       <c r="AE27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5661,17 +5585,16 @@
       <c r="AA28" s="14">
         <v>17</v>
       </c>
-      <c r="AB28" s="15">
-        <f>S28*AA28</f>
-        <v>23.665862036167827</v>
+      <c r="AB28" s="14">
+        <v>6</v>
       </c>
       <c r="AC28" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] witherskeleton;</v>
       </c>
       <c r="AD28" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(26, witherskeleton = v(t("witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(e(ATTACK, 17)), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(26, witherskeleton = v(t("witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(e(ATTACK, 17), e(CRAFT, 6)), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
       </c>
       <c r="AE28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5771,17 +5694,14 @@
       <c r="AA29" s="14">
         <v>25</v>
       </c>
-      <c r="AB29" s="15">
-        <f>S29*AA29</f>
-        <v>41.754395971418468</v>
-      </c>
+      <c r="AB29" s="14"/>
       <c r="AC29" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] wither;</v>
       </c>
       <c r="AD29" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(27, wither = v(t("wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(e(ATTACK, 25)), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(27, wither = v(t("wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(e(ATTACK, 25), e(CRAFT, 0)), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
       </c>
       <c r="AE29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5881,17 +5801,16 @@
       <c r="AA30" s="14">
         <v>8</v>
       </c>
-      <c r="AB30" s="15">
-        <f>S30*AA30</f>
-        <v>9.3178686917476465</v>
+      <c r="AB30" s="14">
+        <v>2</v>
       </c>
       <c r="AC30" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] thunder;</v>
       </c>
       <c r="AD30" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(28, thunder = v(t("thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(e(ATTACK, 8)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(28, thunder = v(t("thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(e(ATTACK, 8), e(CRAFT, 2)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
       </c>
       <c r="AE30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5987,17 +5906,14 @@
       <c r="AA31" s="14">
         <v>1</v>
       </c>
-      <c r="AB31" s="15">
-        <f>S31*AA31</f>
-        <v>0.89502507092797245</v>
-      </c>
+      <c r="AB31" s="14"/>
       <c r="AC31" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] chicken;</v>
       </c>
       <c r="AD31" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(29, chicken = v(t("chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(e(ATTACK, 1)), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(29, chicken = v(t("chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(e(ATTACK, 1), e(CRAFT, 0)), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
       </c>
       <c r="AE31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6093,17 +6009,16 @@
       <c r="AA32" s="14">
         <v>1</v>
       </c>
-      <c r="AB32" s="15">
-        <f>S32*AA32</f>
-        <v>1.0222996853739181</v>
+      <c r="AB32" s="14">
+        <v>13</v>
       </c>
       <c r="AC32" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] furnace;</v>
       </c>
       <c r="AD32" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(30, furnace = v(t("furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(e(ATTACK, 1)), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(30, furnace = v(t("furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(e(ATTACK, 1), e(CRAFT, 13)), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
       </c>
       <c r="AE32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6199,17 +6114,14 @@
         <v>13.876512964514822</v>
       </c>
       <c r="AA33" s="14"/>
-      <c r="AB33" s="15">
-        <f>S33*AA33</f>
-        <v>0</v>
-      </c>
+      <c r="AB33" s="14"/>
       <c r="AC33" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] magentaglazedterracotta;</v>
       </c>
       <c r="AD33" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(31, magentaglazedterracotta = v(t("magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(e(ATTACK, 0)), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(31, magentaglazedterracotta = v(t("magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
       </c>
       <c r="AE33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6303,17 +6215,14 @@
         <v>9.7431988807378982</v>
       </c>
       <c r="AA34" s="14"/>
-      <c r="AB34" s="15">
-        <f>S34*AA34</f>
-        <v>0</v>
-      </c>
+      <c r="AB34" s="14"/>
       <c r="AC34" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] bread;</v>
       </c>
       <c r="AD34" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(32, bread = v(t("bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(e(ATTACK, 0)), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(32, bread = v(t("bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
       </c>
       <c r="AE34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6411,17 +6320,16 @@
         <v>12.730329085149153</v>
       </c>
       <c r="AA35" s="14"/>
-      <c r="AB35" s="15">
-        <f>S35*AA35</f>
-        <v>0</v>
+      <c r="AB35" s="14">
+        <v>1</v>
       </c>
       <c r="AC35" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] daytime;</v>
       </c>
       <c r="AD35" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(33, daytime = v(t("daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(e(ATTACK, 0)), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(33, daytime = v(t("daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(e(ATTACK, 0), e(CRAFT, 1)), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
       </c>
       <c r="AE35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6517,17 +6425,14 @@
         <v>37.975776922293228</v>
       </c>
       <c r="AA36" s="14"/>
-      <c r="AB36" s="15">
-        <f>S36*AA36</f>
-        <v>0</v>
-      </c>
+      <c r="AB36" s="14"/>
       <c r="AC36" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] night;</v>
       </c>
       <c r="AD36" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(34, night = v(t("night", 1, 83, m(0, 7, 10, 0, 7, 26), a(e(ATTACK, 0)), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(34, night = v(t("night", 1, 83, m(0, 7, 10, 0, 7, 26), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
       </c>
       <c r="AE36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6627,17 +6532,14 @@
         <v>11.483326758918889</v>
       </c>
       <c r="AA37" s="14"/>
-      <c r="AB37" s="15">
-        <f>S37*AA37</f>
-        <v>0</v>
-      </c>
+      <c r="AB37" s="14"/>
       <c r="AC37" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] morning;</v>
       </c>
       <c r="AD37" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(35, morning = v(t("morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(e(ATTACK, 0)), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(35, morning = v(t("morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
       </c>
       <c r="AE37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6731,17 +6633,16 @@
         <v>0</v>
       </c>
       <c r="AA38" s="14"/>
-      <c r="AB38" s="15">
-        <f>S38*AA38</f>
-        <v>0</v>
+      <c r="AB38" s="14">
+        <v>1</v>
       </c>
       <c r="AC38" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] fine;</v>
       </c>
       <c r="AD38" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(36, fine = v(t("fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(e(ATTACK, 0)), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(36, fine = v(t("fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(e(ATTACK, 0), e(CRAFT, 1)), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
       </c>
       <c r="AE38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6835,17 +6736,14 @@
       <c r="AA39" s="14">
         <v>1</v>
       </c>
-      <c r="AB39" s="15">
-        <f>S39*AA39</f>
-        <v>1.0594630943592951</v>
-      </c>
+      <c r="AB39" s="14"/>
       <c r="AC39" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] rain;</v>
       </c>
       <c r="AD39" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(37, rain = v(t("rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(e(ATTACK, 1)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(37, rain = v(t("rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(e(ATTACK, 1), e(CRAFT, 0)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
       </c>
       <c r="AE39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6939,17 +6837,14 @@
         <v>23.055964085801453</v>
       </c>
       <c r="AA40" s="14"/>
-      <c r="AB40" s="15">
-        <f>S40*AA40</f>
-        <v>0</v>
-      </c>
+      <c r="AB40" s="14"/>
       <c r="AC40" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] plains;</v>
       </c>
       <c r="AD40" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(38, plains = v(t("plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(e(ATTACK, 0)), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(38, plains = v(t("plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
       </c>
       <c r="AE40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -7047,17 +6942,14 @@
       <c r="AA41" s="14">
         <v>1</v>
       </c>
-      <c r="AB41" s="15">
-        <f>S41*AA41</f>
-        <v>1.0717734625362931</v>
-      </c>
+      <c r="AB41" s="14"/>
       <c r="AC41" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] forest;</v>
       </c>
       <c r="AD41" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e("&amp;テーブル1[[#Headers],[ATTACK]]&amp;", "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(39, forest = v(t("forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(e(ATTACK, 1)), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(39, forest = v(t("forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(e(ATTACK, 1), e(CRAFT, 0)), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
       </c>
       <c r="AE41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>

--- a/FairyList.xlsx
+++ b/FairyList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\MirageFairyMod-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A665242-2B17-40E4-9843-091882DBA40E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD1391C-F13F-4723-BEE1-542F178613BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="466">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1789,6 +1789,10 @@
   </si>
   <si>
     <t>CRAFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIGHT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1930,7 +1934,27 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1957,16 +1981,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
@@ -2285,87 +2299,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AG41" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:AG41" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AH41" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:AH41" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH41">
     <sortCondition ref="A1:A41"/>
   </sortState>
-  <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="37"/>
-    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="33"/>
-    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="12"/>
-    <tableColumn id="43" xr3:uid="{F9A89BF2-14D8-4F19-A026-A4FBD2302B39}" name="ポエム" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{592C3106-789F-46C6-84E7-D4D3A1566511}" name="基礎Fire" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{B7A1B9A3-3658-4251-9488-C7EB28DDA828}" name="基礎Wind" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{53D9BDAB-CC6B-4E70-8605-30718A287EC4}" name="基礎Gaia" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{EB888AF3-8815-48CE-A95E-C5931929A1AC}" name="基礎Aqua" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{68F80D1D-DFED-4D2F-92EF-7D17590D4A36}" name="基礎Dark" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{D846AE64-655F-4052-B5F1-3F4B9699D0FA}" name="レア度倍率" dataDxfId="24">
+  <tableColumns count="34">
+    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="38"/>
+    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="34"/>
+    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="13"/>
+    <tableColumn id="43" xr3:uid="{F9A89BF2-14D8-4F19-A026-A4FBD2302B39}" name="ポエム" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{592C3106-789F-46C6-84E7-D4D3A1566511}" name="基礎Fire" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{B7A1B9A3-3658-4251-9488-C7EB28DDA828}" name="基礎Wind" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{53D9BDAB-CC6B-4E70-8605-30718A287EC4}" name="基礎Gaia" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{EB888AF3-8815-48CE-A95E-C5931929A1AC}" name="基礎Aqua" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{68F80D1D-DFED-4D2F-92EF-7D17590D4A36}" name="基礎Dark" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{D846AE64-655F-4052-B5F1-3F4B9699D0FA}" name="レア度倍率" dataDxfId="25">
       <calculatedColumnFormula>2^((テーブル1[[#This Row],[レア]]-1)/4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{833C82E7-E230-4A58-9D49-6C1CDD4BBDAD}" name="分散度倍率　" dataDxfId="23">
+    <tableColumn id="11" xr3:uid="{833C82E7-E230-4A58-9D49-6C1CDD4BBDAD}" name="分散度倍率　" dataDxfId="24">
       <calculatedColumnFormula>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K2:P2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{434606B6-C04F-47DC-9277-0797C7617151}" name="効率" dataDxfId="22">
+    <tableColumn id="22" xr3:uid="{434606B6-C04F-47DC-9277-0797C7617151}" name="効率" dataDxfId="23">
       <calculatedColumnFormula>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B031CBD1-7BDB-4552-BC58-A8FCCA491403}" name="合計値" dataDxfId="21">
+    <tableColumn id="15" xr3:uid="{B031CBD1-7BDB-4552-BC58-A8FCCA491403}" name="合計値" dataDxfId="22">
       <calculatedColumnFormula>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{FCD4377E-4837-4BD9-8716-12CB589EDF74}" name="Shine" dataDxfId="20">
+    <tableColumn id="16" xr3:uid="{FCD4377E-4837-4BD9-8716-12CB589EDF74}" name="Shine" dataDxfId="21">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{192E8193-ED35-4778-87AC-0C1CF273DBF9}" name="Fire" dataDxfId="19">
+    <tableColumn id="17" xr3:uid="{192E8193-ED35-4778-87AC-0C1CF273DBF9}" name="Fire" dataDxfId="20">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{FDD6FC8F-4CBF-4964-A0D2-682E72230537}" name="Wind" dataDxfId="18">
+    <tableColumn id="18" xr3:uid="{FDD6FC8F-4CBF-4964-A0D2-682E72230537}" name="Wind" dataDxfId="19">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DE083808-871E-4527-B7C9-FF57A44BDF23}" name="Gaia" dataDxfId="17">
+    <tableColumn id="19" xr3:uid="{DE083808-871E-4527-B7C9-FF57A44BDF23}" name="Gaia" dataDxfId="18">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{EEDF52F6-D7AB-4A1B-B203-856E8CD45BA9}" name="Aqua" dataDxfId="16">
+    <tableColumn id="20" xr3:uid="{EEDF52F6-D7AB-4A1B-B203-856E8CD45BA9}" name="Aqua" dataDxfId="17">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{61A17369-9D3E-4EE3-B6BB-316F47062244}" name="Dark" dataDxfId="7">
+    <tableColumn id="21" xr3:uid="{61A17369-9D3E-4EE3-B6BB-316F47062244}" name="Dark" dataDxfId="8">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{FF31EB97-6C72-4B4F-9C7D-7FE5546BDC56}" name="ATTACK" dataDxfId="4"/>
-    <tableColumn id="44" xr3:uid="{D91E944B-F524-4F9B-9D06-B8EE217F8C86}" name="CRAFT" dataDxfId="1"/>
-    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="3">
+    <tableColumn id="40" xr3:uid="{FF31EB97-6C72-4B4F-9C7D-7FE5546BDC56}" name="ATTACK" dataDxfId="5"/>
+    <tableColumn id="44" xr3:uid="{D91E944B-F524-4F9B-9D06-B8EE217F8C86}" name="CRAFT" dataDxfId="3"/>
+    <tableColumn id="46" xr3:uid="{ECCD46C1-F4EB-408C-AEB7-098E1A6BA65B}" name="LIGHT" dataDxfId="0"/>
+    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="1">
       <calculatedColumnFormula>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="0">
+    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="2">
       <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="14">
+    <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="15">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{87187A24-E0A4-40E3-9C23-0138D3146A81}" name="Code和名" dataDxfId="13">
+    <tableColumn id="38" xr3:uid="{87187A24-E0A4-40E3-9C23-0138D3146A81}" name="Code和名" dataDxfId="14">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{31C7AE9B-B5DC-4E21-92DA-CEDB482AF38B}" name="Code5" dataDxfId="6"/>
+    <tableColumn id="41" xr3:uid="{31C7AE9B-B5DC-4E21-92DA-CEDB482AF38B}" name="Code5" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C62C1D26-960A-48CC-8F29-5C012BAB8C70}" name="テーブル2" displayName="テーブル2" ref="A1:B69" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C62C1D26-960A-48CC-8F29-5C012BAB8C70}" name="テーブル2" displayName="テーブル2" ref="A1:B69" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:B69" xr:uid="{FEC50A1C-B428-4AD7-9BA5-4DA035F73E38}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A69">
     <sortCondition ref="A1:A69"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7E14A5CD-7281-42C1-93CF-8BD7C74666AC}" name="name" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{60E9BA99-755B-467A-9053-1708ABE43FE6}" name="列1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{7E14A5CD-7281-42C1-93CF-8BD7C74666AC}" name="name" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{60E9BA99-755B-467A-9053-1708ABE43FE6}" name="列1" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2389,7 +2404,7 @@
     <tableColumn id="8" xr3:uid="{C37B4482-84AD-481D-914C-03A51BD0F6FA}" name="列8">
       <calculatedColumnFormula>F2*G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B2463834-F42F-4CD7-BEC9-B542CC83738A}" name="列9" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{B2463834-F42F-4CD7-BEC9-B542CC83738A}" name="列9" dataDxfId="6">
       <calculatedColumnFormula>"ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes."&amp;C2&amp;"[0].createItemStack(), "&amp;H2&amp;"));"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2660,13 +2675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0BFE0B-651F-45A6-A399-6D829AC20A31}">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD2" sqref="AD2:AD41"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2680,15 +2695,15 @@
     <col min="17" max="19" width="4" style="1" customWidth="1"/>
     <col min="20" max="20" width="4.75" style="1" customWidth="1"/>
     <col min="21" max="26" width="4" style="1" customWidth="1"/>
-    <col min="27" max="28" width="2.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.75" style="1" customWidth="1"/>
-    <col min="30" max="30" width="44.75" style="1" customWidth="1"/>
-    <col min="31" max="32" width="12.75" style="1" customWidth="1"/>
-    <col min="33" max="33" width="25.875" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="1"/>
+    <col min="27" max="29" width="2.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.75" style="1" customWidth="1"/>
+    <col min="31" max="31" width="44.75" style="1" customWidth="1"/>
+    <col min="32" max="33" width="12.75" style="1" customWidth="1"/>
+    <col min="34" max="34" width="25.875" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2774,22 +2789,25 @@
         <v>464</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2872,25 +2890,26 @@
       </c>
       <c r="AA2" s="14"/>
       <c r="AB2" s="14"/>
-      <c r="AC2" s="13" t="str">
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] air;</v>
       </c>
-      <c r="AD2" s="13" t="str">
+      <c r="AE2" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(0, air = v(t("air", 1, 15, m(1, 0, 10, 0, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
       </c>
-      <c r="AE2" s="13" t="str">
+      <c r="AF2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.air.name=Airia</v>
       </c>
-      <c r="AF2" s="13" t="str">
+      <c r="AG2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.air.name=アイリャ</v>
       </c>
-      <c r="AG2" s="13"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH2" s="13"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2977,25 +2996,26 @@
         <v>4</v>
       </c>
       <c r="AB3" s="14"/>
-      <c r="AC3" s="13" t="str">
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] water;</v>
       </c>
-      <c r="AD3" s="13" t="str">
+      <c r="AE3" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(1, water = v(t("water", 1, 50, m(0, 0, 0, 1, 10, 6), a(e(ATTACK, 4), e(CRAFT, 0)), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
       </c>
-      <c r="AE3" s="13" t="str">
+      <c r="AF3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.water.name=Wateria</v>
       </c>
-      <c r="AF3" s="13" t="str">
+      <c r="AG3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.water.name=ワテーリャ</v>
       </c>
-      <c r="AG3" s="13"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH3" s="13"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3082,25 +3102,28 @@
       <c r="AB4" s="14">
         <v>4</v>
       </c>
-      <c r="AC4" s="13" t="str">
+      <c r="AC4" s="14">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] fire;</v>
       </c>
-      <c r="AD4" s="13" t="str">
+      <c r="AE4" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(2, fire = v(t("fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(e(ATTACK, 9), e(CRAFT, 4)), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
       </c>
-      <c r="AE4" s="13" t="str">
+      <c r="AF4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.fire.name=Firia</v>
       </c>
-      <c r="AF4" s="13" t="str">
+      <c r="AG4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.fire.name=フィーリャ</v>
       </c>
-      <c r="AG4" s="13"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH4" s="13"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3193,25 +3216,28 @@
       <c r="AB5" s="14">
         <v>2</v>
       </c>
-      <c r="AC5" s="13" t="str">
+      <c r="AC5" s="14">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] sun;</v>
       </c>
-      <c r="AD5" s="13" t="str">
+      <c r="AE5" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(3, sun = v(t("sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(e(ATTACK, 5), e(CRAFT, 2)), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
       </c>
-      <c r="AE5" s="13" t="str">
+      <c r="AF5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.sun.name=Sunia</v>
       </c>
-      <c r="AF5" s="13" t="str">
+      <c r="AG5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.sun.name=スーニャ</v>
       </c>
-      <c r="AG5" s="13"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH5" s="13"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3298,25 +3324,26 @@
       <c r="AB6" s="14">
         <v>1</v>
       </c>
-      <c r="AC6" s="13" t="str">
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] stone;</v>
       </c>
-      <c r="AD6" s="13" t="str">
+      <c r="AE6" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(4, stone = v(t("stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(e(ATTACK, 6), e(CRAFT, 1)), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
       </c>
-      <c r="AE6" s="13" t="str">
+      <c r="AF6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.stone.name=Stonia</v>
       </c>
-      <c r="AF6" s="13" t="str">
+      <c r="AG6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.stone.name=ストーニャ</v>
       </c>
-      <c r="AG6" s="13"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH6" s="13"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3399,25 +3426,26 @@
       </c>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
-      <c r="AC7" s="13" t="str">
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] dirt;</v>
       </c>
-      <c r="AD7" s="13" t="str">
+      <c r="AE7" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(5, dirt = v(t("dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
       </c>
-      <c r="AE7" s="13" t="str">
+      <c r="AF7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.dirt.name=Dirtia</v>
       </c>
-      <c r="AF7" s="13" t="str">
+      <c r="AG7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.dirt.name=ディルチャ</v>
       </c>
-      <c r="AG7" s="13"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH7" s="13"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -3502,25 +3530,28 @@
       </c>
       <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
-      <c r="AC8" s="13" t="str">
+      <c r="AC8" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] iron;</v>
       </c>
-      <c r="AD8" s="13" t="str">
+      <c r="AE8" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(6, iron = v(t("iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
       </c>
-      <c r="AE8" s="13" t="str">
+      <c r="AF8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.iron.name=Ironia</v>
       </c>
-      <c r="AF8" s="13" t="str">
+      <c r="AG8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.iron.name=イローニャ</v>
       </c>
-      <c r="AG8" s="13"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH8" s="13"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -3605,25 +3636,28 @@
       </c>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
-      <c r="AC9" s="13" t="str">
+      <c r="AC9" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] diamond;</v>
       </c>
-      <c r="AD9" s="13" t="str">
+      <c r="AE9" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(7, diamond = v(t("diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
       </c>
-      <c r="AE9" s="13" t="str">
+      <c r="AF9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.diamond.name=Diamondia</v>
       </c>
-      <c r="AF9" s="13" t="str">
+      <c r="AG9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
       </c>
-      <c r="AG9" s="13"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH9" s="13"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -3710,25 +3744,28 @@
       </c>
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="13" t="str">
+      <c r="AC10" s="14">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] redstone;</v>
       </c>
-      <c r="AD10" s="13" t="str">
+      <c r="AE10" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(8, redstone = v(t("redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
       </c>
-      <c r="AE10" s="13" t="str">
+      <c r="AF10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.redstone.name=Redstonia</v>
       </c>
-      <c r="AF10" s="13" t="str">
+      <c r="AG10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.redstone.name=レドストーニャ</v>
       </c>
-      <c r="AG10" s="13"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH10" s="13"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -3819,25 +3856,28 @@
       <c r="AB11" s="14">
         <v>7</v>
       </c>
-      <c r="AC11" s="13" t="str">
+      <c r="AC11" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] enderman;</v>
       </c>
-      <c r="AD11" s="13" t="str">
+      <c r="AE11" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(9, enderman = v(t("enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(e(ATTACK, 11), e(CRAFT, 7)), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
       </c>
-      <c r="AE11" s="13" t="str">
+      <c r="AF11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.enderman.name=Endermania</v>
       </c>
-      <c r="AF11" s="13" t="str">
+      <c r="AG11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
       </c>
-      <c r="AG11" s="13"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH11" s="13"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -3928,25 +3968,28 @@
       </c>
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
-      <c r="AC12" s="13" t="str">
+      <c r="AC12" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] moon;</v>
       </c>
-      <c r="AD12" s="13" t="str">
+      <c r="AE12" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(10, moon = v(t("moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
       </c>
-      <c r="AE12" s="13" t="str">
+      <c r="AF12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.moon.name=Moonia</v>
       </c>
-      <c r="AF12" s="13" t="str">
+      <c r="AG12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.moon.name=モーニャ</v>
       </c>
-      <c r="AG12" s="13"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH12" s="13"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -4033,25 +4076,26 @@
       <c r="AB13" s="14">
         <v>1</v>
       </c>
-      <c r="AC13" s="13" t="str">
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] sand;</v>
       </c>
-      <c r="AD13" s="13" t="str">
+      <c r="AE13" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(11, sand = v(t("sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(e(ATTACK, 2), e(CRAFT, 1)), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
       </c>
-      <c r="AE13" s="13" t="str">
+      <c r="AF13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.sand.name=Sandia</v>
       </c>
-      <c r="AF13" s="13" t="str">
+      <c r="AG13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.sand.name=サンジャ</v>
       </c>
-      <c r="AG13" s="13"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH13" s="13"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -4134,25 +4178,28 @@
       </c>
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
-      <c r="AC14" s="13" t="str">
+      <c r="AC14" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] gold;</v>
       </c>
-      <c r="AD14" s="13" t="str">
+      <c r="AE14" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(12, gold = v(t("gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
       </c>
-      <c r="AE14" s="13" t="str">
+      <c r="AF14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.gold.name=Goldia</v>
       </c>
-      <c r="AF14" s="13" t="str">
+      <c r="AG14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.gold.name=ゴルジャ</v>
       </c>
-      <c r="AG14" s="13"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH14" s="13"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -4235,25 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AB15" s="14"/>
-      <c r="AC15" s="13" t="str">
+      <c r="AC15" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] spider;</v>
       </c>
-      <c r="AD15" s="13" t="str">
+      <c r="AE15" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(13, spider = v(t("spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(e(ATTACK, 10), e(CRAFT, 0)), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
       </c>
-      <c r="AE15" s="13" t="str">
+      <c r="AF15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.spider.name=Spideria</v>
       </c>
-      <c r="AF15" s="13" t="str">
+      <c r="AG15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.spider.name=スピデーリャ</v>
       </c>
-      <c r="AG15" s="13"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH15" s="13"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -4342,25 +4392,26 @@
       <c r="AB16" s="14">
         <v>5</v>
       </c>
-      <c r="AC16" s="13" t="str">
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] skeleton;</v>
       </c>
-      <c r="AD16" s="13" t="str">
+      <c r="AE16" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(14, skeleton = v(t("skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(e(ATTACK, 12), e(CRAFT, 5)), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
       </c>
-      <c r="AE16" s="13" t="str">
+      <c r="AF16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.skeleton.name=Skeletonia</v>
       </c>
-      <c r="AF16" s="13" t="str">
+      <c r="AG16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
       </c>
-      <c r="AG16" s="13"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH16" s="13"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -4447,25 +4498,26 @@
         <v>13</v>
       </c>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="13" t="str">
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] zombie;</v>
       </c>
-      <c r="AD17" s="13" t="str">
+      <c r="AE17" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(15, zombie = v(t("zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(e(ATTACK, 13), e(CRAFT, 0)), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
       </c>
-      <c r="AE17" s="13" t="str">
+      <c r="AF17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.zombie.name=Zombia</v>
       </c>
-      <c r="AF17" s="13" t="str">
+      <c r="AG17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.zombie.name=ゾンビャ</v>
       </c>
-      <c r="AG17" s="13"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH17" s="13"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -4552,25 +4604,28 @@
         <v>10</v>
       </c>
       <c r="AB18" s="14"/>
-      <c r="AC18" s="13" t="str">
+      <c r="AC18" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] creeper;</v>
       </c>
-      <c r="AD18" s="13" t="str">
+      <c r="AE18" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(16, creeper = v(t("creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(e(ATTACK, 10), e(CRAFT, 0)), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
       </c>
-      <c r="AE18" s="13" t="str">
+      <c r="AF18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.creeper.name=Creeperia</v>
       </c>
-      <c r="AF18" s="13" t="str">
+      <c r="AG18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.creeper.name=クレペーリャ</v>
       </c>
-      <c r="AG18" s="13"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH18" s="13"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -4651,25 +4706,26 @@
       </c>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
-      <c r="AC19" s="13" t="str">
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] wheat;</v>
       </c>
-      <c r="AD19" s="13" t="str">
+      <c r="AE19" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(17, wheat = v(t("wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
       </c>
-      <c r="AE19" s="13" t="str">
+      <c r="AF19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.wheat.name=Wheatia</v>
       </c>
-      <c r="AF19" s="13" t="str">
+      <c r="AG19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.wheat.name=ウェアーチャ</v>
       </c>
-      <c r="AG19" s="13"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH19" s="13"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -4752,25 +4808,26 @@
       </c>
       <c r="AA20" s="14"/>
       <c r="AB20" s="14"/>
-      <c r="AC20" s="13" t="str">
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lilac;</v>
       </c>
-      <c r="AD20" s="13" t="str">
+      <c r="AE20" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(18, lilac = v(t("lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
       </c>
-      <c r="AE20" s="13" t="str">
+      <c r="AF20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.lilac.name=Lilacia</v>
       </c>
-      <c r="AF20" s="13" t="str">
+      <c r="AG20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.lilac.name=リラーキャ</v>
       </c>
-      <c r="AG20" s="13"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH20" s="13"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -4859,25 +4916,28 @@
         <v>1</v>
       </c>
       <c r="AB21" s="14"/>
-      <c r="AC21" s="13" t="str">
+      <c r="AC21" s="14">
+        <v>12</v>
+      </c>
+      <c r="AD21" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] torch;</v>
       </c>
-      <c r="AD21" s="13" t="str">
+      <c r="AE21" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(19, torch = v(t("torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(e(ATTACK, 1), e(CRAFT, 0)), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
       </c>
-      <c r="AE21" s="13" t="str">
+      <c r="AF21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.torch.name=Torchia</v>
       </c>
-      <c r="AF21" s="13" t="str">
+      <c r="AG21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.torch.name=トルキャ</v>
       </c>
-      <c r="AG21" s="13"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH21" s="13"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -4964,25 +5024,28 @@
       <c r="AB22" s="14">
         <v>3</v>
       </c>
-      <c r="AC22" s="13" t="str">
+      <c r="AC22" s="14">
+        <v>15</v>
+      </c>
+      <c r="AD22" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lava;</v>
       </c>
-      <c r="AD22" s="13" t="str">
+      <c r="AE22" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(20, lava = v(t("lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(e(ATTACK, 7), e(CRAFT, 3)), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
       </c>
-      <c r="AE22" s="13" t="str">
+      <c r="AF22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.lava.name=Lavia</v>
       </c>
-      <c r="AF22" s="13" t="str">
+      <c r="AG22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.lava.name=ラービャ</v>
       </c>
-      <c r="AG22" s="13"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH22" s="13"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -5071,25 +5134,28 @@
       </c>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="13" t="str">
+      <c r="AC23" s="14">
+        <v>7</v>
+      </c>
+      <c r="AD23" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] star;</v>
       </c>
-      <c r="AD23" s="13" t="str">
+      <c r="AE23" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(21, star = v(t("star", 4, 98, m(10, 16, 16, 9, 9, 38), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
       </c>
-      <c r="AE23" s="13" t="str">
+      <c r="AF23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.star.name=Staria</v>
       </c>
-      <c r="AF23" s="13" t="str">
+      <c r="AG23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.star.name=スターリャ</v>
       </c>
-      <c r="AG23" s="13"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH23" s="13"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -5172,25 +5238,26 @@
         <v>3</v>
       </c>
       <c r="AB24" s="14"/>
-      <c r="AC24" s="13" t="str">
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] gravel;</v>
       </c>
-      <c r="AD24" s="13" t="str">
+      <c r="AE24" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(22, gravel = v(t("gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(e(ATTACK, 3), e(CRAFT, 0)), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
       </c>
-      <c r="AE24" s="13" t="str">
+      <c r="AF24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.gravel.name=Gravelia</v>
       </c>
-      <c r="AF24" s="13" t="str">
+      <c r="AG24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.gravel.name=グラベーリャ</v>
       </c>
-      <c r="AG24" s="13"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH24" s="13"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -5275,25 +5342,28 @@
       </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="13" t="str">
+      <c r="AC25" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] emerald;</v>
       </c>
-      <c r="AD25" s="13" t="str">
+      <c r="AE25" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(23, emerald = v(t("emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
       </c>
-      <c r="AE25" s="13" t="str">
+      <c r="AF25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.emerald.name=Emeraldia</v>
       </c>
-      <c r="AF25" s="13" t="str">
+      <c r="AG25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.emerald.name=エメラルジャ</v>
       </c>
-      <c r="AG25" s="13"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH25" s="13"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -5378,25 +5448,26 @@
       </c>
       <c r="AA26" s="14"/>
       <c r="AB26" s="14"/>
-      <c r="AC26" s="13" t="str">
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lapislazuli;</v>
       </c>
-      <c r="AD26" s="13" t="str">
+      <c r="AE26" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(24, lapislazuli = v(t("lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
       </c>
-      <c r="AE26" s="13" t="str">
+      <c r="AF26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
       </c>
-      <c r="AF26" s="13" t="str">
+      <c r="AG26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
       </c>
-      <c r="AG26" s="13"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH26" s="13"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5481,25 +5552,28 @@
         <v>20</v>
       </c>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="13" t="str">
+      <c r="AC27" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] enderdragon;</v>
       </c>
-      <c r="AD27" s="13" t="str">
+      <c r="AE27" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(25, enderdragon = v(t("enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(e(ATTACK, 20), e(CRAFT, 0)), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
       </c>
-      <c r="AE27" s="13" t="str">
+      <c r="AF27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
       </c>
-      <c r="AF27" s="13" t="str">
+      <c r="AG27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
       </c>
-      <c r="AG27" s="13"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH27" s="13"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -5588,25 +5662,26 @@
       <c r="AB28" s="14">
         <v>6</v>
       </c>
-      <c r="AC28" s="13" t="str">
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] witherskeleton;</v>
       </c>
-      <c r="AD28" s="13" t="str">
+      <c r="AE28" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(26, witherskeleton = v(t("witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(e(ATTACK, 17), e(CRAFT, 6)), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
       </c>
-      <c r="AE28" s="13" t="str">
+      <c r="AF28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
       </c>
-      <c r="AF28" s="13" t="str">
+      <c r="AG28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
       </c>
-      <c r="AG28" s="13"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH28" s="13"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -5695,25 +5770,28 @@
         <v>25</v>
       </c>
       <c r="AB29" s="14"/>
-      <c r="AC29" s="13" t="str">
+      <c r="AC29" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] wither;</v>
       </c>
-      <c r="AD29" s="13" t="str">
+      <c r="AE29" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(27, wither = v(t("wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(e(ATTACK, 25), e(CRAFT, 0)), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
       </c>
-      <c r="AE29" s="13" t="str">
+      <c r="AF29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.wither.name=Witheria</v>
       </c>
-      <c r="AF29" s="13" t="str">
+      <c r="AG29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.wither.name=ウィテーリャ</v>
       </c>
-      <c r="AG29" s="13"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH29" s="13"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -5804,25 +5882,28 @@
       <c r="AB30" s="14">
         <v>2</v>
       </c>
-      <c r="AC30" s="13" t="str">
+      <c r="AC30" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD30" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] thunder;</v>
       </c>
-      <c r="AD30" s="13" t="str">
+      <c r="AE30" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(28, thunder = v(t("thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(e(ATTACK, 8), e(CRAFT, 2)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
       </c>
-      <c r="AE30" s="13" t="str">
+      <c r="AF30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.thunder.name=Thunderia</v>
       </c>
-      <c r="AF30" s="13" t="str">
+      <c r="AG30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.thunder.name=ツンデーリャ</v>
       </c>
-      <c r="AG30" s="13"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH30" s="13"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -5907,25 +5988,26 @@
         <v>1</v>
       </c>
       <c r="AB31" s="14"/>
-      <c r="AC31" s="13" t="str">
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] chicken;</v>
       </c>
-      <c r="AD31" s="13" t="str">
+      <c r="AE31" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(29, chicken = v(t("chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(e(ATTACK, 1), e(CRAFT, 0)), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
       </c>
-      <c r="AE31" s="13" t="str">
+      <c r="AF31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.chicken.name=Chickenia</v>
       </c>
-      <c r="AF31" s="13" t="str">
+      <c r="AG31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.chicken.name=チッケーニャ</v>
       </c>
-      <c r="AG31" s="13"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH31" s="13"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6012,25 +6094,28 @@
       <c r="AB32" s="14">
         <v>13</v>
       </c>
-      <c r="AC32" s="13" t="str">
+      <c r="AC32" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD32" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] furnace;</v>
       </c>
-      <c r="AD32" s="13" t="str">
+      <c r="AE32" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(30, furnace = v(t("furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(e(ATTACK, 1), e(CRAFT, 13)), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
       </c>
-      <c r="AE32" s="13" t="str">
+      <c r="AF32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.furnace.name=Furnacia</v>
       </c>
-      <c r="AF32" s="13" t="str">
+      <c r="AG32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.furnace.name=フルナーキャ</v>
       </c>
-      <c r="AG32" s="13"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH32" s="13"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -6115,25 +6200,26 @@
       </c>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
-      <c r="AC33" s="13" t="str">
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] magentaglazedterracotta;</v>
       </c>
-      <c r="AD33" s="13" t="str">
+      <c r="AE33" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(31, magentaglazedterracotta = v(t("magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
       </c>
-      <c r="AE33" s="13" t="str">
+      <c r="AF33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.magentaglazedterracotta.name=Magenteglazedeterracottia</v>
       </c>
-      <c r="AF33" s="13" t="str">
+      <c r="AG33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.magentaglazedterracotta.name=マゲンテグラゼデテッラコッチャ</v>
       </c>
-      <c r="AG33" s="13"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH33" s="13"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -6216,25 +6302,26 @@
       </c>
       <c r="AA34" s="14"/>
       <c r="AB34" s="14"/>
-      <c r="AC34" s="13" t="str">
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] bread;</v>
       </c>
-      <c r="AD34" s="13" t="str">
+      <c r="AE34" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(32, bread = v(t("bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
       </c>
-      <c r="AE34" s="13" t="str">
+      <c r="AF34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.bread.name=Breadia</v>
       </c>
-      <c r="AF34" s="13" t="str">
+      <c r="AG34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.bread.name=ブレアージャ</v>
       </c>
-      <c r="AG34" s="13"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH34" s="13"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -6323,25 +6410,28 @@
       <c r="AB35" s="14">
         <v>1</v>
       </c>
-      <c r="AC35" s="13" t="str">
+      <c r="AC35" s="14">
+        <v>11</v>
+      </c>
+      <c r="AD35" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] daytime;</v>
       </c>
-      <c r="AD35" s="13" t="str">
+      <c r="AE35" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(33, daytime = v(t("daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(e(ATTACK, 0), e(CRAFT, 1)), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
       </c>
-      <c r="AE35" s="13" t="str">
+      <c r="AF35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.daytime.name=Daytimia</v>
       </c>
-      <c r="AF35" s="13" t="str">
+      <c r="AG35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.daytime.name=ダイティーミャ</v>
       </c>
-      <c r="AG35" s="13"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH35" s="13"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -6426,25 +6516,28 @@
       </c>
       <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
-      <c r="AC36" s="13" t="str">
+      <c r="AC36" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD36" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] night;</v>
       </c>
-      <c r="AD36" s="13" t="str">
+      <c r="AE36" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(34, night = v(t("night", 1, 83, m(0, 7, 10, 0, 7, 26), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
       </c>
-      <c r="AE36" s="13" t="str">
+      <c r="AF36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.night.name=Nightia</v>
       </c>
-      <c r="AF36" s="13" t="str">
+      <c r="AG36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.night.name=ニグチャ</v>
       </c>
-      <c r="AG36" s="13"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH36" s="13"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -6533,25 +6626,28 @@
       </c>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
-      <c r="AC37" s="13" t="str">
+      <c r="AC37" s="14">
+        <v>9</v>
+      </c>
+      <c r="AD37" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] morning;</v>
       </c>
-      <c r="AD37" s="13" t="str">
+      <c r="AE37" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(35, morning = v(t("morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
       </c>
-      <c r="AE37" s="13" t="str">
+      <c r="AF37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.morning.name=Morningia</v>
       </c>
-      <c r="AF37" s="13" t="str">
+      <c r="AG37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.morning.name=モルニンギャ</v>
       </c>
-      <c r="AG37" s="13"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH37" s="13"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -6636,25 +6732,28 @@
       <c r="AB38" s="14">
         <v>1</v>
       </c>
-      <c r="AC38" s="13" t="str">
+      <c r="AC38" s="14">
+        <v>16</v>
+      </c>
+      <c r="AD38" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] fine;</v>
       </c>
-      <c r="AD38" s="13" t="str">
+      <c r="AE38" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(36, fine = v(t("fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(e(ATTACK, 0), e(CRAFT, 1)), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
       </c>
-      <c r="AE38" s="13" t="str">
+      <c r="AF38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.fine.name=Finia</v>
       </c>
-      <c r="AF38" s="13" t="str">
+      <c r="AG38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.fine.name=フィーニャ</v>
       </c>
-      <c r="AG38" s="13"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH38" s="13"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -6737,25 +6836,28 @@
         <v>1</v>
       </c>
       <c r="AB39" s="14"/>
-      <c r="AC39" s="13" t="str">
+      <c r="AC39" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD39" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] rain;</v>
       </c>
-      <c r="AD39" s="13" t="str">
+      <c r="AE39" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(37, rain = v(t("rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(e(ATTACK, 1), e(CRAFT, 0)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
       </c>
-      <c r="AE39" s="13" t="str">
+      <c r="AF39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.rain.name=Rainia</v>
       </c>
-      <c r="AF39" s="13" t="str">
+      <c r="AG39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.rain.name=ライニャ</v>
       </c>
-      <c r="AG39" s="13"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH39" s="13"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -6838,25 +6940,26 @@
       </c>
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
-      <c r="AC40" s="13" t="str">
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] plains;</v>
       </c>
-      <c r="AD40" s="13" t="str">
+      <c r="AE40" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(38, plains = v(t("plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
       </c>
-      <c r="AE40" s="13" t="str">
+      <c r="AF40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.plains.name=Plainsia</v>
       </c>
-      <c r="AF40" s="13" t="str">
+      <c r="AG40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.plains.name=プラインシャ</v>
       </c>
-      <c r="AG40" s="13"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH40" s="13"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -6943,23 +7046,24 @@
         <v>1</v>
       </c>
       <c r="AB41" s="14"/>
-      <c r="AC41" s="13" t="str">
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] forest;</v>
       </c>
-      <c r="AD41" s="13" t="str">
+      <c r="AE41" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(39, forest = v(t("forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(e(ATTACK, 1), e(CRAFT, 0)), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
       </c>
-      <c r="AE41" s="13" t="str">
+      <c r="AF41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.forest.name=Forestia</v>
       </c>
-      <c r="AF41" s="13" t="str">
+      <c r="AG41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.forest.name=フォレスチャ</v>
       </c>
-      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/FairyList.xlsx
+++ b/FairyList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\MirageFairyMod-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD1391C-F13F-4723-BEE1-542F178613BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F10F4-EF55-4D9C-8464-97022B5C5A0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="469">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1793,6 +1793,18 @@
   </si>
   <si>
     <t>LIGHT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FELL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WATER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FLAME</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1934,7 +1946,17 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="44">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1950,7 +1972,27 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
@@ -2299,88 +2341,91 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AH41" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:AH41" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AK41" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:AK41" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK41">
     <sortCondition ref="A1:A41"/>
   </sortState>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="38"/>
-    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="34"/>
-    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="13"/>
-    <tableColumn id="43" xr3:uid="{F9A89BF2-14D8-4F19-A026-A4FBD2302B39}" name="ポエム" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{592C3106-789F-46C6-84E7-D4D3A1566511}" name="基礎Fire" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{B7A1B9A3-3658-4251-9488-C7EB28DDA828}" name="基礎Wind" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{53D9BDAB-CC6B-4E70-8605-30718A287EC4}" name="基礎Gaia" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{EB888AF3-8815-48CE-A95E-C5931929A1AC}" name="基礎Aqua" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{68F80D1D-DFED-4D2F-92EF-7D17590D4A36}" name="基礎Dark" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{D846AE64-655F-4052-B5F1-3F4B9699D0FA}" name="レア度倍率" dataDxfId="25">
+  <tableColumns count="37">
+    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="41"/>
+    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="19"/>
+    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="37"/>
+    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="16"/>
+    <tableColumn id="43" xr3:uid="{F9A89BF2-14D8-4F19-A026-A4FBD2302B39}" name="ポエム" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{592C3106-789F-46C6-84E7-D4D3A1566511}" name="基礎Fire" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{B7A1B9A3-3658-4251-9488-C7EB28DDA828}" name="基礎Wind" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{53D9BDAB-CC6B-4E70-8605-30718A287EC4}" name="基礎Gaia" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{EB888AF3-8815-48CE-A95E-C5931929A1AC}" name="基礎Aqua" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{68F80D1D-DFED-4D2F-92EF-7D17590D4A36}" name="基礎Dark" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{D846AE64-655F-4052-B5F1-3F4B9699D0FA}" name="レア度倍率" dataDxfId="28">
       <calculatedColumnFormula>2^((テーブル1[[#This Row],[レア]]-1)/4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{833C82E7-E230-4A58-9D49-6C1CDD4BBDAD}" name="分散度倍率　" dataDxfId="24">
+    <tableColumn id="11" xr3:uid="{833C82E7-E230-4A58-9D49-6C1CDD4BBDAD}" name="分散度倍率　" dataDxfId="27">
       <calculatedColumnFormula>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K2:P2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{434606B6-C04F-47DC-9277-0797C7617151}" name="効率" dataDxfId="23">
+    <tableColumn id="22" xr3:uid="{434606B6-C04F-47DC-9277-0797C7617151}" name="効率" dataDxfId="26">
       <calculatedColumnFormula>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B031CBD1-7BDB-4552-BC58-A8FCCA491403}" name="合計値" dataDxfId="22">
+    <tableColumn id="15" xr3:uid="{B031CBD1-7BDB-4552-BC58-A8FCCA491403}" name="合計値" dataDxfId="25">
       <calculatedColumnFormula>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{FCD4377E-4837-4BD9-8716-12CB589EDF74}" name="Shine" dataDxfId="21">
+    <tableColumn id="16" xr3:uid="{FCD4377E-4837-4BD9-8716-12CB589EDF74}" name="Shine" dataDxfId="24">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{192E8193-ED35-4778-87AC-0C1CF273DBF9}" name="Fire" dataDxfId="20">
+    <tableColumn id="17" xr3:uid="{192E8193-ED35-4778-87AC-0C1CF273DBF9}" name="Fire" dataDxfId="23">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{FDD6FC8F-4CBF-4964-A0D2-682E72230537}" name="Wind" dataDxfId="19">
+    <tableColumn id="18" xr3:uid="{FDD6FC8F-4CBF-4964-A0D2-682E72230537}" name="Wind" dataDxfId="22">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DE083808-871E-4527-B7C9-FF57A44BDF23}" name="Gaia" dataDxfId="18">
+    <tableColumn id="19" xr3:uid="{DE083808-871E-4527-B7C9-FF57A44BDF23}" name="Gaia" dataDxfId="21">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{EEDF52F6-D7AB-4A1B-B203-856E8CD45BA9}" name="Aqua" dataDxfId="17">
+    <tableColumn id="20" xr3:uid="{EEDF52F6-D7AB-4A1B-B203-856E8CD45BA9}" name="Aqua" dataDxfId="20">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{61A17369-9D3E-4EE3-B6BB-316F47062244}" name="Dark" dataDxfId="8">
+    <tableColumn id="21" xr3:uid="{61A17369-9D3E-4EE3-B6BB-316F47062244}" name="Dark" dataDxfId="11">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{FF31EB97-6C72-4B4F-9C7D-7FE5546BDC56}" name="ATTACK" dataDxfId="5"/>
-    <tableColumn id="44" xr3:uid="{D91E944B-F524-4F9B-9D06-B8EE217F8C86}" name="CRAFT" dataDxfId="3"/>
-    <tableColumn id="46" xr3:uid="{ECCD46C1-F4EB-408C-AEB7-098E1A6BA65B}" name="LIGHT" dataDxfId="0"/>
-    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="1">
+    <tableColumn id="40" xr3:uid="{FF31EB97-6C72-4B4F-9C7D-7FE5546BDC56}" name="ATTACK" dataDxfId="8"/>
+    <tableColumn id="44" xr3:uid="{D91E944B-F524-4F9B-9D06-B8EE217F8C86}" name="CRAFT" dataDxfId="6"/>
+    <tableColumn id="48" xr3:uid="{FDAEB361-38D6-4EFA-B314-79F5DF42167E}" name="FELL" dataDxfId="2"/>
+    <tableColumn id="46" xr3:uid="{ECCD46C1-F4EB-408C-AEB7-098E1A6BA65B}" name="LIGHT" dataDxfId="4"/>
+    <tableColumn id="47" xr3:uid="{E006FC6A-6503-4BBD-94D8-3FBB62985153}" name="FLAME" dataDxfId="3"/>
+    <tableColumn id="49" xr3:uid="{2BF29954-473B-4B0C-9781-028B561200CB}" name="WATER" dataDxfId="1"/>
+    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="5">
       <calculatedColumnFormula>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="2">
-      <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
+    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="0">
+      <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="15">
+    <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="18">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{87187A24-E0A4-40E3-9C23-0138D3146A81}" name="Code和名" dataDxfId="14">
+    <tableColumn id="38" xr3:uid="{87187A24-E0A4-40E3-9C23-0138D3146A81}" name="Code和名" dataDxfId="17">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{31C7AE9B-B5DC-4E21-92DA-CEDB482AF38B}" name="Code5" dataDxfId="7"/>
+    <tableColumn id="41" xr3:uid="{31C7AE9B-B5DC-4E21-92DA-CEDB482AF38B}" name="Code5" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C62C1D26-960A-48CC-8F29-5C012BAB8C70}" name="テーブル2" displayName="テーブル2" ref="A1:B69" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C62C1D26-960A-48CC-8F29-5C012BAB8C70}" name="テーブル2" displayName="テーブル2" ref="A1:B69" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:B69" xr:uid="{FEC50A1C-B428-4AD7-9BA5-4DA035F73E38}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A69">
     <sortCondition ref="A1:A69"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7E14A5CD-7281-42C1-93CF-8BD7C74666AC}" name="name" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{60E9BA99-755B-467A-9053-1708ABE43FE6}" name="列1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{7E14A5CD-7281-42C1-93CF-8BD7C74666AC}" name="name" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{60E9BA99-755B-467A-9053-1708ABE43FE6}" name="列1" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2404,7 +2449,7 @@
     <tableColumn id="8" xr3:uid="{C37B4482-84AD-481D-914C-03A51BD0F6FA}" name="列8">
       <calculatedColumnFormula>F2*G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B2463834-F42F-4CD7-BEC9-B542CC83738A}" name="列9" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{B2463834-F42F-4CD7-BEC9-B542CC83738A}" name="列9" dataDxfId="9">
       <calculatedColumnFormula>"ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes."&amp;C2&amp;"[0].createItemStack(), "&amp;H2&amp;"));"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2675,13 +2720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0BFE0B-651F-45A6-A399-6D829AC20A31}">
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
+      <selection pane="bottomRight" activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2695,15 +2740,15 @@
     <col min="17" max="19" width="4" style="1" customWidth="1"/>
     <col min="20" max="20" width="4.75" style="1" customWidth="1"/>
     <col min="21" max="26" width="4" style="1" customWidth="1"/>
-    <col min="27" max="29" width="2.625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.75" style="1" customWidth="1"/>
-    <col min="31" max="31" width="44.75" style="1" customWidth="1"/>
-    <col min="32" max="33" width="12.75" style="1" customWidth="1"/>
-    <col min="34" max="34" width="25.875" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="1"/>
+    <col min="27" max="32" width="2.625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.75" style="1" customWidth="1"/>
+    <col min="34" max="34" width="44.75" style="1" customWidth="1"/>
+    <col min="35" max="36" width="12.75" style="1" customWidth="1"/>
+    <col min="37" max="37" width="25.875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2789,25 +2834,34 @@
         <v>464</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2891,25 +2945,28 @@
       <c r="AA2" s="14"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
-      <c r="AD2" s="13" t="str">
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] air;</v>
       </c>
-      <c r="AE2" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(0, air = v(t("air", 1, 15, m(1, 0, 10, 0, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
-      </c>
-      <c r="AF2" s="13" t="str">
+      <c r="AH2" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(0, air = v(t("air", 1, 15, m(1, 0, 10, 0, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
+      </c>
+      <c r="AI2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.air.name=Airia</v>
       </c>
-      <c r="AG2" s="13" t="str">
+      <c r="AJ2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.air.name=アイリャ</v>
       </c>
-      <c r="AH2" s="13"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK2" s="13"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2997,25 +3054,30 @@
       </c>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
-      <c r="AD3" s="13" t="str">
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] water;</v>
       </c>
-      <c r="AE3" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(1, water = v(t("water", 1, 50, m(0, 0, 0, 1, 10, 6), a(e(ATTACK, 4), e(CRAFT, 0)), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
-      </c>
-      <c r="AF3" s="13" t="str">
+      <c r="AH3" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(1, water = v(t("water", 1, 50, m(0, 0, 0, 1, 10, 6), a(e(ATTACK, 4), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 14)), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
+      </c>
+      <c r="AI3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.water.name=Wateria</v>
       </c>
-      <c r="AG3" s="13" t="str">
+      <c r="AJ3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.water.name=ワテーリャ</v>
       </c>
-      <c r="AH3" s="13"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK3" s="13"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3103,27 +3165,34 @@
         <v>4</v>
       </c>
       <c r="AC4" s="14">
+        <v>7</v>
+      </c>
+      <c r="AD4" s="14">
         <v>13</v>
       </c>
-      <c r="AD4" s="13" t="str">
+      <c r="AE4" s="14">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] fire;</v>
       </c>
-      <c r="AE4" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(2, fire = v(t("fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(e(ATTACK, 9), e(CRAFT, 4)), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
-      </c>
-      <c r="AF4" s="13" t="str">
+      <c r="AH4" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(2, fire = v(t("fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(e(ATTACK, 9), e(CRAFT, 4), e(FELL, 7), e(LIGHT, 13), e(FLAME, 15), e(WATER, 0)), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
+      </c>
+      <c r="AI4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.fire.name=Firia</v>
       </c>
-      <c r="AG4" s="13" t="str">
+      <c r="AJ4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.fire.name=フィーリャ</v>
       </c>
-      <c r="AH4" s="13"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK4" s="13"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3216,28 +3285,33 @@
       <c r="AB5" s="14">
         <v>2</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14">
         <v>28</v>
       </c>
-      <c r="AD5" s="13" t="str">
+      <c r="AE5" s="14">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] sun;</v>
       </c>
-      <c r="AE5" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(3, sun = v(t("sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(e(ATTACK, 5), e(CRAFT, 2)), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
-      </c>
-      <c r="AF5" s="13" t="str">
+      <c r="AH5" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(3, sun = v(t("sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(e(ATTACK, 5), e(CRAFT, 2), e(FELL, 0), e(LIGHT, 28), e(FLAME, 7), e(WATER, 0)), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
+      </c>
+      <c r="AI5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.sun.name=Sunia</v>
       </c>
-      <c r="AG5" s="13" t="str">
+      <c r="AJ5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.sun.name=スーニャ</v>
       </c>
-      <c r="AH5" s="13"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK5" s="13"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3324,26 +3398,31 @@
       <c r="AB6" s="14">
         <v>1</v>
       </c>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="13" t="str">
+      <c r="AC6" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] stone;</v>
       </c>
-      <c r="AE6" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(4, stone = v(t("stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(e(ATTACK, 6), e(CRAFT, 1)), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
-      </c>
-      <c r="AF6" s="13" t="str">
+      <c r="AH6" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(4, stone = v(t("stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(e(ATTACK, 6), e(CRAFT, 1), e(FELL, 4), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
+      </c>
+      <c r="AI6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.stone.name=Stonia</v>
       </c>
-      <c r="AG6" s="13" t="str">
+      <c r="AJ6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.stone.name=ストーニャ</v>
       </c>
-      <c r="AH6" s="13"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK6" s="13"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3427,25 +3506,30 @@
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
-      <c r="AD7" s="13" t="str">
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] dirt;</v>
       </c>
-      <c r="AE7" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(5, dirt = v(t("dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
-      </c>
-      <c r="AF7" s="13" t="str">
+      <c r="AH7" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(5, dirt = v(t("dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 2)), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
+      </c>
+      <c r="AI7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.dirt.name=Dirtia</v>
       </c>
-      <c r="AG7" s="13" t="str">
+      <c r="AJ7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.dirt.name=ディルチャ</v>
       </c>
-      <c r="AH7" s="13"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK7" s="13"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -3533,25 +3617,30 @@
       <c r="AC8" s="14">
         <v>2</v>
       </c>
-      <c r="AD8" s="13" t="str">
+      <c r="AD8" s="14">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] iron;</v>
       </c>
-      <c r="AE8" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(6, iron = v(t("iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
-      </c>
-      <c r="AF8" s="13" t="str">
+      <c r="AH8" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(6, iron = v(t("iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 2), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0)), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
+      </c>
+      <c r="AI8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.iron.name=Ironia</v>
       </c>
-      <c r="AG8" s="13" t="str">
+      <c r="AJ8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.iron.name=イローニャ</v>
       </c>
-      <c r="AH8" s="13"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK8" s="13"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -3637,27 +3726,32 @@
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
       <c r="AC9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="14">
         <v>4</v>
       </c>
-      <c r="AD9" s="13" t="str">
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] diamond;</v>
       </c>
-      <c r="AE9" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(7, diamond = v(t("diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
-      </c>
-      <c r="AF9" s="13" t="str">
+      <c r="AH9" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(7, diamond = v(t("diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 4), e(FLAME, 0), e(WATER, 0)), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
+      </c>
+      <c r="AI9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.diamond.name=Diamondia</v>
       </c>
-      <c r="AG9" s="13" t="str">
+      <c r="AJ9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
       </c>
-      <c r="AH9" s="13"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK9" s="13"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -3744,28 +3838,33 @@
       </c>
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="14">
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14">
         <v>7</v>
       </c>
-      <c r="AD10" s="13" t="str">
+      <c r="AE10" s="14">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] redstone;</v>
       </c>
-      <c r="AE10" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(8, redstone = v(t("redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
-      </c>
-      <c r="AF10" s="13" t="str">
+      <c r="AH10" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(8, redstone = v(t("redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 2), e(WATER, 0)), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
+      </c>
+      <c r="AI10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.redstone.name=Redstonia</v>
       </c>
-      <c r="AG10" s="13" t="str">
+      <c r="AJ10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.redstone.name=レドストーニャ</v>
       </c>
-      <c r="AH10" s="13"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK10" s="13"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -3857,27 +3956,34 @@
         <v>7</v>
       </c>
       <c r="AC11" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="14">
         <v>4</v>
       </c>
-      <c r="AD11" s="13" t="str">
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] enderman;</v>
       </c>
-      <c r="AE11" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(9, enderman = v(t("enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(e(ATTACK, 11), e(CRAFT, 7)), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
-      </c>
-      <c r="AF11" s="13" t="str">
+      <c r="AH11" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(9, enderman = v(t("enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(e(ATTACK, 11), e(CRAFT, 7), e(FELL, 6), e(LIGHT, 4), e(FLAME, 0), e(WATER, 1)), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
+      </c>
+      <c r="AI11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.enderman.name=Endermania</v>
       </c>
-      <c r="AG11" s="13" t="str">
+      <c r="AJ11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
       </c>
-      <c r="AH11" s="13"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK11" s="13"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -3968,28 +4074,31 @@
       </c>
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
-      <c r="AC12" s="14">
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14">
         <v>6</v>
       </c>
-      <c r="AD12" s="13" t="str">
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] moon;</v>
       </c>
-      <c r="AE12" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(10, moon = v(t("moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
-      </c>
-      <c r="AF12" s="13" t="str">
+      <c r="AH12" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(10, moon = v(t("moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 6), e(FLAME, 0), e(WATER, 0)), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
+      </c>
+      <c r="AI12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.moon.name=Moonia</v>
       </c>
-      <c r="AG12" s="13" t="str">
+      <c r="AJ12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.moon.name=モーニャ</v>
       </c>
-      <c r="AH12" s="13"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK12" s="13"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -4077,25 +4186,28 @@
         <v>1</v>
       </c>
       <c r="AC13" s="14"/>
-      <c r="AD13" s="13" t="str">
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] sand;</v>
       </c>
-      <c r="AE13" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(11, sand = v(t("sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(e(ATTACK, 2), e(CRAFT, 1)), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
-      </c>
-      <c r="AF13" s="13" t="str">
+      <c r="AH13" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(11, sand = v(t("sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(e(ATTACK, 2), e(CRAFT, 1), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
+      </c>
+      <c r="AI13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.sand.name=Sandia</v>
       </c>
-      <c r="AG13" s="13" t="str">
+      <c r="AJ13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.sand.name=サンジャ</v>
       </c>
-      <c r="AH13" s="13"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK13" s="13"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -4179,27 +4291,32 @@
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="14">
         <v>3</v>
       </c>
-      <c r="AD14" s="13" t="str">
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] gold;</v>
       </c>
-      <c r="AE14" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(12, gold = v(t("gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
-      </c>
-      <c r="AF14" s="13" t="str">
+      <c r="AH14" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(12, gold = v(t("gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 3), e(FLAME, 0), e(WATER, 0)), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
+      </c>
+      <c r="AI14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.gold.name=Goldia</v>
       </c>
-      <c r="AG14" s="13" t="str">
+      <c r="AJ14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.gold.name=ゴルジャ</v>
       </c>
-      <c r="AH14" s="13"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK14" s="13"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -4282,28 +4399,33 @@
         <v>10</v>
       </c>
       <c r="AB15" s="14"/>
-      <c r="AC15" s="14">
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14">
         <v>3</v>
       </c>
-      <c r="AD15" s="13" t="str">
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] spider;</v>
       </c>
-      <c r="AE15" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(13, spider = v(t("spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(e(ATTACK, 10), e(CRAFT, 0)), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
-      </c>
-      <c r="AF15" s="13" t="str">
+      <c r="AH15" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(13, spider = v(t("spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 3), e(FLAME, 0), e(WATER, 2)), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
+      </c>
+      <c r="AI15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.spider.name=Spideria</v>
       </c>
-      <c r="AG15" s="13" t="str">
+      <c r="AJ15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.spider.name=スピデーリャ</v>
       </c>
-      <c r="AH15" s="13"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK15" s="13"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -4392,26 +4514,31 @@
       <c r="AB16" s="14">
         <v>5</v>
       </c>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="13" t="str">
+      <c r="AC16" s="14">
+        <v>8</v>
+      </c>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] skeleton;</v>
       </c>
-      <c r="AE16" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(14, skeleton = v(t("skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(e(ATTACK, 12), e(CRAFT, 5)), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
-      </c>
-      <c r="AF16" s="13" t="str">
+      <c r="AH16" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(14, skeleton = v(t("skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(e(ATTACK, 12), e(CRAFT, 5), e(FELL, 8), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
+      </c>
+      <c r="AI16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.skeleton.name=Skeletonia</v>
       </c>
-      <c r="AG16" s="13" t="str">
+      <c r="AJ16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
       </c>
-      <c r="AH16" s="13"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK16" s="13"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -4498,26 +4625,33 @@
         <v>13</v>
       </c>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="13" t="str">
+      <c r="AC17" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14">
+        <v>4</v>
+      </c>
+      <c r="AG17" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] zombie;</v>
       </c>
-      <c r="AE17" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(15, zombie = v(t("zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(e(ATTACK, 13), e(CRAFT, 0)), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
-      </c>
-      <c r="AF17" s="13" t="str">
+      <c r="AH17" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(15, zombie = v(t("zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(e(ATTACK, 13), e(CRAFT, 0), e(FELL, 6), e(LIGHT, 0), e(FLAME, 0), e(WATER, 4)), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
+      </c>
+      <c r="AI17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.zombie.name=Zombia</v>
       </c>
-      <c r="AG17" s="13" t="str">
+      <c r="AJ17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.zombie.name=ゾンビャ</v>
       </c>
-      <c r="AH17" s="13"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK17" s="13"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -4604,28 +4738,35 @@
         <v>10</v>
       </c>
       <c r="AB18" s="14"/>
-      <c r="AC18" s="14">
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14">
         <v>2</v>
       </c>
-      <c r="AD18" s="13" t="str">
+      <c r="AE18" s="14">
+        <v>7</v>
+      </c>
+      <c r="AF18" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] creeper;</v>
       </c>
-      <c r="AE18" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(16, creeper = v(t("creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(e(ATTACK, 10), e(CRAFT, 0)), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
-      </c>
-      <c r="AF18" s="13" t="str">
+      <c r="AH18" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(16, creeper = v(t("creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 7), e(WATER, 2)), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
+      </c>
+      <c r="AI18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.creeper.name=Creeperia</v>
       </c>
-      <c r="AG18" s="13" t="str">
+      <c r="AJ18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.creeper.name=クレペーリャ</v>
       </c>
-      <c r="AH18" s="13"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK18" s="13"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -4707,25 +4848,30 @@
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
-      <c r="AD19" s="13" t="str">
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] wheat;</v>
       </c>
-      <c r="AE19" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(17, wheat = v(t("wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
-      </c>
-      <c r="AF19" s="13" t="str">
+      <c r="AH19" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(17, wheat = v(t("wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 1)), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
+      </c>
+      <c r="AI19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.wheat.name=Wheatia</v>
       </c>
-      <c r="AG19" s="13" t="str">
+      <c r="AJ19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.wheat.name=ウェアーチャ</v>
       </c>
-      <c r="AH19" s="13"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK19" s="13"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -4809,25 +4955,30 @@
       <c r="AA20" s="14"/>
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
-      <c r="AD20" s="13" t="str">
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14">
+        <v>3</v>
+      </c>
+      <c r="AG20" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lilac;</v>
       </c>
-      <c r="AE20" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(18, lilac = v(t("lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
-      </c>
-      <c r="AF20" s="13" t="str">
+      <c r="AH20" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(18, lilac = v(t("lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3)), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
+      </c>
+      <c r="AI20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.lilac.name=Lilacia</v>
       </c>
-      <c r="AG20" s="13" t="str">
+      <c r="AJ20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.lilac.name=リラーキャ</v>
       </c>
-      <c r="AH20" s="13"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK20" s="13"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -4916,28 +5067,33 @@
         <v>1</v>
       </c>
       <c r="AB21" s="14"/>
-      <c r="AC21" s="14">
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14">
         <v>12</v>
       </c>
-      <c r="AD21" s="13" t="str">
+      <c r="AE21" s="14">
+        <v>8</v>
+      </c>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] torch;</v>
       </c>
-      <c r="AE21" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(19, torch = v(t("torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(e(ATTACK, 1), e(CRAFT, 0)), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
-      </c>
-      <c r="AF21" s="13" t="str">
+      <c r="AH21" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(19, torch = v(t("torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 12), e(FLAME, 8), e(WATER, 0)), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
+      </c>
+      <c r="AI21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.torch.name=Torchia</v>
       </c>
-      <c r="AG21" s="13" t="str">
+      <c r="AJ21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.torch.name=トルキャ</v>
       </c>
-      <c r="AH21" s="13"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK21" s="13"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -5025,27 +5181,34 @@
         <v>3</v>
       </c>
       <c r="AC22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="14">
         <v>15</v>
       </c>
-      <c r="AD22" s="13" t="str">
+      <c r="AE22" s="14">
+        <v>18</v>
+      </c>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lava;</v>
       </c>
-      <c r="AE22" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(20, lava = v(t("lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(e(ATTACK, 7), e(CRAFT, 3)), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
-      </c>
-      <c r="AF22" s="13" t="str">
+      <c r="AH22" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(20, lava = v(t("lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(e(ATTACK, 7), e(CRAFT, 3), e(FELL, 1), e(LIGHT, 15), e(FLAME, 18), e(WATER, 0)), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
+      </c>
+      <c r="AI22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.lava.name=Lavia</v>
       </c>
-      <c r="AG22" s="13" t="str">
+      <c r="AJ22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.lava.name=ラービャ</v>
       </c>
-      <c r="AH22" s="13"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK22" s="13"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -5134,28 +5297,33 @@
       </c>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="14">
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14">
         <v>7</v>
       </c>
-      <c r="AD23" s="13" t="str">
+      <c r="AE23" s="14">
+        <v>6</v>
+      </c>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] star;</v>
       </c>
-      <c r="AE23" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(21, star = v(t("star", 4, 98, m(10, 16, 16, 9, 9, 38), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
-      </c>
-      <c r="AF23" s="13" t="str">
+      <c r="AH23" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(21, star = v(t("star", 4, 98, m(10, 16, 16, 9, 9, 38), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 6), e(WATER, 0)), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
+      </c>
+      <c r="AI23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.star.name=Staria</v>
       </c>
-      <c r="AG23" s="13" t="str">
+      <c r="AJ23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.star.name=スターリャ</v>
       </c>
-      <c r="AH23" s="13"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK23" s="13"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -5239,25 +5407,28 @@
       </c>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
-      <c r="AD24" s="13" t="str">
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] gravel;</v>
       </c>
-      <c r="AE24" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(22, gravel = v(t("gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(e(ATTACK, 3), e(CRAFT, 0)), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
-      </c>
-      <c r="AF24" s="13" t="str">
+      <c r="AH24" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(22, gravel = v(t("gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(e(ATTACK, 3), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
+      </c>
+      <c r="AI24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.gravel.name=Gravelia</v>
       </c>
-      <c r="AG24" s="13" t="str">
+      <c r="AJ24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.gravel.name=グラベーリャ</v>
       </c>
-      <c r="AH24" s="13"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK24" s="13"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -5342,28 +5513,31 @@
       </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="14">
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14">
         <v>2</v>
       </c>
-      <c r="AD25" s="13" t="str">
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] emerald;</v>
       </c>
-      <c r="AE25" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(23, emerald = v(t("emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
-      </c>
-      <c r="AF25" s="13" t="str">
+      <c r="AH25" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(23, emerald = v(t("emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0)), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
+      </c>
+      <c r="AI25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.emerald.name=Emeraldia</v>
       </c>
-      <c r="AG25" s="13" t="str">
+      <c r="AJ25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.emerald.name=エメラルジャ</v>
       </c>
-      <c r="AH25" s="13"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK25" s="13"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -5449,25 +5623,28 @@
       <c r="AA26" s="14"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
-      <c r="AD26" s="13" t="str">
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lapislazuli;</v>
       </c>
-      <c r="AE26" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(24, lapislazuli = v(t("lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
-      </c>
-      <c r="AF26" s="13" t="str">
+      <c r="AH26" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(24, lapislazuli = v(t("lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
+      </c>
+      <c r="AI26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
       </c>
-      <c r="AG26" s="13" t="str">
+      <c r="AJ26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
       </c>
-      <c r="AH26" s="13"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK26" s="13"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5552,28 +5729,33 @@
         <v>20</v>
       </c>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="14">
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14">
         <v>2</v>
       </c>
-      <c r="AD27" s="13" t="str">
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] enderdragon;</v>
       </c>
-      <c r="AE27" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(25, enderdragon = v(t("enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(e(ATTACK, 20), e(CRAFT, 0)), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
-      </c>
-      <c r="AF27" s="13" t="str">
+      <c r="AH27" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(25, enderdragon = v(t("enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(e(ATTACK, 20), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 2)), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
+      </c>
+      <c r="AI27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
       </c>
-      <c r="AG27" s="13" t="str">
+      <c r="AJ27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
       </c>
-      <c r="AH27" s="13"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK27" s="13"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -5662,26 +5844,31 @@
       <c r="AB28" s="14">
         <v>6</v>
       </c>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="13" t="str">
+      <c r="AC28" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] witherskeleton;</v>
       </c>
-      <c r="AE28" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(26, witherskeleton = v(t("witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(e(ATTACK, 17), e(CRAFT, 6)), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
-      </c>
-      <c r="AF28" s="13" t="str">
+      <c r="AH28" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(26, witherskeleton = v(t("witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(e(ATTACK, 17), e(CRAFT, 6), e(FELL, 2), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
+      </c>
+      <c r="AI28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
       </c>
-      <c r="AG28" s="13" t="str">
+      <c r="AJ28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
       </c>
-      <c r="AH28" s="13"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK28" s="13"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -5771,27 +5958,36 @@
       </c>
       <c r="AB29" s="14"/>
       <c r="AC29" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="14">
         <v>3</v>
       </c>
-      <c r="AD29" s="13" t="str">
+      <c r="AE29" s="14">
+        <v>4</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] wither;</v>
       </c>
-      <c r="AE29" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(27, wither = v(t("wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(e(ATTACK, 25), e(CRAFT, 0)), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
-      </c>
-      <c r="AF29" s="13" t="str">
+      <c r="AH29" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(27, wither = v(t("wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(e(ATTACK, 25), e(CRAFT, 0), e(FELL, 4), e(LIGHT, 3), e(FLAME, 4), e(WATER, 1)), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
+      </c>
+      <c r="AI29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.wither.name=Witheria</v>
       </c>
-      <c r="AG29" s="13" t="str">
+      <c r="AJ29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.wither.name=ウィテーリャ</v>
       </c>
-      <c r="AH29" s="13"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK29" s="13"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -5883,27 +6079,34 @@
         <v>2</v>
       </c>
       <c r="AC30" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="14">
         <v>6</v>
       </c>
-      <c r="AD30" s="13" t="str">
+      <c r="AE30" s="14">
+        <v>11</v>
+      </c>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] thunder;</v>
       </c>
-      <c r="AE30" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(28, thunder = v(t("thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(e(ATTACK, 8), e(CRAFT, 2)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
-      </c>
-      <c r="AF30" s="13" t="str">
+      <c r="AH30" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(28, thunder = v(t("thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(e(ATTACK, 8), e(CRAFT, 2), e(FELL, 2), e(LIGHT, 6), e(FLAME, 11), e(WATER, 0)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
+      </c>
+      <c r="AI30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.thunder.name=Thunderia</v>
       </c>
-      <c r="AG30" s="13" t="str">
+      <c r="AJ30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.thunder.name=ツンデーリャ</v>
       </c>
-      <c r="AH30" s="13"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK30" s="13"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -5989,25 +6192,30 @@
       </c>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
-      <c r="AD31" s="13" t="str">
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14">
+        <v>3</v>
+      </c>
+      <c r="AG31" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] chicken;</v>
       </c>
-      <c r="AE31" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(29, chicken = v(t("chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(e(ATTACK, 1), e(CRAFT, 0)), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
-      </c>
-      <c r="AF31" s="13" t="str">
+      <c r="AH31" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(29, chicken = v(t("chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3)), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
+      </c>
+      <c r="AI31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.chicken.name=Chickenia</v>
       </c>
-      <c r="AG31" s="13" t="str">
+      <c r="AJ31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.chicken.name=チッケーニャ</v>
       </c>
-      <c r="AH31" s="13"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK31" s="13"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6094,28 +6302,33 @@
       <c r="AB32" s="14">
         <v>13</v>
       </c>
-      <c r="AC32" s="14">
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14">
         <v>6</v>
       </c>
-      <c r="AD32" s="13" t="str">
+      <c r="AE32" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] furnace;</v>
       </c>
-      <c r="AE32" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(30, furnace = v(t("furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(e(ATTACK, 1), e(CRAFT, 13)), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
-      </c>
-      <c r="AF32" s="13" t="str">
+      <c r="AH32" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(30, furnace = v(t("furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(e(ATTACK, 1), e(CRAFT, 13), e(FELL, 0), e(LIGHT, 6), e(FLAME, 10), e(WATER, 0)), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
+      </c>
+      <c r="AI32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.furnace.name=Furnacia</v>
       </c>
-      <c r="AG32" s="13" t="str">
+      <c r="AJ32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.furnace.name=フルナーキャ</v>
       </c>
-      <c r="AH32" s="13"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK32" s="13"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -6201,25 +6414,28 @@
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
-      <c r="AD33" s="13" t="str">
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] magentaglazedterracotta;</v>
       </c>
-      <c r="AE33" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(31, magentaglazedterracotta = v(t("magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
-      </c>
-      <c r="AF33" s="13" t="str">
+      <c r="AH33" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(31, magentaglazedterracotta = v(t("magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
+      </c>
+      <c r="AI33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.magentaglazedterracotta.name=Magenteglazedeterracottia</v>
       </c>
-      <c r="AG33" s="13" t="str">
+      <c r="AJ33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.magentaglazedterracotta.name=マゲンテグラゼデテッラコッチャ</v>
       </c>
-      <c r="AH33" s="13"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK33" s="13"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -6303,25 +6519,28 @@
       <c r="AA34" s="14"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
-      <c r="AD34" s="13" t="str">
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] bread;</v>
       </c>
-      <c r="AE34" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(32, bread = v(t("bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
-      </c>
-      <c r="AF34" s="13" t="str">
+      <c r="AH34" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(32, bread = v(t("bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
+      </c>
+      <c r="AI34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.bread.name=Breadia</v>
       </c>
-      <c r="AG34" s="13" t="str">
+      <c r="AJ34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.bread.name=ブレアージャ</v>
       </c>
-      <c r="AH34" s="13"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK34" s="13"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -6411,27 +6630,34 @@
         <v>1</v>
       </c>
       <c r="AC35" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="14">
         <v>11</v>
       </c>
-      <c r="AD35" s="13" t="str">
+      <c r="AE35" s="14">
+        <v>2</v>
+      </c>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] daytime;</v>
       </c>
-      <c r="AE35" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(33, daytime = v(t("daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(e(ATTACK, 0), e(CRAFT, 1)), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
-      </c>
-      <c r="AF35" s="13" t="str">
+      <c r="AH35" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(33, daytime = v(t("daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(e(ATTACK, 0), e(CRAFT, 1), e(FELL, 2), e(LIGHT, 11), e(FLAME, 2), e(WATER, 0)), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
+      </c>
+      <c r="AI35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.daytime.name=Daytimia</v>
       </c>
-      <c r="AG35" s="13" t="str">
+      <c r="AJ35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.daytime.name=ダイティーミャ</v>
       </c>
-      <c r="AH35" s="13"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK35" s="13"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -6516,28 +6742,31 @@
       </c>
       <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
-      <c r="AC36" s="14">
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14">
         <v>2</v>
       </c>
-      <c r="AD36" s="13" t="str">
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] night;</v>
       </c>
-      <c r="AE36" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(34, night = v(t("night", 1, 83, m(0, 7, 10, 0, 7, 26), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
-      </c>
-      <c r="AF36" s="13" t="str">
+      <c r="AH36" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(34, night = v(t("night", 1, 83, m(0, 7, 10, 0, 7, 26), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0)), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
+      </c>
+      <c r="AI36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.night.name=Nightia</v>
       </c>
-      <c r="AG36" s="13" t="str">
+      <c r="AJ36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.night.name=ニグチャ</v>
       </c>
-      <c r="AH36" s="13"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK36" s="13"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -6626,28 +6855,35 @@
       </c>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
-      <c r="AC37" s="14">
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14">
         <v>9</v>
       </c>
-      <c r="AD37" s="13" t="str">
+      <c r="AE37" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] morning;</v>
       </c>
-      <c r="AE37" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(35, morning = v(t("morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(e(ATTACK, 0), e(CRAFT, 0)), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
-      </c>
-      <c r="AF37" s="13" t="str">
+      <c r="AH37" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(35, morning = v(t("morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 9), e(FLAME, 1), e(WATER, 1)), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
+      </c>
+      <c r="AI37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.morning.name=Morningia</v>
       </c>
-      <c r="AG37" s="13" t="str">
+      <c r="AJ37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.morning.name=モルニンギャ</v>
       </c>
-      <c r="AH37" s="13"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK37" s="13"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -6733,27 +6969,34 @@
         <v>1</v>
       </c>
       <c r="AC38" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="14">
         <v>16</v>
       </c>
-      <c r="AD38" s="13" t="str">
+      <c r="AE38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] fine;</v>
       </c>
-      <c r="AE38" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(36, fine = v(t("fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(e(ATTACK, 0), e(CRAFT, 1)), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
-      </c>
-      <c r="AF38" s="13" t="str">
+      <c r="AH38" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(36, fine = v(t("fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(e(ATTACK, 0), e(CRAFT, 1), e(FELL, 2), e(LIGHT, 16), e(FLAME, 1), e(WATER, 0)), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
+      </c>
+      <c r="AI38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.fine.name=Finia</v>
       </c>
-      <c r="AG38" s="13" t="str">
+      <c r="AJ38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.fine.name=フィーニャ</v>
       </c>
-      <c r="AH38" s="13"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK38" s="13"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -6836,28 +7079,33 @@
         <v>1</v>
       </c>
       <c r="AB39" s="14"/>
-      <c r="AC39" s="14">
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14">
         <v>2</v>
       </c>
-      <c r="AD39" s="13" t="str">
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14">
+        <v>17</v>
+      </c>
+      <c r="AG39" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] rain;</v>
       </c>
-      <c r="AE39" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(37, rain = v(t("rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(e(ATTACK, 1), e(CRAFT, 0)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
-      </c>
-      <c r="AF39" s="13" t="str">
+      <c r="AH39" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(37, rain = v(t("rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 17)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
+      </c>
+      <c r="AI39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.rain.name=Rainia</v>
       </c>
-      <c r="AG39" s="13" t="str">
+      <c r="AJ39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.rain.name=ライニャ</v>
       </c>
-      <c r="AH39" s="13"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK39" s="13"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -6940,26 +7188,33 @@
       </c>
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="13" t="str">
+      <c r="AC40" s="14">
+        <v>7</v>
+      </c>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG40" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] plains;</v>
       </c>
-      <c r="AE40" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(38, plains = v(t("plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(e(ATTACK, 0), e(CRAFT, 0)), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
-      </c>
-      <c r="AF40" s="13" t="str">
+      <c r="AH40" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(38, plains = v(t("plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 7), e(LIGHT, 0), e(FLAME, 0), e(WATER, 6)), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
+      </c>
+      <c r="AI40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.plains.name=Plainsia</v>
       </c>
-      <c r="AG40" s="13" t="str">
+      <c r="AJ40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.plains.name=プラインシャ</v>
       </c>
-      <c r="AH40" s="13"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="AK40" s="13"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -7046,24 +7301,31 @@
         <v>1</v>
       </c>
       <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="13" t="str">
+      <c r="AC41" s="14">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG41" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] forest;</v>
       </c>
-      <c r="AE41" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(39, forest = v(t("forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(e(ATTACK, 1), e(CRAFT, 0)), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
-      </c>
-      <c r="AF41" s="13" t="str">
+      <c r="AH41" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(39, forest = v(t("forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 10), e(LIGHT, 0), e(FLAME, 0), e(WATER, 6)), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
+      </c>
+      <c r="AI41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.forest.name=Forestia</v>
       </c>
-      <c r="AG41" s="13" t="str">
+      <c r="AJ41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.forest.name=フォレスチャ</v>
       </c>
-      <c r="AH41" s="13"/>
+      <c r="AK41" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/FairyList.xlsx
+++ b/FairyList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\MirageFairyMod-2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MirageFairyMod-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9F10F4-EF55-4D9C-8464-97022B5C5A0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870ECE0-623F-4754-A0DC-EB18D9F1081B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
+    <workbookView xWindow="4605" yWindow="525" windowWidth="23070" windowHeight="14610" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
   <sheets>
     <sheet name="妖精リスト" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="471">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1807,13 +1807,21 @@
     <t>FLAME</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CRYSTAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ART</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1924,10 +1932,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1946,7 +1954,85 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -2002,7 +2088,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
@@ -2018,40 +2104,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2061,61 +2114,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2125,7 +2124,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2135,7 +2134,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2145,7 +2144,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2155,7 +2154,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2165,7 +2164,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2277,6 +2276,26 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2322,6 +2341,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2341,91 +2369,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AK41" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:AK41" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK41">
-    <sortCondition ref="A1:A41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AM41" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:AM41" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM41">
+    <sortCondition ref="B1:B41"/>
   </sortState>
-  <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="41"/>
-    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="19"/>
-    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="37"/>
-    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="16"/>
-    <tableColumn id="43" xr3:uid="{F9A89BF2-14D8-4F19-A026-A4FBD2302B39}" name="ポエム" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{592C3106-789F-46C6-84E7-D4D3A1566511}" name="基礎Fire" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{B7A1B9A3-3658-4251-9488-C7EB28DDA828}" name="基礎Wind" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{53D9BDAB-CC6B-4E70-8605-30718A287EC4}" name="基礎Gaia" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{EB888AF3-8815-48CE-A95E-C5931929A1AC}" name="基礎Aqua" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{68F80D1D-DFED-4D2F-92EF-7D17590D4A36}" name="基礎Dark" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{D846AE64-655F-4052-B5F1-3F4B9699D0FA}" name="レア度倍率" dataDxfId="28">
+  <tableColumns count="39">
+    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="43"/>
+    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="42"/>
+    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="38"/>
+    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="37"/>
+    <tableColumn id="43" xr3:uid="{F9A89BF2-14D8-4F19-A026-A4FBD2302B39}" name="ポエム" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{592C3106-789F-46C6-84E7-D4D3A1566511}" name="基礎Fire" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{B7A1B9A3-3658-4251-9488-C7EB28DDA828}" name="基礎Wind" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{53D9BDAB-CC6B-4E70-8605-30718A287EC4}" name="基礎Gaia" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{EB888AF3-8815-48CE-A95E-C5931929A1AC}" name="基礎Aqua" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{68F80D1D-DFED-4D2F-92EF-7D17590D4A36}" name="基礎Dark" dataDxfId="28"/>
+    <tableColumn id="13" xr3:uid="{D846AE64-655F-4052-B5F1-3F4B9699D0FA}" name="レア度倍率" dataDxfId="27">
       <calculatedColumnFormula>2^((テーブル1[[#This Row],[レア]]-1)/4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{833C82E7-E230-4A58-9D49-6C1CDD4BBDAD}" name="分散度倍率　" dataDxfId="27">
+    <tableColumn id="11" xr3:uid="{833C82E7-E230-4A58-9D49-6C1CDD4BBDAD}" name="分散度倍率　" dataDxfId="26">
       <calculatedColumnFormula>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K2:P2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{434606B6-C04F-47DC-9277-0797C7617151}" name="効率" dataDxfId="26">
+    <tableColumn id="22" xr3:uid="{434606B6-C04F-47DC-9277-0797C7617151}" name="効率" dataDxfId="25">
       <calculatedColumnFormula>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B031CBD1-7BDB-4552-BC58-A8FCCA491403}" name="合計値" dataDxfId="25">
+    <tableColumn id="15" xr3:uid="{B031CBD1-7BDB-4552-BC58-A8FCCA491403}" name="合計値" dataDxfId="24">
       <calculatedColumnFormula>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{FCD4377E-4837-4BD9-8716-12CB589EDF74}" name="Shine" dataDxfId="24">
+    <tableColumn id="16" xr3:uid="{FCD4377E-4837-4BD9-8716-12CB589EDF74}" name="Shine" dataDxfId="23">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{192E8193-ED35-4778-87AC-0C1CF273DBF9}" name="Fire" dataDxfId="23">
+    <tableColumn id="17" xr3:uid="{192E8193-ED35-4778-87AC-0C1CF273DBF9}" name="Fire" dataDxfId="22">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{FDD6FC8F-4CBF-4964-A0D2-682E72230537}" name="Wind" dataDxfId="22">
+    <tableColumn id="18" xr3:uid="{FDD6FC8F-4CBF-4964-A0D2-682E72230537}" name="Wind" dataDxfId="21">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DE083808-871E-4527-B7C9-FF57A44BDF23}" name="Gaia" dataDxfId="21">
+    <tableColumn id="19" xr3:uid="{DE083808-871E-4527-B7C9-FF57A44BDF23}" name="Gaia" dataDxfId="20">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{EEDF52F6-D7AB-4A1B-B203-856E8CD45BA9}" name="Aqua" dataDxfId="20">
+    <tableColumn id="20" xr3:uid="{EEDF52F6-D7AB-4A1B-B203-856E8CD45BA9}" name="Aqua" dataDxfId="19">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{61A17369-9D3E-4EE3-B6BB-316F47062244}" name="Dark" dataDxfId="11">
+    <tableColumn id="21" xr3:uid="{61A17369-9D3E-4EE3-B6BB-316F47062244}" name="Dark" dataDxfId="18">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{FF31EB97-6C72-4B4F-9C7D-7FE5546BDC56}" name="ATTACK" dataDxfId="8"/>
-    <tableColumn id="44" xr3:uid="{D91E944B-F524-4F9B-9D06-B8EE217F8C86}" name="CRAFT" dataDxfId="6"/>
-    <tableColumn id="48" xr3:uid="{FDAEB361-38D6-4EFA-B314-79F5DF42167E}" name="FELL" dataDxfId="2"/>
-    <tableColumn id="46" xr3:uid="{ECCD46C1-F4EB-408C-AEB7-098E1A6BA65B}" name="LIGHT" dataDxfId="4"/>
-    <tableColumn id="47" xr3:uid="{E006FC6A-6503-4BBD-94D8-3FBB62985153}" name="FLAME" dataDxfId="3"/>
-    <tableColumn id="49" xr3:uid="{2BF29954-473B-4B0C-9781-028B561200CB}" name="WATER" dataDxfId="1"/>
-    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="5">
+    <tableColumn id="40" xr3:uid="{FF31EB97-6C72-4B4F-9C7D-7FE5546BDC56}" name="ATTACK" dataDxfId="17"/>
+    <tableColumn id="44" xr3:uid="{D91E944B-F524-4F9B-9D06-B8EE217F8C86}" name="CRAFT" dataDxfId="16"/>
+    <tableColumn id="48" xr3:uid="{FDAEB361-38D6-4EFA-B314-79F5DF42167E}" name="FELL" dataDxfId="15"/>
+    <tableColumn id="46" xr3:uid="{ECCD46C1-F4EB-408C-AEB7-098E1A6BA65B}" name="LIGHT" dataDxfId="14"/>
+    <tableColumn id="47" xr3:uid="{E006FC6A-6503-4BBD-94D8-3FBB62985153}" name="FLAME" dataDxfId="13"/>
+    <tableColumn id="49" xr3:uid="{2BF29954-473B-4B0C-9781-028B561200CB}" name="WATER" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{E078FC75-CC53-492A-A97D-107EA20B4296}" name="CRYSTAL" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{3CFDC570-BDAB-4914-ABC3-2C36BC441EFF}" name="ART" dataDxfId="0"/>
+    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="11">
       <calculatedColumnFormula>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="0">
+    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="10">
       <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="18">
+    <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="9">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{87187A24-E0A4-40E3-9C23-0138D3146A81}" name="Code和名" dataDxfId="17">
+    <tableColumn id="38" xr3:uid="{87187A24-E0A4-40E3-9C23-0138D3146A81}" name="Code和名" dataDxfId="8">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{31C7AE9B-B5DC-4E21-92DA-CEDB482AF38B}" name="Code5" dataDxfId="10"/>
+    <tableColumn id="41" xr3:uid="{31C7AE9B-B5DC-4E21-92DA-CEDB482AF38B}" name="Code5" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C62C1D26-960A-48CC-8F29-5C012BAB8C70}" name="テーブル2" displayName="テーブル2" ref="A1:B69" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C62C1D26-960A-48CC-8F29-5C012BAB8C70}" name="テーブル2" displayName="テーブル2" ref="A1:B69" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:B69" xr:uid="{FEC50A1C-B428-4AD7-9BA5-4DA035F73E38}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A69">
     <sortCondition ref="A1:A69"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7E14A5CD-7281-42C1-93CF-8BD7C74666AC}" name="name" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{60E9BA99-755B-467A-9053-1708ABE43FE6}" name="列1" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{7E14A5CD-7281-42C1-93CF-8BD7C74666AC}" name="name" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{60E9BA99-755B-467A-9053-1708ABE43FE6}" name="列1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2449,7 +2479,7 @@
     <tableColumn id="8" xr3:uid="{C37B4482-84AD-481D-914C-03A51BD0F6FA}" name="列8">
       <calculatedColumnFormula>F2*G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B2463834-F42F-4CD7-BEC9-B542CC83738A}" name="列9" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{B2463834-F42F-4CD7-BEC9-B542CC83738A}" name="列9" dataDxfId="2">
       <calculatedColumnFormula>"ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes."&amp;C2&amp;"[0].createItemStack(), "&amp;H2&amp;"));"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2720,13 +2750,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0BFE0B-651F-45A6-A399-6D829AC20A31}">
-  <dimension ref="A1:AK41"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH3" sqref="AH3"/>
+      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2740,15 +2770,15 @@
     <col min="17" max="19" width="4" style="1" customWidth="1"/>
     <col min="20" max="20" width="4.75" style="1" customWidth="1"/>
     <col min="21" max="26" width="4" style="1" customWidth="1"/>
-    <col min="27" max="32" width="2.625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.75" style="1" customWidth="1"/>
-    <col min="34" max="34" width="44.75" style="1" customWidth="1"/>
-    <col min="35" max="36" width="12.75" style="1" customWidth="1"/>
-    <col min="37" max="37" width="25.875" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="1"/>
+    <col min="27" max="34" width="2.625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.75" style="1" customWidth="1"/>
+    <col min="36" max="36" width="44.75" style="1" customWidth="1"/>
+    <col min="37" max="38" width="12.75" style="1" customWidth="1"/>
+    <col min="39" max="39" width="25.875" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2846,22 +2876,28 @@
         <v>467</v>
       </c>
       <c r="AG1" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2948,25 +2984,29 @@
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="14"/>
-      <c r="AG2" s="13" t="str">
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] air;</v>
       </c>
-      <c r="AH2" s="13" t="str">
+      <c r="AJ2" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(0, air = v(t("air", 1, 15, m(1, 0, 10, 0, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
       </c>
-      <c r="AI2" s="13" t="str">
+      <c r="AK2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.air.name=Airia</v>
       </c>
-      <c r="AJ2" s="13" t="str">
+      <c r="AL2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.air.name=アイリャ</v>
       </c>
-      <c r="AK2" s="13"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AM2" s="13"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3059,64 +3099,68 @@
       <c r="AF3" s="14">
         <v>14</v>
       </c>
-      <c r="AG3" s="13" t="str">
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] water;</v>
       </c>
-      <c r="AH3" s="13" t="str">
+      <c r="AJ3" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(1, water = v(t("water", 1, 50, m(0, 0, 0, 1, 10, 6), a(e(ATTACK, 4), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 14)), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
       </c>
-      <c r="AI3" s="13" t="str">
+      <c r="AK3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.water.name=Wateria</v>
       </c>
-      <c r="AJ3" s="13" t="str">
+      <c r="AL3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.water.name=ワテーリャ</v>
       </c>
-      <c r="AK3" s="13"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AM3" s="13"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>458</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="H4" s="11"/>
       <c r="I4" s="3">
         <v>2</v>
       </c>
       <c r="J4" s="8">
-        <v>20</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K4" s="7"/>
       <c r="L4" s="7">
+        <v>22</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
+        <v>8</v>
+      </c>
+      <c r="O4" s="7">
         <v>10</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
@@ -3124,23 +3168,23 @@
       </c>
       <c r="R4" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K4:P4)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9862327044933592</v>
+        <v>0.89277196943365633</v>
       </c>
       <c r="S4" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1728349492318788</v>
+        <v>1.0616907781254958</v>
       </c>
       <c r="T4" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>23.456698984637576</v>
+        <v>61.578065131278755</v>
       </c>
       <c r="U4" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.132427180421598</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.324271804215979</v>
+        <v>33.867935822203314</v>
       </c>
       <c r="W4" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3148,241 +3192,249 @@
       </c>
       <c r="X4" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>12.31561302625575</v>
       </c>
       <c r="Y4" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>15.394516282819689</v>
       </c>
       <c r="Z4" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
       <c r="AA4" s="14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB4" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE4" s="14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AF4" s="14"/>
-      <c r="AG4" s="13" t="str">
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] fire;</v>
-      </c>
-      <c r="AH4" s="13" t="str">
+        <v>public static VariantMirageFairy[] lava;</v>
+      </c>
+      <c r="AJ4" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(2, fire = v(t("fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(e(ATTACK, 9), e(CRAFT, 4), e(FELL, 7), e(LIGHT, 13), e(FLAME, 15), e(WATER, 0)), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
-      </c>
-      <c r="AI4" s="13" t="str">
+        <v>r(20, lava = v(t("lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(e(ATTACK, 7), e(CRAFT, 3), e(FELL, 1), e(LIGHT, 15), e(FLAME, 18), e(WATER, 0)), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
+      </c>
+      <c r="AK4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.fire.name=Firia</v>
-      </c>
-      <c r="AJ4" s="13" t="str">
+        <v>item.mirageFairy.lava.name=Lavia</v>
+      </c>
+      <c r="AL4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.fire.name=フィーリャ</v>
-      </c>
-      <c r="AK4" s="13"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.lava.name=ラービャ</v>
+      </c>
+      <c r="AM4" s="13"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>303</v>
+        <v>226</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="8">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
         <v>10</v>
       </c>
-      <c r="L5" s="7">
-        <v>28</v>
-      </c>
-      <c r="M5" s="7">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7">
-        <v>18</v>
-      </c>
-      <c r="O5" s="7">
-        <v>18</v>
-      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R5" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K5:P5)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.70710678118654757</v>
+        <v>0.9862327044933592</v>
       </c>
       <c r="S5" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4142135623730951</v>
+        <v>1.1728349492318788</v>
       </c>
       <c r="T5" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>140.00714267493643</v>
+        <v>23.456698984637576</v>
       </c>
       <c r="U5" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.286443130095554</v>
+        <v>2.132427180421598</v>
       </c>
       <c r="V5" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>40.002040764267555</v>
+        <v>21.324271804215979</v>
       </c>
       <c r="W5" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.28746351222933</v>
+        <v>0</v>
       </c>
       <c r="X5" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>25.715597634171996</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>25.715597634171996</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
       <c r="AA5" s="14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AB5" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>7</v>
+      </c>
       <c r="AD5" s="14">
+        <v>13</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>15</v>
+      </c>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] fire;</v>
+      </c>
+      <c r="AJ5" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(2, fire = v(t("fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(e(ATTACK, 9), e(CRAFT, 4), e(FELL, 7), e(LIGHT, 13), e(FLAME, 15), e(WATER, 0)), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
+      </c>
+      <c r="AK5" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.fire.name=Firia</v>
+      </c>
+      <c r="AL5" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.fire.name=フィーリャ</v>
+      </c>
+      <c r="AM5" s="13"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>28</v>
       </c>
-      <c r="AE5" s="14">
-        <v>7</v>
-      </c>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] sun;</v>
-      </c>
-      <c r="AH5" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(3, sun = v(t("sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(e(ATTACK, 5), e(CRAFT, 2), e(FELL, 0), e(LIGHT, 28), e(FLAME, 7), e(WATER, 0)), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
-      </c>
-      <c r="AI5" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.sun.name=Sunia</v>
-      </c>
-      <c r="AJ5" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.sun.name=スーニャ</v>
-      </c>
-      <c r="AK5" s="13"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
       <c r="B6" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="8">
-        <v>83</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="K6" s="7">
+        <v>3</v>
+      </c>
+      <c r="L6" s="7">
+        <v>10</v>
+      </c>
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
       <c r="N6" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O6" s="7"/>
-      <c r="P6" s="7">
-        <v>15</v>
-      </c>
+      <c r="P6" s="7"/>
       <c r="Q6" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="R6" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K6:P6)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9117224885582168</v>
+        <v>0.82359101726757311</v>
       </c>
       <c r="S6" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9117224885582168</v>
+        <v>1.1647335864684558</v>
       </c>
       <c r="T6" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>75.672966550331992</v>
+        <v>20.965204556432205</v>
       </c>
       <c r="U6" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>2.6206505695540256</v>
       </c>
       <c r="V6" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>8.7355018985134194</v>
       </c>
       <c r="W6" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>2.6206505695540256</v>
       </c>
       <c r="X6" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.269186620132796</v>
+        <v>6.9884015188107353</v>
       </c>
       <c r="Y6" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3390,443 +3442,483 @@
       </c>
       <c r="Z6" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>45.4037799301992</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="14">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="14">
         <v>6</v>
       </c>
-      <c r="AB6" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="14">
+      <c r="AE6" s="14">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14">
         <v>4</v>
       </c>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="13" t="str">
+      <c r="AI6" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] stone;</v>
-      </c>
-      <c r="AH6" s="13" t="str">
+        <v>public static VariantMirageFairy[] thunder;</v>
+      </c>
+      <c r="AJ6" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(4, stone = v(t("stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(e(ATTACK, 6), e(CRAFT, 1), e(FELL, 4), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
-      </c>
-      <c r="AI6" s="13" t="str">
+        <v>r(28, thunder = v(t("thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(e(ATTACK, 8), e(CRAFT, 2), e(FELL, 2), e(LIGHT, 6), e(FLAME, 11), e(WATER, 0)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
+      </c>
+      <c r="AK6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.stone.name=Stonia</v>
-      </c>
-      <c r="AJ6" s="13" t="str">
+        <v>item.mirageFairy.thunder.name=Thunderia</v>
+      </c>
+      <c r="AL6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.stone.name=ストーニャ</v>
-      </c>
-      <c r="AK6" s="13"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.thunder.name=ツンデーリャ</v>
+      </c>
+      <c r="AM6" s="13"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="I7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
       <c r="J7" s="8">
-        <v>70</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7">
+        <v>28</v>
+      </c>
+      <c r="M7" s="7">
+        <v>24</v>
+      </c>
       <c r="N7" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O7" s="7">
-        <v>3</v>
-      </c>
-      <c r="P7" s="7">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="P7" s="7"/>
       <c r="Q7" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K7:P7)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9376639403055067</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="S7" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9376639403055067</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="T7" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>65.636475821385474</v>
+        <v>140.00714267493643</v>
       </c>
       <c r="U7" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>14.286443130095554</v>
       </c>
       <c r="V7" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>40.002040764267555</v>
       </c>
       <c r="W7" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>34.28746351222933</v>
       </c>
       <c r="X7" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>16.008896541801334</v>
+        <v>25.715597634171996</v>
       </c>
       <c r="Y7" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.8026689625404</v>
+        <v>25.715597634171996</v>
       </c>
       <c r="Z7" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>44.824910317043738</v>
-      </c>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>2</v>
+      </c>
       <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="13" t="str">
+      <c r="AD7" s="14">
+        <v>28</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] dirt;</v>
-      </c>
-      <c r="AH7" s="13" t="str">
+        <v>public static VariantMirageFairy[] sun;</v>
+      </c>
+      <c r="AJ7" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(5, dirt = v(t("dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 2)), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
-      </c>
-      <c r="AI7" s="13" t="str">
+        <v>r(3, sun = v(t("sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(e(ATTACK, 5), e(CRAFT, 2), e(FELL, 0), e(LIGHT, 28), e(FLAME, 7), e(WATER, 0)), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
+      </c>
+      <c r="AK7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.dirt.name=Dirtia</v>
-      </c>
-      <c r="AJ7" s="13" t="str">
+        <v>item.mirageFairy.sun.name=Sunia</v>
+      </c>
+      <c r="AL7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.dirt.name=ディルチャ</v>
-      </c>
-      <c r="AK7" s="13"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.sun.name=スーニャ</v>
+      </c>
+      <c r="AM7" s="13"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="H8" s="11"/>
+        <v>304</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>459</v>
+      </c>
       <c r="I8" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8" s="8">
-        <v>86</v>
-      </c>
-      <c r="K8" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="K8" s="7">
+        <v>10</v>
+      </c>
       <c r="L8" s="7">
-        <v>3</v>
-      </c>
-      <c r="M8" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="M8" s="7">
+        <v>28</v>
+      </c>
       <c r="N8" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P8" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>2</v>
       </c>
       <c r="R8" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K8:P8)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.83508791942836935</v>
+        <v>0.68302012837719772</v>
       </c>
       <c r="S8" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.99309249543703582</v>
+        <v>1.3660402567543954</v>
       </c>
       <c r="T8" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>85.405954607585073</v>
+        <v>129.77382439166757</v>
       </c>
       <c r="U8" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>12.359411846825484</v>
       </c>
       <c r="V8" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.13990712272849</v>
+        <v>29.66258843238116</v>
       </c>
       <c r="W8" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>34.606353171111351</v>
       </c>
       <c r="X8" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.133023742428293</v>
+        <v>11.123470662142935</v>
       </c>
       <c r="Y8" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.853209496971317</v>
+        <v>11.123470662142935</v>
       </c>
       <c r="Z8" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>22.279814245456979</v>
+        <v>30.898529617063705</v>
       </c>
       <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
-      <c r="AC8" s="14">
-        <v>2</v>
-      </c>
+      <c r="AC8" s="14"/>
       <c r="AD8" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
-      <c r="AG8" s="13" t="str">
+      <c r="AG8" s="14">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] iron;</v>
-      </c>
-      <c r="AH8" s="13" t="str">
+        <v>public static VariantMirageFairy[] moon;</v>
+      </c>
+      <c r="AJ8" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(6, iron = v(t("iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 2), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0)), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
-      </c>
-      <c r="AI8" s="13" t="str">
+        <v>r(10, moon = v(t("moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 6), e(FLAME, 0), e(WATER, 0)), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
+      </c>
+      <c r="AK8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.iron.name=Ironia</v>
-      </c>
-      <c r="AJ8" s="13" t="str">
+        <v>item.mirageFairy.moon.name=Moonia</v>
+      </c>
+      <c r="AL8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.iron.name=イローニャ</v>
-      </c>
-      <c r="AK8" s="13"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.moon.name=モーニャ</v>
+      </c>
+      <c r="AM8" s="13"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="3">
         <v>4</v>
       </c>
       <c r="J9" s="8">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="K9" s="7">
         <v>10</v>
       </c>
       <c r="L9" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N9" s="7">
-        <v>26</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="O9" s="7">
+        <v>9</v>
+      </c>
+      <c r="P9" s="7">
+        <v>38</v>
+      </c>
       <c r="Q9" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.681792830507429</v>
       </c>
       <c r="R9" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K9:P9)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.7908842457011136</v>
+        <v>0.80341122656688246</v>
       </c>
       <c r="S9" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3301034541814087</v>
+        <v>1.3511712407893626</v>
       </c>
       <c r="T9" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>101.08786251778706</v>
+        <v>132.41478159735755</v>
       </c>
       <c r="U9" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.441123216826723</v>
+        <v>13.511712407893627</v>
       </c>
       <c r="V9" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.773460181874739</v>
+        <v>21.618739852629805</v>
       </c>
       <c r="W9" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.326358755336116</v>
+        <v>21.618739852629805</v>
       </c>
       <c r="X9" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.546920363749479</v>
+        <v>12.160541167104263</v>
       </c>
       <c r="Y9" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>12.160541167104263</v>
       </c>
       <c r="Z9" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>51.344507149995785</v>
       </c>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
-      <c r="AC9" s="14">
-        <v>1</v>
-      </c>
+      <c r="AC9" s="14"/>
       <c r="AD9" s="14">
+        <v>7</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] star;</v>
+      </c>
+      <c r="AJ9" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(21, star = v(t("star", 4, 98, m(10, 16, 16, 9, 9, 38), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 6), e(WATER, 0)), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
+      </c>
+      <c r="AK9" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.star.name=Staria</v>
+      </c>
+      <c r="AL9" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.star.name=スターリャ</v>
+      </c>
+      <c r="AM9" s="13"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] diamond;</v>
-      </c>
-      <c r="AH9" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(7, diamond = v(t("diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 4), e(FLAME, 0), e(WATER, 0)), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
-      </c>
-      <c r="AI9" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.diamond.name=Diamondia</v>
-      </c>
-      <c r="AJ9" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
-      </c>
-      <c r="AK9" s="13"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" s="11"/>
+        <v>320</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>462</v>
+      </c>
       <c r="I10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="8">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7">
-        <v>35</v>
-      </c>
-      <c r="M10" s="7">
-        <v>11</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="7">
         <v>10</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>1</v>
       </c>
       <c r="R10" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K10:P10)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
+        <v>0.9117224885582168</v>
       </c>
       <c r="S10" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2657565939702802</v>
+        <v>0.9117224885582168</v>
       </c>
       <c r="T10" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>68.350856074395125</v>
+        <v>75.672966550331992</v>
       </c>
       <c r="U10" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.0849342234030972</v>
+        <v>0</v>
       </c>
       <c r="V10" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.972697819108404</v>
+        <v>0</v>
       </c>
       <c r="W10" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.93427645743407</v>
+        <v>0</v>
       </c>
       <c r="X10" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.849342234030971</v>
+        <v>30.269186620132796</v>
       </c>
       <c r="Y10" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3834,273 +3926,275 @@
       </c>
       <c r="Z10" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.5096053404185836</v>
-      </c>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14">
-        <v>7</v>
-      </c>
-      <c r="AE10" s="14">
-        <v>2</v>
-      </c>
+        <v>45.4037799301992</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
-      <c r="AG10" s="13" t="str">
+      <c r="AG10" s="14">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="14">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] redstone;</v>
-      </c>
-      <c r="AH10" s="13" t="str">
+        <v>public static VariantMirageFairy[] stone;</v>
+      </c>
+      <c r="AJ10" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(8, redstone = v(t("redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 2), e(WATER, 0)), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
-      </c>
-      <c r="AI10" s="13" t="str">
+        <v>r(4, stone = v(t("stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(e(ATTACK, 6), e(CRAFT, 1), e(FELL, 4), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
+      </c>
+      <c r="AK10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.redstone.name=Redstonia</v>
-      </c>
-      <c r="AJ10" s="13" t="str">
+        <v>item.mirageFairy.stone.name=Stonia</v>
+      </c>
+      <c r="AL10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.redstone.name=レドストーニャ</v>
-      </c>
-      <c r="AK10" s="13"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.stone.name=ストーニャ</v>
+      </c>
+      <c r="AM10" s="13"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" s="8">
-        <v>48</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7">
-        <v>18</v>
-      </c>
-      <c r="M11" s="7">
-        <v>18</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O11" s="7">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="P11" s="7">
+        <v>28</v>
+      </c>
       <c r="Q11" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1</v>
       </c>
       <c r="R11" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K11:P11)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.72922930513582751</v>
+        <v>0.9376639403055067</v>
       </c>
       <c r="S11" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2264126171733489</v>
+        <v>0.9376639403055067</v>
       </c>
       <c r="T11" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>58.867805624320752</v>
+        <v>65.636475821385474</v>
       </c>
       <c r="U11" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.99775941736136864</v>
+        <v>0</v>
       </c>
       <c r="V11" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.959669512504636</v>
+        <v>0</v>
       </c>
       <c r="W11" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.959669512504636</v>
+        <v>0</v>
       </c>
       <c r="X11" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.973113008336425</v>
+        <v>16.008896541801334</v>
       </c>
       <c r="Y11" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.9775941736136868</v>
+        <v>4.8026689625404</v>
       </c>
       <c r="Z11" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>11</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>7</v>
-      </c>
-      <c r="AC11" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="14">
-        <v>4</v>
-      </c>
+        <v>44.824910317043738</v>
+      </c>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
       <c r="AE11" s="14"/>
       <c r="AF11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] enderman;</v>
-      </c>
-      <c r="AH11" s="13" t="str">
+        <v>public static VariantMirageFairy[] dirt;</v>
+      </c>
+      <c r="AJ11" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(9, enderman = v(t("enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(e(ATTACK, 11), e(CRAFT, 7), e(FELL, 6), e(LIGHT, 4), e(FLAME, 0), e(WATER, 1)), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
-      </c>
-      <c r="AI11" s="13" t="str">
+        <v>r(5, dirt = v(t("dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 2)), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
+      </c>
+      <c r="AK11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.enderman.name=Endermania</v>
-      </c>
-      <c r="AJ11" s="13" t="str">
+        <v>item.mirageFairy.dirt.name=Dirtia</v>
+      </c>
+      <c r="AL11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
-      </c>
-      <c r="AK11" s="13"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.dirt.name=ディルチャ</v>
+      </c>
+      <c r="AM11" s="13"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>64</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5</v>
-      </c>
-      <c r="J12" s="8">
-        <v>95</v>
-      </c>
-      <c r="K12" s="7">
-        <v>10</v>
-      </c>
-      <c r="L12" s="7">
-        <v>24</v>
-      </c>
-      <c r="M12" s="7">
-        <v>28</v>
-      </c>
-      <c r="N12" s="7">
-        <v>9</v>
-      </c>
-      <c r="O12" s="7">
-        <v>9</v>
-      </c>
+      <c r="O12" s="7"/>
       <c r="P12" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K12:P12)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.68302012837719772</v>
+        <v>0.90909312952755927</v>
       </c>
       <c r="S12" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3660402567543954</v>
+        <v>0.90909312952755927</v>
       </c>
       <c r="T12" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>129.77382439166757</v>
+        <v>58.181960289763794</v>
       </c>
       <c r="U12" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.359411846825484</v>
+        <v>2.1548874181393995</v>
       </c>
       <c r="V12" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>29.66258843238116</v>
+        <v>0</v>
       </c>
       <c r="W12" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.606353171111351</v>
+        <v>0</v>
       </c>
       <c r="X12" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.123470662142935</v>
+        <v>21.548874181393995</v>
       </c>
       <c r="Y12" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.123470662142935</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.898529617063705</v>
-      </c>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
+        <v>34.478198690230393</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>1</v>
+      </c>
       <c r="AC12" s="14"/>
-      <c r="AD12" s="14">
-        <v>6</v>
-      </c>
+      <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
       <c r="AF12" s="14"/>
-      <c r="AG12" s="13" t="str">
+      <c r="AG12" s="14">
+        <v>6</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] moon;</v>
-      </c>
-      <c r="AH12" s="13" t="str">
+        <v>public static VariantMirageFairy[] sand;</v>
+      </c>
+      <c r="AJ12" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(10, moon = v(t("moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 6), e(FLAME, 0), e(WATER, 0)), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
-      </c>
-      <c r="AI12" s="13" t="str">
+        <v>r(11, sand = v(t("sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(e(ATTACK, 2), e(CRAFT, 1), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
+      </c>
+      <c r="AK12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.moon.name=Moonia</v>
-      </c>
-      <c r="AJ12" s="13" t="str">
+        <v>item.mirageFairy.sand.name=Sandia</v>
+      </c>
+      <c r="AL12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.moon.name=モーニャ</v>
-      </c>
-      <c r="AK12" s="13"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.sand.name=サンジャ</v>
+      </c>
+      <c r="AM12" s="13"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>405</v>
@@ -4109,27 +4203,25 @@
         <v>418</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>308</v>
+        <v>441</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="8">
-        <v>64</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7">
@@ -4137,27 +4229,27 @@
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R13" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K13:P13)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90909312952755927</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="S13" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.90909312952755927</v>
+        <v>1.0643701824533598</v>
       </c>
       <c r="T13" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>58.181960289763794</v>
+        <v>81.956504048908698</v>
       </c>
       <c r="U13" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.1548874181393995</v>
+        <v>0</v>
       </c>
       <c r="V13" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4169,7 +4261,7 @@
       </c>
       <c r="X13" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.548874181393995</v>
+        <v>45.531391138282608</v>
       </c>
       <c r="Y13" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4177,39 +4269,43 @@
       </c>
       <c r="Z13" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.478198690230393</v>
+        <v>36.42511291062609</v>
       </c>
       <c r="AA13" s="14">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="14">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
-      <c r="AG13" s="13" t="str">
+      <c r="AG13" s="14">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] sand;</v>
-      </c>
-      <c r="AH13" s="13" t="str">
+        <v>public static VariantMirageFairy[] gravel;</v>
+      </c>
+      <c r="AJ13" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(11, sand = v(t("sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(e(ATTACK, 2), e(CRAFT, 1), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
-      </c>
-      <c r="AI13" s="13" t="str">
+        <v>r(22, gravel = v(t("gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(e(ATTACK, 3), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
+      </c>
+      <c r="AK13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.sand.name=Sandia</v>
-      </c>
-      <c r="AJ13" s="13" t="str">
+        <v>item.mirageFairy.gravel.name=Gravelia</v>
+      </c>
+      <c r="AL13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.sand.name=サンジャ</v>
-      </c>
-      <c r="AK13" s="13"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.gravel.name=グラベーリャ</v>
+      </c>
+      <c r="AM13" s="13"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>407</v>
@@ -4218,162 +4314,172 @@
         <v>419</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
         <v>3</v>
       </c>
-      <c r="J14" s="8">
-        <v>93</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
+      <c r="M14" s="7"/>
       <c r="N14" s="7">
         <v>10</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="O14" s="7">
+        <v>4</v>
+      </c>
+      <c r="P14" s="7">
+        <v>6</v>
+      </c>
       <c r="Q14" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R14" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K14:P14)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.87055056329612412</v>
+        <v>0.83508791942836935</v>
       </c>
       <c r="S14" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2311444133449163</v>
+        <v>0.99309249543703582</v>
       </c>
       <c r="T14" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>114.49643044107722</v>
+        <v>85.405954607585073</v>
       </c>
       <c r="U14" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.724821522053861</v>
+        <v>0</v>
       </c>
       <c r="V14" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>11.13990712272849</v>
       </c>
       <c r="W14" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>51.523393698484753</v>
+        <v>0</v>
       </c>
       <c r="X14" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>57.248215220538611</v>
+        <v>37.133023742428293</v>
       </c>
       <c r="Y14" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>14.853209496971317</v>
       </c>
       <c r="Z14" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>22.279814245456979</v>
       </c>
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD14" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
-      <c r="AG14" s="13" t="str">
+      <c r="AG14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] gold;</v>
-      </c>
-      <c r="AH14" s="13" t="str">
+        <v>public static VariantMirageFairy[] iron;</v>
+      </c>
+      <c r="AJ14" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(12, gold = v(t("gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 3), e(FLAME, 0), e(WATER, 0)), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
-      </c>
-      <c r="AI14" s="13" t="str">
+        <v>r(6, iron = v(t("iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 2), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0)), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
+      </c>
+      <c r="AK14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.gold.name=Goldia</v>
-      </c>
-      <c r="AJ14" s="13" t="str">
+        <v>item.mirageFairy.iron.name=Ironia</v>
+      </c>
+      <c r="AL14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.gold.name=ゴルジャ</v>
-      </c>
-      <c r="AK14" s="13"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.iron.name=イローニャ</v>
+      </c>
+      <c r="AM14" s="13"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="8">
-        <v>43</v>
-      </c>
-      <c r="K15" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7">
+      <c r="M15" s="7">
+        <v>9</v>
+      </c>
+      <c r="N15" s="7">
         <v>10</v>
       </c>
-      <c r="P15" s="7">
-        <v>4</v>
-      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="R15" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K15:P15)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.94605764672559589</v>
+        <v>0.87055056329612412</v>
       </c>
       <c r="S15" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1250584846888094</v>
+        <v>1.2311444133449163</v>
       </c>
       <c r="T15" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>48.377514841618805</v>
+        <v>114.49643044107722</v>
       </c>
       <c r="U15" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>5.724821522053861</v>
       </c>
       <c r="V15" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4381,124 +4487,128 @@
       </c>
       <c r="W15" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>51.523393698484753</v>
       </c>
       <c r="X15" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>57.248215220538611</v>
       </c>
       <c r="Y15" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.555367744013431</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.822147097605372</v>
-      </c>
-      <c r="AA15" s="14">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
+      <c r="AC15" s="14">
+        <v>1</v>
+      </c>
       <c r="AD15" s="14">
         <v>3</v>
       </c>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG15" s="13" t="str">
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="14">
+        <v>12</v>
+      </c>
+      <c r="AI15" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] spider;</v>
-      </c>
-      <c r="AH15" s="13" t="str">
+        <v>public static VariantMirageFairy[] gold;</v>
+      </c>
+      <c r="AJ15" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(13, spider = v(t("spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 3), e(FLAME, 0), e(WATER, 2)), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
-      </c>
-      <c r="AI15" s="13" t="str">
+        <v>r(12, gold = v(t("gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 3), e(FLAME, 0), e(WATER, 0)), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
+      </c>
+      <c r="AK15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.spider.name=Spideria</v>
-      </c>
-      <c r="AJ15" s="13" t="str">
+        <v>item.mirageFairy.gold.name=Goldia</v>
+      </c>
+      <c r="AL15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.spider.name=スピデーリャ</v>
-      </c>
-      <c r="AK15" s="13"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.gold.name=ゴルジャ</v>
+      </c>
+      <c r="AM15" s="13"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" s="8">
-        <v>49</v>
-      </c>
-      <c r="K16" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="K16" s="7">
+        <v>10</v>
+      </c>
       <c r="L16" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="O16" s="7"/>
-      <c r="P16" s="7">
-        <v>8</v>
-      </c>
+      <c r="P16" s="7"/>
       <c r="Q16" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R16" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K16:P16)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.74742462431746925</v>
+        <v>0.7908842457011136</v>
       </c>
       <c r="S16" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.74742462431746925</v>
+        <v>1.3301034541814087</v>
       </c>
       <c r="T16" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>36.62380659155599</v>
+        <v>101.08786251778706</v>
       </c>
       <c r="U16" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>14.441123216826723</v>
       </c>
       <c r="V16" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.4513049268531582</v>
+        <v>18.773460181874739</v>
       </c>
       <c r="W16" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.814131158566449</v>
+        <v>30.326358755336116</v>
       </c>
       <c r="X16" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.9070655792832243</v>
+        <v>37.546920363749479</v>
       </c>
       <c r="Y16" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4506,108 +4616,112 @@
       </c>
       <c r="Z16" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.4513049268531582</v>
-      </c>
-      <c r="AA16" s="14">
-        <v>12</v>
-      </c>
-      <c r="AB16" s="14">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
       <c r="AC16" s="14">
-        <v>8</v>
-      </c>
-      <c r="AD16" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>4</v>
+      </c>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
-      <c r="AG16" s="13" t="str">
+      <c r="AG16" s="14">
+        <v>17</v>
+      </c>
+      <c r="AH16" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI16" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] skeleton;</v>
-      </c>
-      <c r="AH16" s="13" t="str">
+        <v>public static VariantMirageFairy[] diamond;</v>
+      </c>
+      <c r="AJ16" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(14, skeleton = v(t("skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(e(ATTACK, 12), e(CRAFT, 5), e(FELL, 8), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
-      </c>
-      <c r="AI16" s="13" t="str">
+        <v>r(7, diamond = v(t("diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 4), e(FLAME, 0), e(WATER, 0)), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
+      </c>
+      <c r="AK16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.skeleton.name=Skeletonia</v>
-      </c>
-      <c r="AJ16" s="13" t="str">
+        <v>item.mirageFairy.diamond.name=Diamondia</v>
+      </c>
+      <c r="AL16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
-      </c>
-      <c r="AK16" s="13"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
+      </c>
+      <c r="AM16" s="13"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" s="8">
-        <v>55</v>
-      </c>
-      <c r="K17" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="K17" s="7">
+        <v>10</v>
+      </c>
       <c r="L17" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N17" s="7"/>
-      <c r="O17" s="7">
-        <v>2</v>
-      </c>
+      <c r="O17" s="7"/>
       <c r="P17" s="7">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R17" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K17:P17)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.75785828325519911</v>
+        <v>0.85394924037429032</v>
       </c>
       <c r="S17" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.75785828325519911</v>
+        <v>1.4361657100787466</v>
       </c>
       <c r="T17" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>41.682205579035951</v>
+        <v>104.8400968357485</v>
       </c>
       <c r="U17" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>13.61559699165565</v>
       </c>
       <c r="V17" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.504661673710785</v>
+        <v>21.784955186649039</v>
       </c>
       <c r="W17" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.894068526345317</v>
+        <v>20.423395487483475</v>
       </c>
       <c r="X17" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4615,215 +4729,225 @@
       </c>
       <c r="Y17" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.7788137052690636</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.504661673710785</v>
-      </c>
-      <c r="AA17" s="14">
-        <v>13</v>
-      </c>
+        <v>49.016149169960336</v>
+      </c>
+      <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14">
+        <v>2</v>
+      </c>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="14">
-        <v>4</v>
-      </c>
-      <c r="AG17" s="13" t="str">
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14">
+        <v>15</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>9</v>
+      </c>
+      <c r="AI17" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] zombie;</v>
-      </c>
-      <c r="AH17" s="13" t="str">
+        <v>public static VariantMirageFairy[] emerald;</v>
+      </c>
+      <c r="AJ17" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(15, zombie = v(t("zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(e(ATTACK, 13), e(CRAFT, 0), e(FELL, 6), e(LIGHT, 0), e(FLAME, 0), e(WATER, 4)), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
-      </c>
-      <c r="AI17" s="13" t="str">
+        <v>r(23, emerald = v(t("emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0)), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
+      </c>
+      <c r="AK17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.zombie.name=Zombia</v>
-      </c>
-      <c r="AJ17" s="13" t="str">
+        <v>item.mirageFairy.emerald.name=Emeraldia</v>
+      </c>
+      <c r="AL17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.zombie.name=ゾンビャ</v>
-      </c>
-      <c r="AK17" s="13"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.emerald.name=エメラルジャ</v>
+      </c>
+      <c r="AM17" s="13"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="8">
+        <v>54</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7">
         <v>35</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
       <c r="M18" s="7">
+        <v>11</v>
+      </c>
+      <c r="N18" s="7">
         <v>10</v>
       </c>
-      <c r="N18" s="7">
-        <v>5</v>
-      </c>
-      <c r="O18" s="7">
-        <v>12</v>
-      </c>
+      <c r="O18" s="7"/>
       <c r="P18" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="R18" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K18:P18)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.80292288186337646</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="S18" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9548416039104165</v>
+        <v>1.2657565939702802</v>
       </c>
       <c r="T18" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>33.419456136864575</v>
+        <v>68.350856074395125</v>
       </c>
       <c r="U18" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>1.0849342234030972</v>
       </c>
       <c r="V18" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>37.972697819108404</v>
       </c>
       <c r="W18" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.780469721569217</v>
+        <v>11.93427645743407</v>
       </c>
       <c r="X18" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.3902348607846085</v>
+        <v>10.849342234030971</v>
       </c>
       <c r="Y18" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.936563665883062</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.3121878886276868</v>
-      </c>
-      <c r="AA18" s="14">
-        <v>10</v>
-      </c>
+        <v>6.5096053404185836</v>
+      </c>
+      <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14">
+        <v>7</v>
+      </c>
+      <c r="AE18" s="14">
         <v>2</v>
       </c>
-      <c r="AE18" s="14">
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14">
+        <v>10</v>
+      </c>
+      <c r="AH18" s="14">
         <v>7</v>
       </c>
-      <c r="AF18" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG18" s="13" t="str">
+      <c r="AI18" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] creeper;</v>
-      </c>
-      <c r="AH18" s="13" t="str">
+        <v>public static VariantMirageFairy[] redstone;</v>
+      </c>
+      <c r="AJ18" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(16, creeper = v(t("creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 7), e(WATER, 2)), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
-      </c>
-      <c r="AI18" s="13" t="str">
+        <v>r(8, redstone = v(t("redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 2), e(WATER, 0)), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
+      </c>
+      <c r="AK18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.creeper.name=Creeperia</v>
-      </c>
-      <c r="AJ18" s="13" t="str">
+        <v>item.mirageFairy.redstone.name=Redstonia</v>
+      </c>
+      <c r="AL18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.creeper.name=クレペーリャ</v>
-      </c>
-      <c r="AK18" s="13"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.redstone.name=レドストーニャ</v>
+      </c>
+      <c r="AM18" s="13"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="3">
+        <v>4</v>
+      </c>
+      <c r="J19" s="8">
+        <v>62</v>
+      </c>
+      <c r="K19" s="7">
         <v>2</v>
       </c>
-      <c r="J19" s="8">
-        <v>31</v>
-      </c>
-      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="M19" s="7">
+        <v>8</v>
+      </c>
+      <c r="N19" s="7">
+        <v>10</v>
+      </c>
       <c r="O19" s="7">
-        <v>10</v>
-      </c>
-      <c r="P19" s="7">
-        <v>5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="P19" s="7"/>
       <c r="Q19" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R19" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K19:P19)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.93303299153680741</v>
+        <v>0.85724398285307279</v>
       </c>
       <c r="S19" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1095694720678451</v>
+        <v>1.4417067843579312</v>
       </c>
       <c r="T19" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>34.396653634103195</v>
+        <v>89.385820630191731</v>
       </c>
       <c r="U19" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>4.7045168752732494</v>
       </c>
       <c r="V19" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4831,82 +4955,90 @@
       </c>
       <c r="W19" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>18.818067501092997</v>
       </c>
       <c r="X19" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>23.522584376366247</v>
       </c>
       <c r="Y19" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>22.931102422735464</v>
+        <v>42.340651877459237</v>
       </c>
       <c r="Z19" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.465551211367732</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="13" t="str">
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14">
+        <v>13</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>10</v>
+      </c>
+      <c r="AI19" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] wheat;</v>
-      </c>
-      <c r="AH19" s="13" t="str">
+        <v>public static VariantMirageFairy[] lapislazuli;</v>
+      </c>
+      <c r="AJ19" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(17, wheat = v(t("wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 1)), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
-      </c>
-      <c r="AI19" s="13" t="str">
+        <v>r(24, lapislazuli = v(t("lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
+      </c>
+      <c r="AK19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.wheat.name=Wheatia</v>
-      </c>
-      <c r="AJ19" s="13" t="str">
+        <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
+      </c>
+      <c r="AL19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.wheat.name=ウェアーチャ</v>
-      </c>
-      <c r="AK19" s="13"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
+      </c>
+      <c r="AM19" s="13"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="8">
-        <v>28</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7">
+        <v>18</v>
+      </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N20" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O20" s="7">
         <v>10</v>
@@ -4914,449 +5046,463 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R20" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K20:P20)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.97265494741228553</v>
+        <v>0.72922930513582751</v>
       </c>
       <c r="S20" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3755418181397439</v>
+        <v>1.2264126171733489</v>
       </c>
       <c r="T20" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>38.515170907912825</v>
+        <v>58.867805624320752</v>
       </c>
       <c r="U20" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>0.99775941736136864</v>
       </c>
       <c r="V20" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>17.959669512504636</v>
       </c>
       <c r="W20" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.209597575659402</v>
+        <v>17.959669512504636</v>
       </c>
       <c r="X20" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.209597575659402</v>
+        <v>11.973113008336425</v>
       </c>
       <c r="Y20" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>32.095975756594022</v>
+        <v>9.9775941736136868</v>
       </c>
       <c r="Z20" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
+      <c r="AA20" s="14">
+        <v>11</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>7</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>4</v>
+      </c>
       <c r="AE20" s="14"/>
       <c r="AF20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="14">
+        <v>4</v>
+      </c>
+      <c r="AH20" s="14">
         <v>3</v>
       </c>
-      <c r="AG20" s="13" t="str">
+      <c r="AI20" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] lilac;</v>
-      </c>
-      <c r="AH20" s="13" t="str">
+        <v>public static VariantMirageFairy[] enderman;</v>
+      </c>
+      <c r="AJ20" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(18, lilac = v(t("lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3)), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
-      </c>
-      <c r="AI20" s="13" t="str">
+        <v>r(9, enderman = v(t("enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(e(ATTACK, 11), e(CRAFT, 7), e(FELL, 6), e(LIGHT, 4), e(FLAME, 0), e(WATER, 1)), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
+      </c>
+      <c r="AK20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lilac.name=Lilacia</v>
-      </c>
-      <c r="AJ20" s="13" t="str">
+        <v>item.mirageFairy.enderman.name=Endermania</v>
+      </c>
+      <c r="AL20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lilac.name=リラーキャ</v>
-      </c>
-      <c r="AK20" s="13"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
+      </c>
+      <c r="AM20" s="13"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>443</v>
+        <v>319</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="8">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7">
-        <v>5</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
+        <v>43</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7">
         <v>10</v>
       </c>
-      <c r="O21" s="7">
+      <c r="P21" s="7">
         <v>4</v>
       </c>
-      <c r="P21" s="7"/>
       <c r="Q21" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R21" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K21:P21)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85856543643775374</v>
+        <v>0.94605764672559589</v>
       </c>
       <c r="S21" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.85856543643775374</v>
+        <v>1.1250584846888094</v>
       </c>
       <c r="T21" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>16.312743292317322</v>
+        <v>48.377514841618805</v>
       </c>
       <c r="U21" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.77679729963415822</v>
+        <v>0</v>
       </c>
       <c r="V21" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.883986498170791</v>
+        <v>0</v>
       </c>
       <c r="W21" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.77679729963415822</v>
+        <v>0</v>
       </c>
       <c r="X21" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.767972996341582</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.1071891985366329</v>
+        <v>34.555367744013431</v>
       </c>
       <c r="Z21" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>13.822147097605372</v>
       </c>
       <c r="AA21" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AB21" s="14"/>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14">
-        <v>12</v>
-      </c>
-      <c r="AE21" s="14">
-        <v>8</v>
-      </c>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] torch;</v>
-      </c>
-      <c r="AH21" s="13" t="str">
+        <v>public static VariantMirageFairy[] spider;</v>
+      </c>
+      <c r="AJ21" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(19, torch = v(t("torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 12), e(FLAME, 8), e(WATER, 0)), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
-      </c>
-      <c r="AI21" s="13" t="str">
+        <v>r(13, spider = v(t("spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 3), e(FLAME, 0), e(WATER, 2)), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
+      </c>
+      <c r="AK21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.torch.name=Torchia</v>
-      </c>
-      <c r="AJ21" s="13" t="str">
+        <v>item.mirageFairy.spider.name=Spideria</v>
+      </c>
+      <c r="AL21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.torch.name=トルキャ</v>
-      </c>
-      <c r="AK21" s="13"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.spider.name=スピデーリャ</v>
+      </c>
+      <c r="AM21" s="13"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J22" s="8">
-        <v>58</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7">
-        <v>22</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7">
-        <v>8</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K22" s="7">
+        <v>3</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
+        <v>34</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7">
         <v>10</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>2</v>
       </c>
       <c r="R22" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K22:P22)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89277196943365633</v>
+        <v>0.94837491720007905</v>
       </c>
       <c r="S22" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0616907781254958</v>
+        <v>1.8967498344001581</v>
       </c>
       <c r="T22" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>61.578065131278755</v>
+        <v>115.70173989840964</v>
       </c>
       <c r="U22" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>7.3852174403240198</v>
       </c>
       <c r="V22" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>33.867935822203314</v>
+        <v>0</v>
       </c>
       <c r="W22" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>83.699130990338887</v>
       </c>
       <c r="X22" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.31561302625575</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>15.394516282819689</v>
+        <v>24.617391467746732</v>
       </c>
       <c r="Z22" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
       <c r="AA22" s="14">
-        <v>7</v>
-      </c>
-      <c r="AB22" s="14">
-        <v>3</v>
-      </c>
-      <c r="AC22" s="14">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
       <c r="AD22" s="14">
-        <v>15</v>
-      </c>
-      <c r="AE22" s="14">
-        <v>18</v>
-      </c>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14">
+        <v>4</v>
+      </c>
+      <c r="AI22" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] lava;</v>
-      </c>
-      <c r="AH22" s="13" t="str">
+        <v>public static VariantMirageFairy[] enderdragon;</v>
+      </c>
+      <c r="AJ22" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(20, lava = v(t("lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(e(ATTACK, 7), e(CRAFT, 3), e(FELL, 1), e(LIGHT, 15), e(FLAME, 18), e(WATER, 0)), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
-      </c>
-      <c r="AI22" s="13" t="str">
+        <v>r(25, enderdragon = v(t("enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(e(ATTACK, 20), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 2)), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
+      </c>
+      <c r="AK22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lava.name=Lavia</v>
-      </c>
-      <c r="AJ22" s="13" t="str">
+        <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
+      </c>
+      <c r="AL22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lava.name=ラービャ</v>
-      </c>
-      <c r="AK22" s="13"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
+      </c>
+      <c r="AM22" s="13"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>93</v>
+        <v>435</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>165</v>
+        <v>437</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>207</v>
+        <v>438</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" s="8">
-        <v>98</v>
-      </c>
-      <c r="K23" s="7">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7">
         <v>10</v>
       </c>
-      <c r="L23" s="7">
-        <v>16</v>
-      </c>
-      <c r="M23" s="7">
-        <v>16</v>
-      </c>
-      <c r="N23" s="7">
-        <v>9</v>
-      </c>
-      <c r="O23" s="7">
-        <v>9</v>
-      </c>
       <c r="P23" s="7">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="Q23" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1</v>
       </c>
       <c r="R23" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K23:P23)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.80341122656688246</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="S23" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3511712407893626</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="T23" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>132.41478159735755</v>
+        <v>34.905977766190922</v>
       </c>
       <c r="U23" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.511712407893627</v>
+        <v>0</v>
       </c>
       <c r="V23" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.618739852629805</v>
+        <v>0</v>
       </c>
       <c r="W23" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.618739852629805</v>
+        <v>1.9392209870106067</v>
       </c>
       <c r="X23" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.160541167104263</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.160541167104263</v>
+        <v>19.392209870106068</v>
       </c>
       <c r="Z23" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>51.344507149995785</v>
-      </c>
-      <c r="AA23" s="14"/>
+        <v>13.574546909074249</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>1</v>
+      </c>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
-      <c r="AD23" s="14">
-        <v>7</v>
-      </c>
-      <c r="AE23" s="14">
-        <v>6</v>
-      </c>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="13" t="str">
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14">
+        <v>3</v>
+      </c>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] star;</v>
-      </c>
-      <c r="AH23" s="13" t="str">
+        <v>public static VariantMirageFairy[] chicken;</v>
+      </c>
+      <c r="AJ23" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(21, star = v(t("star", 4, 98, m(10, 16, 16, 9, 9, 38), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 6), e(WATER, 0)), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
-      </c>
-      <c r="AI23" s="13" t="str">
+        <v>r(29, chicken = v(t("chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3)), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
+      </c>
+      <c r="AK23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.star.name=Staria</v>
-      </c>
-      <c r="AJ23" s="13" t="str">
+        <v>item.mirageFairy.chicken.name=Chickenia</v>
+      </c>
+      <c r="AL23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.star.name=スターリャ</v>
-      </c>
-      <c r="AK23" s="13"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.chicken.name=チッケーニャ</v>
+      </c>
+      <c r="AM23" s="13"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>441</v>
+        <v>307</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="8">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="L24" s="7">
+        <v>8</v>
+      </c>
+      <c r="M24" s="7">
+        <v>10</v>
+      </c>
       <c r="N24" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7">
@@ -5364,19 +5510,19 @@
       </c>
       <c r="Q24" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1</v>
       </c>
       <c r="R24" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K24:P24)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
+        <v>0.74742462431746925</v>
       </c>
       <c r="S24" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0643701824533598</v>
+        <v>0.74742462431746925</v>
       </c>
       <c r="T24" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>81.956504048908698</v>
+        <v>36.62380659155599</v>
       </c>
       <c r="U24" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5384,15 +5530,15 @@
       </c>
       <c r="V24" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>9.4513049268531582</v>
       </c>
       <c r="W24" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>11.814131158566449</v>
       </c>
       <c r="X24" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>45.531391138282608</v>
+        <v>5.9070655792832243</v>
       </c>
       <c r="Y24" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5400,104 +5546,112 @@
       </c>
       <c r="Z24" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>36.42511291062609</v>
+        <v>9.4513049268531582</v>
       </c>
       <c r="AA24" s="14">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>8</v>
+      </c>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
-      <c r="AG24" s="13" t="str">
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI24" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] gravel;</v>
-      </c>
-      <c r="AH24" s="13" t="str">
+        <v>public static VariantMirageFairy[] skeleton;</v>
+      </c>
+      <c r="AJ24" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(22, gravel = v(t("gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(e(ATTACK, 3), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
-      </c>
-      <c r="AI24" s="13" t="str">
+        <v>r(14, skeleton = v(t("skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(e(ATTACK, 12), e(CRAFT, 5), e(FELL, 8), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
+      </c>
+      <c r="AK24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.gravel.name=Gravelia</v>
-      </c>
-      <c r="AJ24" s="13" t="str">
+        <v>item.mirageFairy.skeleton.name=Skeletonia</v>
+      </c>
+      <c r="AL24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.gravel.name=グラベーリャ</v>
-      </c>
-      <c r="AK24" s="13"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
+      </c>
+      <c r="AM24" s="13"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" s="8">
-        <v>73</v>
-      </c>
-      <c r="K25" s="7">
+        <v>55</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
+        <v>9</v>
+      </c>
+      <c r="M25" s="7">
         <v>10</v>
       </c>
-      <c r="L25" s="7">
-        <v>16</v>
-      </c>
-      <c r="M25" s="7">
-        <v>15</v>
-      </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="7">
+        <v>2</v>
+      </c>
       <c r="P25" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="Q25" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1</v>
       </c>
       <c r="R25" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K25:P25)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85394924037429032</v>
+        <v>0.75785828325519911</v>
       </c>
       <c r="S25" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4361657100787466</v>
+        <v>0.75785828325519911</v>
       </c>
       <c r="T25" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>104.8400968357485</v>
+        <v>41.682205579035951</v>
       </c>
       <c r="U25" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.61559699165565</v>
+        <v>0</v>
       </c>
       <c r="V25" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.784955186649039</v>
+        <v>12.504661673710785</v>
       </c>
       <c r="W25" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>20.423395487483475</v>
+        <v>13.894068526345317</v>
       </c>
       <c r="X25" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5505,79 +5659,87 @@
       </c>
       <c r="Y25" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>2.7788137052690636</v>
       </c>
       <c r="Z25" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>49.016149169960336</v>
-      </c>
-      <c r="AA25" s="14"/>
+        <v>12.504661673710785</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>13</v>
+      </c>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14">
-        <v>2</v>
-      </c>
+      <c r="AC25" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="13" t="str">
+      <c r="AF25" s="14">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] emerald;</v>
-      </c>
-      <c r="AH25" s="13" t="str">
+        <v>public static VariantMirageFairy[] zombie;</v>
+      </c>
+      <c r="AJ25" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(23, emerald = v(t("emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0)), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
-      </c>
-      <c r="AI25" s="13" t="str">
+        <v>r(15, zombie = v(t("zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(e(ATTACK, 13), e(CRAFT, 0), e(FELL, 6), e(LIGHT, 0), e(FLAME, 0), e(WATER, 4)), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
+      </c>
+      <c r="AK25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.emerald.name=Emeraldia</v>
-      </c>
-      <c r="AJ25" s="13" t="str">
+        <v>item.mirageFairy.zombie.name=Zombia</v>
+      </c>
+      <c r="AL25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.emerald.name=エメラルジャ</v>
-      </c>
-      <c r="AK25" s="13"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.zombie.name=ゾンビャ</v>
+      </c>
+      <c r="AM25" s="13"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="3">
         <v>4</v>
       </c>
       <c r="J26" s="8">
-        <v>62</v>
-      </c>
-      <c r="K26" s="7">
-        <v>2</v>
-      </c>
-      <c r="L26" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7">
+        <v>11</v>
+      </c>
       <c r="M26" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N26" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O26" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="5">
@@ -5586,233 +5748,255 @@
       </c>
       <c r="R26" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K26:P26)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85724398285307279</v>
+        <v>0.82775327988481073</v>
       </c>
       <c r="S26" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4417067843579312</v>
+        <v>1.392109531539284</v>
       </c>
       <c r="T26" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>89.385820630191731</v>
+        <v>96.055557676210597</v>
       </c>
       <c r="U26" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.7045168752732494</v>
+        <v>0</v>
       </c>
       <c r="V26" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>40.638889786089102</v>
       </c>
       <c r="W26" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.818067501092997</v>
+        <v>36.944445260080997</v>
       </c>
       <c r="X26" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>23.522584376366247</v>
+        <v>14.7777781040324</v>
       </c>
       <c r="Y26" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>42.340651877459237</v>
+        <v>3.6944445260081</v>
       </c>
       <c r="Z26" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
+      <c r="AA26" s="14">
+        <v>17</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>6</v>
+      </c>
+      <c r="AC26" s="14">
+        <v>2</v>
+      </c>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
-      <c r="AG26" s="13" t="str">
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] lapislazuli;</v>
-      </c>
-      <c r="AH26" s="13" t="str">
+        <v>public static VariantMirageFairy[] witherskeleton;</v>
+      </c>
+      <c r="AJ26" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(24, lapislazuli = v(t("lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
-      </c>
-      <c r="AI26" s="13" t="str">
+        <v>r(26, witherskeleton = v(t("witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(e(ATTACK, 17), e(CRAFT, 6), e(FELL, 2), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
+      </c>
+      <c r="AK26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
-      </c>
-      <c r="AJ26" s="13" t="str">
+        <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
+      </c>
+      <c r="AL26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
-      </c>
-      <c r="AK26" s="13"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
+      </c>
+      <c r="AM26" s="13"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="3">
         <v>5</v>
       </c>
       <c r="J27" s="8">
-        <v>61</v>
-      </c>
-      <c r="K27" s="7">
+        <v>52</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7">
+        <v>8</v>
+      </c>
+      <c r="M27" s="7">
+        <v>10</v>
+      </c>
+      <c r="N27" s="7">
         <v>3</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7">
-        <v>34</v>
-      </c>
-      <c r="N27" s="7"/>
       <c r="O27" s="7">
-        <v>10</v>
-      </c>
-      <c r="P27" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="7">
+        <v>1</v>
+      </c>
       <c r="Q27" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>2</v>
       </c>
       <c r="R27" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K27:P27)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.94837491720007905</v>
+        <v>0.83508791942836935</v>
       </c>
       <c r="S27" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.8967498344001581</v>
+        <v>1.6701758388567387</v>
       </c>
       <c r="T27" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>115.70173989840964</v>
+        <v>86.849143620550407</v>
       </c>
       <c r="U27" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.3852174403240198</v>
+        <v>0</v>
       </c>
       <c r="V27" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>30.208397781061013</v>
       </c>
       <c r="W27" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>83.699130990338887</v>
+        <v>37.760497226326265</v>
       </c>
       <c r="X27" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>11.328149167897879</v>
       </c>
       <c r="Y27" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>24.617391467746732</v>
+        <v>3.7760497226326266</v>
       </c>
       <c r="Z27" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>3.7760497226326266</v>
       </c>
       <c r="AA27" s="14">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
+      <c r="AC27" s="14">
+        <v>4</v>
+      </c>
       <c r="AD27" s="14">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="14">
+        <v>4</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14">
         <v>2</v>
       </c>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG27" s="13" t="str">
+      <c r="AI27" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] enderdragon;</v>
-      </c>
-      <c r="AH27" s="13" t="str">
+        <v>public static VariantMirageFairy[] wither;</v>
+      </c>
+      <c r="AJ27" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(25, enderdragon = v(t("enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(e(ATTACK, 20), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 2)), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
-      </c>
-      <c r="AI27" s="13" t="str">
+        <v>r(27, wither = v(t("wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(e(ATTACK, 25), e(CRAFT, 0), e(FELL, 4), e(LIGHT, 3), e(FLAME, 4), e(WATER, 1)), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
+      </c>
+      <c r="AK27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
-      </c>
-      <c r="AJ27" s="13" t="str">
+        <v>item.mirageFairy.wither.name=Witheria</v>
+      </c>
+      <c r="AL27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
-      </c>
-      <c r="AK27" s="13"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.wither.name=ウィテーリャ</v>
+      </c>
+      <c r="AM27" s="13"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J28" s="8">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="K28" s="7"/>
-      <c r="L28" s="7">
-        <v>11</v>
-      </c>
+      <c r="L28" s="7"/>
       <c r="M28" s="7">
         <v>10</v>
       </c>
       <c r="N28" s="7">
+        <v>5</v>
+      </c>
+      <c r="O28" s="7">
+        <v>12</v>
+      </c>
+      <c r="P28" s="7">
         <v>4</v>
       </c>
-      <c r="O28" s="7">
-        <v>1</v>
-      </c>
-      <c r="P28" s="7"/>
       <c r="Q28" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R28" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K28:P28)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.82775327988481073</v>
+        <v>0.80292288186337646</v>
       </c>
       <c r="S28" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.392109531539284</v>
+        <v>0.9548416039104165</v>
       </c>
       <c r="T28" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>96.055557676210597</v>
+        <v>33.419456136864575</v>
       </c>
       <c r="U28" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5820,114 +6004,114 @@
       </c>
       <c r="V28" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>40.638889786089102</v>
+        <v>0</v>
       </c>
       <c r="W28" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>36.944445260080997</v>
+        <v>10.780469721569217</v>
       </c>
       <c r="X28" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.7777781040324</v>
+        <v>5.3902348607846085</v>
       </c>
       <c r="Y28" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.6944445260081</v>
+        <v>12.936563665883062</v>
       </c>
       <c r="Z28" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>4.3121878886276868</v>
       </c>
       <c r="AA28" s="14">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="14">
+        <v>7</v>
+      </c>
+      <c r="AF28" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14">
+        <v>3</v>
+      </c>
+      <c r="AI28" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] creeper;</v>
+      </c>
+      <c r="AJ28" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(16, creeper = v(t("creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 7), e(WATER, 2)), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
+      </c>
+      <c r="AK28" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.creeper.name=Creeperia</v>
+      </c>
+      <c r="AL28" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.creeper.name=クレペーリャ</v>
+      </c>
+      <c r="AM28" s="13"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
         <v>17</v>
       </c>
-      <c r="AB28" s="14">
-        <v>6</v>
-      </c>
-      <c r="AC28" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] witherskeleton;</v>
-      </c>
-      <c r="AH28" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(26, witherskeleton = v(t("witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(e(ATTACK, 17), e(CRAFT, 6), e(FELL, 2), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
-      </c>
-      <c r="AI28" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
-      </c>
-      <c r="AJ28" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
-      </c>
-      <c r="AK28" s="13"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
       <c r="B29" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="8">
+        <v>31</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7">
         <v>5</v>
-      </c>
-      <c r="J29" s="8">
-        <v>52</v>
-      </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7">
-        <v>8</v>
-      </c>
-      <c r="M29" s="7">
-        <v>10</v>
-      </c>
-      <c r="N29" s="7">
-        <v>3</v>
-      </c>
-      <c r="O29" s="7">
-        <v>1</v>
-      </c>
-      <c r="P29" s="7">
-        <v>1</v>
       </c>
       <c r="Q29" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R29" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K29:P29)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.83508791942836935</v>
+        <v>0.93303299153680741</v>
       </c>
       <c r="S29" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.6701758388567387</v>
+        <v>1.1095694720678451</v>
       </c>
       <c r="T29" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>86.849143620550407</v>
+        <v>34.396653634103195</v>
       </c>
       <c r="U29" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5935,102 +6119,94 @@
       </c>
       <c r="V29" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.208397781061013</v>
+        <v>0</v>
       </c>
       <c r="W29" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.760497226326265</v>
+        <v>0</v>
       </c>
       <c r="X29" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.328149167897879</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.7760497226326266</v>
+        <v>22.931102422735464</v>
       </c>
       <c r="Z29" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.7760497226326266</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>25</v>
-      </c>
+        <v>11.465551211367732</v>
+      </c>
+      <c r="AA29" s="14"/>
       <c r="AB29" s="14"/>
-      <c r="AC29" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD29" s="14">
-        <v>3</v>
-      </c>
-      <c r="AE29" s="14">
-        <v>4</v>
-      </c>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
       <c r="AF29" s="14">
         <v>1</v>
       </c>
-      <c r="AG29" s="13" t="str">
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI29" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] wither;</v>
-      </c>
-      <c r="AH29" s="13" t="str">
+        <v>public static VariantMirageFairy[] wheat;</v>
+      </c>
+      <c r="AJ29" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(27, wither = v(t("wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(e(ATTACK, 25), e(CRAFT, 0), e(FELL, 4), e(LIGHT, 3), e(FLAME, 4), e(WATER, 1)), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
-      </c>
-      <c r="AI29" s="13" t="str">
+        <v>r(17, wheat = v(t("wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 1)), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
+      </c>
+      <c r="AK29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.wither.name=Witheria</v>
-      </c>
-      <c r="AJ29" s="13" t="str">
+        <v>item.mirageFairy.wheat.name=Wheatia</v>
+      </c>
+      <c r="AL29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.wither.name=ウィテーリャ</v>
-      </c>
-      <c r="AK29" s="13"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.wheat.name=ウェアーチャ</v>
+      </c>
+      <c r="AM29" s="13"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>457</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="H30" s="11"/>
       <c r="I30" s="3">
         <v>3</v>
       </c>
       <c r="J30" s="8">
-        <v>18</v>
-      </c>
-      <c r="K30" s="7">
-        <v>3</v>
-      </c>
-      <c r="L30" s="7">
+        <v>28</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+      <c r="O30" s="7">
         <v>10</v>
       </c>
-      <c r="M30" s="7">
-        <v>3</v>
-      </c>
-      <c r="N30" s="7">
-        <v>8</v>
-      </c>
-      <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
@@ -6038,184 +6214,190 @@
       </c>
       <c r="R30" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K30:P30)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.82359101726757311</v>
+        <v>0.97265494741228553</v>
       </c>
       <c r="S30" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1647335864684558</v>
+        <v>1.3755418181397439</v>
       </c>
       <c r="T30" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>20.965204556432205</v>
+        <v>38.515170907912825</v>
       </c>
       <c r="U30" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.6206505695540256</v>
+        <v>0</v>
       </c>
       <c r="V30" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>8.7355018985134194</v>
+        <v>0</v>
       </c>
       <c r="W30" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.6206505695540256</v>
+        <v>3.209597575659402</v>
       </c>
       <c r="X30" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.9884015188107353</v>
+        <v>3.209597575659402</v>
       </c>
       <c r="Y30" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>32.095975756594022</v>
       </c>
       <c r="Z30" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="14">
-        <v>8</v>
-      </c>
-      <c r="AB30" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC30" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD30" s="14">
-        <v>6</v>
-      </c>
-      <c r="AE30" s="14">
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14">
         <v>11</v>
       </c>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="13" t="str">
+      <c r="AI30" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] thunder;</v>
-      </c>
-      <c r="AH30" s="13" t="str">
+        <v>public static VariantMirageFairy[] lilac;</v>
+      </c>
+      <c r="AJ30" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(28, thunder = v(t("thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(e(ATTACK, 8), e(CRAFT, 2), e(FELL, 2), e(LIGHT, 6), e(FLAME, 11), e(WATER, 0)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
-      </c>
-      <c r="AI30" s="13" t="str">
+        <v>r(18, lilac = v(t("lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3)), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
+      </c>
+      <c r="AK30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.thunder.name=Thunderia</v>
-      </c>
-      <c r="AJ30" s="13" t="str">
+        <v>item.mirageFairy.lilac.name=Lilacia</v>
+      </c>
+      <c r="AL30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.thunder.name=ツンデーリャ</v>
-      </c>
-      <c r="AK30" s="13"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.lilac.name=リラーキャ</v>
+      </c>
+      <c r="AM30" s="13"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>435</v>
+        <v>151</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>437</v>
+        <v>153</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>438</v>
+        <v>201</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="8">
-        <v>39</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7">
+        <v>5</v>
+      </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
-      <c r="N31" s="7"/>
+      <c r="N31" s="7">
+        <v>10</v>
+      </c>
       <c r="O31" s="7">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P31" s="7"/>
       <c r="Q31" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1</v>
       </c>
       <c r="R31" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K31:P31)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
+        <v>0.85856543643775374</v>
       </c>
       <c r="S31" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.89502507092797245</v>
+        <v>0.85856543643775374</v>
       </c>
       <c r="T31" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>34.905977766190922</v>
+        <v>16.312743292317322</v>
       </c>
       <c r="U31" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>0.77679729963415822</v>
       </c>
       <c r="V31" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>3.883986498170791</v>
       </c>
       <c r="W31" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.9392209870106067</v>
+        <v>0.77679729963415822</v>
       </c>
       <c r="X31" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>7.767972996341582</v>
       </c>
       <c r="Y31" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>19.392209870106068</v>
+        <v>3.1071891985366329</v>
       </c>
       <c r="Z31" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.574546909074249</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="14">
         <v>1</v>
       </c>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14">
+      <c r="AD31" s="14">
+        <v>12</v>
+      </c>
+      <c r="AE31" s="14">
+        <v>8</v>
+      </c>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14">
         <v>3</v>
       </c>
-      <c r="AG31" s="13" t="str">
+      <c r="AI31" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] chicken;</v>
-      </c>
-      <c r="AH31" s="13" t="str">
+        <v>public static VariantMirageFairy[] torch;</v>
+      </c>
+      <c r="AJ31" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(29, chicken = v(t("chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3)), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
-      </c>
-      <c r="AI31" s="13" t="str">
+        <v>r(19, torch = v(t("torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 12), e(FLAME, 8), e(WATER, 0)), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
+      </c>
+      <c r="AK31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.chicken.name=Chickenia</v>
-      </c>
-      <c r="AJ31" s="13" t="str">
+        <v>item.mirageFairy.torch.name=Torchia</v>
+      </c>
+      <c r="AL31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.chicken.name=チッケーニャ</v>
-      </c>
-      <c r="AK31" s="13"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.torch.name=トルキャ</v>
+      </c>
+      <c r="AM31" s="13"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6310,25 +6492,29 @@
         <v>10</v>
       </c>
       <c r="AF32" s="14"/>
-      <c r="AG32" s="13" t="str">
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI32" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] furnace;</v>
       </c>
-      <c r="AH32" s="13" t="str">
+      <c r="AJ32" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(30, furnace = v(t("furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(e(ATTACK, 1), e(CRAFT, 13), e(FELL, 0), e(LIGHT, 6), e(FLAME, 10), e(WATER, 0)), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
       </c>
-      <c r="AI32" s="13" t="str">
+      <c r="AK32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.furnace.name=Furnacia</v>
       </c>
-      <c r="AJ32" s="13" t="str">
+      <c r="AL32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.furnace.name=フルナーキャ</v>
       </c>
-      <c r="AK32" s="13"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AM32" s="13"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -6417,25 +6603,29 @@
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
       <c r="AF33" s="14"/>
-      <c r="AG33" s="13" t="str">
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14">
+        <v>10</v>
+      </c>
+      <c r="AI33" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] magentaglazedterracotta;</v>
       </c>
-      <c r="AH33" s="13" t="str">
+      <c r="AJ33" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(31, magentaglazedterracotta = v(t("magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
       </c>
-      <c r="AI33" s="13" t="str">
+      <c r="AK33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.magentaglazedterracotta.name=Magenteglazedeterracottia</v>
       </c>
-      <c r="AJ33" s="13" t="str">
+      <c r="AL33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.magentaglazedterracotta.name=マゲンテグラゼデテッラコッチャ</v>
       </c>
-      <c r="AK33" s="13"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AM33" s="13"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -6522,25 +6712,29 @@
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="14"/>
-      <c r="AG34" s="13" t="str">
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14">
+        <v>7</v>
+      </c>
+      <c r="AI34" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] bread;</v>
       </c>
-      <c r="AH34" s="13" t="str">
+      <c r="AJ34" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(32, bread = v(t("bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
       </c>
-      <c r="AI34" s="13" t="str">
+      <c r="AK34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.bread.name=Breadia</v>
       </c>
-      <c r="AJ34" s="13" t="str">
+      <c r="AL34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.bread.name=ブレアージャ</v>
       </c>
-      <c r="AK34" s="13"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AM34" s="13"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -6639,25 +6833,29 @@
         <v>2</v>
       </c>
       <c r="AF35" s="14"/>
-      <c r="AG35" s="13" t="str">
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] daytime;</v>
       </c>
-      <c r="AH35" s="13" t="str">
+      <c r="AJ35" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(33, daytime = v(t("daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(e(ATTACK, 0), e(CRAFT, 1), e(FELL, 2), e(LIGHT, 11), e(FLAME, 2), e(WATER, 0)), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
       </c>
-      <c r="AI35" s="13" t="str">
+      <c r="AK35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.daytime.name=Daytimia</v>
       </c>
-      <c r="AJ35" s="13" t="str">
+      <c r="AL35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.daytime.name=ダイティーミャ</v>
       </c>
-      <c r="AK35" s="13"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AM35" s="13"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -6748,25 +6946,29 @@
       </c>
       <c r="AE36" s="14"/>
       <c r="AF36" s="14"/>
-      <c r="AG36" s="13" t="str">
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14">
+        <v>4</v>
+      </c>
+      <c r="AI36" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] night;</v>
       </c>
-      <c r="AH36" s="13" t="str">
+      <c r="AJ36" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(34, night = v(t("night", 1, 83, m(0, 7, 10, 0, 7, 26), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0)), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
       </c>
-      <c r="AI36" s="13" t="str">
+      <c r="AK36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.night.name=Nightia</v>
       </c>
-      <c r="AJ36" s="13" t="str">
+      <c r="AL36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.night.name=ニグチャ</v>
       </c>
-      <c r="AK36" s="13"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AM36" s="13"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -6865,25 +7067,29 @@
       <c r="AF37" s="14">
         <v>1</v>
       </c>
-      <c r="AG37" s="13" t="str">
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14">
+        <v>3</v>
+      </c>
+      <c r="AI37" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] morning;</v>
       </c>
-      <c r="AH37" s="13" t="str">
+      <c r="AJ37" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(35, morning = v(t("morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 9), e(FLAME, 1), e(WATER, 1)), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
       </c>
-      <c r="AI37" s="13" t="str">
+      <c r="AK37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.morning.name=Morningia</v>
       </c>
-      <c r="AJ37" s="13" t="str">
+      <c r="AL37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.morning.name=モルニンギャ</v>
       </c>
-      <c r="AK37" s="13"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AM37" s="13"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -6978,25 +7184,29 @@
         <v>1</v>
       </c>
       <c r="AF38" s="14"/>
-      <c r="AG38" s="13" t="str">
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] fine;</v>
       </c>
-      <c r="AH38" s="13" t="str">
+      <c r="AJ38" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(36, fine = v(t("fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(e(ATTACK, 0), e(CRAFT, 1), e(FELL, 2), e(LIGHT, 16), e(FLAME, 1), e(WATER, 0)), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
       </c>
-      <c r="AI38" s="13" t="str">
+      <c r="AK38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.fine.name=Finia</v>
       </c>
-      <c r="AJ38" s="13" t="str">
+      <c r="AL38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.fine.name=フィーニャ</v>
       </c>
-      <c r="AK38" s="13"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AM38" s="13"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -7087,25 +7297,29 @@
       <c r="AF39" s="14">
         <v>17</v>
       </c>
-      <c r="AG39" s="13" t="str">
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI39" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] rain;</v>
       </c>
-      <c r="AH39" s="13" t="str">
+      <c r="AJ39" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(37, rain = v(t("rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 17)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
       </c>
-      <c r="AI39" s="13" t="str">
+      <c r="AK39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.rain.name=Rainia</v>
       </c>
-      <c r="AJ39" s="13" t="str">
+      <c r="AL39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.rain.name=ライニャ</v>
       </c>
-      <c r="AK39" s="13"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AM39" s="13"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -7196,25 +7410,29 @@
       <c r="AF40" s="14">
         <v>6</v>
       </c>
-      <c r="AG40" s="13" t="str">
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] plains;</v>
       </c>
-      <c r="AH40" s="13" t="str">
+      <c r="AJ40" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(38, plains = v(t("plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 7), e(LIGHT, 0), e(FLAME, 0), e(WATER, 6)), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
       </c>
-      <c r="AI40" s="13" t="str">
+      <c r="AK40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.plains.name=Plainsia</v>
       </c>
-      <c r="AJ40" s="13" t="str">
+      <c r="AL40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.plains.name=プラインシャ</v>
       </c>
-      <c r="AK40" s="13"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AM40" s="13"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -7309,23 +7527,27 @@
       <c r="AF41" s="14">
         <v>6</v>
       </c>
-      <c r="AG41" s="13" t="str">
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI41" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] forest;</v>
       </c>
-      <c r="AH41" s="13" t="str">
+      <c r="AJ41" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(39, forest = v(t("forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 10), e(LIGHT, 0), e(FLAME, 0), e(WATER, 6)), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
       </c>
-      <c r="AI41" s="13" t="str">
+      <c r="AK41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.forest.name=Forestia</v>
       </c>
-      <c r="AJ41" s="13" t="str">
+      <c r="AL41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.forest.name=フォレスチャ</v>
       </c>
-      <c r="AK41" s="13"/>
+      <c r="AM41" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/FairyList.xlsx
+++ b/FairyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MirageFairyMod-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870ECE0-623F-4754-A0DC-EB18D9F1081B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C208AC-5556-4035-96B0-77452DD461DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="525" windowWidth="23070" windowHeight="14610" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
+    <workbookView xWindow="5310" yWindow="2835" windowWidth="23190" windowHeight="12405" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
   <sheets>
     <sheet name="妖精リスト" sheetId="1" r:id="rId1"/>
@@ -1960,17 +1960,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
@@ -2038,7 +2028,17 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
@@ -2372,7 +2372,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AM41" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:AM41" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM41">
-    <sortCondition ref="B1:B41"/>
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="43"/>
@@ -2427,35 +2427,35 @@
     <tableColumn id="46" xr3:uid="{ECCD46C1-F4EB-408C-AEB7-098E1A6BA65B}" name="LIGHT" dataDxfId="14"/>
     <tableColumn id="47" xr3:uid="{E006FC6A-6503-4BBD-94D8-3FBB62985153}" name="FLAME" dataDxfId="13"/>
     <tableColumn id="49" xr3:uid="{2BF29954-473B-4B0C-9781-028B561200CB}" name="WATER" dataDxfId="12"/>
-    <tableColumn id="24" xr3:uid="{E078FC75-CC53-492A-A97D-107EA20B4296}" name="CRYSTAL" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{3CFDC570-BDAB-4914-ABC3-2C36BC441EFF}" name="ART" dataDxfId="0"/>
-    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="11">
+    <tableColumn id="24" xr3:uid="{E078FC75-CC53-492A-A97D-107EA20B4296}" name="CRYSTAL" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{3CFDC570-BDAB-4914-ABC3-2C36BC441EFF}" name="ART" dataDxfId="10"/>
+    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="9">
       <calculatedColumnFormula>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="10">
-      <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
+    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="0">
+      <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="9">
+    <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="8">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{87187A24-E0A4-40E3-9C23-0138D3146A81}" name="Code和名" dataDxfId="8">
+    <tableColumn id="38" xr3:uid="{87187A24-E0A4-40E3-9C23-0138D3146A81}" name="Code和名" dataDxfId="7">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{31C7AE9B-B5DC-4E21-92DA-CEDB482AF38B}" name="Code5" dataDxfId="7"/>
+    <tableColumn id="41" xr3:uid="{31C7AE9B-B5DC-4E21-92DA-CEDB482AF38B}" name="Code5" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C62C1D26-960A-48CC-8F29-5C012BAB8C70}" name="テーブル2" displayName="テーブル2" ref="A1:B69" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C62C1D26-960A-48CC-8F29-5C012BAB8C70}" name="テーブル2" displayName="テーブル2" ref="A1:B69" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:B69" xr:uid="{FEC50A1C-B428-4AD7-9BA5-4DA035F73E38}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A69">
     <sortCondition ref="A1:A69"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7E14A5CD-7281-42C1-93CF-8BD7C74666AC}" name="name" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{60E9BA99-755B-467A-9053-1708ABE43FE6}" name="列1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{7E14A5CD-7281-42C1-93CF-8BD7C74666AC}" name="name" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{60E9BA99-755B-467A-9053-1708ABE43FE6}" name="列1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2479,7 +2479,7 @@
     <tableColumn id="8" xr3:uid="{C37B4482-84AD-481D-914C-03A51BD0F6FA}" name="列8">
       <calculatedColumnFormula>F2*G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B2463834-F42F-4CD7-BEC9-B542CC83738A}" name="列9" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{B2463834-F42F-4CD7-BEC9-B542CC83738A}" name="列9" dataDxfId="1">
       <calculatedColumnFormula>"ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes."&amp;C2&amp;"[0].createItemStack(), "&amp;H2&amp;"));"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2756,7 +2756,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2993,8 +2993,8 @@
         <v>public static VariantMirageFairy[] air;</v>
       </c>
       <c r="AJ2" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(0, air = v(t("air", 1, 15, m(1, 0, 10, 0, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(0, air = v(t("air", 1, 15, m(1, 0, 10, 0, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 1)), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
       </c>
       <c r="AK2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3108,8 +3108,8 @@
         <v>public static VariantMirageFairy[] water;</v>
       </c>
       <c r="AJ3" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(1, water = v(t("water", 1, 50, m(0, 0, 0, 1, 10, 6), a(e(ATTACK, 4), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 14)), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(1, water = v(t("water", 1, 50, m(0, 0, 0, 1, 10, 6), a(e(ATTACK, 4), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 14), e(CRYSTAL, 0), e(ART, 3)), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
       </c>
       <c r="AK3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3123,44 +3123,44 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" s="11"/>
+        <v>226</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>458</v>
+      </c>
       <c r="I4" s="3">
         <v>2</v>
       </c>
       <c r="J4" s="8">
-        <v>58</v>
-      </c>
-      <c r="K4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
       <c r="L4" s="7">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <v>8</v>
-      </c>
-      <c r="O4" s="7">
-        <v>10</v>
-      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
@@ -3168,23 +3168,23 @@
       </c>
       <c r="R4" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K4:P4)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89277196943365633</v>
+        <v>0.9862327044933592</v>
       </c>
       <c r="S4" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0616907781254958</v>
+        <v>1.1728349492318788</v>
       </c>
       <c r="T4" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>61.578065131278755</v>
+        <v>23.456698984637576</v>
       </c>
       <c r="U4" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>2.132427180421598</v>
       </c>
       <c r="V4" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>33.867935822203314</v>
+        <v>21.324271804215979</v>
       </c>
       <c r="W4" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3192,249 +3192,249 @@
       </c>
       <c r="X4" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.31561302625575</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>15.394516282819689</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
       <c r="AA4" s="14">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="14">
         <v>7</v>
       </c>
-      <c r="AB4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="14">
-        <v>1</v>
-      </c>
       <c r="AD4" s="14">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="14">
         <v>15</v>
-      </c>
-      <c r="AE4" s="14">
-        <v>18</v>
       </c>
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
       <c r="AH4" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI4" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] lava;</v>
+        <v>public static VariantMirageFairy[] fire;</v>
       </c>
       <c r="AJ4" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(20, lava = v(t("lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(e(ATTACK, 7), e(CRAFT, 3), e(FELL, 1), e(LIGHT, 15), e(FLAME, 18), e(WATER, 0)), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(2, fire = v(t("fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(e(ATTACK, 9), e(CRAFT, 4), e(FELL, 7), e(LIGHT, 13), e(FLAME, 15), e(WATER, 0), e(CRYSTAL, 0), e(ART, 3)), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
       </c>
       <c r="AK4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lava.name=Lavia</v>
+        <v>item.mirageFairy.fire.name=Firia</v>
       </c>
       <c r="AL4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lava.name=ラービャ</v>
+        <v>item.mirageFairy.fire.name=フィーリャ</v>
       </c>
       <c r="AM4" s="13"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7">
+        <v>28</v>
+      </c>
+      <c r="M5" s="7">
+        <v>24</v>
+      </c>
+      <c r="N5" s="7">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>10</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="7">
+        <v>18</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>2</v>
       </c>
       <c r="R5" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K5:P5)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9862327044933592</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="S5" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1728349492318788</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="T5" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>23.456698984637576</v>
+        <v>140.00714267493643</v>
       </c>
       <c r="U5" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.132427180421598</v>
+        <v>14.286443130095554</v>
       </c>
       <c r="V5" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.324271804215979</v>
+        <v>40.002040764267555</v>
       </c>
       <c r="W5" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>34.28746351222933</v>
       </c>
       <c r="X5" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>25.715597634171996</v>
       </c>
       <c r="Y5" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>25.715597634171996</v>
       </c>
       <c r="Z5" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
       <c r="AA5" s="14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="14">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="14">
         <v>7</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>13</v>
-      </c>
-      <c r="AE5" s="14">
-        <v>15</v>
       </c>
       <c r="AF5" s="14"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI5" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] fire;</v>
+        <v>public static VariantMirageFairy[] sun;</v>
       </c>
       <c r="AJ5" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(2, fire = v(t("fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(e(ATTACK, 9), e(CRAFT, 4), e(FELL, 7), e(LIGHT, 13), e(FLAME, 15), e(WATER, 0)), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(3, sun = v(t("sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(e(ATTACK, 5), e(CRAFT, 2), e(FELL, 0), e(LIGHT, 28), e(FLAME, 7), e(WATER, 0), e(CRYSTAL, 0), e(ART, 6)), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
       </c>
       <c r="AK5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.fire.name=Firia</v>
+        <v>item.mirageFairy.sun.name=Sunia</v>
       </c>
       <c r="AL5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.fire.name=フィーリャ</v>
+        <v>item.mirageFairy.sun.name=スーニャ</v>
       </c>
       <c r="AM5" s="13"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="I6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="8">
-        <v>18</v>
-      </c>
-      <c r="K6" s="7">
-        <v>3</v>
-      </c>
-      <c r="L6" s="7">
+        <v>83</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7">
         <v>10</v>
       </c>
-      <c r="M6" s="7">
-        <v>3</v>
-      </c>
-      <c r="N6" s="7">
-        <v>8</v>
-      </c>
       <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="7">
+        <v>15</v>
+      </c>
       <c r="Q6" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>1</v>
       </c>
       <c r="R6" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K6:P6)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.82359101726757311</v>
+        <v>0.9117224885582168</v>
       </c>
       <c r="S6" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1647335864684558</v>
+        <v>0.9117224885582168</v>
       </c>
       <c r="T6" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>20.965204556432205</v>
+        <v>75.672966550331992</v>
       </c>
       <c r="U6" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.6206505695540256</v>
+        <v>0</v>
       </c>
       <c r="V6" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>8.7355018985134194</v>
+        <v>0</v>
       </c>
       <c r="W6" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.6206505695540256</v>
+        <v>0</v>
       </c>
       <c r="X6" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.9884015188107353</v>
+        <v>30.269186620132796</v>
       </c>
       <c r="Y6" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3442,483 +3442,467 @@
       </c>
       <c r="Z6" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>45.4037799301992</v>
       </c>
       <c r="AA6" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>6</v>
-      </c>
-      <c r="AE6" s="14">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
+      <c r="AG6" s="14">
+        <v>5</v>
+      </c>
       <c r="AH6" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] thunder;</v>
+        <v>public static VariantMirageFairy[] stone;</v>
       </c>
       <c r="AJ6" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(28, thunder = v(t("thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(e(ATTACK, 8), e(CRAFT, 2), e(FELL, 2), e(LIGHT, 6), e(FLAME, 11), e(WATER, 0)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(4, stone = v(t("stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(e(ATTACK, 6), e(CRAFT, 1), e(FELL, 4), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 5), e(ART, 3)), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
       </c>
       <c r="AK6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.thunder.name=Thunderia</v>
+        <v>item.mirageFairy.stone.name=Stonia</v>
       </c>
       <c r="AL6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.thunder.name=ツンデーリャ</v>
+        <v>item.mirageFairy.stone.name=ストーニャ</v>
       </c>
       <c r="AM6" s="13"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>70</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7">
+        <v>10</v>
+      </c>
+      <c r="O7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="I7" s="3">
-        <v>5</v>
-      </c>
-      <c r="J7" s="8">
-        <v>99</v>
-      </c>
-      <c r="K7" s="7">
-        <v>10</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="P7" s="7">
         <v>28</v>
       </c>
-      <c r="M7" s="7">
-        <v>24</v>
-      </c>
-      <c r="N7" s="7">
-        <v>18</v>
-      </c>
-      <c r="O7" s="7">
-        <v>18</v>
-      </c>
-      <c r="P7" s="7"/>
       <c r="Q7" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K7:P7)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.70710678118654757</v>
+        <v>0.9376639403055067</v>
       </c>
       <c r="S7" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4142135623730951</v>
+        <v>0.9376639403055067</v>
       </c>
       <c r="T7" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>140.00714267493643</v>
+        <v>65.636475821385474</v>
       </c>
       <c r="U7" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.286443130095554</v>
+        <v>0</v>
       </c>
       <c r="V7" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>40.002040764267555</v>
+        <v>0</v>
       </c>
       <c r="W7" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.28746351222933</v>
+        <v>0</v>
       </c>
       <c r="X7" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>25.715597634171996</v>
+        <v>16.008896541801334</v>
       </c>
       <c r="Y7" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>25.715597634171996</v>
+        <v>4.8026689625404</v>
       </c>
       <c r="Z7" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="14">
+        <v>44.824910317043738</v>
+      </c>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14">
         <v>2</v>
       </c>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14">
-        <v>28</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>7</v>
-      </c>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
+      <c r="AG7" s="14">
+        <v>2</v>
+      </c>
       <c r="AH7" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] sun;</v>
+        <v>public static VariantMirageFairy[] dirt;</v>
       </c>
       <c r="AJ7" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(3, sun = v(t("sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(e(ATTACK, 5), e(CRAFT, 2), e(FELL, 0), e(LIGHT, 28), e(FLAME, 7), e(WATER, 0)), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(5, dirt = v(t("dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 2), e(CRYSTAL, 2), e(ART, 1)), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
       </c>
       <c r="AK7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.sun.name=Sunia</v>
+        <v>item.mirageFairy.dirt.name=Dirtia</v>
       </c>
       <c r="AL7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.sun.name=スーニャ</v>
+        <v>item.mirageFairy.dirt.name=ディルチャ</v>
       </c>
       <c r="AM7" s="13"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>86</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
+        <v>3</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5</v>
-      </c>
-      <c r="J8" s="8">
-        <v>95</v>
-      </c>
-      <c r="K8" s="7">
-        <v>10</v>
-      </c>
-      <c r="L8" s="7">
-        <v>24</v>
-      </c>
-      <c r="M8" s="7">
-        <v>28</v>
-      </c>
-      <c r="N8" s="7">
-        <v>9</v>
-      </c>
       <c r="O8" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P8" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R8" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K8:P8)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.68302012837719772</v>
+        <v>0.83508791942836935</v>
       </c>
       <c r="S8" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3660402567543954</v>
+        <v>0.99309249543703582</v>
       </c>
       <c r="T8" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>129.77382439166757</v>
+        <v>85.405954607585073</v>
       </c>
       <c r="U8" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.359411846825484</v>
+        <v>0</v>
       </c>
       <c r="V8" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>29.66258843238116</v>
+        <v>11.13990712272849</v>
       </c>
       <c r="W8" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.606353171111351</v>
+        <v>0</v>
       </c>
       <c r="X8" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.123470662142935</v>
+        <v>37.133023742428293</v>
       </c>
       <c r="Y8" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.123470662142935</v>
+        <v>14.853209496971317</v>
       </c>
       <c r="Z8" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.898529617063705</v>
+        <v>22.279814245456979</v>
       </c>
       <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
+      <c r="AC8" s="14">
+        <v>2</v>
+      </c>
       <c r="AD8" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] moon;</v>
+        <v>public static VariantMirageFairy[] iron;</v>
       </c>
       <c r="AJ8" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(10, moon = v(t("moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 6), e(FLAME, 0), e(WATER, 0)), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(6, iron = v(t("iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 2), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 1), e(ART, 2)), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
       </c>
       <c r="AK8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.moon.name=Moonia</v>
+        <v>item.mirageFairy.iron.name=Ironia</v>
       </c>
       <c r="AL8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.moon.name=モーニャ</v>
+        <v>item.mirageFairy.iron.name=イローニャ</v>
       </c>
       <c r="AM8" s="13"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="3">
         <v>4</v>
       </c>
       <c r="J9" s="8">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="K9" s="7">
         <v>10</v>
       </c>
       <c r="L9" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N9" s="7">
-        <v>9</v>
-      </c>
-      <c r="O9" s="7">
-        <v>9</v>
-      </c>
-      <c r="P9" s="7">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.681792830507429</v>
       </c>
       <c r="R9" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K9:P9)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.80341122656688246</v>
+        <v>0.7908842457011136</v>
       </c>
       <c r="S9" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3511712407893626</v>
+        <v>1.3301034541814087</v>
       </c>
       <c r="T9" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>132.41478159735755</v>
+        <v>101.08786251778706</v>
       </c>
       <c r="U9" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.511712407893627</v>
+        <v>14.441123216826723</v>
       </c>
       <c r="V9" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.618739852629805</v>
+        <v>18.773460181874739</v>
       </c>
       <c r="W9" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.618739852629805</v>
+        <v>30.326358755336116</v>
       </c>
       <c r="X9" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.160541167104263</v>
+        <v>37.546920363749479</v>
       </c>
       <c r="Y9" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.160541167104263</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>51.344507149995785</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
+      <c r="AC9" s="14">
+        <v>1</v>
+      </c>
       <c r="AD9" s="14">
-        <v>7</v>
-      </c>
-      <c r="AE9" s="14">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
       <c r="AG9" s="14">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AH9" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI9" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] star;</v>
+        <v>public static VariantMirageFairy[] diamond;</v>
       </c>
       <c r="AJ9" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(21, star = v(t("star", 4, 98, m(10, 16, 16, 9, 9, 38), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 6), e(WATER, 0)), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(7, diamond = v(t("diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 4), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 17), e(ART, 8)), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
       </c>
       <c r="AK9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.star.name=Staria</v>
+        <v>item.mirageFairy.diamond.name=Diamondia</v>
       </c>
       <c r="AL9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.star.name=スターリャ</v>
+        <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
       </c>
       <c r="AM9" s="13"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>462</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="8">
-        <v>83</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>35</v>
+      </c>
+      <c r="M10" s="7">
+        <v>11</v>
+      </c>
       <c r="N10" s="7">
         <v>10</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="R10" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K10:P10)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9117224885582168</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="S10" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9117224885582168</v>
+        <v>1.2657565939702802</v>
       </c>
       <c r="T10" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>75.672966550331992</v>
+        <v>68.350856074395125</v>
       </c>
       <c r="U10" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>1.0849342234030972</v>
       </c>
       <c r="V10" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>37.972697819108404</v>
       </c>
       <c r="W10" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>11.93427645743407</v>
       </c>
       <c r="X10" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.269186620132796</v>
+        <v>10.849342234030971</v>
       </c>
       <c r="Y10" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3926,275 +3910,291 @@
       </c>
       <c r="Z10" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>45.4037799301992</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>6</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
+        <v>6.5096053404185836</v>
+      </c>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14">
+        <v>7</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>2</v>
+      </c>
       <c r="AF10" s="14"/>
       <c r="AG10" s="14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AH10" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI10" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] stone;</v>
+        <v>public static VariantMirageFairy[] redstone;</v>
       </c>
       <c r="AJ10" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(4, stone = v(t("stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(e(ATTACK, 6), e(CRAFT, 1), e(FELL, 4), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(8, redstone = v(t("redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 2), e(WATER, 0), e(CRYSTAL, 10), e(ART, 7)), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
       </c>
       <c r="AK10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.stone.name=Stonia</v>
+        <v>item.mirageFairy.redstone.name=Redstonia</v>
       </c>
       <c r="AL10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.stone.name=ストーニャ</v>
+        <v>item.mirageFairy.redstone.name=レドストーニャ</v>
       </c>
       <c r="AM10" s="13"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" s="8">
-        <v>70</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>18</v>
+      </c>
+      <c r="M11" s="7">
+        <v>18</v>
+      </c>
       <c r="N11" s="7">
+        <v>12</v>
+      </c>
+      <c r="O11" s="7">
         <v>10</v>
       </c>
-      <c r="O11" s="7">
-        <v>3</v>
-      </c>
-      <c r="P11" s="7">
-        <v>28</v>
-      </c>
+      <c r="P11" s="7"/>
       <c r="Q11" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R11" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K11:P11)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9376639403055067</v>
+        <v>0.72922930513582751</v>
       </c>
       <c r="S11" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9376639403055067</v>
+        <v>1.2264126171733489</v>
       </c>
       <c r="T11" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>65.636475821385474</v>
+        <v>58.867805624320752</v>
       </c>
       <c r="U11" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>0.99775941736136864</v>
       </c>
       <c r="V11" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>17.959669512504636</v>
       </c>
       <c r="W11" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>17.959669512504636</v>
       </c>
       <c r="X11" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>16.008896541801334</v>
+        <v>11.973113008336425</v>
       </c>
       <c r="Y11" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.8026689625404</v>
+        <v>9.9775941736136868</v>
       </c>
       <c r="Z11" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>44.824910317043738</v>
-      </c>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>11</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>4</v>
+      </c>
       <c r="AE11" s="14"/>
       <c r="AF11" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH11" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI11" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] dirt;</v>
+        <v>public static VariantMirageFairy[] enderman;</v>
       </c>
       <c r="AJ11" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(5, dirt = v(t("dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 2)), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(9, enderman = v(t("enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(e(ATTACK, 11), e(CRAFT, 7), e(FELL, 6), e(LIGHT, 4), e(FLAME, 0), e(WATER, 1), e(CRYSTAL, 4), e(ART, 3)), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
       </c>
       <c r="AK11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.dirt.name=Dirtia</v>
+        <v>item.mirageFairy.enderman.name=Endermania</v>
       </c>
       <c r="AL11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.dirt.name=ディルチャ</v>
+        <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
       </c>
       <c r="AM11" s="13"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="H12" s="11"/>
+        <v>304</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>459</v>
+      </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" s="8">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K12" s="7">
-        <v>1</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="L12" s="7">
+        <v>24</v>
+      </c>
+      <c r="M12" s="7">
+        <v>28</v>
+      </c>
       <c r="N12" s="7">
-        <v>10</v>
-      </c>
-      <c r="O12" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="O12" s="7">
+        <v>9</v>
+      </c>
       <c r="P12" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K12:P12)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90909312952755927</v>
+        <v>0.68302012837719772</v>
       </c>
       <c r="S12" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.90909312952755927</v>
+        <v>1.3660402567543954</v>
       </c>
       <c r="T12" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>58.181960289763794</v>
+        <v>129.77382439166757</v>
       </c>
       <c r="U12" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.1548874181393995</v>
+        <v>12.359411846825484</v>
       </c>
       <c r="V12" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>29.66258843238116</v>
       </c>
       <c r="W12" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>34.606353171111351</v>
       </c>
       <c r="X12" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.548874181393995</v>
+        <v>11.123470662142935</v>
       </c>
       <c r="Y12" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>11.123470662142935</v>
       </c>
       <c r="Z12" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.478198690230393</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="14">
-        <v>1</v>
-      </c>
+        <v>30.898529617063705</v>
+      </c>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
+      <c r="AD12" s="14">
+        <v>6</v>
+      </c>
       <c r="AE12" s="14"/>
       <c r="AF12" s="14"/>
       <c r="AG12" s="14">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="14">
         <v>6</v>
-      </c>
-      <c r="AH12" s="14">
-        <v>3</v>
       </c>
       <c r="AI12" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] sand;</v>
+        <v>public static VariantMirageFairy[] moon;</v>
       </c>
       <c r="AJ12" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(11, sand = v(t("sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(e(ATTACK, 2), e(CRAFT, 1), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(10, moon = v(t("moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 6), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 3), e(ART, 6)), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
       </c>
       <c r="AK12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.sand.name=Sandia</v>
+        <v>item.mirageFairy.moon.name=Moonia</v>
       </c>
       <c r="AL12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.sand.name=サンジャ</v>
+        <v>item.mirageFairy.moon.name=モーニャ</v>
       </c>
       <c r="AM12" s="13"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>405</v>
@@ -4203,25 +4203,27 @@
         <v>418</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="8">
-        <v>77</v>
-      </c>
-      <c r="K13" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7">
@@ -4229,27 +4231,27 @@
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1</v>
       </c>
       <c r="R13" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K13:P13)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
+        <v>0.90909312952755927</v>
       </c>
       <c r="S13" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0643701824533598</v>
+        <v>0.90909312952755927</v>
       </c>
       <c r="T13" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>81.956504048908698</v>
+        <v>58.181960289763794</v>
       </c>
       <c r="U13" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>2.1548874181393995</v>
       </c>
       <c r="V13" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4261,7 +4263,7 @@
       </c>
       <c r="X13" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>45.531391138282608</v>
+        <v>21.548874181393995</v>
       </c>
       <c r="Y13" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4269,12 +4271,14 @@
       </c>
       <c r="Z13" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>36.42511291062609</v>
+        <v>34.478198690230393</v>
       </c>
       <c r="AA13" s="14">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>1</v>
+      </c>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
@@ -4283,29 +4287,29 @@
         <v>6</v>
       </c>
       <c r="AH13" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI13" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] gravel;</v>
+        <v>public static VariantMirageFairy[] sand;</v>
       </c>
       <c r="AJ13" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(22, gravel = v(t("gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(e(ATTACK, 3), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(11, sand = v(t("sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(e(ATTACK, 2), e(CRAFT, 1), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 6), e(ART, 3)), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
       </c>
       <c r="AK13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.gravel.name=Gravelia</v>
+        <v>item.mirageFairy.sand.name=Sandia</v>
       </c>
       <c r="AL13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.gravel.name=グラベーリャ</v>
+        <v>item.mirageFairy.sand.name=サンジャ</v>
       </c>
       <c r="AM13" s="13"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>407</v>
@@ -4314,85 +4318,83 @@
         <v>419</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="8">
-        <v>86</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7">
-        <v>3</v>
-      </c>
-      <c r="M14" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
       <c r="N14" s="7">
         <v>10</v>
       </c>
-      <c r="O14" s="7">
-        <v>4</v>
-      </c>
-      <c r="P14" s="7">
-        <v>6</v>
-      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="R14" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K14:P14)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.83508791942836935</v>
+        <v>0.87055056329612412</v>
       </c>
       <c r="S14" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.99309249543703582</v>
+        <v>1.2311444133449163</v>
       </c>
       <c r="T14" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>85.405954607585073</v>
+        <v>114.49643044107722</v>
       </c>
       <c r="U14" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>5.724821522053861</v>
       </c>
       <c r="V14" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.13990712272849</v>
+        <v>0</v>
       </c>
       <c r="W14" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>51.523393698484753</v>
       </c>
       <c r="X14" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.133023742428293</v>
+        <v>57.248215220538611</v>
       </c>
       <c r="Y14" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.853209496971317</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>22.279814245456979</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
@@ -4400,86 +4402,84 @@
         <v>1</v>
       </c>
       <c r="AH14" s="14">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AI14" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] iron;</v>
+        <v>public static VariantMirageFairy[] gold;</v>
       </c>
       <c r="AJ14" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(6, iron = v(t("iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 2), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0)), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(12, gold = v(t("gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 3), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 1), e(ART, 12)), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
       </c>
       <c r="AK14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.iron.name=Ironia</v>
+        <v>item.mirageFairy.gold.name=Goldia</v>
       </c>
       <c r="AL14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.iron.name=イローニャ</v>
+        <v>item.mirageFairy.gold.name=ゴルジャ</v>
       </c>
       <c r="AM14" s="13"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="8">
-        <v>93</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7">
-        <v>9</v>
-      </c>
-      <c r="N15" s="7">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
         <v>10</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="7">
+        <v>4</v>
+      </c>
       <c r="Q15" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R15" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K15:P15)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.87055056329612412</v>
+        <v>0.94605764672559589</v>
       </c>
       <c r="S15" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2311444133449163</v>
+        <v>1.1250584846888094</v>
       </c>
       <c r="T15" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>114.49643044107722</v>
+        <v>48.377514841618805</v>
       </c>
       <c r="U15" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.724821522053861</v>
+        <v>0</v>
       </c>
       <c r="V15" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4487,128 +4487,128 @@
       </c>
       <c r="W15" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>51.523393698484753</v>
+        <v>0</v>
       </c>
       <c r="X15" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>57.248215220538611</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>34.555367744013431</v>
       </c>
       <c r="Z15" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="14"/>
+        <v>13.822147097605372</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>10</v>
+      </c>
       <c r="AB15" s="14"/>
-      <c r="AC15" s="14">
-        <v>1</v>
-      </c>
+      <c r="AC15" s="14"/>
       <c r="AD15" s="14">
         <v>3</v>
       </c>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14">
-        <v>1</v>
-      </c>
+      <c r="AF15" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="14"/>
       <c r="AH15" s="14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AI15" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] gold;</v>
+        <v>public static VariantMirageFairy[] spider;</v>
       </c>
       <c r="AJ15" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(12, gold = v(t("gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 3), e(FLAME, 0), e(WATER, 0)), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(13, spider = v(t("spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 3), e(FLAME, 0), e(WATER, 2), e(CRYSTAL, 0), e(ART, 2)), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
       </c>
       <c r="AK15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.gold.name=Goldia</v>
+        <v>item.mirageFairy.spider.name=Spideria</v>
       </c>
       <c r="AL15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.gold.name=ゴルジャ</v>
+        <v>item.mirageFairy.spider.name=スピデーリャ</v>
       </c>
       <c r="AM15" s="13"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" s="8">
-        <v>76</v>
-      </c>
-      <c r="K16" s="7">
+        <v>49</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <v>8</v>
+      </c>
+      <c r="M16" s="7">
         <v>10</v>
       </c>
-      <c r="L16" s="7">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>21</v>
-      </c>
       <c r="N16" s="7">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="7">
+        <v>8</v>
+      </c>
       <c r="Q16" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1</v>
       </c>
       <c r="R16" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K16:P16)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.7908842457011136</v>
+        <v>0.74742462431746925</v>
       </c>
       <c r="S16" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3301034541814087</v>
+        <v>0.74742462431746925</v>
       </c>
       <c r="T16" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>101.08786251778706</v>
+        <v>36.62380659155599</v>
       </c>
       <c r="U16" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.441123216826723</v>
+        <v>0</v>
       </c>
       <c r="V16" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.773460181874739</v>
+        <v>9.4513049268531582</v>
       </c>
       <c r="W16" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.326358755336116</v>
+        <v>11.814131158566449</v>
       </c>
       <c r="X16" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.546920363749479</v>
+        <v>5.9070655792832243</v>
       </c>
       <c r="Y16" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4616,112 +4616,112 @@
       </c>
       <c r="Z16" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
+        <v>9.4513049268531582</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>5</v>
+      </c>
       <c r="AC16" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="14">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
-      <c r="AG16" s="14">
-        <v>17</v>
-      </c>
+      <c r="AG16" s="14"/>
       <c r="AH16" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI16" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] diamond;</v>
+        <v>public static VariantMirageFairy[] skeleton;</v>
       </c>
       <c r="AJ16" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(7, diamond = v(t("diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 4), e(FLAME, 0), e(WATER, 0)), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(14, skeleton = v(t("skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(e(ATTACK, 12), e(CRAFT, 5), e(FELL, 8), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 2)), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
       </c>
       <c r="AK16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.diamond.name=Diamondia</v>
+        <v>item.mirageFairy.skeleton.name=Skeletonia</v>
       </c>
       <c r="AL16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
+        <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
       </c>
       <c r="AM16" s="13"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17" s="8">
-        <v>73</v>
-      </c>
-      <c r="K17" s="7">
+        <v>55</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
+        <v>9</v>
+      </c>
+      <c r="M17" s="7">
         <v>10</v>
       </c>
-      <c r="L17" s="7">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>15</v>
-      </c>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="7">
+        <v>2</v>
+      </c>
       <c r="P17" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1</v>
       </c>
       <c r="R17" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K17:P17)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85394924037429032</v>
+        <v>0.75785828325519911</v>
       </c>
       <c r="S17" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4361657100787466</v>
+        <v>0.75785828325519911</v>
       </c>
       <c r="T17" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>104.8400968357485</v>
+        <v>41.682205579035951</v>
       </c>
       <c r="U17" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.61559699165565</v>
+        <v>0</v>
       </c>
       <c r="V17" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.784955186649039</v>
+        <v>12.504661673710785</v>
       </c>
       <c r="W17" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>20.423395487483475</v>
+        <v>13.894068526345317</v>
       </c>
       <c r="X17" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4729,225 +4729,223 @@
       </c>
       <c r="Y17" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>2.7788137052690636</v>
       </c>
       <c r="Z17" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>49.016149169960336</v>
-      </c>
-      <c r="AA17" s="14"/>
+        <v>12.504661673710785</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>13</v>
+      </c>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14">
-        <v>2</v>
-      </c>
+      <c r="AC17" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14">
-        <v>15</v>
-      </c>
+      <c r="AF17" s="14">
+        <v>4</v>
+      </c>
+      <c r="AG17" s="14"/>
       <c r="AH17" s="14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] emerald;</v>
+        <v>public static VariantMirageFairy[] zombie;</v>
       </c>
       <c r="AJ17" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(23, emerald = v(t("emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0)), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(15, zombie = v(t("zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(e(ATTACK, 13), e(CRAFT, 0), e(FELL, 6), e(LIGHT, 0), e(FLAME, 0), e(WATER, 4), e(CRYSTAL, 0), e(ART, 1)), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
       </c>
       <c r="AK17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.emerald.name=Emeraldia</v>
+        <v>item.mirageFairy.zombie.name=Zombia</v>
       </c>
       <c r="AL17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.emerald.name=エメラルジャ</v>
+        <v>item.mirageFairy.zombie.name=ゾンビャ</v>
       </c>
       <c r="AM17" s="13"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="8">
-        <v>54</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7">
         <v>35</v>
       </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>10</v>
-      </c>
-      <c r="O18" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="O18" s="7">
+        <v>12</v>
+      </c>
       <c r="P18" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R18" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K18:P18)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
+        <v>0.80292288186337646</v>
       </c>
       <c r="S18" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2657565939702802</v>
+        <v>0.9548416039104165</v>
       </c>
       <c r="T18" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>68.350856074395125</v>
+        <v>33.419456136864575</v>
       </c>
       <c r="U18" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.0849342234030972</v>
+        <v>0</v>
       </c>
       <c r="V18" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.972697819108404</v>
+        <v>0</v>
       </c>
       <c r="W18" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.93427645743407</v>
+        <v>10.780469721569217</v>
       </c>
       <c r="X18" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.849342234030971</v>
+        <v>5.3902348607846085</v>
       </c>
       <c r="Y18" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>12.936563665883062</v>
       </c>
       <c r="Z18" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.5096053404185836</v>
-      </c>
-      <c r="AA18" s="14"/>
+        <v>4.3121878886276868</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>10</v>
+      </c>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="14">
         <v>7</v>
       </c>
-      <c r="AE18" s="14">
+      <c r="AF18" s="14">
         <v>2</v>
       </c>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14">
-        <v>10</v>
-      </c>
+      <c r="AG18" s="14"/>
       <c r="AH18" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI18" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] redstone;</v>
+        <v>public static VariantMirageFairy[] creeper;</v>
       </c>
       <c r="AJ18" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(8, redstone = v(t("redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 2), e(WATER, 0)), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(16, creeper = v(t("creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 7), e(WATER, 2), e(CRYSTAL, 0), e(ART, 3)), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
       </c>
       <c r="AK18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.redstone.name=Redstonia</v>
+        <v>item.mirageFairy.creeper.name=Creeperia</v>
       </c>
       <c r="AL18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.redstone.name=レドストーニャ</v>
+        <v>item.mirageFairy.creeper.name=クレペーリャ</v>
       </c>
       <c r="AM18" s="13"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" s="8">
-        <v>62</v>
-      </c>
-      <c r="K19" s="7">
-        <v>2</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7">
-        <v>8</v>
-      </c>
-      <c r="N19" s="7">
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7">
         <v>10</v>
       </c>
-      <c r="O19" s="7">
-        <v>18</v>
-      </c>
-      <c r="P19" s="7"/>
+      <c r="P19" s="7">
+        <v>5</v>
+      </c>
       <c r="Q19" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R19" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K19:P19)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85724398285307279</v>
+        <v>0.93303299153680741</v>
       </c>
       <c r="S19" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4417067843579312</v>
+        <v>1.1095694720678451</v>
       </c>
       <c r="T19" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>89.385820630191731</v>
+        <v>34.396653634103195</v>
       </c>
       <c r="U19" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.7045168752732494</v>
+        <v>0</v>
       </c>
       <c r="V19" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4955,90 +4953,86 @@
       </c>
       <c r="W19" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.818067501092997</v>
+        <v>0</v>
       </c>
       <c r="X19" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>23.522584376366247</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>42.340651877459237</v>
+        <v>22.931102422735464</v>
       </c>
       <c r="Z19" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>11.465551211367732</v>
       </c>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14">
-        <v>13</v>
-      </c>
+      <c r="AF19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="14"/>
       <c r="AH19" s="14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AI19" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] lapislazuli;</v>
+        <v>public static VariantMirageFairy[] wheat;</v>
       </c>
       <c r="AJ19" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(24, lapislazuli = v(t("lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(17, wheat = v(t("wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 1), e(CRYSTAL, 0), e(ART, 2)), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
       </c>
       <c r="AK19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
+        <v>item.mirageFairy.wheat.name=Wheatia</v>
       </c>
       <c r="AL19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
+        <v>item.mirageFairy.wheat.name=ウェアーチャ</v>
       </c>
       <c r="AM19" s="13"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="8">
-        <v>48</v>
-      </c>
-      <c r="K20" s="7">
-        <v>1</v>
-      </c>
-      <c r="L20" s="7">
-        <v>18</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O20" s="7">
         <v>10</v>
@@ -5046,463 +5040,467 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="R20" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K20:P20)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.72922930513582751</v>
+        <v>0.97265494741228553</v>
       </c>
       <c r="S20" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2264126171733489</v>
+        <v>1.3755418181397439</v>
       </c>
       <c r="T20" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>58.867805624320752</v>
+        <v>38.515170907912825</v>
       </c>
       <c r="U20" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.99775941736136864</v>
+        <v>0</v>
       </c>
       <c r="V20" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.959669512504636</v>
+        <v>0</v>
       </c>
       <c r="W20" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.959669512504636</v>
+        <v>3.209597575659402</v>
       </c>
       <c r="X20" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.973113008336425</v>
+        <v>3.209597575659402</v>
       </c>
       <c r="Y20" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.9775941736136868</v>
+        <v>32.095975756594022</v>
       </c>
       <c r="Z20" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="14">
-        <v>11</v>
-      </c>
-      <c r="AB20" s="14">
-        <v>7</v>
-      </c>
-      <c r="AC20" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD20" s="14">
-        <v>4</v>
-      </c>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
       <c r="AE20" s="14"/>
       <c r="AF20" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="14">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AG20" s="14"/>
       <c r="AH20" s="14">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AI20" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] enderman;</v>
+        <v>public static VariantMirageFairy[] lilac;</v>
       </c>
       <c r="AJ20" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(9, enderman = v(t("enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(e(ATTACK, 11), e(CRAFT, 7), e(FELL, 6), e(LIGHT, 4), e(FLAME, 0), e(WATER, 1)), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(18, lilac = v(t("lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3), e(CRYSTAL, 0), e(ART, 11)), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
       </c>
       <c r="AK20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.enderman.name=Endermania</v>
+        <v>item.mirageFairy.lilac.name=Lilacia</v>
       </c>
       <c r="AL20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
+        <v>item.mirageFairy.lilac.name=リラーキャ</v>
       </c>
       <c r="AM20" s="13"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>319</v>
+        <v>443</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="8">
-        <v>43</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7">
+        <v>5</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7">
+        <v>10</v>
+      </c>
       <c r="O21" s="7">
-        <v>10</v>
-      </c>
-      <c r="P21" s="7">
         <v>4</v>
       </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1</v>
       </c>
       <c r="R21" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K21:P21)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.94605764672559589</v>
+        <v>0.85856543643775374</v>
       </c>
       <c r="S21" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1250584846888094</v>
+        <v>0.85856543643775374</v>
       </c>
       <c r="T21" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>48.377514841618805</v>
+        <v>16.312743292317322</v>
       </c>
       <c r="U21" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>0.77679729963415822</v>
       </c>
       <c r="V21" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>3.883986498170791</v>
       </c>
       <c r="W21" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>0.77679729963415822</v>
       </c>
       <c r="X21" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>7.767972996341582</v>
       </c>
       <c r="Y21" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.555367744013431</v>
+        <v>3.1071891985366329</v>
       </c>
       <c r="Z21" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.822147097605372</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="14"/>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14">
-        <v>3</v>
-      </c>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AE21" s="14">
+        <v>8</v>
+      </c>
+      <c r="AF21" s="14"/>
       <c r="AG21" s="14"/>
       <c r="AH21" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI21" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] spider;</v>
+        <v>public static VariantMirageFairy[] torch;</v>
       </c>
       <c r="AJ21" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(13, spider = v(t("spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 3), e(FLAME, 0), e(WATER, 2)), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(19, torch = v(t("torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 12), e(FLAME, 8), e(WATER, 0), e(CRYSTAL, 0), e(ART, 3)), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
       </c>
       <c r="AK21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.spider.name=Spideria</v>
+        <v>item.mirageFairy.torch.name=Torchia</v>
       </c>
       <c r="AL21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.spider.name=スピデーリャ</v>
+        <v>item.mirageFairy.torch.name=トルキャ</v>
       </c>
       <c r="AM21" s="13"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J22" s="8">
-        <v>61</v>
-      </c>
-      <c r="K22" s="7">
-        <v>3</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7">
-        <v>34</v>
-      </c>
-      <c r="N22" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7">
+        <v>22</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7">
+        <v>8</v>
+      </c>
       <c r="O22" s="7">
         <v>10</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R22" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K22:P22)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.94837491720007905</v>
+        <v>0.89277196943365633</v>
       </c>
       <c r="S22" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.8967498344001581</v>
+        <v>1.0616907781254958</v>
       </c>
       <c r="T22" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>115.70173989840964</v>
+        <v>61.578065131278755</v>
       </c>
       <c r="U22" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.3852174403240198</v>
+        <v>0</v>
       </c>
       <c r="V22" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>33.867935822203314</v>
       </c>
       <c r="W22" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>83.699130990338887</v>
+        <v>0</v>
       </c>
       <c r="X22" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>12.31561302625575</v>
       </c>
       <c r="Y22" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>24.617391467746732</v>
+        <v>15.394516282819689</v>
       </c>
       <c r="Z22" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
       <c r="AA22" s="14">
-        <v>20</v>
-      </c>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>1</v>
+      </c>
       <c r="AD22" s="14">
-        <v>2</v>
-      </c>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>18</v>
+      </c>
+      <c r="AF22" s="14"/>
       <c r="AG22" s="14"/>
       <c r="AH22" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] enderdragon;</v>
+        <v>public static VariantMirageFairy[] lava;</v>
       </c>
       <c r="AJ22" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(25, enderdragon = v(t("enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(e(ATTACK, 20), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 2)), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(20, lava = v(t("lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(e(ATTACK, 7), e(CRAFT, 3), e(FELL, 1), e(LIGHT, 15), e(FLAME, 18), e(WATER, 0), e(CRYSTAL, 0), e(ART, 1)), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
       </c>
       <c r="AK22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
+        <v>item.mirageFairy.lava.name=Lavia</v>
       </c>
       <c r="AL22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
+        <v>item.mirageFairy.lava.name=ラービャ</v>
       </c>
       <c r="AM22" s="13"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>435</v>
+        <v>93</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>437</v>
+        <v>165</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>438</v>
+        <v>207</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>439</v>
+        <v>300</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" s="8">
-        <v>39</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="K23" s="7">
+        <v>10</v>
+      </c>
+      <c r="L23" s="7">
+        <v>16</v>
+      </c>
       <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N23" s="7">
+        <v>9</v>
+      </c>
       <c r="O23" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P23" s="7">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R23" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K23:P23)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
+        <v>0.80341122656688246</v>
       </c>
       <c r="S23" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.89502507092797245</v>
+        <v>1.3511712407893626</v>
       </c>
       <c r="T23" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>34.905977766190922</v>
+        <v>132.41478159735755</v>
       </c>
       <c r="U23" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>13.511712407893627</v>
       </c>
       <c r="V23" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>21.618739852629805</v>
       </c>
       <c r="W23" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.9392209870106067</v>
+        <v>21.618739852629805</v>
       </c>
       <c r="X23" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>12.160541167104263</v>
       </c>
       <c r="Y23" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>19.392209870106068</v>
+        <v>12.160541167104263</v>
       </c>
       <c r="Z23" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.574546909074249</v>
-      </c>
-      <c r="AA23" s="14">
-        <v>1</v>
-      </c>
+        <v>51.344507149995785</v>
+      </c>
+      <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14">
-        <v>3</v>
-      </c>
-      <c r="AG23" s="14"/>
+      <c r="AD23" s="14">
+        <v>7</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>6</v>
+      </c>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14">
+        <v>1</v>
+      </c>
       <c r="AH23" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI23" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] chicken;</v>
+        <v>public static VariantMirageFairy[] star;</v>
       </c>
       <c r="AJ23" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(29, chicken = v(t("chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3)), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(21, star = v(t("star", 4, 98, m(10, 16, 16, 9, 9, 38), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 6), e(WATER, 0), e(CRYSTAL, 1), e(ART, 7)), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
       </c>
       <c r="AK23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.chicken.name=Chickenia</v>
+        <v>item.mirageFairy.star.name=Staria</v>
       </c>
       <c r="AL23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.chicken.name=チッケーニャ</v>
+        <v>item.mirageFairy.star.name=スターリャ</v>
       </c>
       <c r="AM23" s="13"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>307</v>
+        <v>441</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="8">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="7">
-        <v>8</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7">
         <v>10</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7">
@@ -5510,19 +5508,19 @@
       </c>
       <c r="Q24" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R24" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K24:P24)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.74742462431746925</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="S24" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.74742462431746925</v>
+        <v>1.0643701824533598</v>
       </c>
       <c r="T24" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>36.62380659155599</v>
+        <v>81.956504048908698</v>
       </c>
       <c r="U24" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5530,15 +5528,15 @@
       </c>
       <c r="V24" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.4513049268531582</v>
+        <v>0</v>
       </c>
       <c r="W24" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.814131158566449</v>
+        <v>0</v>
       </c>
       <c r="X24" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.9070655792832243</v>
+        <v>45.531391138282608</v>
       </c>
       <c r="Y24" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5546,112 +5544,110 @@
       </c>
       <c r="Z24" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.4513049268531582</v>
+        <v>36.42511291062609</v>
       </c>
       <c r="AA24" s="14">
-        <v>12</v>
-      </c>
-      <c r="AB24" s="14">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="14">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
+      <c r="AG24" s="14">
+        <v>6</v>
+      </c>
       <c r="AH24" s="14">
         <v>2</v>
       </c>
       <c r="AI24" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] skeleton;</v>
+        <v>public static VariantMirageFairy[] gravel;</v>
       </c>
       <c r="AJ24" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(14, skeleton = v(t("skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(e(ATTACK, 12), e(CRAFT, 5), e(FELL, 8), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(22, gravel = v(t("gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(e(ATTACK, 3), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 6), e(ART, 2)), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
       </c>
       <c r="AK24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.skeleton.name=Skeletonia</v>
+        <v>item.mirageFairy.gravel.name=Gravelia</v>
       </c>
       <c r="AL24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
+        <v>item.mirageFairy.gravel.name=グラベーリャ</v>
       </c>
       <c r="AM24" s="13"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" s="8">
-        <v>55</v>
-      </c>
-      <c r="K25" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="K25" s="7">
+        <v>10</v>
+      </c>
       <c r="L25" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M25" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="7">
-        <v>2</v>
-      </c>
+      <c r="O25" s="7"/>
       <c r="P25" s="7">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R25" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K25:P25)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.75785828325519911</v>
+        <v>0.85394924037429032</v>
       </c>
       <c r="S25" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.75785828325519911</v>
+        <v>1.4361657100787466</v>
       </c>
       <c r="T25" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>41.682205579035951</v>
+        <v>104.8400968357485</v>
       </c>
       <c r="U25" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>13.61559699165565</v>
       </c>
       <c r="V25" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.504661673710785</v>
+        <v>21.784955186649039</v>
       </c>
       <c r="W25" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.894068526345317</v>
+        <v>20.423395487483475</v>
       </c>
       <c r="X25" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5659,87 +5655,85 @@
       </c>
       <c r="Y25" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.7788137052690636</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.504661673710785</v>
-      </c>
-      <c r="AA25" s="14">
-        <v>13</v>
-      </c>
+        <v>49.016149169960336</v>
+      </c>
+      <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14">
+        <v>2</v>
+      </c>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="14">
-        <v>4</v>
-      </c>
-      <c r="AG25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14">
+        <v>15</v>
+      </c>
       <c r="AH25" s="14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AI25" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] zombie;</v>
+        <v>public static VariantMirageFairy[] emerald;</v>
       </c>
       <c r="AJ25" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(15, zombie = v(t("zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(e(ATTACK, 13), e(CRAFT, 0), e(FELL, 6), e(LIGHT, 0), e(FLAME, 0), e(WATER, 4)), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(23, emerald = v(t("emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 15), e(ART, 9)), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
       </c>
       <c r="AK25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.zombie.name=Zombia</v>
+        <v>item.mirageFairy.emerald.name=Emeraldia</v>
       </c>
       <c r="AL25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.zombie.name=ゾンビャ</v>
+        <v>item.mirageFairy.emerald.name=エメラルジャ</v>
       </c>
       <c r="AM25" s="13"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="3">
         <v>4</v>
       </c>
       <c r="J26" s="8">
-        <v>69</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7">
-        <v>11</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K26" s="7">
+        <v>2</v>
+      </c>
+      <c r="L26" s="7"/>
       <c r="M26" s="7">
+        <v>8</v>
+      </c>
+      <c r="N26" s="7">
         <v>10</v>
       </c>
-      <c r="N26" s="7">
-        <v>4</v>
-      </c>
       <c r="O26" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="5">
@@ -5748,255 +5742,243 @@
       </c>
       <c r="R26" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K26:P26)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.82775327988481073</v>
+        <v>0.85724398285307279</v>
       </c>
       <c r="S26" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.392109531539284</v>
+        <v>1.4417067843579312</v>
       </c>
       <c r="T26" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>96.055557676210597</v>
+        <v>89.385820630191731</v>
       </c>
       <c r="U26" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>4.7045168752732494</v>
       </c>
       <c r="V26" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>40.638889786089102</v>
+        <v>0</v>
       </c>
       <c r="W26" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>36.944445260080997</v>
+        <v>18.818067501092997</v>
       </c>
       <c r="X26" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.7777781040324</v>
+        <v>23.522584376366247</v>
       </c>
       <c r="Y26" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.6944445260081</v>
+        <v>42.340651877459237</v>
       </c>
       <c r="Z26" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="AA26" s="14">
-        <v>17</v>
-      </c>
-      <c r="AB26" s="14">
-        <v>6</v>
-      </c>
-      <c r="AC26" s="14">
-        <v>2</v>
-      </c>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
+      <c r="AG26" s="14">
+        <v>13</v>
+      </c>
       <c r="AH26" s="14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI26" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] witherskeleton;</v>
+        <v>public static VariantMirageFairy[] lapislazuli;</v>
       </c>
       <c r="AJ26" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(26, witherskeleton = v(t("witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(e(ATTACK, 17), e(CRAFT, 6), e(FELL, 2), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(24, lapislazuli = v(t("lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 13), e(ART, 10)), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
       </c>
       <c r="AK26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
+        <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
       </c>
       <c r="AL26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
+        <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
       </c>
       <c r="AM26" s="13"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="3">
         <v>5</v>
       </c>
       <c r="J27" s="8">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7">
-        <v>8</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K27" s="7">
+        <v>3</v>
+      </c>
+      <c r="L27" s="7"/>
       <c r="M27" s="7">
+        <v>34</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7">
         <v>10</v>
       </c>
-      <c r="N27" s="7">
-        <v>3</v>
-      </c>
-      <c r="O27" s="7">
-        <v>1</v>
-      </c>
-      <c r="P27" s="7">
-        <v>1</v>
-      </c>
+      <c r="P27" s="7"/>
       <c r="Q27" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>2</v>
       </c>
       <c r="R27" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K27:P27)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.83508791942836935</v>
+        <v>0.94837491720007905</v>
       </c>
       <c r="S27" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.6701758388567387</v>
+        <v>1.8967498344001581</v>
       </c>
       <c r="T27" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>86.849143620550407</v>
+        <v>115.70173989840964</v>
       </c>
       <c r="U27" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>7.3852174403240198</v>
       </c>
       <c r="V27" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.208397781061013</v>
+        <v>0</v>
       </c>
       <c r="W27" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.760497226326265</v>
+        <v>83.699130990338887</v>
       </c>
       <c r="X27" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.328149167897879</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.7760497226326266</v>
+        <v>24.617391467746732</v>
       </c>
       <c r="Z27" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.7760497226326266</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="14">
-        <v>4</v>
-      </c>
+      <c r="AC27" s="14"/>
       <c r="AD27" s="14">
-        <v>3</v>
-      </c>
-      <c r="AE27" s="14">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AE27" s="14"/>
       <c r="AF27" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG27" s="14"/>
       <c r="AH27" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI27" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] wither;</v>
+        <v>public static VariantMirageFairy[] enderdragon;</v>
       </c>
       <c r="AJ27" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(27, wither = v(t("wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(e(ATTACK, 25), e(CRAFT, 0), e(FELL, 4), e(LIGHT, 3), e(FLAME, 4), e(WATER, 1)), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(25, enderdragon = v(t("enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(e(ATTACK, 20), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 2), e(CRYSTAL, 0), e(ART, 4)), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
       </c>
       <c r="AK27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.wither.name=Witheria</v>
+        <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
       </c>
       <c r="AL27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.wither.name=ウィテーリャ</v>
+        <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
       </c>
       <c r="AM27" s="13"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" s="8">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="L28" s="7">
+        <v>11</v>
+      </c>
       <c r="M28" s="7">
         <v>10</v>
       </c>
       <c r="N28" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O28" s="7">
-        <v>12</v>
-      </c>
-      <c r="P28" s="7">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P28" s="7"/>
       <c r="Q28" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R28" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K28:P28)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.80292288186337646</v>
+        <v>0.82775327988481073</v>
       </c>
       <c r="S28" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9548416039104165</v>
+        <v>1.392109531539284</v>
       </c>
       <c r="T28" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>33.419456136864575</v>
+        <v>96.055557676210597</v>
       </c>
       <c r="U28" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -6004,114 +5986,118 @@
       </c>
       <c r="V28" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>40.638889786089102</v>
       </c>
       <c r="W28" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.780469721569217</v>
+        <v>36.944445260080997</v>
       </c>
       <c r="X28" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.3902348607846085</v>
+        <v>14.7777781040324</v>
       </c>
       <c r="Y28" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.936563665883062</v>
+        <v>3.6944445260081</v>
       </c>
       <c r="Z28" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.3121878886276868</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="14">
-        <v>10</v>
-      </c>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14">
+        <v>17</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>6</v>
+      </c>
+      <c r="AC28" s="14">
         <v>2</v>
       </c>
-      <c r="AE28" s="14">
-        <v>7</v>
-      </c>
-      <c r="AF28" s="14">
-        <v>2</v>
-      </c>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
       <c r="AH28" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI28" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] creeper;</v>
+        <v>public static VariantMirageFairy[] witherskeleton;</v>
       </c>
       <c r="AJ28" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(16, creeper = v(t("creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 7), e(WATER, 2)), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(26, witherskeleton = v(t("witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(e(ATTACK, 17), e(CRAFT, 6), e(FELL, 2), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 2)), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
       </c>
       <c r="AK28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.creeper.name=Creeperia</v>
+        <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
       </c>
       <c r="AL28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.creeper.name=クレペーリャ</v>
+        <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
       </c>
       <c r="AM28" s="13"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J29" s="8">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+      <c r="L29" s="7">
+        <v>8</v>
+      </c>
+      <c r="M29" s="7">
+        <v>10</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3</v>
+      </c>
       <c r="O29" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P29" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>2</v>
       </c>
       <c r="R29" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K29:P29)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.93303299153680741</v>
+        <v>0.83508791942836935</v>
       </c>
       <c r="S29" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1095694720678451</v>
+        <v>1.6701758388567387</v>
       </c>
       <c r="T29" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>34.396653634103195</v>
+        <v>86.849143620550407</v>
       </c>
       <c r="U29" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -6119,29 +6105,37 @@
       </c>
       <c r="V29" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>30.208397781061013</v>
       </c>
       <c r="W29" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>37.760497226326265</v>
       </c>
       <c r="X29" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>11.328149167897879</v>
       </c>
       <c r="Y29" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>22.931102422735464</v>
+        <v>3.7760497226326266</v>
       </c>
       <c r="Z29" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.465551211367732</v>
-      </c>
-      <c r="AA29" s="14"/>
+        <v>3.7760497226326266</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>25</v>
+      </c>
       <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
+      <c r="AC29" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>3</v>
+      </c>
+      <c r="AE29" s="14">
+        <v>4</v>
+      </c>
       <c r="AF29" s="14">
         <v>1</v>
       </c>
@@ -6151,62 +6145,66 @@
       </c>
       <c r="AI29" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] wheat;</v>
+        <v>public static VariantMirageFairy[] wither;</v>
       </c>
       <c r="AJ29" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(17, wheat = v(t("wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 1)), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(27, wither = v(t("wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(e(ATTACK, 25), e(CRAFT, 0), e(FELL, 4), e(LIGHT, 3), e(FLAME, 4), e(WATER, 1), e(CRYSTAL, 0), e(ART, 2)), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
       </c>
       <c r="AK29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.wheat.name=Wheatia</v>
+        <v>item.mirageFairy.wither.name=Witheria</v>
       </c>
       <c r="AL29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.wheat.name=ウェアーチャ</v>
+        <v>item.mirageFairy.wither.name=ウィテーリャ</v>
       </c>
       <c r="AM29" s="13"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="H30" s="11"/>
+        <v>309</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="I30" s="3">
         <v>3</v>
       </c>
       <c r="J30" s="8">
-        <v>28</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="K30" s="7">
+        <v>3</v>
+      </c>
+      <c r="L30" s="7">
+        <v>10</v>
+      </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" s="7">
-        <v>1</v>
-      </c>
-      <c r="O30" s="7">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
@@ -6214,186 +6212,188 @@
       </c>
       <c r="R30" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K30:P30)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.97265494741228553</v>
+        <v>0.82359101726757311</v>
       </c>
       <c r="S30" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3755418181397439</v>
+        <v>1.1647335864684558</v>
       </c>
       <c r="T30" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>38.515170907912825</v>
+        <v>20.965204556432205</v>
       </c>
       <c r="U30" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>2.6206505695540256</v>
       </c>
       <c r="V30" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>8.7355018985134194</v>
       </c>
       <c r="W30" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.209597575659402</v>
+        <v>2.6206505695540256</v>
       </c>
       <c r="X30" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.209597575659402</v>
+        <v>6.9884015188107353</v>
       </c>
       <c r="Y30" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>32.095975756594022</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14">
-        <v>3</v>
-      </c>
+      <c r="AA30" s="14">
+        <v>8</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="14">
+        <v>6</v>
+      </c>
+      <c r="AE30" s="14">
+        <v>11</v>
+      </c>
+      <c r="AF30" s="14"/>
       <c r="AG30" s="14"/>
       <c r="AH30" s="14">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AI30" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] lilac;</v>
+        <v>public static VariantMirageFairy[] thunder;</v>
       </c>
       <c r="AJ30" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(18, lilac = v(t("lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3)), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(28, thunder = v(t("thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(e(ATTACK, 8), e(CRAFT, 2), e(FELL, 2), e(LIGHT, 6), e(FLAME, 11), e(WATER, 0), e(CRYSTAL, 0), e(ART, 4)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
       </c>
       <c r="AK30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lilac.name=Lilacia</v>
+        <v>item.mirageFairy.thunder.name=Thunderia</v>
       </c>
       <c r="AL30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lilac.name=リラーキャ</v>
+        <v>item.mirageFairy.thunder.name=ツンデーリャ</v>
       </c>
       <c r="AM30" s="13"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>151</v>
+        <v>435</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>153</v>
+        <v>437</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="8">
-        <v>19</v>
-      </c>
-      <c r="K31" s="7">
-        <v>1</v>
-      </c>
-      <c r="L31" s="7">
-        <v>5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
       <c r="M31" s="7">
         <v>1</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="7"/>
+      <c r="O31" s="7">
         <v>10</v>
       </c>
-      <c r="O31" s="7">
-        <v>4</v>
-      </c>
-      <c r="P31" s="7"/>
+      <c r="P31" s="7">
+        <v>7</v>
+      </c>
       <c r="Q31" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1</v>
       </c>
       <c r="R31" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K31:P31)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85856543643775374</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="S31" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.85856543643775374</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="T31" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>16.312743292317322</v>
+        <v>34.905977766190922</v>
       </c>
       <c r="U31" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.77679729963415822</v>
+        <v>0</v>
       </c>
       <c r="V31" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.883986498170791</v>
+        <v>0</v>
       </c>
       <c r="W31" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.77679729963415822</v>
+        <v>1.9392209870106067</v>
       </c>
       <c r="X31" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.767972996341582</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.1071891985366329</v>
+        <v>19.392209870106068</v>
       </c>
       <c r="Z31" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>13.574546909074249</v>
       </c>
       <c r="AA31" s="14">
         <v>1</v>
       </c>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
-      <c r="AD31" s="14">
-        <v>12</v>
-      </c>
-      <c r="AE31" s="14">
-        <v>8</v>
-      </c>
-      <c r="AF31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14">
+        <v>3</v>
+      </c>
       <c r="AG31" s="14"/>
       <c r="AH31" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] torch;</v>
+        <v>public static VariantMirageFairy[] chicken;</v>
       </c>
       <c r="AJ31" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(19, torch = v(t("torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 12), e(FLAME, 8), e(WATER, 0)), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(29, chicken = v(t("chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3), e(CRYSTAL, 0), e(ART, 1)), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
       </c>
       <c r="AK31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.torch.name=Torchia</v>
+        <v>item.mirageFairy.chicken.name=Chickenia</v>
       </c>
       <c r="AL31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.torch.name=トルキャ</v>
+        <v>item.mirageFairy.chicken.name=チッケーニャ</v>
       </c>
       <c r="AM31" s="13"/>
     </row>
@@ -6501,8 +6501,8 @@
         <v>public static VariantMirageFairy[] furnace;</v>
       </c>
       <c r="AJ32" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(30, furnace = v(t("furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(e(ATTACK, 1), e(CRAFT, 13), e(FELL, 0), e(LIGHT, 6), e(FLAME, 10), e(WATER, 0)), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(30, furnace = v(t("furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(e(ATTACK, 1), e(CRAFT, 13), e(FELL, 0), e(LIGHT, 6), e(FLAME, 10), e(WATER, 0), e(CRYSTAL, 0), e(ART, 2)), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
       </c>
       <c r="AK32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6612,8 +6612,8 @@
         <v>public static VariantMirageFairy[] magentaglazedterracotta;</v>
       </c>
       <c r="AJ33" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(31, magentaglazedterracotta = v(t("magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(31, magentaglazedterracotta = v(t("magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 10)), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
       </c>
       <c r="AK33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6721,8 +6721,8 @@
         <v>public static VariantMirageFairy[] bread;</v>
       </c>
       <c r="AJ34" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(32, bread = v(t("bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0)), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(32, bread = v(t("bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 7)), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
       </c>
       <c r="AK34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6842,8 +6842,8 @@
         <v>public static VariantMirageFairy[] daytime;</v>
       </c>
       <c r="AJ35" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(33, daytime = v(t("daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(e(ATTACK, 0), e(CRAFT, 1), e(FELL, 2), e(LIGHT, 11), e(FLAME, 2), e(WATER, 0)), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(33, daytime = v(t("daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(e(ATTACK, 0), e(CRAFT, 1), e(FELL, 2), e(LIGHT, 11), e(FLAME, 2), e(WATER, 0), e(CRYSTAL, 0), e(ART, 1)), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
       </c>
       <c r="AK35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6955,8 +6955,8 @@
         <v>public static VariantMirageFairy[] night;</v>
       </c>
       <c r="AJ36" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(34, night = v(t("night", 1, 83, m(0, 7, 10, 0, 7, 26), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0)), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(34, night = v(t("night", 1, 83, m(0, 7, 10, 0, 7, 26), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 4)), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
       </c>
       <c r="AK36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -7076,8 +7076,8 @@
         <v>public static VariantMirageFairy[] morning;</v>
       </c>
       <c r="AJ37" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(35, morning = v(t("morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 9), e(FLAME, 1), e(WATER, 1)), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(35, morning = v(t("morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 9), e(FLAME, 1), e(WATER, 1), e(CRYSTAL, 0), e(ART, 3)), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
       </c>
       <c r="AK37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -7193,8 +7193,8 @@
         <v>public static VariantMirageFairy[] fine;</v>
       </c>
       <c r="AJ38" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(36, fine = v(t("fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(e(ATTACK, 0), e(CRAFT, 1), e(FELL, 2), e(LIGHT, 16), e(FLAME, 1), e(WATER, 0)), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(36, fine = v(t("fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(e(ATTACK, 0), e(CRAFT, 1), e(FELL, 2), e(LIGHT, 16), e(FLAME, 1), e(WATER, 0), e(CRYSTAL, 0), e(ART, 1)), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
       </c>
       <c r="AK38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -7306,8 +7306,8 @@
         <v>public static VariantMirageFairy[] rain;</v>
       </c>
       <c r="AJ39" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(37, rain = v(t("rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 17)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(37, rain = v(t("rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 17), e(CRYSTAL, 0), e(ART, 2)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
       </c>
       <c r="AK39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -7419,8 +7419,8 @@
         <v>public static VariantMirageFairy[] plains;</v>
       </c>
       <c r="AJ40" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(38, plains = v(t("plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 7), e(LIGHT, 0), e(FLAME, 0), e(WATER, 6)), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(38, plains = v(t("plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 7), e(LIGHT, 0), e(FLAME, 0), e(WATER, 6), e(CRYSTAL, 0), e(ART, 1)), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
       </c>
       <c r="AK40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -7536,8 +7536,8 @@
         <v>public static VariantMirageFairy[] forest;</v>
       </c>
       <c r="AJ41" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(39, forest = v(t("forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 10), e(LIGHT, 0), e(FLAME, 0), e(WATER, 6)), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(39, forest = v(t("forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 10), e(LIGHT, 0), e(FLAME, 0), e(WATER, 6), e(CRYSTAL, 0), e(ART, 2)), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
       </c>
       <c r="AK41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>

--- a/FairyList.xlsx
+++ b/FairyList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MirageFairyMod-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C208AC-5556-4035-96B0-77452DD461DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578A6F07-BEE6-49A7-AED9-3AE71D493D8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5310" yWindow="2835" windowWidth="23190" windowHeight="12405" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
@@ -2433,7 +2433,7 @@
       <calculatedColumnFormula>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="0">
-      <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
+      <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="8">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</calculatedColumnFormula>
@@ -2753,10 +2753,10 @@
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2993,8 +2993,8 @@
         <v>public static VariantMirageFairy[] air;</v>
       </c>
       <c r="AJ2" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(0, air = v(t("air", 1, 15, m(1, 0, 10, 0, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 1)), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(0, air = v(t(0, "air", 1, 15, m(1, 0, 10, 0, 0, 0), a(0, 0, 0, 0, 0, 0, 0, 1), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
       </c>
       <c r="AK2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3108,8 +3108,8 @@
         <v>public static VariantMirageFairy[] water;</v>
       </c>
       <c r="AJ3" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(1, water = v(t("water", 1, 50, m(0, 0, 0, 1, 10, 6), a(e(ATTACK, 4), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 14), e(CRYSTAL, 0), e(ART, 3)), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(1, water = v(t(1, "water", 1, 50, m(0, 0, 0, 1, 10, 6), a(4, 0, 0, 0, 0, 14, 0, 3), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
       </c>
       <c r="AK3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3227,8 +3227,8 @@
         <v>public static VariantMirageFairy[] fire;</v>
       </c>
       <c r="AJ4" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(2, fire = v(t("fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(e(ATTACK, 9), e(CRAFT, 4), e(FELL, 7), e(LIGHT, 13), e(FLAME, 15), e(WATER, 0), e(CRYSTAL, 0), e(ART, 3)), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(2, fire = v(t(2, "fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(9, 4, 7, 13, 15, 0, 0, 3), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
       </c>
       <c r="AK4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3350,8 +3350,8 @@
         <v>public static VariantMirageFairy[] sun;</v>
       </c>
       <c r="AJ5" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(3, sun = v(t("sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(e(ATTACK, 5), e(CRAFT, 2), e(FELL, 0), e(LIGHT, 28), e(FLAME, 7), e(WATER, 0), e(CRYSTAL, 0), e(ART, 6)), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(3, sun = v(t(3, "sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(5, 2, 0, 28, 7, 0, 0, 6), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
       </c>
       <c r="AK5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3467,8 +3467,8 @@
         <v>public static VariantMirageFairy[] stone;</v>
       </c>
       <c r="AJ6" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(4, stone = v(t("stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(e(ATTACK, 6), e(CRAFT, 1), e(FELL, 4), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 5), e(ART, 3)), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(4, stone = v(t(4, "stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(6, 1, 4, 0, 0, 0, 5, 3), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
       </c>
       <c r="AK6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3580,8 +3580,8 @@
         <v>public static VariantMirageFairy[] dirt;</v>
       </c>
       <c r="AJ7" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(5, dirt = v(t("dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 2), e(CRYSTAL, 2), e(ART, 1)), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(5, dirt = v(t(5, "dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(0, 0, 0, 0, 0, 2, 2, 1), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
       </c>
       <c r="AK7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3697,8 +3697,8 @@
         <v>public static VariantMirageFairy[] iron;</v>
       </c>
       <c r="AJ8" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(6, iron = v(t("iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 2), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 1), e(ART, 2)), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(6, iron = v(t(6, "iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(0, 0, 2, 2, 0, 0, 1, 2), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
       </c>
       <c r="AK8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3814,8 +3814,8 @@
         <v>public static VariantMirageFairy[] diamond;</v>
       </c>
       <c r="AJ9" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(7, diamond = v(t("diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 4), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 17), e(ART, 8)), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(7, diamond = v(t(7, "diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(0, 0, 1, 4, 0, 0, 17, 8), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
       </c>
       <c r="AK9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -3933,8 +3933,8 @@
         <v>public static VariantMirageFairy[] redstone;</v>
       </c>
       <c r="AJ10" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(8, redstone = v(t("redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 2), e(WATER, 0), e(CRYSTAL, 10), e(ART, 7)), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(8, redstone = v(t(8, "redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(0, 0, 0, 7, 2, 0, 10, 7), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
       </c>
       <c r="AK10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4058,8 +4058,8 @@
         <v>public static VariantMirageFairy[] enderman;</v>
       </c>
       <c r="AJ11" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(9, enderman = v(t("enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(e(ATTACK, 11), e(CRAFT, 7), e(FELL, 6), e(LIGHT, 4), e(FLAME, 0), e(WATER, 1), e(CRYSTAL, 4), e(ART, 3)), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(9, enderman = v(t(9, "enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(11, 7, 6, 4, 0, 1, 4, 3), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
       </c>
       <c r="AK11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4179,8 +4179,8 @@
         <v>public static VariantMirageFairy[] moon;</v>
       </c>
       <c r="AJ12" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(10, moon = v(t("moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 6), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 3), e(ART, 6)), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(10, moon = v(t(10, "moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(0, 0, 0, 6, 0, 0, 3, 6), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
       </c>
       <c r="AK12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4294,8 +4294,8 @@
         <v>public static VariantMirageFairy[] sand;</v>
       </c>
       <c r="AJ13" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(11, sand = v(t("sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(e(ATTACK, 2), e(CRAFT, 1), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 6), e(ART, 3)), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(11, sand = v(t(11, "sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(2, 1, 0, 0, 0, 0, 6, 3), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
       </c>
       <c r="AK13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4409,8 +4409,8 @@
         <v>public static VariantMirageFairy[] gold;</v>
       </c>
       <c r="AJ14" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(12, gold = v(t("gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 1), e(LIGHT, 3), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 1), e(ART, 12)), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(12, gold = v(t(12, "gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(0, 0, 1, 3, 0, 0, 1, 12), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
       </c>
       <c r="AK14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4522,8 +4522,8 @@
         <v>public static VariantMirageFairy[] spider;</v>
       </c>
       <c r="AJ15" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(13, spider = v(t("spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 3), e(FLAME, 0), e(WATER, 2), e(CRYSTAL, 0), e(ART, 2)), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(13, spider = v(t(13, "spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(10, 0, 0, 3, 0, 2, 0, 2), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
       </c>
       <c r="AK15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4639,8 +4639,8 @@
         <v>public static VariantMirageFairy[] skeleton;</v>
       </c>
       <c r="AJ16" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(14, skeleton = v(t("skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(e(ATTACK, 12), e(CRAFT, 5), e(FELL, 8), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 2)), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(14, skeleton = v(t(14, "skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(12, 5, 8, 0, 0, 0, 0, 2), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
       </c>
       <c r="AK16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4756,8 +4756,8 @@
         <v>public static VariantMirageFairy[] zombie;</v>
       </c>
       <c r="AJ17" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(15, zombie = v(t("zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(e(ATTACK, 13), e(CRAFT, 0), e(FELL, 6), e(LIGHT, 0), e(FLAME, 0), e(WATER, 4), e(CRYSTAL, 0), e(ART, 1)), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(15, zombie = v(t(15, "zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(13, 0, 6, 0, 0, 4, 0, 1), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
       </c>
       <c r="AK17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4875,8 +4875,8 @@
         <v>public static VariantMirageFairy[] creeper;</v>
       </c>
       <c r="AJ18" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(16, creeper = v(t("creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(e(ATTACK, 10), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 7), e(WATER, 2), e(CRYSTAL, 0), e(ART, 3)), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(16, creeper = v(t(16, "creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(10, 0, 0, 2, 7, 2, 0, 3), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
       </c>
       <c r="AK18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -4984,8 +4984,8 @@
         <v>public static VariantMirageFairy[] wheat;</v>
       </c>
       <c r="AJ19" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(17, wheat = v(t("wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 1), e(CRYSTAL, 0), e(ART, 2)), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(17, wheat = v(t(17, "wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(0, 0, 0, 0, 0, 1, 0, 2), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
       </c>
       <c r="AK19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5095,8 +5095,8 @@
         <v>public static VariantMirageFairy[] lilac;</v>
       </c>
       <c r="AJ20" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(18, lilac = v(t("lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3), e(CRYSTAL, 0), e(ART, 11)), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(18, lilac = v(t(18, "lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(0, 0, 0, 0, 0, 3, 0, 11), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
       </c>
       <c r="AK20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5214,8 +5214,8 @@
         <v>public static VariantMirageFairy[] torch;</v>
       </c>
       <c r="AJ21" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(19, torch = v(t("torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 12), e(FLAME, 8), e(WATER, 0), e(CRYSTAL, 0), e(ART, 3)), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(19, torch = v(t(19, "torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(1, 0, 0, 12, 8, 0, 0, 3), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
       </c>
       <c r="AK21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5333,8 +5333,8 @@
         <v>public static VariantMirageFairy[] lava;</v>
       </c>
       <c r="AJ22" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(20, lava = v(t("lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(e(ATTACK, 7), e(CRAFT, 3), e(FELL, 1), e(LIGHT, 15), e(FLAME, 18), e(WATER, 0), e(CRYSTAL, 0), e(ART, 1)), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(20, lava = v(t(20, "lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(7, 3, 1, 15, 18, 0, 0, 1), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
       </c>
       <c r="AK22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5454,8 +5454,8 @@
         <v>public static VariantMirageFairy[] star;</v>
       </c>
       <c r="AJ23" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(21, star = v(t("star", 4, 98, m(10, 16, 16, 9, 9, 38), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 7), e(FLAME, 6), e(WATER, 0), e(CRYSTAL, 1), e(ART, 7)), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(21, star = v(t(21, "star", 4, 98, m(10, 16, 16, 9, 9, 38), a(0, 0, 0, 7, 6, 0, 1, 7), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
       </c>
       <c r="AK23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5565,8 +5565,8 @@
         <v>public static VariantMirageFairy[] gravel;</v>
       </c>
       <c r="AJ24" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(22, gravel = v(t("gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(e(ATTACK, 3), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 6), e(ART, 2)), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(22, gravel = v(t(22, "gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(3, 0, 0, 0, 0, 0, 6, 2), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
       </c>
       <c r="AK24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5680,8 +5680,8 @@
         <v>public static VariantMirageFairy[] emerald;</v>
       </c>
       <c r="AJ25" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(23, emerald = v(t("emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 15), e(ART, 9)), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(23, emerald = v(t(23, "emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(0, 0, 0, 2, 0, 0, 15, 9), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
       </c>
       <c r="AK25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5793,8 +5793,8 @@
         <v>public static VariantMirageFairy[] lapislazuli;</v>
       </c>
       <c r="AJ26" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(24, lapislazuli = v(t("lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 13), e(ART, 10)), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(24, lapislazuli = v(t(24, "lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(0, 0, 0, 0, 0, 0, 13, 10), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
       </c>
       <c r="AK26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -5908,8 +5908,8 @@
         <v>public static VariantMirageFairy[] enderdragon;</v>
       </c>
       <c r="AJ27" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(25, enderdragon = v(t("enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(e(ATTACK, 20), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 2), e(CRYSTAL, 0), e(ART, 4)), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(25, enderdragon = v(t(25, "enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(20, 0, 0, 2, 0, 2, 0, 4), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
       </c>
       <c r="AK27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6025,8 +6025,8 @@
         <v>public static VariantMirageFairy[] witherskeleton;</v>
       </c>
       <c r="AJ28" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(26, witherskeleton = v(t("witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(e(ATTACK, 17), e(CRAFT, 6), e(FELL, 2), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 2)), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(26, witherskeleton = v(t(26, "witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(17, 6, 2, 0, 0, 0, 0, 2), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
       </c>
       <c r="AK28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6148,8 +6148,8 @@
         <v>public static VariantMirageFairy[] wither;</v>
       </c>
       <c r="AJ29" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(27, wither = v(t("wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(e(ATTACK, 25), e(CRAFT, 0), e(FELL, 4), e(LIGHT, 3), e(FLAME, 4), e(WATER, 1), e(CRYSTAL, 0), e(ART, 2)), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(27, wither = v(t(27, "wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(25, 0, 4, 3, 4, 1, 0, 2), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
       </c>
       <c r="AK29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6271,8 +6271,8 @@
         <v>public static VariantMirageFairy[] thunder;</v>
       </c>
       <c r="AJ30" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(28, thunder = v(t("thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(e(ATTACK, 8), e(CRAFT, 2), e(FELL, 2), e(LIGHT, 6), e(FLAME, 11), e(WATER, 0), e(CRYSTAL, 0), e(ART, 4)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(28, thunder = v(t(28, "thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(8, 2, 2, 6, 11, 0, 0, 4), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
       </c>
       <c r="AK30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6384,8 +6384,8 @@
         <v>public static VariantMirageFairy[] chicken;</v>
       </c>
       <c r="AJ31" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(29, chicken = v(t("chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 3), e(CRYSTAL, 0), e(ART, 1)), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(29, chicken = v(t(29, "chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(1, 0, 0, 0, 0, 3, 0, 1), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
       </c>
       <c r="AK31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6501,8 +6501,8 @@
         <v>public static VariantMirageFairy[] furnace;</v>
       </c>
       <c r="AJ32" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(30, furnace = v(t("furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(e(ATTACK, 1), e(CRAFT, 13), e(FELL, 0), e(LIGHT, 6), e(FLAME, 10), e(WATER, 0), e(CRYSTAL, 0), e(ART, 2)), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(30, furnace = v(t(30, "furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(1, 13, 0, 6, 10, 0, 0, 2), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
       </c>
       <c r="AK32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6612,8 +6612,8 @@
         <v>public static VariantMirageFairy[] magentaglazedterracotta;</v>
       </c>
       <c r="AJ33" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(31, magentaglazedterracotta = v(t("magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 10)), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(31, magentaglazedterracotta = v(t(31, "magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(0, 0, 0, 0, 0, 0, 0, 10), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
       </c>
       <c r="AK33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6721,8 +6721,8 @@
         <v>public static VariantMirageFairy[] bread;</v>
       </c>
       <c r="AJ34" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(32, bread = v(t("bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 0), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 7)), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(32, bread = v(t(32, "bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(0, 0, 0, 0, 0, 0, 0, 7), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
       </c>
       <c r="AK34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6842,8 +6842,8 @@
         <v>public static VariantMirageFairy[] daytime;</v>
       </c>
       <c r="AJ35" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(33, daytime = v(t("daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(e(ATTACK, 0), e(CRAFT, 1), e(FELL, 2), e(LIGHT, 11), e(FLAME, 2), e(WATER, 0), e(CRYSTAL, 0), e(ART, 1)), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(33, daytime = v(t(33, "daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(0, 1, 2, 11, 2, 0, 0, 1), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
       </c>
       <c r="AK35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -6955,8 +6955,8 @@
         <v>public static VariantMirageFairy[] night;</v>
       </c>
       <c r="AJ36" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(34, night = v(t("night", 1, 83, m(0, 7, 10, 0, 7, 26), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 0), e(CRYSTAL, 0), e(ART, 4)), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(34, night = v(t(34, "night", 1, 83, m(0, 7, 10, 0, 7, 26), a(0, 0, 0, 2, 0, 0, 0, 4), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
       </c>
       <c r="AK36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -7076,8 +7076,8 @@
         <v>public static VariantMirageFairy[] morning;</v>
       </c>
       <c r="AJ37" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(35, morning = v(t("morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 9), e(FLAME, 1), e(WATER, 1), e(CRYSTAL, 0), e(ART, 3)), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(35, morning = v(t(35, "morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(0, 0, 0, 9, 1, 1, 0, 3), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
       </c>
       <c r="AK37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -7193,8 +7193,8 @@
         <v>public static VariantMirageFairy[] fine;</v>
       </c>
       <c r="AJ38" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(36, fine = v(t("fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(e(ATTACK, 0), e(CRAFT, 1), e(FELL, 2), e(LIGHT, 16), e(FLAME, 1), e(WATER, 0), e(CRYSTAL, 0), e(ART, 1)), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(36, fine = v(t(36, "fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(0, 1, 2, 16, 1, 0, 0, 1), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
       </c>
       <c r="AK38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -7306,8 +7306,8 @@
         <v>public static VariantMirageFairy[] rain;</v>
       </c>
       <c r="AJ39" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(37, rain = v(t("rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 0), e(LIGHT, 2), e(FLAME, 0), e(WATER, 17), e(CRYSTAL, 0), e(ART, 2)), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(37, rain = v(t(37, "rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(1, 0, 0, 2, 0, 17, 0, 2), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
       </c>
       <c r="AK39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -7419,8 +7419,8 @@
         <v>public static VariantMirageFairy[] plains;</v>
       </c>
       <c r="AJ40" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(38, plains = v(t("plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(e(ATTACK, 0), e(CRAFT, 0), e(FELL, 7), e(LIGHT, 0), e(FLAME, 0), e(WATER, 6), e(CRYSTAL, 0), e(ART, 1)), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(38, plains = v(t(38, "plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(0, 0, 7, 0, 0, 6, 0, 1), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
       </c>
       <c r="AK40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
@@ -7536,8 +7536,8 @@
         <v>public static VariantMirageFairy[] forest;</v>
       </c>
       <c r="AJ41" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("""&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a(e(ATTACK, "&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;"), e(CRAFT, "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;"), e(FELL, "&amp;テーブル1[[#This Row],[FELL]]*1&amp;"), e(LIGHT, "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;"), e(FLAME, "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;"), e(WATER, "&amp;テーブル1[[#This Row],[WATER]]*1&amp;"), e(CRYSTAL, "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;"), e(ART, "&amp;テーブル1[[#This Row],[ART]]*1&amp;")), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(39, forest = v(t("forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(e(ATTACK, 1), e(CRAFT, 0), e(FELL, 10), e(LIGHT, 0), e(FLAME, 0), e(WATER, 6), e(CRYSTAL, 0), e(ART, 2)), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(39, forest = v(t(39, "forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(1, 0, 10, 0, 0, 6, 0, 2), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
       </c>
       <c r="AK41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>

--- a/FairyList.xlsx
+++ b/FairyList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MirageFairyMod-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578A6F07-BEE6-49A7-AED9-3AE71D493D8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3288DA94-E49A-4A1E-B397-16A935552F13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5310" yWindow="2835" windowWidth="23190" windowHeight="12405" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="463">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1696,92 +1696,6 @@
   </si>
   <si>
     <t>列9</t>
-  </si>
-  <si>
-    <t>ポエム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あらゆる世界にあるもの</t>
-    <rPh sb="4" eb="6">
-      <t>セカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>輝く鉄槌　妖精の怒り</t>
-    <rPh sb="0" eb="1">
-      <t>カガヤ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テッツイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壊すものか　形を変えるものか</t>
-    <rPh sb="0" eb="1">
-      <t>コワ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この世が行きつくところ</t>
-    <rPh sb="2" eb="3">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この世を生み出すところ</t>
-    <rPh sb="2" eb="3">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>唯一壊れないもの</t>
-    <rPh sb="0" eb="2">
-      <t>ユイイツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>秘められたのは　技巧の心</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ギコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ココロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ATTACK</t>
@@ -1954,7 +1868,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="45">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -2286,16 +2200,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2369,20 +2273,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AM41" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A1:AM41" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AL41" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:AL41" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL41">
     <sortCondition ref="A1:A41"/>
   </sortState>
-  <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="43"/>
-    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="42"/>
-    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="38"/>
-    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="37"/>
-    <tableColumn id="43" xr3:uid="{F9A89BF2-14D8-4F19-A026-A4FBD2302B39}" name="ポエム" dataDxfId="36"/>
+  <tableColumns count="38">
+    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="42"/>
+    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="41"/>
+    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="37"/>
+    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="36"/>
     <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="35"/>
     <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="34"/>
     <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="33"/>
@@ -2395,7 +2298,7 @@
       <calculatedColumnFormula>2^((テーブル1[[#This Row],[レア]]-1)/4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{833C82E7-E230-4A58-9D49-6C1CDD4BBDAD}" name="分散度倍率　" dataDxfId="26">
-      <calculatedColumnFormula>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K2:P2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</calculatedColumnFormula>
+      <calculatedColumnFormula>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J2:O2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{434606B6-C04F-47DC-9277-0797C7617151}" name="効率" dataDxfId="25">
       <calculatedColumnFormula>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</calculatedColumnFormula>
@@ -2750,13 +2653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0BFE0B-651F-45A6-A399-6D829AC20A31}">
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AL41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ3" sqref="AJ3"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2764,21 +2667,21 @@
     <col min="1" max="2" width="3.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="27" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.25" style="1" customWidth="1"/>
-    <col min="10" max="16" width="2.625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="4" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.75" style="1" customWidth="1"/>
-    <col min="21" max="26" width="4" style="1" customWidth="1"/>
-    <col min="27" max="34" width="2.625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.75" style="1" customWidth="1"/>
-    <col min="36" max="36" width="44.75" style="1" customWidth="1"/>
-    <col min="37" max="38" width="12.75" style="1" customWidth="1"/>
-    <col min="39" max="39" width="25.875" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.25" style="1" customWidth="1"/>
+    <col min="9" max="15" width="2.625" style="1" customWidth="1"/>
+    <col min="16" max="18" width="4" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.75" style="1" customWidth="1"/>
+    <col min="20" max="25" width="4" style="1" customWidth="1"/>
+    <col min="26" max="33" width="2.625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.75" style="1" customWidth="1"/>
+    <col min="35" max="35" width="44.75" style="1" customWidth="1"/>
+    <col min="36" max="37" width="12.75" style="1" customWidth="1"/>
+    <col min="38" max="38" width="25.875" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2801,103 +2704,100 @@
         <v>299</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="AA1" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AM1" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2919,94 +2819,91 @@
       <c r="G2" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
         <v>15</v>
       </c>
-      <c r="K2" s="7">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7">
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7">
         <v>10</v>
       </c>
+      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="P2" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
       <c r="Q2" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J2:O2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.9862327044933592</v>
       </c>
       <c r="R2" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K2:P2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9862327044933592</v>
-      </c>
-      <c r="S2" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.9862327044933592</v>
       </c>
-      <c r="T2" s="10">
+      <c r="S2" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>14.793490567400388</v>
       </c>
-      <c r="U2" s="9">
+      <c r="T2" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>1.3448627788545808</v>
       </c>
-      <c r="V2" s="9">
+      <c r="U2" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W2" s="9">
+      <c r="V2" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>13.448627788545808</v>
       </c>
-      <c r="X2" s="9">
+      <c r="W2" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="X2" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="Y2" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
+      <c r="Z2" s="14"/>
       <c r="AA2" s="14"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="13" t="str">
+      <c r="AG2" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] air;</v>
       </c>
-      <c r="AJ2" s="13" t="str">
+      <c r="AI2" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(0, air = v(t(0, "air", 1, 15, m(1, 0, 10, 0, 0, 0), a(0, 0, 0, 0, 0, 0, 0, 1), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
       </c>
-      <c r="AK2" s="13" t="str">
+      <c r="AJ2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.air.name=Airia</v>
       </c>
-      <c r="AL2" s="13" t="str">
+      <c r="AK2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.air.name=アイリャ</v>
       </c>
-      <c r="AM2" s="13"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL2" s="13"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3028,100 +2925,97 @@
       <c r="G3" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
         <v>50</v>
       </c>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
       <c r="N3" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O3" s="7">
-        <v>10</v>
-      </c>
-      <c r="P3" s="7">
         <v>6</v>
       </c>
+      <c r="P3" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
       <c r="Q3" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J3:O3)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.90751915531716087</v>
       </c>
       <c r="R3" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K3:P3)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90751915531716087</v>
-      </c>
-      <c r="S3" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.90751915531716087</v>
       </c>
-      <c r="T3" s="10">
+      <c r="S3" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>45.375957765858047</v>
       </c>
-      <c r="U3" s="9">
+      <c r="T3" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V3" s="9">
+      <c r="U3" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W3" s="9">
+      <c r="V3" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X3" s="9">
+      <c r="W3" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>2.6691739862269439</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="X3" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>26.69173986226944</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Y3" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>16.015043917361663</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="Z3" s="14">
         <v>4</v>
       </c>
+      <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14">
+      <c r="AE3" s="14">
         <v>14</v>
       </c>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14">
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14">
         <v>3</v>
       </c>
-      <c r="AI3" s="13" t="str">
+      <c r="AH3" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] water;</v>
       </c>
-      <c r="AJ3" s="13" t="str">
+      <c r="AI3" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(1, water = v(t(1, "water", 1, 50, m(0, 0, 0, 1, 10, 6), a(4, 0, 0, 0, 0, 14, 0, 3), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
       </c>
-      <c r="AK3" s="13" t="str">
+      <c r="AJ3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.water.name=Wateria</v>
       </c>
-      <c r="AL3" s="13" t="str">
+      <c r="AK3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.water.name=ワテーリャ</v>
       </c>
-      <c r="AM3" s="13"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL3" s="13"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3143,104 +3037,101 @@
       <c r="G4" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="I4" s="8">
         <v>20</v>
       </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
       <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7">
         <v>10</v>
       </c>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="5">
+      <c r="P4" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q4" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J4:O4)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.9862327044933592</v>
+      </c>
       <c r="R4" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K4:P4)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9862327044933592</v>
-      </c>
-      <c r="S4" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.1728349492318788</v>
       </c>
-      <c r="T4" s="10">
+      <c r="S4" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>23.456698984637576</v>
       </c>
-      <c r="U4" s="9">
+      <c r="T4" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>2.132427180421598</v>
       </c>
-      <c r="V4" s="9">
+      <c r="U4" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>21.324271804215979</v>
       </c>
-      <c r="W4" s="9">
+      <c r="V4" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X4" s="9">
+      <c r="W4" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="X4" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Y4" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
+      <c r="Z4" s="14">
+        <v>9</v>
+      </c>
       <c r="AA4" s="14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC4" s="14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AD4" s="14">
-        <v>13</v>
-      </c>
-      <c r="AE4" s="14">
         <v>15</v>
       </c>
+      <c r="AE4" s="14"/>
       <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14">
+      <c r="AG4" s="14">
         <v>3</v>
       </c>
-      <c r="AI4" s="13" t="str">
+      <c r="AH4" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] fire;</v>
       </c>
-      <c r="AJ4" s="13" t="str">
+      <c r="AI4" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(2, fire = v(t(2, "fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(9, 4, 7, 13, 15, 0, 0, 3), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
       </c>
-      <c r="AK4" s="13" t="str">
+      <c r="AJ4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.fire.name=Firia</v>
       </c>
-      <c r="AL4" s="13" t="str">
+      <c r="AK4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.fire.name=フィーリャ</v>
       </c>
-      <c r="AM4" s="13"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL4" s="13"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -3262,108 +3153,105 @@
       <c r="G5" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="J5" s="8">
+      <c r="I5" s="8">
         <v>99</v>
       </c>
+      <c r="J5" s="7">
+        <v>10</v>
+      </c>
       <c r="K5" s="7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
         <v>18</v>
       </c>
-      <c r="O5" s="7">
-        <v>18</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="5">
+      <c r="O5" s="7"/>
+      <c r="P5" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>2</v>
       </c>
+      <c r="Q5" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J5:O5)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.70710678118654757</v>
+      </c>
       <c r="R5" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K5:P5)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="S5" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="T5" s="10">
+      <c r="S5" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>140.00714267493643</v>
       </c>
-      <c r="U5" s="9">
+      <c r="T5" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>14.286443130095554</v>
       </c>
-      <c r="V5" s="9">
+      <c r="U5" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>40.002040764267555</v>
       </c>
-      <c r="W5" s="9">
+      <c r="V5" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>34.28746351222933</v>
       </c>
-      <c r="X5" s="9">
+      <c r="W5" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>25.715597634171996</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="X5" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>25.715597634171996</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Y5" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
+      <c r="Z5" s="14">
+        <v>5</v>
+      </c>
       <c r="AA5" s="14">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="14">
         <v>2</v>
       </c>
-      <c r="AC5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14">
+        <v>28</v>
+      </c>
       <c r="AD5" s="14">
-        <v>28</v>
-      </c>
-      <c r="AE5" s="14">
         <v>7</v>
       </c>
+      <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14">
+      <c r="AG5" s="14">
         <v>6</v>
       </c>
-      <c r="AI5" s="13" t="str">
+      <c r="AH5" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] sun;</v>
       </c>
-      <c r="AJ5" s="13" t="str">
+      <c r="AI5" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(3, sun = v(t(3, "sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(5, 2, 0, 28, 7, 0, 0, 6), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
       </c>
-      <c r="AK5" s="13" t="str">
+      <c r="AJ5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.sun.name=Sunia</v>
       </c>
-      <c r="AL5" s="13" t="str">
+      <c r="AK5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.sun.name=スーニャ</v>
       </c>
-      <c r="AM5" s="13"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL5" s="13"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3385,102 +3273,99 @@
       <c r="G6" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
         <v>83</v>
       </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
+      <c r="M6" s="7">
         <v>10</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
         <v>15</v>
       </c>
+      <c r="P6" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
       <c r="Q6" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J6:O6)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.9117224885582168</v>
       </c>
       <c r="R6" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K6:P6)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9117224885582168</v>
-      </c>
-      <c r="S6" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.9117224885582168</v>
       </c>
-      <c r="T6" s="10">
+      <c r="S6" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>75.672966550331992</v>
       </c>
-      <c r="U6" s="9">
+      <c r="T6" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V6" s="9">
+      <c r="U6" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W6" s="9">
+      <c r="V6" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X6" s="9">
+      <c r="W6" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>30.269186620132796</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="X6" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Y6" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>45.4037799301992</v>
       </c>
+      <c r="Z6" s="14">
+        <v>6</v>
+      </c>
       <c r="AA6" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="14">
         <v>4</v>
       </c>
+      <c r="AC6" s="14"/>
       <c r="AD6" s="14"/>
       <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
+      <c r="AF6" s="14">
+        <v>5</v>
+      </c>
       <c r="AG6" s="14">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="14">
         <v>3</v>
       </c>
-      <c r="AI6" s="13" t="str">
+      <c r="AH6" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] stone;</v>
       </c>
-      <c r="AJ6" s="13" t="str">
+      <c r="AI6" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(4, stone = v(t(4, "stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(6, 1, 4, 0, 0, 0, 5, 3), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
       </c>
-      <c r="AK6" s="13" t="str">
+      <c r="AJ6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.stone.name=Stonia</v>
       </c>
-      <c r="AL6" s="13" t="str">
+      <c r="AK6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.stone.name=ストーニャ</v>
       </c>
-      <c r="AM6" s="13"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL6" s="13"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -3502,98 +3387,97 @@
       <c r="G7" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
         <v>70</v>
       </c>
+      <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
       <c r="N7" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O7" s="7">
-        <v>3</v>
-      </c>
-      <c r="P7" s="7">
         <v>28</v>
       </c>
+      <c r="P7" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
       <c r="Q7" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J7:O7)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.9376639403055067</v>
       </c>
       <c r="R7" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K7:P7)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9376639403055067</v>
-      </c>
-      <c r="S7" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.9376639403055067</v>
       </c>
-      <c r="T7" s="10">
+      <c r="S7" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>65.636475821385474</v>
       </c>
-      <c r="U7" s="9">
+      <c r="T7" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V7" s="9">
+      <c r="U7" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W7" s="9">
+      <c r="V7" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X7" s="9">
+      <c r="W7" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>16.008896541801334</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="X7" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>4.8026689625404</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Y7" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>44.824910317043738</v>
       </c>
+      <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
+      <c r="AE7" s="14">
+        <v>2</v>
+      </c>
       <c r="AF7" s="14">
         <v>2</v>
       </c>
       <c r="AG7" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] dirt;</v>
       </c>
-      <c r="AJ7" s="13" t="str">
+      <c r="AI7" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(5, dirt = v(t(5, "dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(0, 0, 0, 0, 0, 2, 2, 1), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
       </c>
-      <c r="AK7" s="13" t="str">
+      <c r="AJ7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.dirt.name=Dirtia</v>
       </c>
-      <c r="AL7" s="13" t="str">
+      <c r="AK7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.dirt.name=ディルチャ</v>
       </c>
-      <c r="AM7" s="13"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL7" s="13"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -3615,102 +3499,101 @@
       <c r="G8" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="3">
+      <c r="H8" s="3">
         <v>2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="I8" s="8">
         <v>86</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
         <v>3</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
       <c r="N8" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O8" s="7">
-        <v>4</v>
-      </c>
-      <c r="P8" s="7">
         <v>6</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="P8" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q8" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J8:O8)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.83508791942836935</v>
+      </c>
       <c r="R8" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K8:P8)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.83508791942836935</v>
-      </c>
-      <c r="S8" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.99309249543703582</v>
       </c>
-      <c r="T8" s="10">
+      <c r="S8" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>85.405954607585073</v>
       </c>
-      <c r="U8" s="9">
+      <c r="T8" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V8" s="9">
+      <c r="U8" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>11.13990712272849</v>
       </c>
-      <c r="W8" s="9">
+      <c r="V8" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X8" s="9">
+      <c r="W8" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>37.133023742428293</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="X8" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>14.853209496971317</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Y8" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>22.279814245456979</v>
       </c>
+      <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
+      <c r="AB8" s="14">
+        <v>2</v>
+      </c>
       <c r="AC8" s="14">
         <v>2</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="14">
         <v>2</v>
       </c>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="14">
-        <v>2</v>
-      </c>
-      <c r="AI8" s="13" t="str">
+      <c r="AH8" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] iron;</v>
       </c>
-      <c r="AJ8" s="13" t="str">
+      <c r="AI8" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(6, iron = v(t(6, "iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(0, 0, 2, 2, 0, 0, 1, 2), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
       </c>
-      <c r="AK8" s="13" t="str">
+      <c r="AJ8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.iron.name=Ironia</v>
       </c>
-      <c r="AL8" s="13" t="str">
+      <c r="AK8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.iron.name=イローニャ</v>
       </c>
-      <c r="AM8" s="13"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL8" s="13"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -3732,102 +3615,101 @@
       <c r="G9" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="3">
+      <c r="H9" s="3">
         <v>4</v>
       </c>
-      <c r="J9" s="8">
+      <c r="I9" s="8">
         <v>76</v>
       </c>
+      <c r="J9" s="7">
+        <v>10</v>
+      </c>
       <c r="K9" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>21</v>
-      </c>
-      <c r="N9" s="7">
         <v>26</v>
       </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="5">
+      <c r="P9" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.681792830507429</v>
       </c>
+      <c r="Q9" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J9:O9)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.7908842457011136</v>
+      </c>
       <c r="R9" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K9:P9)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.7908842457011136</v>
-      </c>
-      <c r="S9" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.3301034541814087</v>
       </c>
-      <c r="T9" s="10">
+      <c r="S9" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>101.08786251778706</v>
       </c>
-      <c r="U9" s="9">
+      <c r="T9" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>14.441123216826723</v>
       </c>
-      <c r="V9" s="9">
+      <c r="U9" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>18.773460181874739</v>
       </c>
-      <c r="W9" s="9">
+      <c r="V9" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>30.326358755336116</v>
       </c>
-      <c r="X9" s="9">
+      <c r="W9" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>37.546920363749479</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="X9" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Y9" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
+      <c r="AB9" s="14">
+        <v>1</v>
+      </c>
       <c r="AC9" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="14">
         <v>4</v>
       </c>
+      <c r="AD9" s="14"/>
       <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
+      <c r="AF9" s="14">
+        <v>17</v>
+      </c>
       <c r="AG9" s="14">
-        <v>17</v>
-      </c>
-      <c r="AH9" s="14">
         <v>8</v>
       </c>
-      <c r="AI9" s="13" t="str">
+      <c r="AH9" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] diamond;</v>
       </c>
-      <c r="AJ9" s="13" t="str">
+      <c r="AI9" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(7, diamond = v(t(7, "diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(0, 0, 1, 4, 0, 0, 17, 8), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
       </c>
-      <c r="AK9" s="13" t="str">
+      <c r="AJ9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.diamond.name=Diamondia</v>
       </c>
-      <c r="AL9" s="13" t="str">
+      <c r="AK9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
       </c>
-      <c r="AM9" s="13"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL9" s="13"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -3849,104 +3731,103 @@
       <c r="G10" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="8">
+      <c r="I10" s="8">
         <v>54</v>
       </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
       <c r="K10" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
-      </c>
-      <c r="N10" s="7">
         <v>10</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
         <v>6</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="P10" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.4142135623730951</v>
       </c>
+      <c r="Q10" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J10:O10)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.89502507092797245</v>
+      </c>
       <c r="R10" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K10:P10)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
-      </c>
-      <c r="S10" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.2657565939702802</v>
       </c>
-      <c r="T10" s="10">
+      <c r="S10" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>68.350856074395125</v>
       </c>
-      <c r="U10" s="9">
+      <c r="T10" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>1.0849342234030972</v>
       </c>
-      <c r="V10" s="9">
+      <c r="U10" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>37.972697819108404</v>
       </c>
-      <c r="W10" s="9">
+      <c r="V10" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>11.93427645743407</v>
       </c>
-      <c r="X10" s="9">
+      <c r="W10" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>10.849342234030971</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="X10" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Y10" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>6.5096053404185836</v>
       </c>
+      <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
+      <c r="AC10" s="14">
+        <v>7</v>
+      </c>
       <c r="AD10" s="14">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="14">
         <v>7</v>
       </c>
-      <c r="AE10" s="14">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14">
-        <v>10</v>
-      </c>
-      <c r="AH10" s="14">
-        <v>7</v>
-      </c>
-      <c r="AI10" s="13" t="str">
+      <c r="AH10" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] redstone;</v>
       </c>
-      <c r="AJ10" s="13" t="str">
+      <c r="AI10" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(8, redstone = v(t(8, "redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(0, 0, 0, 7, 2, 0, 10, 7), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
       </c>
-      <c r="AK10" s="13" t="str">
+      <c r="AJ10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.redstone.name=Redstonia</v>
       </c>
-      <c r="AL10" s="13" t="str">
+      <c r="AK10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.redstone.name=レドストーニャ</v>
       </c>
-      <c r="AM10" s="13"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL10" s="13"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -3968,110 +3849,109 @@
       <c r="G11" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="3">
+      <c r="H11" s="3">
         <v>4</v>
       </c>
-      <c r="J11" s="8">
+      <c r="I11" s="8">
         <v>48</v>
       </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
       <c r="K11" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7">
         <v>18</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>12</v>
-      </c>
-      <c r="O11" s="7">
         <v>10</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="5">
+      <c r="O11" s="7"/>
+      <c r="P11" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.681792830507429</v>
       </c>
+      <c r="Q11" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J11:O11)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.72922930513582751</v>
+      </c>
       <c r="R11" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K11:P11)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.72922930513582751</v>
-      </c>
-      <c r="S11" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.2264126171733489</v>
       </c>
-      <c r="T11" s="10">
+      <c r="S11" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>58.867805624320752</v>
       </c>
-      <c r="U11" s="9">
+      <c r="T11" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0.99775941736136864</v>
       </c>
-      <c r="V11" s="9">
+      <c r="U11" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>17.959669512504636</v>
       </c>
-      <c r="W11" s="9">
+      <c r="V11" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>17.959669512504636</v>
       </c>
-      <c r="X11" s="9">
+      <c r="W11" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>11.973113008336425</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="X11" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>9.9775941736136868</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Y11" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
+      <c r="Z11" s="14">
+        <v>11</v>
+      </c>
       <c r="AA11" s="14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AB11" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC11" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="14">
         <v>4</v>
       </c>
-      <c r="AE11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14">
+        <v>1</v>
+      </c>
       <c r="AF11" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG11" s="14">
-        <v>4</v>
-      </c>
-      <c r="AH11" s="14">
         <v>3</v>
       </c>
-      <c r="AI11" s="13" t="str">
+      <c r="AH11" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] enderman;</v>
       </c>
-      <c r="AJ11" s="13" t="str">
+      <c r="AI11" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(9, enderman = v(t(9, "enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(11, 7, 6, 4, 0, 1, 4, 3), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
       </c>
-      <c r="AK11" s="13" t="str">
+      <c r="AJ11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.enderman.name=Endermania</v>
       </c>
-      <c r="AL11" s="13" t="str">
+      <c r="AK11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
       </c>
-      <c r="AM11" s="13"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL11" s="13"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -4093,106 +3973,103 @@
       <c r="G12" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="J12" s="8">
+      <c r="I12" s="8">
         <v>95</v>
       </c>
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
       <c r="K12" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L12" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
         <v>9</v>
       </c>
       <c r="O12" s="7">
-        <v>9</v>
-      </c>
-      <c r="P12" s="7">
         <v>25</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="P12" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>2</v>
       </c>
+      <c r="Q12" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J12:O12)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.68302012837719772</v>
+      </c>
       <c r="R12" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K12:P12)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.68302012837719772</v>
-      </c>
-      <c r="S12" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.3660402567543954</v>
       </c>
-      <c r="T12" s="10">
+      <c r="S12" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>129.77382439166757</v>
       </c>
-      <c r="U12" s="9">
+      <c r="T12" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>12.359411846825484</v>
       </c>
-      <c r="V12" s="9">
+      <c r="U12" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>29.66258843238116</v>
       </c>
-      <c r="W12" s="9">
+      <c r="V12" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>34.606353171111351</v>
       </c>
-      <c r="X12" s="9">
+      <c r="W12" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>11.123470662142935</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="X12" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>11.123470662142935</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Y12" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>30.898529617063705</v>
       </c>
+      <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14">
+      <c r="AC12" s="14">
         <v>6</v>
       </c>
+      <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
+      <c r="AF12" s="14">
+        <v>3</v>
+      </c>
       <c r="AG12" s="14">
-        <v>3</v>
-      </c>
-      <c r="AH12" s="14">
         <v>6</v>
       </c>
-      <c r="AI12" s="13" t="str">
+      <c r="AH12" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] moon;</v>
       </c>
-      <c r="AJ12" s="13" t="str">
+      <c r="AI12" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(10, moon = v(t(10, "moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(0, 0, 0, 6, 0, 0, 3, 6), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
       </c>
-      <c r="AK12" s="13" t="str">
+      <c r="AJ12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.moon.name=Moonia</v>
       </c>
-      <c r="AL12" s="13" t="str">
+      <c r="AK12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.moon.name=モーニャ</v>
       </c>
-      <c r="AM12" s="13"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL12" s="13"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -4214,100 +4091,99 @@
       <c r="G13" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
         <v>64</v>
       </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7">
+      <c r="M13" s="7">
         <v>10</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
         <v>16</v>
       </c>
+      <c r="P13" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
       <c r="Q13" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J13:O13)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.90909312952755927</v>
       </c>
       <c r="R13" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K13:P13)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90909312952755927</v>
-      </c>
-      <c r="S13" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.90909312952755927</v>
       </c>
-      <c r="T13" s="10">
+      <c r="S13" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>58.181960289763794</v>
       </c>
-      <c r="U13" s="9">
+      <c r="T13" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>2.1548874181393995</v>
       </c>
-      <c r="V13" s="9">
+      <c r="U13" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W13" s="9">
+      <c r="V13" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X13" s="9">
+      <c r="W13" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>21.548874181393995</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="X13" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Y13" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>34.478198690230393</v>
       </c>
+      <c r="Z13" s="14">
+        <v>2</v>
+      </c>
       <c r="AA13" s="14">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="14">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
+      <c r="AF13" s="14">
+        <v>6</v>
+      </c>
       <c r="AG13" s="14">
-        <v>6</v>
-      </c>
-      <c r="AH13" s="14">
         <v>3</v>
       </c>
-      <c r="AI13" s="13" t="str">
+      <c r="AH13" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] sand;</v>
       </c>
-      <c r="AJ13" s="13" t="str">
+      <c r="AI13" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(11, sand = v(t(11, "sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(2, 1, 0, 0, 0, 0, 6, 3), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
       </c>
-      <c r="AK13" s="13" t="str">
+      <c r="AJ13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.sand.name=Sandia</v>
       </c>
-      <c r="AL13" s="13" t="str">
+      <c r="AK13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.sand.name=サンジャ</v>
       </c>
-      <c r="AM13" s="13"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL13" s="13"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -4329,100 +4205,99 @@
       <c r="G14" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
         <v>3</v>
       </c>
-      <c r="J14" s="8">
+      <c r="I14" s="8">
         <v>93</v>
       </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7"/>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
+        <v>9</v>
+      </c>
       <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
         <v>10</v>
       </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="5">
+      <c r="P14" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.4142135623730951</v>
       </c>
+      <c r="Q14" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J14:O14)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.87055056329612412</v>
+      </c>
       <c r="R14" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K14:P14)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.87055056329612412</v>
-      </c>
-      <c r="S14" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.2311444133449163</v>
       </c>
-      <c r="T14" s="10">
+      <c r="S14" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>114.49643044107722</v>
       </c>
-      <c r="U14" s="9">
+      <c r="T14" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>5.724821522053861</v>
       </c>
-      <c r="V14" s="9">
+      <c r="U14" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W14" s="9">
+      <c r="V14" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>51.523393698484753</v>
       </c>
-      <c r="X14" s="9">
+      <c r="W14" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>57.248215220538611</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="X14" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Y14" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
+      <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
+      <c r="AB14" s="14">
+        <v>1</v>
+      </c>
       <c r="AC14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="14">
         <v>3</v>
       </c>
+      <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
+      <c r="AF14" s="14">
+        <v>1</v>
+      </c>
       <c r="AG14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="14">
         <v>12</v>
       </c>
-      <c r="AI14" s="13" t="str">
+      <c r="AH14" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] gold;</v>
       </c>
-      <c r="AJ14" s="13" t="str">
+      <c r="AI14" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(12, gold = v(t(12, "gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(0, 0, 1, 3, 0, 0, 1, 12), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
       </c>
-      <c r="AK14" s="13" t="str">
+      <c r="AJ14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.gold.name=Goldia</v>
       </c>
-      <c r="AL14" s="13" t="str">
+      <c r="AK14" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.gold.name=ゴルジャ</v>
       </c>
-      <c r="AM14" s="13"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL14" s="13"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -4444,98 +4319,97 @@
       <c r="G15" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="3">
+      <c r="H15" s="3">
         <v>2</v>
       </c>
-      <c r="J15" s="8">
+      <c r="I15" s="8">
         <v>43</v>
       </c>
+      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="N15" s="7">
+        <v>10</v>
+      </c>
       <c r="O15" s="7">
-        <v>10</v>
-      </c>
-      <c r="P15" s="7">
         <v>4</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="P15" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q15" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J15:O15)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.94605764672559589</v>
+      </c>
       <c r="R15" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K15:P15)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.94605764672559589</v>
-      </c>
-      <c r="S15" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.1250584846888094</v>
       </c>
-      <c r="T15" s="10">
+      <c r="S15" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>48.377514841618805</v>
       </c>
-      <c r="U15" s="9">
+      <c r="T15" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V15" s="9">
+      <c r="U15" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W15" s="9">
+      <c r="V15" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X15" s="9">
+      <c r="W15" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="X15" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>34.555367744013431</v>
       </c>
-      <c r="Z15" s="9">
+      <c r="Y15" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>13.822147097605372</v>
       </c>
-      <c r="AA15" s="14">
+      <c r="Z15" s="14">
         <v>10</v>
       </c>
+      <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14">
+      <c r="AC15" s="14">
         <v>3</v>
       </c>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14">
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14">
         <v>2</v>
       </c>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14">
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14">
         <v>2</v>
       </c>
-      <c r="AI15" s="13" t="str">
+      <c r="AH15" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] spider;</v>
       </c>
-      <c r="AJ15" s="13" t="str">
+      <c r="AI15" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(13, spider = v(t(13, "spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(10, 0, 0, 3, 0, 2, 0, 2), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
       </c>
-      <c r="AK15" s="13" t="str">
+      <c r="AJ15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.spider.name=Spideria</v>
       </c>
-      <c r="AL15" s="13" t="str">
+      <c r="AK15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.spider.name=スピデーリャ</v>
       </c>
-      <c r="AM15" s="13"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL15" s="13"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -4557,102 +4431,101 @@
       <c r="G16" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
         <v>49</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7">
+        <v>8</v>
+      </c>
       <c r="L16" s="7">
+        <v>10</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7">
         <v>8</v>
       </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>5</v>
-      </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7">
-        <v>8</v>
+      <c r="P16" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
       </c>
       <c r="Q16" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J16:O16)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.74742462431746925</v>
       </c>
       <c r="R16" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K16:P16)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.74742462431746925</v>
-      </c>
-      <c r="S16" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.74742462431746925</v>
       </c>
-      <c r="T16" s="10">
+      <c r="S16" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>36.62380659155599</v>
       </c>
-      <c r="U16" s="9">
+      <c r="T16" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V16" s="9">
+      <c r="U16" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>9.4513049268531582</v>
       </c>
-      <c r="W16" s="9">
+      <c r="V16" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>11.814131158566449</v>
       </c>
-      <c r="X16" s="9">
+      <c r="W16" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>5.9070655792832243</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="X16" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Y16" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>9.4513049268531582</v>
       </c>
+      <c r="Z16" s="14">
+        <v>12</v>
+      </c>
       <c r="AA16" s="14">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AB16" s="14">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="14">
         <v>8</v>
       </c>
+      <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14">
+      <c r="AG16" s="14">
         <v>2</v>
       </c>
-      <c r="AI16" s="13" t="str">
+      <c r="AH16" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] skeleton;</v>
       </c>
-      <c r="AJ16" s="13" t="str">
+      <c r="AI16" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(14, skeleton = v(t(14, "skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(12, 5, 8, 0, 0, 0, 0, 2), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
       </c>
-      <c r="AK16" s="13" t="str">
+      <c r="AJ16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.skeleton.name=Skeletonia</v>
       </c>
-      <c r="AL16" s="13" t="str">
+      <c r="AK16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
       </c>
-      <c r="AM16" s="13"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL16" s="13"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -4674,102 +4547,101 @@
       <c r="G17" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
         <v>55</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
+        <v>9</v>
+      </c>
       <c r="L17" s="7">
+        <v>10</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7">
+        <v>2</v>
+      </c>
+      <c r="O17" s="7">
         <v>9</v>
       </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7">
-        <v>2</v>
-      </c>
-      <c r="P17" s="7">
-        <v>9</v>
+      <c r="P17" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
       </c>
       <c r="Q17" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J17:O17)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.75785828325519911</v>
       </c>
       <c r="R17" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K17:P17)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.75785828325519911</v>
-      </c>
-      <c r="S17" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.75785828325519911</v>
       </c>
-      <c r="T17" s="10">
+      <c r="S17" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>41.682205579035951</v>
       </c>
-      <c r="U17" s="9">
+      <c r="T17" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V17" s="9">
+      <c r="U17" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>12.504661673710785</v>
       </c>
-      <c r="W17" s="9">
+      <c r="V17" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>13.894068526345317</v>
       </c>
-      <c r="X17" s="9">
+      <c r="W17" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="X17" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>2.7788137052690636</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Y17" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>12.504661673710785</v>
       </c>
-      <c r="AA17" s="14">
+      <c r="Z17" s="14">
         <v>13</v>
       </c>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14">
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14">
         <v>6</v>
       </c>
+      <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14">
+      <c r="AE17" s="14">
         <v>4</v>
       </c>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="13" t="str">
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] zombie;</v>
       </c>
-      <c r="AJ17" s="13" t="str">
+      <c r="AI17" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(15, zombie = v(t(15, "zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(13, 0, 6, 0, 0, 4, 0, 1), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
       </c>
-      <c r="AK17" s="13" t="str">
+      <c r="AJ17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.zombie.name=Zombia</v>
       </c>
-      <c r="AL17" s="13" t="str">
+      <c r="AK17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.zombie.name=ゾンビャ</v>
       </c>
-      <c r="AM17" s="13"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL17" s="13"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -4791,104 +4663,103 @@
       <c r="G18" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="3">
+      <c r="H18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="8">
+      <c r="I18" s="8">
         <v>35</v>
       </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="7">
+        <v>10</v>
+      </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O18" s="7">
-        <v>12</v>
-      </c>
-      <c r="P18" s="7">
         <v>4</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="P18" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q18" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J18:O18)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.80292288186337646</v>
+      </c>
       <c r="R18" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K18:P18)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.80292288186337646</v>
-      </c>
-      <c r="S18" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.9548416039104165</v>
       </c>
-      <c r="T18" s="10">
+      <c r="S18" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>33.419456136864575</v>
       </c>
-      <c r="U18" s="9">
+      <c r="T18" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V18" s="9">
+      <c r="U18" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W18" s="9">
+      <c r="V18" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>10.780469721569217</v>
       </c>
-      <c r="X18" s="9">
+      <c r="W18" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>5.3902348607846085</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="X18" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>12.936563665883062</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Y18" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>4.3121878886276868</v>
       </c>
-      <c r="AA18" s="14">
+      <c r="Z18" s="14">
         <v>10</v>
       </c>
+      <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
+      <c r="AC18" s="14">
+        <v>2</v>
+      </c>
       <c r="AD18" s="14">
+        <v>7</v>
+      </c>
+      <c r="AE18" s="14">
         <v>2</v>
       </c>
-      <c r="AE18" s="14">
-        <v>7</v>
-      </c>
-      <c r="AF18" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14">
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14">
         <v>3</v>
       </c>
-      <c r="AI18" s="13" t="str">
+      <c r="AH18" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] creeper;</v>
       </c>
-      <c r="AJ18" s="13" t="str">
+      <c r="AI18" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(16, creeper = v(t(16, "creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(10, 0, 0, 2, 7, 2, 0, 3), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
       </c>
-      <c r="AK18" s="13" t="str">
+      <c r="AJ18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.creeper.name=Creeperia</v>
       </c>
-      <c r="AL18" s="13" t="str">
+      <c r="AK18" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.creeper.name=クレペーリャ</v>
       </c>
-      <c r="AM18" s="13"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL18" s="13"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -4910,94 +4781,93 @@
       <c r="G19" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="3">
+      <c r="H19" s="3">
         <v>2</v>
       </c>
-      <c r="J19" s="8">
+      <c r="I19" s="8">
         <v>31</v>
       </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="N19" s="7">
+        <v>10</v>
+      </c>
       <c r="O19" s="7">
-        <v>10</v>
-      </c>
-      <c r="P19" s="7">
         <v>5</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="P19" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q19" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J19:O19)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.93303299153680741</v>
+      </c>
       <c r="R19" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K19:P19)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.93303299153680741</v>
-      </c>
-      <c r="S19" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.1095694720678451</v>
       </c>
-      <c r="T19" s="10">
+      <c r="S19" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>34.396653634103195</v>
       </c>
-      <c r="U19" s="9">
+      <c r="T19" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V19" s="9">
+      <c r="U19" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W19" s="9">
+      <c r="V19" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X19" s="9">
+      <c r="W19" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="X19" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>22.931102422735464</v>
       </c>
-      <c r="Z19" s="9">
+      <c r="Y19" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>11.465551211367732</v>
       </c>
+      <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14">
+      <c r="AE19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14">
         <v>2</v>
       </c>
-      <c r="AI19" s="13" t="str">
+      <c r="AH19" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] wheat;</v>
       </c>
-      <c r="AJ19" s="13" t="str">
+      <c r="AI19" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(17, wheat = v(t(17, "wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(0, 0, 0, 0, 0, 1, 0, 2), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
       </c>
-      <c r="AK19" s="13" t="str">
+      <c r="AJ19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.wheat.name=Wheatia</v>
       </c>
-      <c r="AL19" s="13" t="str">
+      <c r="AK19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.wheat.name=ウェアーチャ</v>
       </c>
-      <c r="AM19" s="13"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL19" s="13"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -5019,96 +4889,95 @@
       <c r="G20" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="3">
+      <c r="H20" s="3">
         <v>3</v>
       </c>
-      <c r="J20" s="8">
+      <c r="I20" s="8">
         <v>28</v>
       </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>1</v>
-      </c>
-      <c r="O20" s="7">
         <v>10</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="5">
+      <c r="O20" s="7"/>
+      <c r="P20" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.4142135623730951</v>
       </c>
+      <c r="Q20" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J20:O20)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.97265494741228553</v>
+      </c>
       <c r="R20" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K20:P20)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.97265494741228553</v>
-      </c>
-      <c r="S20" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.3755418181397439</v>
       </c>
-      <c r="T20" s="10">
+      <c r="S20" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>38.515170907912825</v>
       </c>
-      <c r="U20" s="9">
+      <c r="T20" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V20" s="9">
+      <c r="U20" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W20" s="9">
+      <c r="V20" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>3.209597575659402</v>
       </c>
-      <c r="X20" s="9">
+      <c r="W20" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>3.209597575659402</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="X20" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>32.095975756594022</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Y20" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
+      <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
       <c r="AB20" s="14"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14">
+      <c r="AE20" s="14">
         <v>3</v>
       </c>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14">
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14">
         <v>11</v>
       </c>
-      <c r="AI20" s="13" t="str">
+      <c r="AH20" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lilac;</v>
       </c>
-      <c r="AJ20" s="13" t="str">
+      <c r="AI20" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(18, lilac = v(t(18, "lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(0, 0, 0, 0, 0, 3, 0, 11), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
       </c>
-      <c r="AK20" s="13" t="str">
+      <c r="AJ20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.lilac.name=Lilacia</v>
       </c>
-      <c r="AL20" s="13" t="str">
+      <c r="AK20" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.lilac.name=リラーキャ</v>
       </c>
-      <c r="AM20" s="13"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL20" s="13"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -5130,104 +4999,103 @@
       <c r="G21" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
         <v>19</v>
       </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
       <c r="K21" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L21" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N21" s="7">
-        <v>10</v>
-      </c>
-      <c r="O21" s="7">
         <v>4</v>
       </c>
-      <c r="P21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
       <c r="Q21" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J21:O21)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.85856543643775374</v>
       </c>
       <c r="R21" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K21:P21)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85856543643775374</v>
-      </c>
-      <c r="S21" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.85856543643775374</v>
       </c>
-      <c r="T21" s="10">
+      <c r="S21" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>16.312743292317322</v>
       </c>
-      <c r="U21" s="9">
+      <c r="T21" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0.77679729963415822</v>
       </c>
-      <c r="V21" s="9">
+      <c r="U21" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>3.883986498170791</v>
       </c>
-      <c r="W21" s="9">
+      <c r="V21" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0.77679729963415822</v>
       </c>
-      <c r="X21" s="9">
+      <c r="W21" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>7.767972996341582</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="X21" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>3.1071891985366329</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Y21" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="14">
-        <v>1</v>
-      </c>
+      <c r="Z21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="14"/>
       <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
+      <c r="AC21" s="14">
+        <v>12</v>
+      </c>
       <c r="AD21" s="14">
-        <v>12</v>
-      </c>
-      <c r="AE21" s="14">
         <v>8</v>
       </c>
+      <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14">
+      <c r="AG21" s="14">
         <v>3</v>
       </c>
-      <c r="AI21" s="13" t="str">
+      <c r="AH21" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] torch;</v>
       </c>
-      <c r="AJ21" s="13" t="str">
+      <c r="AI21" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(19, torch = v(t(19, "torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(1, 0, 0, 12, 8, 0, 0, 3), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
       </c>
-      <c r="AK21" s="13" t="str">
+      <c r="AJ21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.torch.name=Torchia</v>
       </c>
-      <c r="AL21" s="13" t="str">
+      <c r="AK21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.torch.name=トルキャ</v>
       </c>
-      <c r="AM21" s="13"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL21" s="13"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -5249,104 +5117,103 @@
       <c r="G22" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="3">
+      <c r="H22" s="3">
         <v>2</v>
       </c>
-      <c r="J22" s="8">
+      <c r="I22" s="8">
         <v>58</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7">
         <v>22</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
+        <v>8</v>
+      </c>
       <c r="N22" s="7">
-        <v>8</v>
-      </c>
-      <c r="O22" s="7">
         <v>10</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="5">
+      <c r="O22" s="7"/>
+      <c r="P22" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q22" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J22:O22)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.89277196943365633</v>
+      </c>
       <c r="R22" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K22:P22)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89277196943365633</v>
-      </c>
-      <c r="S22" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.0616907781254958</v>
       </c>
-      <c r="T22" s="10">
+      <c r="S22" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>61.578065131278755</v>
       </c>
-      <c r="U22" s="9">
+      <c r="T22" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V22" s="9">
+      <c r="U22" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>33.867935822203314</v>
       </c>
-      <c r="W22" s="9">
+      <c r="V22" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X22" s="9">
+      <c r="W22" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>12.31561302625575</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="X22" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>15.394516282819689</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Y22" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
+      <c r="Z22" s="14">
+        <v>7</v>
+      </c>
       <c r="AA22" s="14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="14">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AD22" s="14">
-        <v>15</v>
-      </c>
-      <c r="AE22" s="14">
         <v>18</v>
       </c>
+      <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="13" t="str">
+      <c r="AG22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lava;</v>
       </c>
-      <c r="AJ22" s="13" t="str">
+      <c r="AI22" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(20, lava = v(t(20, "lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(7, 3, 1, 15, 18, 0, 0, 1), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
       </c>
-      <c r="AK22" s="13" t="str">
+      <c r="AJ22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.lava.name=Lavia</v>
       </c>
-      <c r="AL22" s="13" t="str">
+      <c r="AK22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.lava.name=ラービャ</v>
       </c>
-      <c r="AM22" s="13"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL22" s="13"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -5368,106 +5235,105 @@
       <c r="G23" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="3">
+      <c r="H23" s="3">
         <v>4</v>
       </c>
-      <c r="J23" s="8">
+      <c r="I23" s="8">
         <v>98</v>
       </c>
+      <c r="J23" s="7">
+        <v>10</v>
+      </c>
       <c r="K23" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L23" s="7">
         <v>16</v>
       </c>
       <c r="M23" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N23" s="7">
         <v>9</v>
       </c>
       <c r="O23" s="7">
-        <v>9</v>
-      </c>
-      <c r="P23" s="7">
         <v>38</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="P23" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.681792830507429</v>
       </c>
+      <c r="Q23" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J23:O23)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.80341122656688246</v>
+      </c>
       <c r="R23" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K23:P23)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.80341122656688246</v>
-      </c>
-      <c r="S23" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.3511712407893626</v>
       </c>
-      <c r="T23" s="10">
+      <c r="S23" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>132.41478159735755</v>
       </c>
-      <c r="U23" s="9">
+      <c r="T23" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>13.511712407893627</v>
       </c>
-      <c r="V23" s="9">
+      <c r="U23" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>21.618739852629805</v>
       </c>
-      <c r="W23" s="9">
+      <c r="V23" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>21.618739852629805</v>
       </c>
-      <c r="X23" s="9">
+      <c r="W23" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>12.160541167104263</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="X23" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>12.160541167104263</v>
       </c>
-      <c r="Z23" s="9">
+      <c r="Y23" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>51.344507149995785</v>
       </c>
+      <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
+      <c r="AC23" s="14">
+        <v>7</v>
+      </c>
       <c r="AD23" s="14">
+        <v>6</v>
+      </c>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="14">
         <v>7</v>
       </c>
-      <c r="AE23" s="14">
-        <v>6</v>
-      </c>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="14">
-        <v>7</v>
-      </c>
-      <c r="AI23" s="13" t="str">
+      <c r="AH23" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] star;</v>
       </c>
-      <c r="AJ23" s="13" t="str">
+      <c r="AI23" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(21, star = v(t(21, "star", 4, 98, m(10, 16, 16, 9, 9, 38), a(0, 0, 0, 7, 6, 0, 1, 7), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
       </c>
-      <c r="AK23" s="13" t="str">
+      <c r="AJ23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.star.name=Staria</v>
       </c>
-      <c r="AL23" s="13" t="str">
+      <c r="AK23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.star.name=スターリャ</v>
       </c>
-      <c r="AM23" s="13"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL23" s="13"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -5489,96 +5355,95 @@
       <c r="G24" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="3">
+      <c r="H24" s="3">
         <v>2</v>
       </c>
-      <c r="J24" s="8">
+      <c r="I24" s="8">
         <v>77</v>
       </c>
+      <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7">
+      <c r="M24" s="7">
         <v>10</v>
       </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7">
+      <c r="N24" s="7"/>
+      <c r="O24" s="7">
         <v>8</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="P24" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q24" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J24:O24)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.89502507092797245</v>
+      </c>
       <c r="R24" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K24:P24)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
-      </c>
-      <c r="S24" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.0643701824533598</v>
       </c>
-      <c r="T24" s="10">
+      <c r="S24" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>81.956504048908698</v>
       </c>
-      <c r="U24" s="9">
+      <c r="T24" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V24" s="9">
+      <c r="U24" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W24" s="9">
+      <c r="V24" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X24" s="9">
+      <c r="W24" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>45.531391138282608</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="X24" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="9">
+      <c r="Y24" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>36.42511291062609</v>
       </c>
-      <c r="AA24" s="14">
+      <c r="Z24" s="14">
         <v>3</v>
       </c>
+      <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
+      <c r="AF24" s="14">
+        <v>6</v>
+      </c>
       <c r="AG24" s="14">
-        <v>6</v>
-      </c>
-      <c r="AH24" s="14">
         <v>2</v>
       </c>
-      <c r="AI24" s="13" t="str">
+      <c r="AH24" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] gravel;</v>
       </c>
-      <c r="AJ24" s="13" t="str">
+      <c r="AI24" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(22, gravel = v(t(22, "gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(3, 0, 0, 0, 0, 0, 6, 2), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
       </c>
-      <c r="AK24" s="13" t="str">
+      <c r="AJ24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.gravel.name=Gravelia</v>
       </c>
-      <c r="AL24" s="13" t="str">
+      <c r="AK24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.gravel.name=グラベーリャ</v>
       </c>
-      <c r="AM24" s="13"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL24" s="13"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -5600,100 +5465,99 @@
       <c r="G25" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="3">
+      <c r="H25" s="3">
         <v>4</v>
       </c>
-      <c r="J25" s="8">
+      <c r="I25" s="8">
         <v>73</v>
       </c>
+      <c r="J25" s="7">
+        <v>10</v>
+      </c>
       <c r="K25" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L25" s="7">
-        <v>16</v>
-      </c>
-      <c r="M25" s="7">
         <v>15</v>
       </c>
+      <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7">
+      <c r="O25" s="7">
         <v>36</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="P25" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.681792830507429</v>
       </c>
+      <c r="Q25" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J25:O25)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.85394924037429032</v>
+      </c>
       <c r="R25" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K25:P25)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85394924037429032</v>
-      </c>
-      <c r="S25" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.4361657100787466</v>
       </c>
-      <c r="T25" s="10">
+      <c r="S25" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>104.8400968357485</v>
       </c>
-      <c r="U25" s="9">
+      <c r="T25" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>13.61559699165565</v>
       </c>
-      <c r="V25" s="9">
+      <c r="U25" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>21.784955186649039</v>
       </c>
-      <c r="W25" s="9">
+      <c r="V25" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>20.423395487483475</v>
       </c>
-      <c r="X25" s="9">
+      <c r="W25" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="X25" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="9">
+      <c r="Y25" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>49.016149169960336</v>
       </c>
+      <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14">
+      <c r="AC25" s="14">
         <v>2</v>
       </c>
+      <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
+      <c r="AF25" s="14">
+        <v>15</v>
+      </c>
       <c r="AG25" s="14">
-        <v>15</v>
-      </c>
-      <c r="AH25" s="14">
         <v>9</v>
       </c>
-      <c r="AI25" s="13" t="str">
+      <c r="AH25" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] emerald;</v>
       </c>
-      <c r="AJ25" s="13" t="str">
+      <c r="AI25" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(23, emerald = v(t(23, "emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(0, 0, 0, 2, 0, 0, 15, 9), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
       </c>
-      <c r="AK25" s="13" t="str">
+      <c r="AJ25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.emerald.name=Emeraldia</v>
       </c>
-      <c r="AL25" s="13" t="str">
+      <c r="AK25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.emerald.name=エメラルジャ</v>
       </c>
-      <c r="AM25" s="13"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL25" s="13"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -5715,98 +5579,97 @@
       <c r="G26" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="3">
+      <c r="H26" s="3">
         <v>4</v>
       </c>
-      <c r="J26" s="8">
+      <c r="I26" s="8">
         <v>62</v>
       </c>
-      <c r="K26" s="7">
+      <c r="J26" s="7">
         <v>2</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7">
+        <v>8</v>
+      </c>
       <c r="M26" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N26" s="7">
-        <v>10</v>
-      </c>
-      <c r="O26" s="7">
         <v>18</v>
       </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="5">
+      <c r="O26" s="7"/>
+      <c r="P26" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.681792830507429</v>
       </c>
+      <c r="Q26" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J26:O26)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.85724398285307279</v>
+      </c>
       <c r="R26" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K26:P26)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85724398285307279</v>
-      </c>
-      <c r="S26" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.4417067843579312</v>
       </c>
-      <c r="T26" s="10">
+      <c r="S26" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>89.385820630191731</v>
       </c>
-      <c r="U26" s="9">
+      <c r="T26" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>4.7045168752732494</v>
       </c>
-      <c r="V26" s="9">
+      <c r="U26" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W26" s="9">
+      <c r="V26" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>18.818067501092997</v>
       </c>
-      <c r="X26" s="9">
+      <c r="W26" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>23.522584376366247</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="X26" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>42.340651877459237</v>
       </c>
-      <c r="Z26" s="9">
+      <c r="Y26" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
+      <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
+      <c r="AF26" s="14">
+        <v>13</v>
+      </c>
       <c r="AG26" s="14">
-        <v>13</v>
-      </c>
-      <c r="AH26" s="14">
         <v>10</v>
       </c>
-      <c r="AI26" s="13" t="str">
+      <c r="AH26" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] lapislazuli;</v>
       </c>
-      <c r="AJ26" s="13" t="str">
+      <c r="AI26" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(24, lapislazuli = v(t(24, "lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(0, 0, 0, 0, 0, 0, 13, 10), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
       </c>
-      <c r="AK26" s="13" t="str">
+      <c r="AJ26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
       </c>
-      <c r="AL26" s="13" t="str">
+      <c r="AK26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
       </c>
-      <c r="AM26" s="13"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL26" s="13"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5828,100 +5691,99 @@
       <c r="G27" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="3">
+      <c r="H27" s="3">
         <v>5</v>
       </c>
-      <c r="J27" s="8">
+      <c r="I27" s="8">
         <v>61</v>
       </c>
-      <c r="K27" s="7">
+      <c r="J27" s="7">
         <v>3</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7">
+      <c r="K27" s="7"/>
+      <c r="L27" s="7">
         <v>34</v>
       </c>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7">
+      <c r="M27" s="7"/>
+      <c r="N27" s="7">
         <v>10</v>
       </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="5">
+      <c r="O27" s="7"/>
+      <c r="P27" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>2</v>
       </c>
+      <c r="Q27" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J27:O27)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.94837491720007905</v>
+      </c>
       <c r="R27" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K27:P27)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.94837491720007905</v>
-      </c>
-      <c r="S27" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.8967498344001581</v>
       </c>
-      <c r="T27" s="10">
+      <c r="S27" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>115.70173989840964</v>
       </c>
-      <c r="U27" s="9">
+      <c r="T27" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>7.3852174403240198</v>
       </c>
-      <c r="V27" s="9">
+      <c r="U27" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W27" s="9">
+      <c r="V27" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>83.699130990338887</v>
       </c>
-      <c r="X27" s="9">
+      <c r="W27" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="9">
+      <c r="X27" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>24.617391467746732</v>
       </c>
-      <c r="Z27" s="9">
+      <c r="Y27" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="14">
+      <c r="Z27" s="14">
         <v>20</v>
       </c>
+      <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14">
+      <c r="AC27" s="14">
         <v>2</v>
       </c>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14">
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14">
         <v>2</v>
       </c>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14">
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14">
         <v>4</v>
       </c>
-      <c r="AI27" s="13" t="str">
+      <c r="AH27" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] enderdragon;</v>
       </c>
-      <c r="AJ27" s="13" t="str">
+      <c r="AI27" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(25, enderdragon = v(t(25, "enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(20, 0, 0, 2, 0, 2, 0, 4), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
       </c>
-      <c r="AK27" s="13" t="str">
+      <c r="AJ27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
       </c>
-      <c r="AL27" s="13" t="str">
+      <c r="AK27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
       </c>
-      <c r="AM27" s="13"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL27" s="13"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -5943,102 +5805,101 @@
       <c r="G28" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="3">
+      <c r="H28" s="3">
         <v>4</v>
       </c>
-      <c r="J28" s="8">
+      <c r="I28" s="8">
         <v>69</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
+        <v>11</v>
+      </c>
       <c r="L28" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M28" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N28" s="7">
-        <v>4</v>
-      </c>
-      <c r="O28" s="7">
-        <v>1</v>
-      </c>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.681792830507429</v>
       </c>
+      <c r="Q28" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J28:O28)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.82775327988481073</v>
+      </c>
       <c r="R28" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K28:P28)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.82775327988481073</v>
-      </c>
-      <c r="S28" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.392109531539284</v>
       </c>
-      <c r="T28" s="10">
+      <c r="S28" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>96.055557676210597</v>
       </c>
-      <c r="U28" s="9">
+      <c r="T28" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V28" s="9">
+      <c r="U28" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>40.638889786089102</v>
       </c>
-      <c r="W28" s="9">
+      <c r="V28" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>36.944445260080997</v>
       </c>
-      <c r="X28" s="9">
+      <c r="W28" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>14.7777781040324</v>
       </c>
-      <c r="Y28" s="9">
+      <c r="X28" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>3.6944445260081</v>
       </c>
-      <c r="Z28" s="9">
+      <c r="Y28" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
+      <c r="Z28" s="14">
+        <v>17</v>
+      </c>
       <c r="AA28" s="14">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AB28" s="14">
-        <v>6</v>
-      </c>
-      <c r="AC28" s="14">
         <v>2</v>
       </c>
+      <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14">
+      <c r="AG28" s="14">
         <v>2</v>
       </c>
-      <c r="AI28" s="13" t="str">
+      <c r="AH28" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] witherskeleton;</v>
       </c>
-      <c r="AJ28" s="13" t="str">
+      <c r="AI28" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(26, witherskeleton = v(t(26, "witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(17, 6, 2, 0, 0, 0, 0, 2), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
       </c>
-      <c r="AK28" s="13" t="str">
+      <c r="AJ28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
       </c>
-      <c r="AL28" s="13" t="str">
+      <c r="AK28" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
       </c>
-      <c r="AM28" s="13"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL28" s="13"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -6060,108 +5921,107 @@
       <c r="G29" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="3">
+      <c r="H29" s="3">
         <v>5</v>
       </c>
-      <c r="J29" s="8">
+      <c r="I29" s="8">
         <v>52</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7">
+        <v>8</v>
+      </c>
       <c r="L29" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M29" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O29" s="7">
         <v>1</v>
       </c>
-      <c r="P29" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="5">
+      <c r="P29" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>2</v>
       </c>
+      <c r="Q29" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J29:O29)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.83508791942836935</v>
+      </c>
       <c r="R29" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K29:P29)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.83508791942836935</v>
-      </c>
-      <c r="S29" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.6701758388567387</v>
       </c>
-      <c r="T29" s="10">
+      <c r="S29" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>86.849143620550407</v>
       </c>
-      <c r="U29" s="9">
+      <c r="T29" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V29" s="9">
+      <c r="U29" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>30.208397781061013</v>
       </c>
-      <c r="W29" s="9">
+      <c r="V29" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>37.760497226326265</v>
       </c>
-      <c r="X29" s="9">
+      <c r="W29" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>11.328149167897879</v>
       </c>
-      <c r="Y29" s="9">
+      <c r="X29" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>3.7760497226326266</v>
       </c>
-      <c r="Z29" s="9">
+      <c r="Y29" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>3.7760497226326266</v>
       </c>
-      <c r="AA29" s="14">
+      <c r="Z29" s="14">
         <v>25</v>
       </c>
-      <c r="AB29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14">
+        <v>4</v>
+      </c>
       <c r="AC29" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="14">
         <v>4</v>
       </c>
-      <c r="AD29" s="14">
-        <v>3</v>
-      </c>
       <c r="AE29" s="14">
-        <v>4</v>
-      </c>
-      <c r="AF29" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14">
         <v>2</v>
       </c>
-      <c r="AI29" s="13" t="str">
+      <c r="AH29" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] wither;</v>
       </c>
-      <c r="AJ29" s="13" t="str">
+      <c r="AI29" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(27, wither = v(t(27, "wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(25, 0, 4, 3, 4, 1, 0, 2), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
       </c>
-      <c r="AK29" s="13" t="str">
+      <c r="AJ29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.wither.name=Witheria</v>
       </c>
-      <c r="AL29" s="13" t="str">
+      <c r="AK29" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.wither.name=ウィテーリャ</v>
       </c>
-      <c r="AM29" s="13"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL29" s="13"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -6183,108 +6043,105 @@
       <c r="G30" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="H30" s="3">
         <v>3</v>
       </c>
-      <c r="J30" s="8">
+      <c r="I30" s="8">
         <v>18</v>
       </c>
+      <c r="J30" s="7">
+        <v>3</v>
+      </c>
       <c r="K30" s="7">
+        <v>10</v>
+      </c>
+      <c r="L30" s="7">
         <v>3</v>
       </c>
-      <c r="L30" s="7">
-        <v>10</v>
-      </c>
       <c r="M30" s="7">
-        <v>3</v>
-      </c>
-      <c r="N30" s="7">
         <v>8</v>
       </c>
+      <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="5">
+      <c r="P30" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.4142135623730951</v>
       </c>
+      <c r="Q30" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J30:O30)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.82359101726757311</v>
+      </c>
       <c r="R30" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K30:P30)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.82359101726757311</v>
-      </c>
-      <c r="S30" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.1647335864684558</v>
       </c>
-      <c r="T30" s="10">
+      <c r="S30" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>20.965204556432205</v>
       </c>
-      <c r="U30" s="9">
+      <c r="T30" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>2.6206505695540256</v>
       </c>
-      <c r="V30" s="9">
+      <c r="U30" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>8.7355018985134194</v>
       </c>
-      <c r="W30" s="9">
+      <c r="V30" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>2.6206505695540256</v>
       </c>
-      <c r="X30" s="9">
+      <c r="W30" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>6.9884015188107353</v>
       </c>
-      <c r="Y30" s="9">
+      <c r="X30" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="9">
+      <c r="Y30" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
+      <c r="Z30" s="14">
+        <v>8</v>
+      </c>
       <c r="AA30" s="14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB30" s="14">
         <v>2</v>
       </c>
       <c r="AC30" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD30" s="14">
-        <v>6</v>
-      </c>
-      <c r="AE30" s="14">
         <v>11</v>
       </c>
+      <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14">
+      <c r="AG30" s="14">
         <v>4</v>
       </c>
-      <c r="AI30" s="13" t="str">
+      <c r="AH30" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] thunder;</v>
       </c>
-      <c r="AJ30" s="13" t="str">
+      <c r="AI30" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(28, thunder = v(t(28, "thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(8, 2, 2, 6, 11, 0, 0, 4), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
       </c>
-      <c r="AK30" s="13" t="str">
+      <c r="AJ30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.thunder.name=Thunderia</v>
       </c>
-      <c r="AL30" s="13" t="str">
+      <c r="AK30" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.thunder.name=ツンデーリャ</v>
       </c>
-      <c r="AM30" s="13"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL30" s="13"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -6306,98 +6163,97 @@
       <c r="G31" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8">
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
         <v>39</v>
       </c>
+      <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7"/>
+      <c r="L31" s="7">
+        <v>1</v>
+      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7">
+        <v>10</v>
+      </c>
       <c r="O31" s="7">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7">
         <v>7</v>
       </c>
+      <c r="P31" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
       <c r="Q31" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J31:O31)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.89502507092797245</v>
       </c>
       <c r="R31" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K31:P31)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
-      </c>
-      <c r="S31" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.89502507092797245</v>
       </c>
-      <c r="T31" s="10">
+      <c r="S31" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>34.905977766190922</v>
       </c>
-      <c r="U31" s="9">
+      <c r="T31" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V31" s="9">
+      <c r="U31" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W31" s="9">
+      <c r="V31" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>1.9392209870106067</v>
       </c>
-      <c r="X31" s="9">
+      <c r="W31" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="9">
+      <c r="X31" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>19.392209870106068</v>
       </c>
-      <c r="Z31" s="9">
+      <c r="Y31" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>13.574546909074249</v>
       </c>
-      <c r="AA31" s="14">
-        <v>1</v>
-      </c>
+      <c r="Z31" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14">
+      <c r="AE31" s="14">
         <v>3</v>
       </c>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="13" t="str">
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] chicken;</v>
       </c>
-      <c r="AJ31" s="13" t="str">
+      <c r="AI31" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(29, chicken = v(t(29, "chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(1, 0, 0, 0, 0, 3, 0, 1), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
       </c>
-      <c r="AK31" s="13" t="str">
+      <c r="AJ31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.chicken.name=Chickenia</v>
       </c>
-      <c r="AL31" s="13" t="str">
+      <c r="AK31" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.chicken.name=チッケーニャ</v>
       </c>
-      <c r="AM31" s="13"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL31" s="13"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6419,102 +6275,101 @@
       <c r="G32" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="3">
+      <c r="H32" s="3">
         <v>2</v>
       </c>
-      <c r="J32" s="8">
+      <c r="I32" s="8">
         <v>72</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7">
+      <c r="J32" s="7"/>
+      <c r="K32" s="7">
         <v>2</v>
       </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7">
+      <c r="L32" s="7"/>
+      <c r="M32" s="7">
         <v>10</v>
       </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7">
+      <c r="N32" s="7"/>
+      <c r="O32" s="7">
         <v>11</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="P32" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q32" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J32:O32)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.8596481407459281</v>
+      </c>
       <c r="R32" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K32:P32)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.8596481407459281</v>
-      </c>
-      <c r="S32" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.0222996853739181</v>
       </c>
-      <c r="T32" s="10">
+      <c r="S32" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>73.605577346922104</v>
       </c>
-      <c r="U32" s="9">
+      <c r="T32" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V32" s="9">
+      <c r="U32" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>6.4004849866888787</v>
       </c>
-      <c r="W32" s="9">
+      <c r="V32" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X32" s="9">
+      <c r="W32" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>32.002424933444395</v>
       </c>
-      <c r="Y32" s="9">
+      <c r="X32" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z32" s="9">
+      <c r="Y32" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>35.202667426788828</v>
       </c>
+      <c r="Z32" s="14">
+        <v>1</v>
+      </c>
       <c r="AA32" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="14">
         <v>13</v>
       </c>
-      <c r="AC32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14">
+        <v>6</v>
+      </c>
       <c r="AD32" s="14">
-        <v>6</v>
-      </c>
-      <c r="AE32" s="14">
         <v>10</v>
       </c>
+      <c r="AE32" s="14"/>
       <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14">
+      <c r="AG32" s="14">
         <v>2</v>
       </c>
-      <c r="AI32" s="13" t="str">
+      <c r="AH32" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] furnace;</v>
       </c>
-      <c r="AJ32" s="13" t="str">
+      <c r="AI32" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(30, furnace = v(t(30, "furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(1, 13, 0, 6, 10, 0, 0, 2), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
       </c>
-      <c r="AK32" s="13" t="str">
+      <c r="AJ32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.furnace.name=Furnacia</v>
       </c>
-      <c r="AL32" s="13" t="str">
+      <c r="AK32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.furnace.name=フルナーキャ</v>
       </c>
-      <c r="AM32" s="13"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL32" s="13"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -6536,96 +6391,95 @@
       <c r="G33" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="3">
+      <c r="H33" s="3">
         <v>3</v>
       </c>
-      <c r="J33" s="8">
+      <c r="I33" s="8">
         <v>60</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7">
-        <v>1</v>
-      </c>
-      <c r="M33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7">
+        <v>10</v>
+      </c>
       <c r="N33" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O33" s="7">
-        <v>6</v>
-      </c>
-      <c r="P33" s="7">
         <v>4</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="P33" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.4142135623730951</v>
       </c>
+      <c r="Q33" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J33:O33)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.85856543643775374</v>
+      </c>
       <c r="R33" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K33:P33)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85856543643775374</v>
-      </c>
-      <c r="S33" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.214194884395047</v>
       </c>
-      <c r="T33" s="10">
+      <c r="S33" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>72.851693063702811</v>
       </c>
-      <c r="U33" s="9">
+      <c r="T33" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V33" s="9">
+      <c r="U33" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>3.4691282411287054</v>
       </c>
-      <c r="W33" s="9">
+      <c r="V33" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X33" s="9">
+      <c r="W33" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>34.691282411287048</v>
       </c>
-      <c r="Y33" s="9">
+      <c r="X33" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>20.814769446772232</v>
       </c>
-      <c r="Z33" s="9">
+      <c r="Y33" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>13.876512964514822</v>
       </c>
+      <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
       <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14">
+      <c r="AG33" s="14">
         <v>10</v>
       </c>
-      <c r="AI33" s="13" t="str">
+      <c r="AH33" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] magentaglazedterracotta;</v>
       </c>
-      <c r="AJ33" s="13" t="str">
+      <c r="AI33" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(31, magentaglazedterracotta = v(t(31, "magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(0, 0, 0, 0, 0, 0, 0, 10), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
       </c>
-      <c r="AK33" s="13" t="str">
+      <c r="AJ33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.magentaglazedterracotta.name=Magenteglazedeterracottia</v>
       </c>
-      <c r="AL33" s="13" t="str">
+      <c r="AK33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.magentaglazedterracotta.name=マゲンテグラゼデテッラコッチャ</v>
       </c>
-      <c r="AM33" s="13"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL33" s="13"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -6647,94 +6501,93 @@
       <c r="G34" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="3">
+      <c r="H34" s="3">
         <v>2</v>
       </c>
-      <c r="J34" s="8">
+      <c r="I34" s="8">
         <v>35</v>
       </c>
+      <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="M34" s="7">
+        <v>10</v>
+      </c>
       <c r="N34" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O34" s="7">
-        <v>9</v>
-      </c>
-      <c r="P34" s="7">
         <v>8</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="P34" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q34" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J34:O34)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.79004131186337712</v>
+      </c>
       <c r="R34" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K34:P34)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.79004131186337712</v>
-      </c>
-      <c r="S34" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.93952274921401169</v>
       </c>
-      <c r="T34" s="10">
+      <c r="S34" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>32.883296222490408</v>
       </c>
-      <c r="U34" s="9">
+      <c r="T34" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V34" s="9">
+      <c r="U34" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W34" s="9">
+      <c r="V34" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X34" s="9">
+      <c r="W34" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>12.178998600922373</v>
       </c>
-      <c r="Y34" s="9">
+      <c r="X34" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>10.961098740830137</v>
       </c>
-      <c r="Z34" s="9">
+      <c r="Y34" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>9.7431988807378982</v>
       </c>
+      <c r="Z34" s="14"/>
       <c r="AA34" s="14"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14">
+      <c r="AG34" s="14">
         <v>7</v>
       </c>
-      <c r="AI34" s="13" t="str">
+      <c r="AH34" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] bread;</v>
       </c>
-      <c r="AJ34" s="13" t="str">
+      <c r="AI34" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(32, bread = v(t(32, "bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(0, 0, 0, 0, 0, 0, 0, 7), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
       </c>
-      <c r="AK34" s="13" t="str">
+      <c r="AJ34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.bread.name=Breadia</v>
       </c>
-      <c r="AL34" s="13" t="str">
+      <c r="AK34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.bread.name=ブレアージャ</v>
       </c>
-      <c r="AM34" s="13"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL34" s="13"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -6756,106 +6609,105 @@
       <c r="G35" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
-      <c r="J35" s="8">
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8">
         <v>88</v>
       </c>
-      <c r="K35" s="7">
-        <v>1</v>
-      </c>
-      <c r="L35" s="7"/>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7">
+        <v>10</v>
+      </c>
       <c r="M35" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N35" s="7">
         <v>7</v>
       </c>
       <c r="O35" s="7">
-        <v>7</v>
-      </c>
-      <c r="P35" s="7">
         <v>6</v>
       </c>
+      <c r="P35" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
       <c r="Q35" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J35:O35)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.74742462431746914</v>
       </c>
       <c r="R35" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K35:P35)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.74742462431746914</v>
-      </c>
-      <c r="S35" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.74742462431746914</v>
       </c>
-      <c r="T35" s="10">
+      <c r="S35" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>65.77336693993729</v>
       </c>
-      <c r="U35" s="9">
+      <c r="T35" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>2.1217215141915253</v>
       </c>
-      <c r="V35" s="9">
+      <c r="U35" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W35" s="9">
+      <c r="V35" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>21.217215141915258</v>
       </c>
-      <c r="X35" s="9">
+      <c r="W35" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>14.852050599340677</v>
       </c>
-      <c r="Y35" s="9">
+      <c r="X35" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>14.852050599340677</v>
       </c>
-      <c r="Z35" s="9">
+      <c r="Y35" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>12.730329085149153</v>
       </c>
-      <c r="AA35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14">
+        <v>1</v>
+      </c>
       <c r="AB35" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC35" s="14">
+        <v>11</v>
+      </c>
+      <c r="AD35" s="14">
         <v>2</v>
       </c>
-      <c r="AD35" s="14">
-        <v>11</v>
-      </c>
-      <c r="AE35" s="14">
-        <v>2</v>
-      </c>
+      <c r="AE35" s="14"/>
       <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="13" t="str">
+      <c r="AG35" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] daytime;</v>
       </c>
-      <c r="AJ35" s="13" t="str">
+      <c r="AI35" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(33, daytime = v(t(33, "daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(0, 1, 2, 11, 2, 0, 0, 1), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
       </c>
-      <c r="AK35" s="13" t="str">
+      <c r="AJ35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.daytime.name=Daytimia</v>
       </c>
-      <c r="AL35" s="13" t="str">
+      <c r="AK35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.daytime.name=ダイティーミャ</v>
       </c>
-      <c r="AM35" s="13"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL35" s="13"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -6877,98 +6729,97 @@
       <c r="G36" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
-      <c r="J36" s="8">
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8">
         <v>83</v>
       </c>
-      <c r="K36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7">
+        <v>7</v>
+      </c>
       <c r="L36" s="7">
+        <v>10</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7">
         <v>7</v>
       </c>
-      <c r="M36" s="7">
-        <v>10</v>
-      </c>
-      <c r="N36" s="7"/>
       <c r="O36" s="7">
-        <v>7</v>
-      </c>
-      <c r="P36" s="7">
         <v>26</v>
       </c>
+      <c r="P36" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
       <c r="Q36" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J36:O36)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.87988361729131659</v>
       </c>
       <c r="R36" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K36:P36)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.87988361729131659</v>
-      </c>
-      <c r="S36" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.87988361729131659</v>
       </c>
-      <c r="T36" s="10">
+      <c r="S36" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>73.030340235179281</v>
       </c>
-      <c r="U36" s="9">
+      <c r="T36" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V36" s="9">
+      <c r="U36" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>10.224247632925099</v>
       </c>
-      <c r="W36" s="9">
+      <c r="V36" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>14.606068047035855</v>
       </c>
-      <c r="X36" s="9">
+      <c r="W36" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="X36" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>10.224247632925099</v>
       </c>
-      <c r="Z36" s="9">
+      <c r="Y36" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>37.975776922293228</v>
       </c>
+      <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14">
+      <c r="AC36" s="14">
         <v>2</v>
       </c>
+      <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
       <c r="AF36" s="14"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="14">
+      <c r="AG36" s="14">
         <v>4</v>
       </c>
-      <c r="AI36" s="13" t="str">
+      <c r="AH36" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] night;</v>
       </c>
-      <c r="AJ36" s="13" t="str">
+      <c r="AI36" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(34, night = v(t(34, "night", 1, 83, m(0, 7, 10, 0, 7, 26), a(0, 0, 0, 2, 0, 0, 0, 4), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
       </c>
-      <c r="AK36" s="13" t="str">
+      <c r="AJ36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.night.name=Nightia</v>
       </c>
-      <c r="AL36" s="13" t="str">
+      <c r="AK36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.night.name=ニグチャ</v>
       </c>
-      <c r="AM36" s="13"/>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL36" s="13"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -6990,106 +6841,105 @@
       <c r="G37" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="3">
+      <c r="H37" s="3">
         <v>2</v>
       </c>
-      <c r="J37" s="8">
+      <c r="I37" s="8">
         <v>85</v>
       </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
       <c r="K37" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L37" s="7">
+        <v>10</v>
+      </c>
+      <c r="M37" s="7">
         <v>8</v>
       </c>
-      <c r="M37" s="7">
-        <v>10</v>
-      </c>
       <c r="N37" s="7">
+        <v>12</v>
+      </c>
+      <c r="O37" s="7">
         <v>8</v>
       </c>
-      <c r="O37" s="7">
-        <v>12</v>
-      </c>
-      <c r="P37" s="7">
-        <v>8</v>
-      </c>
-      <c r="Q37" s="5">
+      <c r="P37" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q37" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J37:O37)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.66741992708501718</v>
+      </c>
       <c r="R37" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K37:P37)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.66741992708501718</v>
-      </c>
-      <c r="S37" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.79370052598409968</v>
       </c>
-      <c r="T37" s="10">
+      <c r="S37" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>67.464544708648475</v>
       </c>
-      <c r="U37" s="9">
+      <c r="T37" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>1.4354158448648611</v>
       </c>
-      <c r="V37" s="9">
+      <c r="U37" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>11.483326758918889</v>
       </c>
-      <c r="W37" s="9">
+      <c r="V37" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>14.354158448648612</v>
       </c>
-      <c r="X37" s="9">
+      <c r="W37" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>11.483326758918889</v>
       </c>
-      <c r="Y37" s="9">
+      <c r="X37" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>17.224990138378335</v>
       </c>
-      <c r="Z37" s="9">
+      <c r="Y37" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>11.483326758918889</v>
       </c>
+      <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
+      <c r="AC37" s="14">
+        <v>9</v>
+      </c>
       <c r="AD37" s="14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="14">
         <v>1</v>
       </c>
-      <c r="AF37" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14">
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14">
         <v>3</v>
       </c>
-      <c r="AI37" s="13" t="str">
+      <c r="AH37" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] morning;</v>
       </c>
-      <c r="AJ37" s="13" t="str">
+      <c r="AI37" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(35, morning = v(t(35, "morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(0, 0, 0, 9, 1, 1, 0, 3), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
       </c>
-      <c r="AK37" s="13" t="str">
+      <c r="AJ37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.morning.name=Morningia</v>
       </c>
-      <c r="AL37" s="13" t="str">
+      <c r="AK37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.morning.name=モルニンギャ</v>
       </c>
-      <c r="AM37" s="13"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL37" s="13"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -7111,102 +6961,101 @@
       <c r="G38" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="8">
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
         <v>22</v>
       </c>
-      <c r="K38" s="7">
-        <v>1</v>
-      </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7">
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7">
         <v>10</v>
       </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7">
+      <c r="M38" s="7"/>
+      <c r="N38" s="7">
         <v>12</v>
       </c>
-      <c r="P38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
       <c r="Q38" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J38:O38)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.88066587359614845</v>
       </c>
       <c r="R38" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K38:P38)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.88066587359614845</v>
-      </c>
-      <c r="S38" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.88066587359614845</v>
       </c>
-      <c r="T38" s="10">
+      <c r="S38" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>19.374649219115266</v>
       </c>
-      <c r="U38" s="9">
+      <c r="T38" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0.84237605300501162</v>
       </c>
-      <c r="V38" s="9">
+      <c r="U38" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W38" s="9">
+      <c r="V38" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>8.4237605300501155</v>
       </c>
-      <c r="X38" s="9">
+      <c r="W38" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="X38" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>10.108512636060139</v>
       </c>
-      <c r="Z38" s="9">
+      <c r="Y38" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14">
+        <v>1</v>
+      </c>
       <c r="AB38" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC38" s="14">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="AD38" s="14">
-        <v>16</v>
-      </c>
-      <c r="AE38" s="14">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AE38" s="14"/>
       <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="13" t="str">
+      <c r="AG38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] fine;</v>
       </c>
-      <c r="AJ38" s="13" t="str">
+      <c r="AI38" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(36, fine = v(t(36, "fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(0, 1, 2, 16, 1, 0, 0, 1), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
       </c>
-      <c r="AK38" s="13" t="str">
+      <c r="AJ38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.fine.name=Finia</v>
       </c>
-      <c r="AL38" s="13" t="str">
+      <c r="AK38" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.fine.name=フィーニャ</v>
       </c>
-      <c r="AM38" s="13"/>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL38" s="13"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -7228,98 +7077,97 @@
       <c r="G39" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="3">
+      <c r="H39" s="3">
         <v>2</v>
       </c>
-      <c r="J39" s="8">
+      <c r="I39" s="8">
         <v>25</v>
       </c>
+      <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7">
+      <c r="L39" s="7">
         <v>10</v>
       </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7">
+      <c r="M39" s="7"/>
+      <c r="N39" s="7">
         <v>12</v>
       </c>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="5">
+      <c r="O39" s="7"/>
+      <c r="P39" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q39" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J39:O39)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.89089871814033927</v>
+      </c>
       <c r="R39" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K39:P39)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89089871814033927</v>
-      </c>
-      <c r="S39" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.0594630943592951</v>
       </c>
-      <c r="T39" s="10">
+      <c r="S39" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>26.486577358982377</v>
       </c>
-      <c r="U39" s="9">
+      <c r="T39" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V39" s="9">
+      <c r="U39" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W39" s="9">
+      <c r="V39" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>12.039353344991991</v>
       </c>
-      <c r="X39" s="9">
+      <c r="W39" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y39" s="9">
+      <c r="X39" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>14.447224013990388</v>
       </c>
-      <c r="Z39" s="9">
+      <c r="Y39" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="14">
-        <v>1</v>
-      </c>
+      <c r="Z39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14">
+      <c r="AC39" s="14">
         <v>2</v>
       </c>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="14">
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14">
         <v>17</v>
       </c>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14">
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14">
         <v>2</v>
       </c>
-      <c r="AI39" s="13" t="str">
+      <c r="AH39" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] rain;</v>
       </c>
-      <c r="AJ39" s="13" t="str">
+      <c r="AI39" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(37, rain = v(t(37, "rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(1, 0, 0, 2, 0, 17, 0, 2), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
       </c>
-      <c r="AK39" s="13" t="str">
+      <c r="AJ39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.rain.name=Rainia</v>
       </c>
-      <c r="AL39" s="13" t="str">
+      <c r="AK39" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.rain.name=ライニャ</v>
       </c>
-      <c r="AM39" s="13"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL39" s="13"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -7341,98 +7189,97 @@
       <c r="G40" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="8">
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
         <v>79</v>
       </c>
+      <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="M40" s="7">
+        <v>3</v>
+      </c>
       <c r="N40" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="O40" s="7">
-        <v>18</v>
-      </c>
-      <c r="P40" s="7">
         <v>10</v>
       </c>
+      <c r="P40" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
       <c r="Q40" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J40:O40)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.90472770463271524</v>
       </c>
       <c r="R40" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K40:P40)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90472770463271524</v>
-      </c>
-      <c r="S40" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>0.90472770463271524</v>
       </c>
-      <c r="T40" s="10">
+      <c r="S40" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>71.473488665984505</v>
       </c>
-      <c r="U40" s="9">
+      <c r="T40" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V40" s="9">
+      <c r="U40" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W40" s="9">
+      <c r="V40" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X40" s="9">
+      <c r="W40" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>6.9167892257404358</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="X40" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>41.500735354442618</v>
       </c>
-      <c r="Z40" s="9">
+      <c r="Y40" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>23.055964085801453</v>
       </c>
+      <c r="Z40" s="14"/>
       <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14">
+      <c r="AB40" s="14">
         <v>7</v>
       </c>
+      <c r="AC40" s="14"/>
       <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14">
+      <c r="AE40" s="14">
         <v>6</v>
       </c>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="13" t="str">
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] plains;</v>
       </c>
-      <c r="AJ40" s="13" t="str">
+      <c r="AI40" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(38, plains = v(t(38, "plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(0, 0, 7, 0, 0, 6, 0, 1), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
       </c>
-      <c r="AK40" s="13" t="str">
+      <c r="AJ40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.plains.name=Plainsia</v>
       </c>
-      <c r="AL40" s="13" t="str">
+      <c r="AK40" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.plains.name=プラインシャ</v>
       </c>
-      <c r="AM40" s="13"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AL40" s="13"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -7454,100 +7301,99 @@
       <c r="G41" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="3">
+      <c r="H41" s="3">
         <v>2</v>
       </c>
-      <c r="J41" s="8">
+      <c r="I41" s="8">
         <v>83</v>
       </c>
+      <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="L41" s="7">
+        <v>2</v>
+      </c>
       <c r="M41" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N41" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="O41" s="7">
-        <v>32</v>
-      </c>
-      <c r="P41" s="7">
         <v>10</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="P41" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
+      <c r="Q41" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J41:O41)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.90125046261083019</v>
+      </c>
       <c r="R41" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K41:P41)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90125046261083019</v>
-      </c>
-      <c r="S41" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
         <v>1.0717734625362931</v>
       </c>
-      <c r="T41" s="10">
+      <c r="S41" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
         <v>88.957197390512334</v>
       </c>
-      <c r="U41" s="9">
+      <c r="T41" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V41" s="9">
+      <c r="U41" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W41" s="9">
+      <c r="V41" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>3.177042763946869</v>
       </c>
-      <c r="X41" s="9">
+      <c r="W41" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>19.062256583681215</v>
       </c>
-      <c r="Y41" s="9">
+      <c r="X41" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>50.832684223149904</v>
       </c>
-      <c r="Z41" s="9">
+      <c r="Y41" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>15.885213819734345</v>
       </c>
-      <c r="AA41" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14">
+      <c r="Z41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14">
         <v>10</v>
       </c>
+      <c r="AC41" s="14"/>
       <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14">
+      <c r="AE41" s="14">
         <v>6</v>
       </c>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14">
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14">
         <v>2</v>
       </c>
-      <c r="AI41" s="13" t="str">
+      <c r="AH41" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] forest;</v>
       </c>
-      <c r="AJ41" s="13" t="str">
+      <c r="AI41" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(39, forest = v(t(39, "forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(1, 0, 10, 0, 0, 6, 0, 2), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
       </c>
-      <c r="AK41" s="13" t="str">
+      <c r="AJ41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.forest.name=Forestia</v>
       </c>
-      <c r="AL41" s="13" t="str">
+      <c r="AK41" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.forest.name=フォレスチャ</v>
       </c>
-      <c r="AM41" s="13"/>
+      <c r="AL41" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/FairyList.xlsx
+++ b/FairyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MirageFairyMod-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3288DA94-E49A-4A1E-B397-16A935552F13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29F7E2-1E85-4BC0-9B03-4F33E0A4B488}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2835" windowWidth="23190" windowHeight="12405" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
+    <workbookView xWindow="9135" yWindow="1245" windowWidth="19410" windowHeight="14100" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
   <sheets>
     <sheet name="妖精リスト" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="470">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1727,6 +1727,37 @@
   </si>
   <si>
     <t>ART</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Airika</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイリカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワテーリカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Waterika</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sunika</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーニカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階級</t>
+    <rPh sb="0" eb="2">
+      <t>カイキュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1868,7 +1899,16 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -2273,92 +2313,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AL41" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:AL41" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL41">
-    <sortCondition ref="A1:A41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AM44" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:AM44" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM44">
+    <sortCondition ref="B1:B44"/>
   </sortState>
-  <tableColumns count="38">
-    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="42"/>
-    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="41"/>
-    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="37"/>
-    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{592C3106-789F-46C6-84E7-D4D3A1566511}" name="基礎Fire" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{B7A1B9A3-3658-4251-9488-C7EB28DDA828}" name="基礎Wind" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{53D9BDAB-CC6B-4E70-8605-30718A287EC4}" name="基礎Gaia" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{EB888AF3-8815-48CE-A95E-C5931929A1AC}" name="基礎Aqua" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{68F80D1D-DFED-4D2F-92EF-7D17590D4A36}" name="基礎Dark" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{D846AE64-655F-4052-B5F1-3F4B9699D0FA}" name="レア度倍率" dataDxfId="27">
+  <tableColumns count="39">
+    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="43"/>
+    <tableColumn id="26" xr3:uid="{7E104AB5-5E29-4B6A-BFBB-37072B207152}" name="階級" dataDxfId="0"/>
+    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="42"/>
+    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="38"/>
+    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{592C3106-789F-46C6-84E7-D4D3A1566511}" name="基礎Fire" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{B7A1B9A3-3658-4251-9488-C7EB28DDA828}" name="基礎Wind" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{53D9BDAB-CC6B-4E70-8605-30718A287EC4}" name="基礎Gaia" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{EB888AF3-8815-48CE-A95E-C5931929A1AC}" name="基礎Aqua" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{68F80D1D-DFED-4D2F-92EF-7D17590D4A36}" name="基礎Dark" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{D846AE64-655F-4052-B5F1-3F4B9699D0FA}" name="レア度倍率" dataDxfId="28">
       <calculatedColumnFormula>2^((テーブル1[[#This Row],[レア]]-1)/4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{833C82E7-E230-4A58-9D49-6C1CDD4BBDAD}" name="分散度倍率　" dataDxfId="26">
-      <calculatedColumnFormula>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J2:O2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{833C82E7-E230-4A58-9D49-6C1CDD4BBDAD}" name="分散度倍率　" dataDxfId="27">
+      <calculatedColumnFormula>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K2:P2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{434606B6-C04F-47DC-9277-0797C7617151}" name="効率" dataDxfId="25">
+    <tableColumn id="22" xr3:uid="{434606B6-C04F-47DC-9277-0797C7617151}" name="効率" dataDxfId="26">
       <calculatedColumnFormula>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B031CBD1-7BDB-4552-BC58-A8FCCA491403}" name="合計値" dataDxfId="24">
+    <tableColumn id="15" xr3:uid="{B031CBD1-7BDB-4552-BC58-A8FCCA491403}" name="合計値" dataDxfId="25">
       <calculatedColumnFormula>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{FCD4377E-4837-4BD9-8716-12CB589EDF74}" name="Shine" dataDxfId="23">
+    <tableColumn id="16" xr3:uid="{FCD4377E-4837-4BD9-8716-12CB589EDF74}" name="Shine" dataDxfId="24">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{192E8193-ED35-4778-87AC-0C1CF273DBF9}" name="Fire" dataDxfId="22">
+    <tableColumn id="17" xr3:uid="{192E8193-ED35-4778-87AC-0C1CF273DBF9}" name="Fire" dataDxfId="23">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{FDD6FC8F-4CBF-4964-A0D2-682E72230537}" name="Wind" dataDxfId="21">
+    <tableColumn id="18" xr3:uid="{FDD6FC8F-4CBF-4964-A0D2-682E72230537}" name="Wind" dataDxfId="22">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DE083808-871E-4527-B7C9-FF57A44BDF23}" name="Gaia" dataDxfId="20">
+    <tableColumn id="19" xr3:uid="{DE083808-871E-4527-B7C9-FF57A44BDF23}" name="Gaia" dataDxfId="21">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{EEDF52F6-D7AB-4A1B-B203-856E8CD45BA9}" name="Aqua" dataDxfId="19">
+    <tableColumn id="20" xr3:uid="{EEDF52F6-D7AB-4A1B-B203-856E8CD45BA9}" name="Aqua" dataDxfId="20">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{61A17369-9D3E-4EE3-B6BB-316F47062244}" name="Dark" dataDxfId="18">
+    <tableColumn id="21" xr3:uid="{61A17369-9D3E-4EE3-B6BB-316F47062244}" name="Dark" dataDxfId="19">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{FF31EB97-6C72-4B4F-9C7D-7FE5546BDC56}" name="ATTACK" dataDxfId="17"/>
-    <tableColumn id="44" xr3:uid="{D91E944B-F524-4F9B-9D06-B8EE217F8C86}" name="CRAFT" dataDxfId="16"/>
-    <tableColumn id="48" xr3:uid="{FDAEB361-38D6-4EFA-B314-79F5DF42167E}" name="FELL" dataDxfId="15"/>
-    <tableColumn id="46" xr3:uid="{ECCD46C1-F4EB-408C-AEB7-098E1A6BA65B}" name="LIGHT" dataDxfId="14"/>
-    <tableColumn id="47" xr3:uid="{E006FC6A-6503-4BBD-94D8-3FBB62985153}" name="FLAME" dataDxfId="13"/>
-    <tableColumn id="49" xr3:uid="{2BF29954-473B-4B0C-9781-028B561200CB}" name="WATER" dataDxfId="12"/>
-    <tableColumn id="24" xr3:uid="{E078FC75-CC53-492A-A97D-107EA20B4296}" name="CRYSTAL" dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{3CFDC570-BDAB-4914-ABC3-2C36BC441EFF}" name="ART" dataDxfId="10"/>
-    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="9">
+    <tableColumn id="40" xr3:uid="{FF31EB97-6C72-4B4F-9C7D-7FE5546BDC56}" name="ATTACK" dataDxfId="18"/>
+    <tableColumn id="44" xr3:uid="{D91E944B-F524-4F9B-9D06-B8EE217F8C86}" name="CRAFT" dataDxfId="17"/>
+    <tableColumn id="48" xr3:uid="{FDAEB361-38D6-4EFA-B314-79F5DF42167E}" name="FELL" dataDxfId="16"/>
+    <tableColumn id="46" xr3:uid="{ECCD46C1-F4EB-408C-AEB7-098E1A6BA65B}" name="LIGHT" dataDxfId="15"/>
+    <tableColumn id="47" xr3:uid="{E006FC6A-6503-4BBD-94D8-3FBB62985153}" name="FLAME" dataDxfId="14"/>
+    <tableColumn id="49" xr3:uid="{2BF29954-473B-4B0C-9781-028B561200CB}" name="WATER" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{E078FC75-CC53-492A-A97D-107EA20B4296}" name="CRYSTAL" dataDxfId="12"/>
+    <tableColumn id="25" xr3:uid="{3CFDC570-BDAB-4914-ABC3-2C36BC441EFF}" name="ART" dataDxfId="11"/>
+    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="10">
       <calculatedColumnFormula>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="0">
+    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="1">
       <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="8">
+    <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="9">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{87187A24-E0A4-40E3-9C23-0138D3146A81}" name="Code和名" dataDxfId="7">
+    <tableColumn id="38" xr3:uid="{87187A24-E0A4-40E3-9C23-0138D3146A81}" name="Code和名" dataDxfId="8">
       <calculatedColumnFormula>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{31C7AE9B-B5DC-4E21-92DA-CEDB482AF38B}" name="Code5" dataDxfId="6"/>
+    <tableColumn id="41" xr3:uid="{31C7AE9B-B5DC-4E21-92DA-CEDB482AF38B}" name="Code5" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C62C1D26-960A-48CC-8F29-5C012BAB8C70}" name="テーブル2" displayName="テーブル2" ref="A1:B69" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C62C1D26-960A-48CC-8F29-5C012BAB8C70}" name="テーブル2" displayName="テーブル2" ref="A1:B69" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:B69" xr:uid="{FEC50A1C-B428-4AD7-9BA5-4DA035F73E38}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A69">
     <sortCondition ref="A1:A69"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7E14A5CD-7281-42C1-93CF-8BD7C74666AC}" name="name" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{60E9BA99-755B-467A-9053-1708ABE43FE6}" name="列1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7E14A5CD-7281-42C1-93CF-8BD7C74666AC}" name="name" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{60E9BA99-755B-467A-9053-1708ABE43FE6}" name="列1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2382,7 +2423,7 @@
     <tableColumn id="8" xr3:uid="{C37B4482-84AD-481D-914C-03A51BD0F6FA}" name="列8">
       <calculatedColumnFormula>F2*G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B2463834-F42F-4CD7-BEC9-B542CC83738A}" name="列9" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{B2463834-F42F-4CD7-BEC9-B542CC83738A}" name="列9" dataDxfId="2">
       <calculatedColumnFormula>"ItemFairyCrystal.drops.add(new Drop(ModuleFairy.FairyTypes."&amp;C2&amp;"[0].createItemStack(), "&amp;H2&amp;"));"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2653,4752 +2694,5236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0BFE0B-651F-45A6-A399-6D829AC20A31}">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.25" style="1" customWidth="1"/>
-    <col min="9" max="15" width="2.625" style="1" customWidth="1"/>
-    <col min="16" max="18" width="4" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.75" style="1" customWidth="1"/>
-    <col min="20" max="25" width="4" style="1" customWidth="1"/>
-    <col min="26" max="33" width="2.625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.75" style="1" customWidth="1"/>
-    <col min="35" max="35" width="44.75" style="1" customWidth="1"/>
-    <col min="36" max="37" width="12.75" style="1" customWidth="1"/>
-    <col min="38" max="38" width="25.875" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="3.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.25" style="1" customWidth="1"/>
+    <col min="10" max="16" width="2.625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="4" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.75" style="1" customWidth="1"/>
+    <col min="21" max="26" width="4" style="1" customWidth="1"/>
+    <col min="27" max="34" width="2.625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.75" style="1" customWidth="1"/>
+    <col min="36" max="36" width="44.75" style="1" customWidth="1"/>
+    <col min="37" max="38" width="12.75" style="1" customWidth="1"/>
+    <col min="39" max="39" width="25.875" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
         <v>15</v>
       </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="7">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7">
+        <v>2</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+      <c r="P2" s="7">
         <v>10</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="5">
+      <c r="Q2" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J2:O2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9862327044933592</v>
-      </c>
       <c r="R2" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K2:P2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.95926411932526434</v>
+      </c>
+      <c r="S2" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9862327044933592</v>
-      </c>
-      <c r="S2" s="10">
+        <v>0.95926411932526434</v>
+      </c>
+      <c r="T2" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>14.793490567400388</v>
-      </c>
-      <c r="T2" s="9">
+        <v>14.388961789878966</v>
+      </c>
+      <c r="U2" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.3448627788545808</v>
-      </c>
-      <c r="U2" s="9">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V2" s="9">
+      <c r="W2" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.448627788545808</v>
-      </c>
-      <c r="W2" s="9">
+        <v>2.2136864292121485</v>
+      </c>
+      <c r="X2" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X2" s="9">
+      <c r="Y2" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="9">
+        <v>1.1068432146060743</v>
+      </c>
+      <c r="Z2" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="14"/>
+        <v>11.068432146060742</v>
+      </c>
       <c r="AA2" s="14"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="14"/>
-      <c r="AG2" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="13" t="str">
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] air;</v>
       </c>
-      <c r="AI2" s="13" t="str">
+      <c r="AJ2" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(0, air = v(t(0, "air", 1, 15, m(1, 0, 10, 0, 0, 0), a(0, 0, 0, 0, 0, 0, 0, 1), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
-      </c>
-      <c r="AJ2" s="13" t="str">
+        <v>r(0, air = v(t(0, "air", 1, 15, m(0, 0, 2, 0, 1, 10), a(0, 0, 0, 0, 0, 0, 0, 1), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
+      </c>
+      <c r="AK2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.air.name=Airia</v>
       </c>
-      <c r="AK2" s="13" t="str">
+      <c r="AL2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.air.name=アイリャ</v>
       </c>
-      <c r="AL2" s="13"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM2" s="13"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
         <v>50</v>
       </c>
-      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7">
         <v>1</v>
       </c>
       <c r="N3" s="7">
+        <v>4</v>
+      </c>
+      <c r="O3" s="7">
+        <v>8</v>
+      </c>
+      <c r="P3" s="7">
         <v>10</v>
       </c>
-      <c r="O3" s="7">
-        <v>6</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J3:O3)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90751915531716087</v>
-      </c>
       <c r="R3" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K3:P3)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.83508791942836935</v>
+      </c>
+      <c r="S3" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.90751915531716087</v>
-      </c>
-      <c r="S3" s="10">
+        <v>0.83508791942836935</v>
+      </c>
+      <c r="T3" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>45.375957765858047</v>
-      </c>
-      <c r="T3" s="9">
+        <v>41.754395971418468</v>
+      </c>
+      <c r="U3" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U3" s="9">
+      <c r="V3" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V3" s="9">
+      <c r="W3" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="9">
+        <v>1.8154085204964552</v>
+      </c>
+      <c r="X3" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.6691739862269439</v>
-      </c>
-      <c r="X3" s="9">
+        <v>7.2616340819858207</v>
+      </c>
+      <c r="Y3" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>26.69173986226944</v>
-      </c>
-      <c r="Y3" s="9">
+        <v>14.523268163971641</v>
+      </c>
+      <c r="Z3" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>16.015043917361663</v>
-      </c>
-      <c r="Z3" s="14">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="14"/>
+        <v>18.154085204964552</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>1</v>
+      </c>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
-      <c r="AE3" s="14">
-        <v>14</v>
-      </c>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14">
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14">
         <v>3</v>
       </c>
-      <c r="AH3" s="13" t="str">
+      <c r="AI3" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] water;</v>
       </c>
-      <c r="AI3" s="13" t="str">
+      <c r="AJ3" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(1, water = v(t(1, "water", 1, 50, m(0, 0, 0, 1, 10, 6), a(4, 0, 0, 0, 0, 14, 0, 3), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
-      </c>
-      <c r="AJ3" s="13" t="str">
+        <v>r(1, water = v(t(1, "water", 1, 50, m(0, 0, 1, 4, 8, 10), a(1, 0, 0, 0, 0, 10, 0, 3), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
+      </c>
+      <c r="AK3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.water.name=Wateria</v>
       </c>
-      <c r="AK3" s="13" t="str">
+      <c r="AL3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.water.name=ワテーリャ</v>
       </c>
-      <c r="AL3" s="13"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM3" s="13"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="J4" s="8">
+        <v>58</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="8">
-        <v>20</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
+        <v>4</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
         <v>10</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
-      <c r="Q4" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J4:O4)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9862327044933592</v>
-      </c>
       <c r="R4" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K4:P4)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.89778658506536924</v>
+      </c>
+      <c r="S4" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1728349492318788</v>
-      </c>
-      <c r="S4" s="10">
+        <v>1.0676541947137328</v>
+      </c>
+      <c r="T4" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>23.456698984637576</v>
-      </c>
-      <c r="T4" s="9">
+        <v>61.923943293396505</v>
+      </c>
+      <c r="U4" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.132427180421598</v>
-      </c>
-      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+      <c r="V4" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.324271804215979</v>
-      </c>
-      <c r="V4" s="9">
+        <v>34.832218102535535</v>
+      </c>
+      <c r="W4" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W4" s="9">
+      <c r="X4" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>7.7404929116745631</v>
+      </c>
+      <c r="Y4" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>19.351232279186409</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] lava;</v>
+      </c>
+      <c r="AJ4" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(20, lava = v(t(20, "lava", 2, 58, m(0, 18, 0, 4, 0, 10), a(7, 3, 1, 15, 18, 0, 0, 1), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
+      </c>
+      <c r="AK4" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.lava.name=Lavia</v>
+      </c>
+      <c r="AL4" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.lava.name=ラービャ</v>
+      </c>
+      <c r="AM4" s="13"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1.189207115002721</v>
+      </c>
+      <c r="R5" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K5:P5)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.90677940481012742</v>
+      </c>
+      <c r="S5" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.0783485199381362</v>
+      </c>
+      <c r="T5" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>21.566970398762724</v>
+      </c>
+      <c r="U5" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0.74368863444009392</v>
+      </c>
+      <c r="V5" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>12.642706785481597</v>
+      </c>
+      <c r="W5" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0.74368863444009392</v>
+      </c>
+      <c r="X5" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X4" s="9">
+      <c r="Y5" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Z5" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="14">
+        <v>7.4368863444009392</v>
+      </c>
+      <c r="AA5" s="14">
         <v>9</v>
       </c>
-      <c r="AA4" s="14">
+      <c r="AB5" s="14">
         <v>4</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AC5" s="14">
         <v>7</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AD5" s="14">
         <v>13</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AE5" s="14">
         <v>15</v>
       </c>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14">
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14">
         <v>3</v>
       </c>
-      <c r="AH4" s="13" t="str">
+      <c r="AI5" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] fire;</v>
       </c>
-      <c r="AI4" s="13" t="str">
+      <c r="AJ5" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(2, fire = v(t(2, "fire", 2, 20, m(1, 10, 0, 0, 0, 0), a(9, 4, 7, 13, 15, 0, 0, 3), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
-      </c>
-      <c r="AJ4" s="13" t="str">
+        <v>r(2, fire = v(t(2, "fire", 2, 20, m(1, 17, 1, 0, 0, 10), a(9, 4, 7, 13, 15, 0, 0, 3), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
+      </c>
+      <c r="AK5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.fire.name=Firia</v>
       </c>
-      <c r="AK4" s="13" t="str">
+      <c r="AL5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.fire.name=フィーリャ</v>
       </c>
-      <c r="AL4" s="13"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="AM5" s="13"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="J6" s="8">
+        <v>18</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7">
+        <v>9</v>
+      </c>
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R6" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K6:P6)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.80106987758962211</v>
+      </c>
+      <c r="S6" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.1328838852957988</v>
+      </c>
+      <c r="T6" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>20.391909935324378</v>
+      </c>
+      <c r="U6" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>1.5686084565634137</v>
+      </c>
+      <c r="V6" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>7.058738054535362</v>
+      </c>
+      <c r="W6" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>2.3529126848451205</v>
+      </c>
+      <c r="X6" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>1.5686084565634137</v>
+      </c>
+      <c r="Y6" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>7.8430422828170681</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>11</v>
+      </c>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] thunder;</v>
+      </c>
+      <c r="AJ6" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(28, thunder = v(t(28, "thunder", 3, 18, m(2, 9, 3, 2, 0, 10), a(8, 2, 2, 6, 11, 0, 0, 4), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
+      </c>
+      <c r="AK6" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.thunder.name=Thunderia</v>
+      </c>
+      <c r="AL6" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.thunder.name=ツンデーリャ</v>
+      </c>
+      <c r="AM6" s="13"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I7" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J7" s="8">
         <v>99</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K7" s="7">
         <v>10</v>
       </c>
-      <c r="K5" s="7">
-        <v>28</v>
-      </c>
-      <c r="L5" s="7">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>18</v>
-      </c>
-      <c r="N5" s="7">
-        <v>18</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="5">
+      <c r="L7" s="7">
+        <v>40</v>
+      </c>
+      <c r="M7" s="7">
+        <v>40</v>
+      </c>
+      <c r="N7" s="7">
+        <v>20</v>
+      </c>
+      <c r="O7" s="7">
+        <v>20</v>
+      </c>
+      <c r="P7" s="7">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>2</v>
       </c>
-      <c r="Q5" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J5:O5)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="R7" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K7:P7)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.74054877614328218</v>
+      </c>
+      <c r="S7" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="S5" s="10">
+        <v>1.4810975522865644</v>
+      </c>
+      <c r="T7" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>140.00714267493643</v>
-      </c>
-      <c r="T5" s="9">
+        <v>146.62865767636987</v>
+      </c>
+      <c r="U7" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.286443130095554</v>
-      </c>
-      <c r="U5" s="9">
+        <v>7.717297772440519</v>
+      </c>
+      <c r="V7" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>40.002040764267555</v>
-      </c>
-      <c r="V5" s="9">
+        <v>30.869191089762076</v>
+      </c>
+      <c r="W7" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.28746351222933</v>
-      </c>
-      <c r="W5" s="9">
+        <v>30.869191089762076</v>
+      </c>
+      <c r="X7" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>25.715597634171996</v>
-      </c>
-      <c r="X5" s="9">
+        <v>15.434595544881038</v>
+      </c>
+      <c r="Y7" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>25.715597634171996</v>
-      </c>
-      <c r="Y5" s="9">
+        <v>15.434595544881038</v>
+      </c>
+      <c r="Z7" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="14">
+        <v>46.30378663464311</v>
+      </c>
+      <c r="AA7" s="14">
         <v>5</v>
       </c>
-      <c r="AA5" s="14">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14">
-        <v>28</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>7</v>
-      </c>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14">
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14">
+        <v>18</v>
+      </c>
+      <c r="AE7" s="14">
         <v>6</v>
       </c>
-      <c r="AH5" s="13" t="str">
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] sun;</v>
       </c>
-      <c r="AI5" s="13" t="str">
+      <c r="AJ7" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(3, sun = v(t(3, "sun", 5, 99, m(10, 28, 24, 18, 18, 0), a(5, 2, 0, 28, 7, 0, 0, 6), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
-      </c>
-      <c r="AJ5" s="13" t="str">
+        <v>r(3, sun = v(t(3, "sun", 5, 99, m(10, 40, 40, 20, 20, 60), a(5, 0, 0, 18, 6, 0, 0, 6), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
+      </c>
+      <c r="AK7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.sun.name=Sunia</v>
       </c>
-      <c r="AK5" s="13" t="str">
+      <c r="AL7" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.sun.name=スーニャ</v>
       </c>
-      <c r="AL5" s="13"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="AM7" s="13"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="8">
+        <v>95</v>
+      </c>
+      <c r="K8" s="7">
+        <v>10</v>
+      </c>
+      <c r="L8" s="7">
+        <v>25</v>
+      </c>
+      <c r="M8" s="7">
+        <v>25</v>
+      </c>
+      <c r="N8" s="7">
+        <v>20</v>
+      </c>
+      <c r="O8" s="7">
+        <v>20</v>
+      </c>
+      <c r="P8" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>2</v>
+      </c>
+      <c r="R8" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K8:P8)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.85724398285307279</v>
+      </c>
+      <c r="S8" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.7144879657061456</v>
+      </c>
+      <c r="T8" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>162.87635674208383</v>
+      </c>
+      <c r="U8" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>8.5724398285307277</v>
+      </c>
+      <c r="V8" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>21.431099571326818</v>
+      </c>
+      <c r="W8" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>21.431099571326818</v>
+      </c>
+      <c r="X8" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>17.144879657061455</v>
+      </c>
+      <c r="Y8" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>17.144879657061455</v>
+      </c>
+      <c r="Z8" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>77.151958456776555</v>
+      </c>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14">
+        <v>3</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] moon;</v>
+      </c>
+      <c r="AJ8" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(10, moon = v(t(10, "moon", 5, 95, m(10, 25, 25, 20, 20, 90), a(0, 0, 0, 6, 0, 0, 3, 6), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
+      </c>
+      <c r="AK8" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.moon.name=Moonia</v>
+      </c>
+      <c r="AL8" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.moon.name=モーニャ</v>
+      </c>
+      <c r="AM8" s="13"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="J9" s="8">
+        <v>98</v>
+      </c>
+      <c r="K9" s="7">
+        <v>10</v>
+      </c>
+      <c r="L9" s="7">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>50</v>
+      </c>
+      <c r="N9" s="7">
+        <v>10</v>
+      </c>
+      <c r="O9" s="7">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1.681792830507429</v>
+      </c>
+      <c r="R9" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K9:P9)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.81853221952998167</v>
+      </c>
+      <c r="S9" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.3766016183448562</v>
+      </c>
+      <c r="T9" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>134.90695859779589</v>
+      </c>
+      <c r="U9" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>6.132134481717995</v>
+      </c>
+      <c r="V9" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>18.396403445153986</v>
+      </c>
+      <c r="W9" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>30.660672408589974</v>
+      </c>
+      <c r="X9" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>6.132134481717995</v>
+      </c>
+      <c r="Y9" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>18.396403445153986</v>
+      </c>
+      <c r="Z9" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>55.189210335461958</v>
+      </c>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14">
+        <v>7</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>7</v>
+      </c>
+      <c r="AI9" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] star;</v>
+      </c>
+      <c r="AJ9" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(21, star = v(t(21, "star", 4, 98, m(10, 30, 50, 10, 30, 90), a(0, 0, 0, 7, 6, 0, 1, 7), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
+      </c>
+      <c r="AK9" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.star.name=Staria</v>
+      </c>
+      <c r="AL9" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.star.name=スターリャ</v>
+      </c>
+      <c r="AM9" s="13"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
         <v>83</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7">
+        <v>8</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7">
         <v>10</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7">
-        <v>15</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="Q10" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J6:O6)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9117224885582168</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="R10" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K10:P10)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.89502507092797245</v>
+      </c>
+      <c r="S10" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9117224885582168</v>
-      </c>
-      <c r="S6" s="10">
+        <v>0.89502507092797245</v>
+      </c>
+      <c r="T10" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>75.672966550331992</v>
-      </c>
-      <c r="T6" s="9">
+        <v>74.287080887021716</v>
+      </c>
+      <c r="U10" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U6" s="9">
+      <c r="V10" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V6" s="9">
+      <c r="W10" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W6" s="9">
+      <c r="X10" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.269186620132796</v>
-      </c>
-      <c r="X6" s="9">
+        <v>33.016480394231877</v>
+      </c>
+      <c r="Y10" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Z10" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>45.4037799301992</v>
-      </c>
-      <c r="Z6" s="14">
+        <v>41.270600492789839</v>
+      </c>
+      <c r="AA10" s="14">
         <v>6</v>
       </c>
-      <c r="AA6" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="14">
+      <c r="AB10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="14">
         <v>4</v>
       </c>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14">
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14">
         <v>5</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AH10" s="14">
         <v>3</v>
       </c>
-      <c r="AH6" s="13" t="str">
+      <c r="AI10" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] stone;</v>
       </c>
-      <c r="AI6" s="13" t="str">
+      <c r="AJ10" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(4, stone = v(t(4, "stone", 1, 83, m(0, 0, 0, 10, 0, 15), a(6, 1, 4, 0, 0, 0, 5, 3), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
-      </c>
-      <c r="AJ6" s="13" t="str">
+        <v>r(4, stone = v(t(4, "stone", 1, 83, m(0, 0, 0, 8, 0, 10), a(6, 1, 4, 0, 0, 0, 5, 3), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
+      </c>
+      <c r="AK10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.stone.name=Stonia</v>
       </c>
-      <c r="AK6" s="13" t="str">
+      <c r="AL10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.stone.name=ストーニャ</v>
       </c>
-      <c r="AL6" s="13"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="AM10" s="13"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
         <v>70</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>5</v>
+      </c>
+      <c r="P11" s="7">
         <v>10</v>
       </c>
-      <c r="N7" s="7">
-        <v>3</v>
-      </c>
-      <c r="O7" s="7">
-        <v>28</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="Q11" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J7:O7)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.9376639403055067</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="R11" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K11:P11)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.93303299153680741</v>
+      </c>
+      <c r="S11" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9376639403055067</v>
-      </c>
-      <c r="S7" s="10">
+        <v>0.93303299153680741</v>
+      </c>
+      <c r="T11" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>65.636475821385474</v>
-      </c>
-      <c r="T7" s="9">
+        <v>65.312309407576521</v>
+      </c>
+      <c r="U11" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U7" s="9">
+      <c r="V11" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V7" s="9">
+      <c r="W11" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W7" s="9">
+      <c r="X11" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>16.008896541801334</v>
-      </c>
-      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.8026689625404</v>
-      </c>
-      <c r="Y7" s="9">
+        <v>21.770769802525511</v>
+      </c>
+      <c r="Z11" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>44.824910317043738</v>
-      </c>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14">
+        <v>43.541539605051021</v>
+      </c>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14">
         <v>2</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AG11" s="14">
         <v>2</v>
       </c>
-      <c r="AG7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="13" t="str">
+      <c r="AH11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] dirt;</v>
       </c>
-      <c r="AI7" s="13" t="str">
+      <c r="AJ11" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(5, dirt = v(t(5, "dirt", 1, 70, m(0, 0, 0, 10, 3, 28), a(0, 0, 0, 0, 0, 2, 2, 1), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
-      </c>
-      <c r="AJ7" s="13" t="str">
+        <v>r(5, dirt = v(t(5, "dirt", 1, 70, m(0, 0, 0, 0, 5, 10), a(0, 0, 0, 0, 0, 2, 2, 1), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
+      </c>
+      <c r="AK11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.dirt.name=Dirtia</v>
       </c>
-      <c r="AK7" s="13" t="str">
+      <c r="AL11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.dirt.name=ディルチャ</v>
       </c>
-      <c r="AL7" s="13"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="AM11" s="13"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>64</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7">
+        <v>4</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K12:P12)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.93174042930477308</v>
+      </c>
+      <c r="S12" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>0.93174042930477308</v>
+      </c>
+      <c r="T12" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>59.631387475505477</v>
+      </c>
+      <c r="U12" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0.39490985083116215</v>
+      </c>
+      <c r="V12" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>15.796394033246484</v>
+      </c>
+      <c r="Y12" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>3.949098508311621</v>
+      </c>
+      <c r="Z12" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>39.490985083116207</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="AH12" s="14">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] sand;</v>
+      </c>
+      <c r="AJ12" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(11, sand = v(t(11, "sand", 1, 64, m(0.1, 0, 0, 4, 1, 10), a(2, 1, 0, 0, 0, 0, 6, 3), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
+      </c>
+      <c r="AK12" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.sand.name=Sandia</v>
+      </c>
+      <c r="AL12" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.sand.name=サンジャ</v>
+      </c>
+      <c r="AM12" s="13"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="8">
-        <v>86</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7">
-        <v>3</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7">
+      <c r="J13" s="8">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7">
+        <v>12</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
         <v>10</v>
       </c>
-      <c r="N8" s="7">
-        <v>4</v>
-      </c>
-      <c r="O8" s="7">
-        <v>6</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="Q13" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
-      <c r="Q8" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J8:O8)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.83508791942836935</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="R13" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K13:P13)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.89089871814033927</v>
+      </c>
+      <c r="S13" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.99309249543703582</v>
-      </c>
-      <c r="S8" s="10">
+        <v>1.0594630943592951</v>
+      </c>
+      <c r="T13" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>85.405954607585073</v>
-      </c>
-      <c r="T8" s="9">
+        <v>81.578658265665723</v>
+      </c>
+      <c r="U13" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U8" s="9">
+      <c r="V13" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.13990712272849</v>
-      </c>
-      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W8" s="9">
+      <c r="X13" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.133023742428293</v>
-      </c>
-      <c r="X8" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.853209496971317</v>
-      </c>
-      <c r="Y8" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>22.279814245456979</v>
-      </c>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH8" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] iron;</v>
-      </c>
-      <c r="AI8" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(6, iron = v(t(6, "iron", 2, 86, m(0, 3, 0, 10, 4, 6), a(0, 0, 2, 2, 0, 0, 1, 2), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
-      </c>
-      <c r="AJ8" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.iron.name=Ironia</v>
-      </c>
-      <c r="AK8" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.iron.name=イローニャ</v>
-      </c>
-      <c r="AL8" s="13"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
-      <c r="I9" s="8">
-        <v>76</v>
-      </c>
-      <c r="J9" s="7">
-        <v>10</v>
-      </c>
-      <c r="K9" s="7">
-        <v>13</v>
-      </c>
-      <c r="L9" s="7">
-        <v>21</v>
-      </c>
-      <c r="M9" s="7">
-        <v>26</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
-      </c>
-      <c r="Q9" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J9:O9)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.7908842457011136</v>
-      </c>
-      <c r="R9" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3301034541814087</v>
-      </c>
-      <c r="S9" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>101.08786251778706</v>
-      </c>
-      <c r="T9" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.441123216826723</v>
-      </c>
-      <c r="U9" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.773460181874739</v>
-      </c>
-      <c r="V9" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.326358755336116</v>
-      </c>
-      <c r="W9" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.546920363749479</v>
-      </c>
-      <c r="X9" s="9">
+        <v>44.497449963090396</v>
+      </c>
+      <c r="Y13" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Z13" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14">
-        <v>17</v>
-      </c>
-      <c r="AG9" s="14">
-        <v>8</v>
-      </c>
-      <c r="AH9" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] diamond;</v>
-      </c>
-      <c r="AI9" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(7, diamond = v(t(7, "diamond", 4, 76, m(10, 13, 21, 26, 0, 0), a(0, 0, 1, 4, 0, 0, 17, 8), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
-      </c>
-      <c r="AJ9" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.diamond.name=Diamondia</v>
-      </c>
-      <c r="AK9" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
-      </c>
-      <c r="AL9" s="13"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" s="3">
+        <v>37.081208302575327</v>
+      </c>
+      <c r="AA13" s="14">
         <v>3</v>
-      </c>
-      <c r="I10" s="8">
-        <v>54</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <v>35</v>
-      </c>
-      <c r="L10" s="7">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>10</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7">
-        <v>6</v>
-      </c>
-      <c r="P10" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="Q10" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J10:O10)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
-      </c>
-      <c r="R10" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2657565939702802</v>
-      </c>
-      <c r="S10" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>68.350856074395125</v>
-      </c>
-      <c r="T10" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.0849342234030972</v>
-      </c>
-      <c r="U10" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.972697819108404</v>
-      </c>
-      <c r="V10" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.93427645743407</v>
-      </c>
-      <c r="W10" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.849342234030971</v>
-      </c>
-      <c r="X10" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.5096053404185836</v>
-      </c>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14">
-        <v>7</v>
-      </c>
-      <c r="AD10" s="14">
-        <v>2</v>
-      </c>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14">
-        <v>10</v>
-      </c>
-      <c r="AG10" s="14">
-        <v>7</v>
-      </c>
-      <c r="AH10" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] redstone;</v>
-      </c>
-      <c r="AI10" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(8, redstone = v(t(8, "redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(0, 0, 0, 7, 2, 0, 10, 7), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
-      </c>
-      <c r="AJ10" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.redstone.name=Redstonia</v>
-      </c>
-      <c r="AK10" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.redstone.name=レドストーニャ</v>
-      </c>
-      <c r="AL10" s="13"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="8">
-        <v>48</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7">
-        <v>18</v>
-      </c>
-      <c r="M11" s="7">
-        <v>12</v>
-      </c>
-      <c r="N11" s="7">
-        <v>10</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
-      </c>
-      <c r="Q11" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J11:O11)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.72922930513582751</v>
-      </c>
-      <c r="R11" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2264126171733489</v>
-      </c>
-      <c r="S11" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>58.867805624320752</v>
-      </c>
-      <c r="T11" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.99775941736136864</v>
-      </c>
-      <c r="U11" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.959669512504636</v>
-      </c>
-      <c r="V11" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.959669512504636</v>
-      </c>
-      <c r="W11" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.973113008336425</v>
-      </c>
-      <c r="X11" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.9775941736136868</v>
-      </c>
-      <c r="Y11" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>11</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>7</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>6</v>
-      </c>
-      <c r="AC11" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="14">
-        <v>4</v>
-      </c>
-      <c r="AG11" s="14">
-        <v>3</v>
-      </c>
-      <c r="AH11" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] enderman;</v>
-      </c>
-      <c r="AI11" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(9, enderman = v(t(9, "enderman", 4, 48, m(1, 18, 18, 12, 10, 0), a(11, 7, 6, 4, 0, 1, 4, 3), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
-      </c>
-      <c r="AJ11" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.enderman.name=Endermania</v>
-      </c>
-      <c r="AK11" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
-      </c>
-      <c r="AL11" s="13"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
-      <c r="I12" s="8">
-        <v>95</v>
-      </c>
-      <c r="J12" s="7">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7">
-        <v>24</v>
-      </c>
-      <c r="L12" s="7">
-        <v>28</v>
-      </c>
-      <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>9</v>
-      </c>
-      <c r="O12" s="7">
-        <v>25</v>
-      </c>
-      <c r="P12" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
-      </c>
-      <c r="Q12" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J12:O12)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.68302012837719772</v>
-      </c>
-      <c r="R12" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3660402567543954</v>
-      </c>
-      <c r="S12" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>129.77382439166757</v>
-      </c>
-      <c r="T12" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.359411846825484</v>
-      </c>
-      <c r="U12" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>29.66258843238116</v>
-      </c>
-      <c r="V12" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.606353171111351</v>
-      </c>
-      <c r="W12" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.123470662142935</v>
-      </c>
-      <c r="X12" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.123470662142935</v>
-      </c>
-      <c r="Y12" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.898529617063705</v>
-      </c>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14">
-        <v>3</v>
-      </c>
-      <c r="AG12" s="14">
-        <v>6</v>
-      </c>
-      <c r="AH12" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] moon;</v>
-      </c>
-      <c r="AI12" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(10, moon = v(t(10, "moon", 5, 95, m(10, 24, 28, 9, 9, 25), a(0, 0, 0, 6, 0, 0, 3, 6), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
-      </c>
-      <c r="AJ12" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.moon.name=Moonia</v>
-      </c>
-      <c r="AK12" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.moon.name=モーニャ</v>
-      </c>
-      <c r="AL12" s="13"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
-        <v>64</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7">
-        <v>10</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7">
-        <v>16</v>
-      </c>
-      <c r="P13" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J13:O13)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90909312952755927</v>
-      </c>
-      <c r="R13" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.90909312952755927</v>
-      </c>
-      <c r="S13" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>58.181960289763794</v>
-      </c>
-      <c r="T13" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.1548874181393995</v>
-      </c>
-      <c r="U13" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.548874181393995</v>
-      </c>
-      <c r="X13" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.478198690230393</v>
-      </c>
-      <c r="Z13" s="14">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="14">
-        <v>1</v>
       </c>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="14">
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14">
         <v>6</v>
       </c>
-      <c r="AG13" s="14">
-        <v>3</v>
-      </c>
-      <c r="AH13" s="13" t="str">
+      <c r="AH13" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] sand;</v>
-      </c>
-      <c r="AI13" s="13" t="str">
+        <v>public static VariantMirageFairy[] gravel;</v>
+      </c>
+      <c r="AJ13" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(11, sand = v(t(11, "sand", 1, 64, m(1, 0, 0, 10, 0, 16), a(2, 1, 0, 0, 0, 0, 6, 3), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
-      </c>
-      <c r="AJ13" s="13" t="str">
+        <v>r(22, gravel = v(t(22, "gravel", 2, 77, m(0, 0, 0, 12, 0, 10), a(3, 0, 0, 0, 0, 0, 6, 2), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
+      </c>
+      <c r="AK13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.sand.name=Sandia</v>
-      </c>
-      <c r="AK13" s="13" t="str">
+        <v>item.mirageFairy.gravel.name=Gravelia</v>
+      </c>
+      <c r="AL13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.sand.name=サンジャ</v>
-      </c>
-      <c r="AL13" s="13"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.gravel.name=グラベーリャ</v>
+      </c>
+      <c r="AM13" s="13"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3</v>
-      </c>
-      <c r="I14" s="8">
-        <v>93</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>86</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7">
-        <v>9</v>
-      </c>
-      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7">
         <v>10</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="5">
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1.189207115002721</v>
+      </c>
+      <c r="R14" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K14:P14)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.92018765062487506</v>
+      </c>
+      <c r="S14" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.0942937012607394</v>
+      </c>
+      <c r="T14" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>94.109258308423591</v>
+      </c>
+      <c r="U14" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>5.8818286442764744</v>
+      </c>
+      <c r="W14" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>58.818286442764744</v>
+      </c>
+      <c r="Y14" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>5.8818286442764744</v>
+      </c>
+      <c r="Z14" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>23.527314577105898</v>
+      </c>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] iron;</v>
+      </c>
+      <c r="AJ14" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(6, iron = v(t(6, "iron", 2, 86, m(0, 1, 0, 10, 1, 4), a(0, 0, 2, 2, 0, 0, 1, 2), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
+      </c>
+      <c r="AK14" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.iron.name=Ironia</v>
+      </c>
+      <c r="AL14" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.iron.name=イローニャ</v>
+      </c>
+      <c r="AM14" s="13"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="8">
+        <v>93</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7">
+        <v>12</v>
+      </c>
+      <c r="N15" s="7">
+        <v>10</v>
+      </c>
+      <c r="O15" s="7">
+        <v>3</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="Q14" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J14:O14)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.87055056329612412</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="R15" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K15:P15)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.85066716095085571</v>
+      </c>
+      <c r="S15" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2311444133449163</v>
-      </c>
-      <c r="S14" s="10">
+        <v>1.2030250360821166</v>
+      </c>
+      <c r="T15" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>114.49643044107722</v>
-      </c>
-      <c r="T14" s="9">
+        <v>111.88132835563685</v>
+      </c>
+      <c r="U15" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.724821522053861</v>
-      </c>
-      <c r="U14" s="9">
+        <v>4.3031280136783403</v>
+      </c>
+      <c r="V15" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V14" s="9">
+      <c r="W15" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>51.523393698484753</v>
-      </c>
-      <c r="W14" s="9">
+        <v>51.637536164140087</v>
+      </c>
+      <c r="X15" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>57.248215220538611</v>
-      </c>
-      <c r="X14" s="9">
+        <v>43.031280136783408</v>
+      </c>
+      <c r="Y15" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="9">
+        <v>12.909384041035022</v>
+      </c>
+      <c r="Z15" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
-      </c>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="14">
-        <v>12</v>
-      </c>
-      <c r="AH14" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] gold;</v>
-      </c>
-      <c r="AI14" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(12, gold = v(t(12, "gold", 3, 93, m(1, 0, 9, 10, 0, 0), a(0, 0, 1, 3, 0, 0, 1, 12), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
-      </c>
-      <c r="AJ14" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.gold.name=Goldia</v>
-      </c>
-      <c r="AK14" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.gold.name=ゴルジャ</v>
-      </c>
-      <c r="AL14" s="13"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8">
-        <v>43</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7">
-        <v>10</v>
-      </c>
-      <c r="O15" s="7">
-        <v>4</v>
-      </c>
-      <c r="P15" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
-      </c>
-      <c r="Q15" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J15:O15)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.94605764672559589</v>
-      </c>
-      <c r="R15" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1250584846888094</v>
-      </c>
-      <c r="S15" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>48.377514841618805</v>
-      </c>
-      <c r="T15" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="W15" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="X15" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.555367744013431</v>
-      </c>
-      <c r="Y15" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.822147097605372</v>
-      </c>
-      <c r="Z15" s="14">
-        <v>10</v>
       </c>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="14">
         <v>3</v>
       </c>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14">
-        <v>2</v>
-      </c>
+      <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
       <c r="AG15" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH15" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="14">
+        <v>12</v>
+      </c>
+      <c r="AI15" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] spider;</v>
-      </c>
-      <c r="AI15" s="13" t="str">
+        <v>public static VariantMirageFairy[] gold;</v>
+      </c>
+      <c r="AJ15" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(13, spider = v(t(13, "spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(10, 0, 0, 3, 0, 2, 0, 2), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
-      </c>
-      <c r="AJ15" s="13" t="str">
+        <v>r(12, gold = v(t(12, "gold", 3, 93, m(1, 0, 12, 10, 3, 0), a(0, 0, 1, 3, 0, 0, 1, 12), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
+      </c>
+      <c r="AK15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.spider.name=Spideria</v>
-      </c>
-      <c r="AK15" s="13" t="str">
+        <v>item.mirageFairy.gold.name=Goldia</v>
+      </c>
+      <c r="AL15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.spider.name=スピデーリャ</v>
-      </c>
-      <c r="AL15" s="13"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.gold.name=ゴルジャ</v>
+      </c>
+      <c r="AM15" s="13"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>408</v>
+        <v>7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>75</v>
+        <v>407</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
+        <v>139</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J16" s="8">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7">
+        <v>10</v>
+      </c>
+      <c r="L16" s="7">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>19</v>
+      </c>
+      <c r="N16" s="7">
         <v>49</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7">
-        <v>8</v>
-      </c>
-      <c r="L16" s="7">
-        <v>10</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7"/>
       <c r="O16" s="7">
-        <v>8</v>
-      </c>
-      <c r="P16" s="5">
+        <v>23</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J16:O16)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.74742462431746925</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R16" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K16:P16)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.83202217093230291</v>
+      </c>
+      <c r="S16" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.74742462431746925</v>
-      </c>
-      <c r="S16" s="10">
+        <v>1.3992889218971736</v>
+      </c>
+      <c r="T16" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>36.62380659155599</v>
-      </c>
-      <c r="T16" s="9">
+        <v>106.3459580641852</v>
+      </c>
+      <c r="U16" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>9.328592812647825</v>
+      </c>
+      <c r="V16" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>12.127170656442171</v>
+      </c>
+      <c r="W16" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>17.724326344030867</v>
+      </c>
+      <c r="X16" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>45.710104781974337</v>
+      </c>
+      <c r="Y16" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>21.455763469089995</v>
+      </c>
+      <c r="Z16" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U16" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.4513049268531582</v>
-      </c>
-      <c r="V16" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.814131158566449</v>
-      </c>
-      <c r="W16" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.9070655792832243</v>
-      </c>
-      <c r="X16" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.4513049268531582</v>
-      </c>
-      <c r="Z16" s="14">
-        <v>12</v>
-      </c>
-      <c r="AA16" s="14">
-        <v>5</v>
-      </c>
-      <c r="AB16" s="14">
-        <v>8</v>
-      </c>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>4</v>
+      </c>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
       <c r="AG16" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH16" s="13" t="str">
+        <v>17</v>
+      </c>
+      <c r="AH16" s="14">
+        <v>8</v>
+      </c>
+      <c r="AI16" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] skeleton;</v>
-      </c>
-      <c r="AI16" s="13" t="str">
+        <v>public static VariantMirageFairy[] diamond;</v>
+      </c>
+      <c r="AJ16" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(14, skeleton = v(t(14, "skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(12, 5, 8, 0, 0, 0, 0, 2), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
-      </c>
-      <c r="AJ16" s="13" t="str">
+        <v>r(7, diamond = v(t(7, "diamond", 4, 76, m(10, 13, 19, 49, 23, 0), a(0, 0, 1, 4, 0, 0, 17, 8), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
+      </c>
+      <c r="AK16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.skeleton.name=Skeletonia</v>
-      </c>
-      <c r="AK16" s="13" t="str">
+        <v>item.mirageFairy.diamond.name=Diamondia</v>
+      </c>
+      <c r="AL16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
-      </c>
-      <c r="AL16" s="13"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
+      </c>
+      <c r="AM16" s="13"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>408</v>
+        <v>23</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4</v>
+      </c>
+      <c r="J17" s="8">
+        <v>73</v>
+      </c>
+      <c r="K17" s="7">
+        <v>10</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7">
+        <v>6</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7">
+        <v>42</v>
+      </c>
+      <c r="P17" s="7">
         <v>71</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
-        <v>55</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7">
-        <v>9</v>
-      </c>
-      <c r="L17" s="7">
-        <v>10</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <v>2</v>
-      </c>
-      <c r="O17" s="7">
-        <v>9</v>
-      </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J17:O17)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.75785828325519911</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R17" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K17:P17)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.89293045273660088</v>
+      </c>
+      <c r="S17" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.75785828325519911</v>
-      </c>
-      <c r="S17" s="10">
+        <v>1.5017240335541679</v>
+      </c>
+      <c r="T17" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>41.682205579035951</v>
-      </c>
-      <c r="T17" s="9">
+        <v>109.62585444945427</v>
+      </c>
+      <c r="U17" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>8.4981282518956789</v>
+      </c>
+      <c r="V17" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U17" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.504661673710785</v>
-      </c>
-      <c r="V17" s="9">
+      <c r="W17" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.894068526345317</v>
-      </c>
-      <c r="W17" s="9">
+        <v>5.0988769511374077</v>
+      </c>
+      <c r="X17" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X17" s="9">
+      <c r="Y17" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.7788137052690636</v>
-      </c>
-      <c r="Y17" s="9">
+        <v>35.692138657961856</v>
+      </c>
+      <c r="Z17" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.504661673710785</v>
-      </c>
-      <c r="Z17" s="14">
-        <v>13</v>
+        <v>60.336710588459326</v>
       </c>
       <c r="AA17" s="14"/>
-      <c r="AB17" s="14">
-        <v>6</v>
-      </c>
+      <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14">
-        <v>4</v>
-      </c>
+      <c r="AD17" s="14">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
       <c r="AG17" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="13" t="str">
+        <v>15</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>9</v>
+      </c>
+      <c r="AI17" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] zombie;</v>
-      </c>
-      <c r="AI17" s="13" t="str">
+        <v>public static VariantMirageFairy[] emerald;</v>
+      </c>
+      <c r="AJ17" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(15, zombie = v(t(15, "zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(13, 0, 6, 0, 0, 4, 0, 1), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
-      </c>
-      <c r="AJ17" s="13" t="str">
+        <v>r(23, emerald = v(t(23, "emerald", 4, 73, m(10, 0, 6, 0, 42, 71), a(0, 0, 0, 2, 0, 0, 15, 9), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
+      </c>
+      <c r="AK17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.zombie.name=Zombia</v>
-      </c>
-      <c r="AK17" s="13" t="str">
+        <v>item.mirageFairy.emerald.name=Emeraldia</v>
+      </c>
+      <c r="AL17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.zombie.name=ゾンビャ</v>
-      </c>
-      <c r="AL17" s="13"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.emerald.name=エメラルジャ</v>
+      </c>
+      <c r="AM17" s="13"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>408</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>73</v>
+        <v>407</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="H18" s="3">
+        <v>119</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="8">
+        <v>54</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7">
+        <v>35</v>
+      </c>
+      <c r="M18" s="7">
+        <v>11</v>
+      </c>
+      <c r="N18" s="7">
+        <v>10</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R18" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K18:P18)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.89502507092797245</v>
+      </c>
+      <c r="S18" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.2657565939702802</v>
+      </c>
+      <c r="T18" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>68.350856074395125</v>
+      </c>
+      <c r="U18" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>1.0849342234030972</v>
+      </c>
+      <c r="V18" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>37.972697819108404</v>
+      </c>
+      <c r="W18" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>11.93427645743407</v>
+      </c>
+      <c r="X18" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>10.849342234030971</v>
+      </c>
+      <c r="Y18" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>6.5096053404185836</v>
+      </c>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14">
+        <v>7</v>
+      </c>
+      <c r="AE18" s="14">
         <v>2</v>
       </c>
-      <c r="I18" s="8">
-        <v>35</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7">
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14">
         <v>10</v>
       </c>
-      <c r="M18" s="7">
-        <v>5</v>
-      </c>
-      <c r="N18" s="7">
-        <v>12</v>
-      </c>
-      <c r="O18" s="7">
+      <c r="AH18" s="14">
+        <v>7</v>
+      </c>
+      <c r="AI18" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] redstone;</v>
+      </c>
+      <c r="AJ18" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(8, redstone = v(t(8, "redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(0, 0, 0, 7, 2, 0, 10, 7), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
+      </c>
+      <c r="AK18" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.redstone.name=Redstonia</v>
+      </c>
+      <c r="AL18" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.redstone.name=レドストーニャ</v>
+      </c>
+      <c r="AM18" s="13"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I19" s="3">
         <v>4</v>
       </c>
-      <c r="P18" s="5">
+      <c r="J19" s="8">
+        <v>62</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7">
+        <v>8</v>
+      </c>
+      <c r="N19" s="7">
+        <v>10</v>
+      </c>
+      <c r="O19" s="7">
+        <v>18</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
-      </c>
-      <c r="Q18" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J18:O18)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.80292288186337646</v>
-      </c>
-      <c r="R18" s="5">
+        <v>1.681792830507429</v>
+      </c>
+      <c r="R19" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K19:P19)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.86387165259369147</v>
+      </c>
+      <c r="S19" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.9548416039104165</v>
-      </c>
-      <c r="S18" s="10">
+        <v>1.4528531518106746</v>
+      </c>
+      <c r="T19" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>33.419456136864575</v>
-      </c>
-      <c r="T18" s="9">
+        <v>90.076895412261834</v>
+      </c>
+      <c r="U19" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="9">
+        <v>2.4345106868178874</v>
+      </c>
+      <c r="V19" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V18" s="9">
+      <c r="W19" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.780469721569217</v>
-      </c>
-      <c r="W18" s="9">
+        <v>19.476085494543099</v>
+      </c>
+      <c r="X19" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.3902348607846085</v>
-      </c>
-      <c r="X18" s="9">
+        <v>24.345106868178874</v>
+      </c>
+      <c r="Y19" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.936563665883062</v>
-      </c>
-      <c r="Y18" s="9">
+        <v>43.821192362721973</v>
+      </c>
+      <c r="Z19" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.3121878886276868</v>
-      </c>
-      <c r="Z18" s="14">
-        <v>10</v>
-      </c>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="14">
-        <v>7</v>
-      </c>
-      <c r="AE18" s="14">
-        <v>2</v>
-      </c>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14">
-        <v>3</v>
-      </c>
-      <c r="AH18" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] creeper;</v>
-      </c>
-      <c r="AI18" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(16, creeper = v(t(16, "creeper", 2, 35, m(0, 0, 10, 5, 12, 4), a(10, 0, 0, 2, 7, 2, 0, 3), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
-      </c>
-      <c r="AJ18" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.creeper.name=Creeperia</v>
-      </c>
-      <c r="AK18" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.creeper.name=クレペーリャ</v>
-      </c>
-      <c r="AL18" s="13"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="8">
-        <v>31</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7">
-        <v>10</v>
-      </c>
-      <c r="O19" s="7">
-        <v>5</v>
-      </c>
-      <c r="P19" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
-      </c>
-      <c r="Q19" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J19:O19)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.93303299153680741</v>
-      </c>
-      <c r="R19" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1095694720678451</v>
-      </c>
-      <c r="S19" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>34.396653634103195</v>
-      </c>
-      <c r="T19" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U19" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>22.931102422735464</v>
-      </c>
-      <c r="Y19" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.465551211367732</v>
-      </c>
-      <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
-      <c r="AE19" s="14">
-        <v>1</v>
-      </c>
+      <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
       <c r="AG19" s="14">
+        <v>13</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>10</v>
+      </c>
+      <c r="AI19" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] lapislazuli;</v>
+      </c>
+      <c r="AJ19" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(24, lapislazuli = v(t(24, "lapislazuli", 4, 62, m(1, 0, 8, 10, 18, 0), a(0, 0, 0, 0, 0, 0, 13, 10), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
+      </c>
+      <c r="AK19" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
+      </c>
+      <c r="AL19" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
+      </c>
+      <c r="AM19" s="13"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4</v>
+      </c>
+      <c r="J20" s="8">
+        <v>48</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7">
+        <v>12</v>
+      </c>
+      <c r="M20" s="7">
+        <v>12</v>
+      </c>
+      <c r="N20" s="7">
+        <v>16</v>
+      </c>
+      <c r="O20" s="7">
+        <v>10</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1.681792830507429</v>
+      </c>
+      <c r="R20" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K20:P20)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.73204284797281272</v>
+      </c>
+      <c r="S20" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.2311444133449163</v>
+      </c>
+      <c r="T20" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>59.094931840555986</v>
+      </c>
+      <c r="U20" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>1.136440996933769</v>
+      </c>
+      <c r="V20" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>13.637291963205227</v>
+      </c>
+      <c r="W20" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>13.637291963205227</v>
+      </c>
+      <c r="X20" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>18.183055950940304</v>
+      </c>
+      <c r="Y20" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>11.364409969337689</v>
+      </c>
+      <c r="Z20" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>1.136440996933769</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>11</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>7</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="14">
+        <v>4</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] enderman;</v>
+      </c>
+      <c r="AJ20" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(9, enderman = v(t(9, "enderman", 4, 48, m(1, 12, 12, 16, 10, 1), a(11, 7, 6, 4, 0, 1, 4, 3), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
+      </c>
+      <c r="AK20" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.enderman.name=Endermania</v>
+      </c>
+      <c r="AL20" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
+      </c>
+      <c r="AM20" s="13"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I21" s="3">
         <v>2</v>
       </c>
-      <c r="AH19" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] wheat;</v>
-      </c>
-      <c r="AI19" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(17, wheat = v(t(17, "wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(0, 0, 0, 0, 0, 1, 0, 2), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
-      </c>
-      <c r="AJ19" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.wheat.name=Wheatia</v>
-      </c>
-      <c r="AK19" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.wheat.name=ウェアーチャ</v>
-      </c>
-      <c r="AL19" s="13"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3</v>
-      </c>
-      <c r="I20" s="8">
-        <v>28</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
+      <c r="J21" s="8">
+        <v>43</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7">
         <v>10</v>
       </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="5">
+      <c r="P21" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="Q20" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J20:O20)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.97265494741228553</v>
-      </c>
-      <c r="R20" s="5">
+        <v>1.189207115002721</v>
+      </c>
+      <c r="R21" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K21:P21)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.94605764672559589</v>
+      </c>
+      <c r="S21" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3755418181397439</v>
-      </c>
-      <c r="S20" s="10">
+        <v>1.1250584846888094</v>
+      </c>
+      <c r="T21" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>38.515170907912825</v>
-      </c>
-      <c r="T20" s="9">
+        <v>48.377514841618805</v>
+      </c>
+      <c r="U21" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U20" s="9">
+      <c r="V21" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V20" s="9">
+      <c r="W21" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.209597575659402</v>
-      </c>
-      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.209597575659402</v>
-      </c>
-      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>32.095975756594022</v>
-      </c>
-      <c r="Y20" s="9">
+        <v>34.555367744013431</v>
+      </c>
+      <c r="Z21" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>13.822147097605372</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] spider;</v>
+      </c>
+      <c r="AJ21" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(13, spider = v(t(13, "spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(10, 0, 0, 3, 0, 2, 0, 2), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
+      </c>
+      <c r="AK21" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.spider.name=Spideria</v>
+      </c>
+      <c r="AL21" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.spider.name=スピデーリャ</v>
+      </c>
+      <c r="AM21" s="13"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5</v>
+      </c>
+      <c r="J22" s="8">
+        <v>61</v>
+      </c>
+      <c r="K22" s="7">
+        <v>3</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
+        <v>51</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>2</v>
+      </c>
+      <c r="R22" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K22:P22)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.965280144022022</v>
+      </c>
+      <c r="S22" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.930560288044044</v>
+      </c>
+      <c r="T22" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>117.76417757068668</v>
+      </c>
+      <c r="U22" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>5.5201958236259383</v>
+      </c>
+      <c r="V22" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>93.843329001640953</v>
+      </c>
+      <c r="X22" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>18.400652745419794</v>
+      </c>
+      <c r="Z22" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14">
-        <v>11</v>
-      </c>
-      <c r="AH20" s="13" t="str">
+      <c r="AA22" s="14">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14">
+        <v>4</v>
+      </c>
+      <c r="AI22" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] lilac;</v>
-      </c>
-      <c r="AI20" s="13" t="str">
+        <v>public static VariantMirageFairy[] enderdragon;</v>
+      </c>
+      <c r="AJ22" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(18, lilac = v(t(18, "lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(0, 0, 0, 0, 0, 3, 0, 11), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
-      </c>
-      <c r="AJ20" s="13" t="str">
+        <v>r(25, enderdragon = v(t(25, "enderdragon", 5, 61, m(3, 0, 51, 0, 10, 0), a(20, 0, 0, 2, 0, 2, 0, 4), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
+      </c>
+      <c r="AK22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lilac.name=Lilacia</v>
-      </c>
-      <c r="AK20" s="13" t="str">
+        <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
+      </c>
+      <c r="AL22" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lilac.name=リラーキャ</v>
-      </c>
-      <c r="AL20" s="13"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
-        <v>19</v>
-      </c>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7">
-        <v>5</v>
-      </c>
-      <c r="L21" s="7">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7">
+        <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
+      </c>
+      <c r="AM22" s="13"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7">
         <v>10</v>
       </c>
-      <c r="N21" s="7">
-        <v>4</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="5">
+      <c r="P23" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1</v>
       </c>
-      <c r="Q21" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J21:O21)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85856543643775374</v>
-      </c>
-      <c r="R21" s="5">
+      <c r="R23" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K23:P23)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.89502507092797245</v>
+      </c>
+      <c r="S23" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.85856543643775374</v>
-      </c>
-      <c r="S21" s="10">
+        <v>0.89502507092797245</v>
+      </c>
+      <c r="T23" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>16.312743292317322</v>
-      </c>
-      <c r="T21" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.77679729963415822</v>
-      </c>
-      <c r="U21" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.883986498170791</v>
-      </c>
-      <c r="V21" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.77679729963415822</v>
-      </c>
-      <c r="W21" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.767972996341582</v>
-      </c>
-      <c r="X21" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.1071891985366329</v>
-      </c>
-      <c r="Y21" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14">
-        <v>12</v>
-      </c>
-      <c r="AD21" s="14">
-        <v>8</v>
-      </c>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14">
-        <v>3</v>
-      </c>
-      <c r="AH21" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] torch;</v>
-      </c>
-      <c r="AI21" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(19, torch = v(t(19, "torch", 1, 19, m(1, 5, 1, 10, 4, 0), a(1, 0, 0, 12, 8, 0, 0, 3), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
-      </c>
-      <c r="AJ21" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.torch.name=Torchia</v>
-      </c>
-      <c r="AK21" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.torch.name=トルキャ</v>
-      </c>
-      <c r="AL21" s="13"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2</v>
-      </c>
-      <c r="I22" s="8">
-        <v>58</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7">
-        <v>22</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7">
-        <v>8</v>
-      </c>
-      <c r="N22" s="7">
-        <v>10</v>
-      </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
-      </c>
-      <c r="Q22" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J22:O22)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89277196943365633</v>
-      </c>
-      <c r="R22" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0616907781254958</v>
-      </c>
-      <c r="S22" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>61.578065131278755</v>
-      </c>
-      <c r="T22" s="9">
+        <v>34.905977766190922</v>
+      </c>
+      <c r="U23" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U22" s="9">
+      <c r="V23" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>33.867935822203314</v>
-      </c>
-      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>1.9392209870106067</v>
+      </c>
+      <c r="X23" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W22" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.31561302625575</v>
-      </c>
-      <c r="X22" s="9">
+      <c r="Y23" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>15.394516282819689</v>
-      </c>
-      <c r="Y22" s="9">
+        <v>19.392209870106068</v>
+      </c>
+      <c r="Z23" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="14">
-        <v>7</v>
-      </c>
-      <c r="AA22" s="14">
-        <v>3</v>
-      </c>
-      <c r="AB22" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="14">
-        <v>15</v>
-      </c>
-      <c r="AD22" s="14">
-        <v>18</v>
-      </c>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] lava;</v>
-      </c>
-      <c r="AI22" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(20, lava = v(t(20, "lava", 2, 58, m(0, 22, 0, 8, 10, 0), a(7, 3, 1, 15, 18, 0, 0, 1), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
-      </c>
-      <c r="AJ22" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lava.name=Lavia</v>
-      </c>
-      <c r="AK22" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lava.name=ラービャ</v>
-      </c>
-      <c r="AL22" s="13"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>4</v>
-      </c>
-      <c r="I23" s="8">
-        <v>98</v>
-      </c>
-      <c r="J23" s="7">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7">
-        <v>16</v>
-      </c>
-      <c r="L23" s="7">
-        <v>16</v>
-      </c>
-      <c r="M23" s="7">
-        <v>9</v>
-      </c>
-      <c r="N23" s="7">
-        <v>9</v>
-      </c>
-      <c r="O23" s="7">
-        <v>38</v>
-      </c>
-      <c r="P23" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
-      </c>
-      <c r="Q23" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J23:O23)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.80341122656688246</v>
-      </c>
-      <c r="R23" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3511712407893626</v>
-      </c>
-      <c r="S23" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>132.41478159735755</v>
-      </c>
-      <c r="T23" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.511712407893627</v>
-      </c>
-      <c r="U23" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.618739852629805</v>
-      </c>
-      <c r="V23" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.618739852629805</v>
-      </c>
-      <c r="W23" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.160541167104263</v>
-      </c>
-      <c r="X23" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.160541167104263</v>
-      </c>
-      <c r="Y23" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>51.344507149995785</v>
-      </c>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
+        <v>13.574546909074249</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>1</v>
+      </c>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="14">
-        <v>7</v>
-      </c>
-      <c r="AD23" s="14">
-        <v>6</v>
-      </c>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="14">
-        <v>7</v>
-      </c>
-      <c r="AH23" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] star;</v>
-      </c>
-      <c r="AI23" s="13" t="str">
+        <v>public static VariantMirageFairy[] chicken;</v>
+      </c>
+      <c r="AJ23" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(21, star = v(t(21, "star", 4, 98, m(10, 16, 16, 9, 9, 38), a(0, 0, 0, 7, 6, 0, 1, 7), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
-      </c>
-      <c r="AJ23" s="13" t="str">
+        <v>r(29, chicken = v(t(29, "chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(1, 0, 0, 0, 0, 3, 0, 1), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
+      </c>
+      <c r="AK23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.star.name=Staria</v>
-      </c>
-      <c r="AK23" s="13" t="str">
+        <v>item.mirageFairy.chicken.name=Chickenia</v>
+      </c>
+      <c r="AL23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.star.name=スターリャ</v>
-      </c>
-      <c r="AL23" s="13"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.chicken.name=チッケーニャ</v>
+      </c>
+      <c r="AM23" s="13"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>405</v>
+        <v>14</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>65</v>
+        <v>408</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
-      <c r="I24" s="8">
-        <v>77</v>
-      </c>
-      <c r="J24" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8">
+        <v>49</v>
+      </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="L24" s="7">
+        <v>8</v>
+      </c>
       <c r="M24" s="7">
         <v>10</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7">
+      <c r="N24" s="7">
+        <v>5</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7">
         <v>8</v>
       </c>
-      <c r="P24" s="5">
+      <c r="Q24" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
-      </c>
-      <c r="Q24" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J24:O24)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
+        <v>1</v>
       </c>
       <c r="R24" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K24:P24)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.74742462431746925</v>
+      </c>
+      <c r="S24" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0643701824533598</v>
-      </c>
-      <c r="S24" s="10">
+        <v>0.74742462431746925</v>
+      </c>
+      <c r="T24" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>81.956504048908698</v>
-      </c>
-      <c r="T24" s="9">
+        <v>36.62380659155599</v>
+      </c>
+      <c r="U24" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U24" s="9">
+      <c r="V24" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="9">
+        <v>9.4513049268531582</v>
+      </c>
+      <c r="W24" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="9">
+        <v>11.814131158566449</v>
+      </c>
+      <c r="X24" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>45.531391138282608</v>
-      </c>
-      <c r="X24" s="9">
+        <v>5.9070655792832243</v>
+      </c>
+      <c r="Y24" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="Z24" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>36.42511291062609</v>
-      </c>
-      <c r="Z24" s="14">
-        <v>3</v>
-      </c>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
+        <v>9.4513049268531582</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>12</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>8</v>
+      </c>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
-      <c r="AF24" s="14">
-        <v>6</v>
-      </c>
-      <c r="AG24" s="14">
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14">
         <v>2</v>
       </c>
-      <c r="AH24" s="13" t="str">
+      <c r="AI24" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] gravel;</v>
-      </c>
-      <c r="AI24" s="13" t="str">
+        <v>public static VariantMirageFairy[] skeleton;</v>
+      </c>
+      <c r="AJ24" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(22, gravel = v(t(22, "gravel", 2, 77, m(0, 0, 0, 10, 0, 8), a(3, 0, 0, 0, 0, 0, 6, 2), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
-      </c>
-      <c r="AJ24" s="13" t="str">
+        <v>r(14, skeleton = v(t(14, "skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(12, 5, 8, 0, 0, 0, 0, 2), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
+      </c>
+      <c r="AK24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.gravel.name=Gravelia</v>
-      </c>
-      <c r="AK24" s="13" t="str">
+        <v>item.mirageFairy.skeleton.name=Skeletonia</v>
+      </c>
+      <c r="AL24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.gravel.name=グラベーリャ</v>
-      </c>
-      <c r="AL24" s="13"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
+      </c>
+      <c r="AM24" s="13"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>407</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D25" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8">
         <v>55</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="H25" s="3">
-        <v>4</v>
-      </c>
-      <c r="I25" s="8">
-        <v>73</v>
-      </c>
-      <c r="J25" s="7">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
+        <v>9</v>
+      </c>
+      <c r="M25" s="7">
         <v>10</v>
       </c>
-      <c r="K25" s="7">
-        <v>16</v>
-      </c>
-      <c r="L25" s="7">
-        <v>15</v>
-      </c>
-      <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7">
-        <v>36</v>
-      </c>
-      <c r="P25" s="5">
+        <v>2</v>
+      </c>
+      <c r="P25" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
-      </c>
-      <c r="Q25" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J25:O25)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85394924037429032</v>
+        <v>1</v>
       </c>
       <c r="R25" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K25:P25)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.75785828325519911</v>
+      </c>
+      <c r="S25" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4361657100787466</v>
-      </c>
-      <c r="S25" s="10">
+        <v>0.75785828325519911</v>
+      </c>
+      <c r="T25" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>104.8400968357485</v>
-      </c>
-      <c r="T25" s="9">
+        <v>41.682205579035951</v>
+      </c>
+      <c r="U25" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.61559699165565</v>
-      </c>
-      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.784955186649039</v>
-      </c>
-      <c r="V25" s="9">
+        <v>12.504661673710785</v>
+      </c>
+      <c r="W25" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>20.423395487483475</v>
-      </c>
-      <c r="W25" s="9">
+        <v>13.894068526345317</v>
+      </c>
+      <c r="X25" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X25" s="9">
+      <c r="Y25" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="9">
+        <v>2.7788137052690636</v>
+      </c>
+      <c r="Z25" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>49.016149169960336</v>
-      </c>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
+        <v>12.504661673710785</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>13</v>
+      </c>
       <c r="AB25" s="14"/>
       <c r="AC25" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="14">
-        <v>15</v>
-      </c>
-      <c r="AG25" s="14">
-        <v>9</v>
-      </c>
-      <c r="AH25" s="13" t="str">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] emerald;</v>
-      </c>
-      <c r="AI25" s="13" t="str">
+        <v>public static VariantMirageFairy[] zombie;</v>
+      </c>
+      <c r="AJ25" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(23, emerald = v(t(23, "emerald", 4, 73, m(10, 16, 15, 0, 0, 36), a(0, 0, 0, 2, 0, 0, 15, 9), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
-      </c>
-      <c r="AJ25" s="13" t="str">
+        <v>r(15, zombie = v(t(15, "zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(13, 0, 6, 0, 0, 4, 0, 1), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
+      </c>
+      <c r="AK25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.emerald.name=Emeraldia</v>
-      </c>
-      <c r="AK25" s="13" t="str">
+        <v>item.mirageFairy.zombie.name=Zombia</v>
+      </c>
+      <c r="AL25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.emerald.name=エメラルジャ</v>
-      </c>
-      <c r="AL25" s="13"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.zombie.name=ゾンビャ</v>
+      </c>
+      <c r="AM25" s="13"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>407</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>57</v>
+        <v>408</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="H26" s="3">
+        <v>183</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="I26" s="3">
         <v>4</v>
       </c>
-      <c r="I26" s="8">
-        <v>62</v>
-      </c>
-      <c r="J26" s="7">
-        <v>2</v>
+      <c r="J26" s="8">
+        <v>69</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
       </c>
       <c r="N26" s="7">
-        <v>18</v>
-      </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="5">
+        <v>4</v>
+      </c>
+      <c r="O26" s="7">
+        <v>1</v>
+      </c>
+      <c r="P26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.681792830507429</v>
       </c>
-      <c r="Q26" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J26:O26)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85724398285307279</v>
-      </c>
       <c r="R26" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K26:P26)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.81738683317269123</v>
+      </c>
+      <c r="S26" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4417067843579312</v>
-      </c>
-      <c r="S26" s="10">
+        <v>1.3746753157810041</v>
+      </c>
+      <c r="T26" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>89.385820630191731</v>
-      </c>
-      <c r="T26" s="9">
+        <v>94.852596788889286</v>
+      </c>
+      <c r="U26" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.7045168752732494</v>
-      </c>
-      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>38.643650543621561</v>
+      </c>
+      <c r="W26" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>35.130591403292328</v>
+      </c>
+      <c r="X26" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>14.052236561316931</v>
+      </c>
+      <c r="Y26" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>3.5130591403292328</v>
+      </c>
+      <c r="Z26" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>3.5130591403292328</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>17</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>6</v>
+      </c>
+      <c r="AC26" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] witherskeleton;</v>
+      </c>
+      <c r="AJ26" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(26, witherskeleton = v(t(26, "witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 1), a(17, 6, 2, 0, 0, 0, 0, 2), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
+      </c>
+      <c r="AK26" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
+      </c>
+      <c r="AL26" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
+      </c>
+      <c r="AM26" s="13"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5</v>
+      </c>
+      <c r="J27" s="8">
+        <v>52</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7">
+        <v>8</v>
+      </c>
+      <c r="M27" s="7">
+        <v>10</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3</v>
+      </c>
+      <c r="O27" s="7">
+        <v>1</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>2</v>
+      </c>
+      <c r="R27" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K27:P27)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.84674531236252715</v>
+      </c>
+      <c r="S27" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.6934906247250543</v>
+      </c>
+      <c r="T27" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>88.061512485702821</v>
+      </c>
+      <c r="U27" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>32.02236817661921</v>
+      </c>
+      <c r="W27" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>40.027960220774006</v>
+      </c>
+      <c r="X27" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>12.008388066232204</v>
+      </c>
+      <c r="Y27" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>4.0027960220774013</v>
+      </c>
+      <c r="Z27" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>25</v>
+      </c>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="14">
+        <v>4</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] wither;</v>
+      </c>
+      <c r="AJ27" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(27, wither = v(t(27, "wither", 5, 52, m(0, 8, 10, 3, 1, 0), a(25, 0, 4, 3, 4, 1, 0, 2), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
+      </c>
+      <c r="AK27" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.wither.name=Witheria</v>
+      </c>
+      <c r="AL27" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.wither.name=ウィテーリャ</v>
+      </c>
+      <c r="AM27" s="13"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
+      <c r="J28" s="8">
+        <v>35</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7">
+        <v>10</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7">
+        <v>12</v>
+      </c>
+      <c r="P28" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1.189207115002721</v>
+      </c>
+      <c r="R28" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K28:P28)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.85066716095085571</v>
+      </c>
+      <c r="S28" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.0116194403019225</v>
+      </c>
+      <c r="T28" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>35.40668041056729</v>
+      </c>
+      <c r="U28" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V26" s="9">
+      <c r="W28" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.818067501092997</v>
-      </c>
-      <c r="W26" s="9">
+        <v>13.617954004064341</v>
+      </c>
+      <c r="X28" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>23.522584376366247</v>
-      </c>
-      <c r="X26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>42.340651877459237</v>
-      </c>
-      <c r="Y26" s="9">
+        <v>16.341544804877209</v>
+      </c>
+      <c r="Z28" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>5.4471816016257373</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="14">
+        <v>7</v>
+      </c>
+      <c r="AF28" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14">
+        <v>3</v>
+      </c>
+      <c r="AI28" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] creeper;</v>
+      </c>
+      <c r="AJ28" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(16, creeper = v(t(16, "creeper", 2, 35, m(0, 0, 10, 0, 12, 4), a(10, 0, 0, 2, 7, 2, 0, 3), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
+      </c>
+      <c r="AK28" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.creeper.name=Creeperia</v>
+      </c>
+      <c r="AL28" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.creeper.name=クレペーリャ</v>
+      </c>
+      <c r="AM28" s="13"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="8">
+        <v>31</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1.189207115002721</v>
+      </c>
+      <c r="R29" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K29:P29)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.93303299153680741</v>
+      </c>
+      <c r="S29" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.1095694720678451</v>
+      </c>
+      <c r="T29" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>34.396653634103195</v>
+      </c>
+      <c r="U29" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>22.931102422735464</v>
+      </c>
+      <c r="Z29" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>11.465551211367732</v>
+      </c>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI29" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] wheat;</v>
+      </c>
+      <c r="AJ29" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(17, wheat = v(t(17, "wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(0, 0, 0, 0, 0, 1, 0, 2), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
+      </c>
+      <c r="AK29" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.wheat.name=Wheatia</v>
+      </c>
+      <c r="AL29" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.wheat.name=ウェアーチャ</v>
+      </c>
+      <c r="AM29" s="13"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I30" s="3">
+        <v>3</v>
+      </c>
+      <c r="J30" s="8">
+        <v>28</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1</v>
+      </c>
+      <c r="O30" s="7">
+        <v>10</v>
+      </c>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R30" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K30:P30)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.97265494741228553</v>
+      </c>
+      <c r="S30" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.3755418181397439</v>
+      </c>
+      <c r="T30" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>38.515170907912825</v>
+      </c>
+      <c r="U30" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>3.209597575659402</v>
+      </c>
+      <c r="X30" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>3.209597575659402</v>
+      </c>
+      <c r="Y30" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>32.095975756594022</v>
+      </c>
+      <c r="Z30" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14">
-        <v>13</v>
-      </c>
-      <c r="AG26" s="14">
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14">
+        <v>11</v>
+      </c>
+      <c r="AI30" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] lilac;</v>
+      </c>
+      <c r="AJ30" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(18, lilac = v(t(18, "lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(0, 0, 0, 0, 0, 3, 0, 11), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
+      </c>
+      <c r="AK30" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.lilac.name=Lilacia</v>
+      </c>
+      <c r="AL30" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.lilac.name=リラーキャ</v>
+      </c>
+      <c r="AM30" s="13"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
+        <v>19</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8">
+        <v>19</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L31" s="7">
+        <v>1</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
+      <c r="N31" s="7">
         <v>10</v>
       </c>
-      <c r="AH26" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] lapislazuli;</v>
-      </c>
-      <c r="AI26" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(24, lapislazuli = v(t(24, "lapislazuli", 4, 62, m(2, 0, 8, 10, 18, 0), a(0, 0, 0, 0, 0, 0, 13, 10), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
-      </c>
-      <c r="AJ26" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
-      </c>
-      <c r="AK26" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
-      </c>
-      <c r="AL26" s="13"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="H27" s="3">
-        <v>5</v>
-      </c>
-      <c r="I27" s="8">
-        <v>61</v>
-      </c>
-      <c r="J27" s="7">
-        <v>3</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7">
-        <v>34</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7">
-        <v>10</v>
-      </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="5">
+      <c r="O31" s="7">
+        <v>4</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
-      </c>
-      <c r="Q27" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J27:O27)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.94837491720007905</v>
-      </c>
-      <c r="R27" s="5">
+        <v>1</v>
+      </c>
+      <c r="R31" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K31:P31)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.91891288347904987</v>
+      </c>
+      <c r="S31" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.8967498344001581</v>
-      </c>
-      <c r="S27" s="10">
+        <v>0.91891288347904987</v>
+      </c>
+      <c r="T31" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>115.70173989840964</v>
-      </c>
-      <c r="T27" s="9">
+        <v>17.459344786101948</v>
+      </c>
+      <c r="U31" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.3852174403240198</v>
-      </c>
-      <c r="U27" s="9">
+        <v>0.10844313531740341</v>
+      </c>
+      <c r="V31" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="9">
+        <v>1.0844313531740339</v>
+      </c>
+      <c r="W31" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>83.699130990338887</v>
-      </c>
-      <c r="W27" s="9">
+        <v>1.0844313531740339</v>
+      </c>
+      <c r="X31" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="9">
+        <v>10.84431353174034</v>
+      </c>
+      <c r="Y31" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>24.617391467746732</v>
-      </c>
-      <c r="Y27" s="9">
+        <v>4.3377254126961358</v>
+      </c>
+      <c r="Z31" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="14">
-        <v>20</v>
-      </c>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14">
+      <c r="AA31" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14">
+        <v>12</v>
+      </c>
+      <c r="AE31" s="14">
+        <v>8</v>
+      </c>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14">
+        <v>3</v>
+      </c>
+      <c r="AI31" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] torch;</v>
+      </c>
+      <c r="AJ31" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(19, torch = v(t(19, "torch", 1, 19, m(0.1, 1, 1, 10, 4, 0), a(1, 0, 0, 12, 8, 0, 0, 3), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
+      </c>
+      <c r="AK31" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.torch.name=Torchia</v>
+      </c>
+      <c r="AL31" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.torch.name=トルキャ</v>
+      </c>
+      <c r="AM31" s="13"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="I32" s="3">
         <v>2</v>
       </c>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14">
+      <c r="J32" s="8">
+        <v>72</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7">
         <v>2</v>
       </c>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14">
-        <v>4</v>
-      </c>
-      <c r="AH27" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] enderdragon;</v>
-      </c>
-      <c r="AI27" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(25, enderdragon = v(t(25, "enderdragon", 5, 61, m(3, 0, 34, 0, 10, 0), a(20, 0, 0, 2, 0, 2, 0, 4), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
-      </c>
-      <c r="AJ27" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
-      </c>
-      <c r="AK27" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
-      </c>
-      <c r="AL27" s="13"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4</v>
-      </c>
-      <c r="I28" s="8">
-        <v>69</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7">
+      <c r="M32" s="7"/>
+      <c r="N32" s="7">
         <v>10</v>
       </c>
-      <c r="M28" s="7">
-        <v>4</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1</v>
-      </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="5">
+      <c r="O32" s="7">
+        <v>2</v>
+      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
-      </c>
-      <c r="Q28" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J28:O28)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.82775327988481073</v>
-      </c>
-      <c r="R28" s="5">
+        <v>1.189207115002721</v>
+      </c>
+      <c r="R32" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K32:P32)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.94605764672559589</v>
+      </c>
+      <c r="S32" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.392109531539284</v>
-      </c>
-      <c r="S28" s="10">
+        <v>1.1250584846888094</v>
+      </c>
+      <c r="T32" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>96.055557676210597</v>
-      </c>
-      <c r="T28" s="9">
+        <v>81.004210897594277</v>
+      </c>
+      <c r="U32" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U28" s="9">
+      <c r="V32" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>40.638889786089102</v>
-      </c>
-      <c r="V28" s="9">
+        <v>11.572030128227754</v>
+      </c>
+      <c r="W32" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>36.944445260080997</v>
-      </c>
-      <c r="W28" s="9">
+        <v>0</v>
+      </c>
+      <c r="X32" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.7777781040324</v>
-      </c>
-      <c r="X28" s="9">
+        <v>57.860150641138766</v>
+      </c>
+      <c r="Y32" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.6944445260081</v>
-      </c>
-      <c r="Y28" s="9">
+        <v>11.572030128227754</v>
+      </c>
+      <c r="Z32" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="14">
-        <v>17</v>
-      </c>
-      <c r="AA28" s="14">
+      <c r="AA32" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="14">
+        <v>13</v>
+      </c>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14">
         <v>6</v>
       </c>
-      <c r="AB28" s="14">
+      <c r="AE32" s="14">
+        <v>10</v>
+      </c>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14">
         <v>2</v>
       </c>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH28" s="13" t="str">
+      <c r="AI32" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] witherskeleton;</v>
-      </c>
-      <c r="AI28" s="13" t="str">
+        <v>public static VariantMirageFairy[] furnace;</v>
+      </c>
+      <c r="AJ32" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(26, witherskeleton = v(t(26, "witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 0), a(17, 6, 2, 0, 0, 0, 0, 2), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
-      </c>
-      <c r="AJ28" s="13" t="str">
+        <v>r(30, furnace = v(t(30, "furnace", 2, 72, m(0, 2, 0, 10, 2, 0), a(1, 13, 0, 6, 10, 0, 0, 2), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
+      </c>
+      <c r="AK32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
-      </c>
-      <c r="AK28" s="13" t="str">
+        <v>item.mirageFairy.furnace.name=Furnacia</v>
+      </c>
+      <c r="AL32" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
-      </c>
-      <c r="AL28" s="13"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="H29" s="3">
-        <v>5</v>
-      </c>
-      <c r="I29" s="8">
-        <v>52</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7">
-        <v>8</v>
-      </c>
-      <c r="L29" s="7">
+        <v>item.mirageFairy.furnace.name=フルナーキャ</v>
+      </c>
+      <c r="AM32" s="13"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3</v>
+      </c>
+      <c r="J33" s="8">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7">
         <v>10</v>
       </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1</v>
-      </c>
-      <c r="O29" s="7">
-        <v>1</v>
-      </c>
-      <c r="P29" s="5">
+      <c r="O33" s="7">
+        <v>11</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
-      </c>
-      <c r="Q29" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J29:O29)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.83508791942836935</v>
-      </c>
-      <c r="R29" s="5">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R33" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K33:P33)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.87055056329612412</v>
+      </c>
+      <c r="S33" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.6701758388567387</v>
-      </c>
-      <c r="S29" s="10">
+        <v>1.2311444133449163</v>
+      </c>
+      <c r="T33" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>86.849143620550407</v>
-      </c>
-      <c r="T29" s="9">
+        <v>73.868664800694972</v>
+      </c>
+      <c r="U33" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U29" s="9">
+      <c r="V33" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.208397781061013</v>
-      </c>
-      <c r="V29" s="9">
+        <v>3.3576665818497715</v>
+      </c>
+      <c r="W33" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.760497226326265</v>
-      </c>
-      <c r="W29" s="9">
+        <v>0</v>
+      </c>
+      <c r="X33" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.328149167897879</v>
-      </c>
-      <c r="X29" s="9">
+        <v>33.576665818497716</v>
+      </c>
+      <c r="Y33" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.7760497226326266</v>
-      </c>
-      <c r="Y29" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.7760497226326266</v>
-      </c>
-      <c r="Z29" s="14">
-        <v>25</v>
-      </c>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14">
-        <v>4</v>
-      </c>
-      <c r="AC29" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="14">
-        <v>4</v>
-      </c>
-      <c r="AE29" s="14">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH29" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] wither;</v>
-      </c>
-      <c r="AI29" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(27, wither = v(t(27, "wither", 5, 52, m(0, 8, 10, 3, 1, 1), a(25, 0, 4, 3, 4, 1, 0, 2), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
-      </c>
-      <c r="AJ29" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.wither.name=Witheria</v>
-      </c>
-      <c r="AK29" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.wither.name=ウィテーリャ</v>
-      </c>
-      <c r="AL29" s="13"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="H30" s="3">
-        <v>3</v>
-      </c>
-      <c r="I30" s="8">
-        <v>18</v>
-      </c>
-      <c r="J30" s="7">
-        <v>3</v>
-      </c>
-      <c r="K30" s="7">
-        <v>10</v>
-      </c>
-      <c r="L30" s="7">
-        <v>3</v>
-      </c>
-      <c r="M30" s="7">
-        <v>8</v>
-      </c>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="Q30" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J30:O30)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.82359101726757311</v>
-      </c>
-      <c r="R30" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1647335864684558</v>
-      </c>
-      <c r="S30" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>20.965204556432205</v>
-      </c>
-      <c r="T30" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.6206505695540256</v>
-      </c>
-      <c r="U30" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>8.7355018985134194</v>
-      </c>
-      <c r="V30" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.6206505695540256</v>
-      </c>
-      <c r="W30" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.9884015188107353</v>
-      </c>
-      <c r="X30" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="9">
+        <v>36.934332400347486</v>
+      </c>
+      <c r="Z33" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="14">
-        <v>8</v>
-      </c>
-      <c r="AA30" s="14">
-        <v>2</v>
-      </c>
-      <c r="AB30" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC30" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD30" s="14">
-        <v>11</v>
-      </c>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14">
-        <v>4</v>
-      </c>
-      <c r="AH30" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] thunder;</v>
-      </c>
-      <c r="AI30" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(28, thunder = v(t(28, "thunder", 3, 18, m(3, 10, 3, 8, 0, 0), a(8, 2, 2, 6, 11, 0, 0, 4), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
-      </c>
-      <c r="AJ30" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.thunder.name=Thunderia</v>
-      </c>
-      <c r="AK30" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.thunder.name=ツンデーリャ</v>
-      </c>
-      <c r="AL30" s="13"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8">
-        <v>39</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7">
-        <v>1</v>
-      </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7">
-        <v>10</v>
-      </c>
-      <c r="O31" s="7">
-        <v>7</v>
-      </c>
-      <c r="P31" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J31:O31)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
-      </c>
-      <c r="R31" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.89502507092797245</v>
-      </c>
-      <c r="S31" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>34.905977766190922</v>
-      </c>
-      <c r="T31" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.9392209870106067</v>
-      </c>
-      <c r="W31" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>19.392209870106068</v>
-      </c>
-      <c r="Y31" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.574546909074249</v>
-      </c>
-      <c r="Z31" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14">
-        <v>3</v>
-      </c>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] chicken;</v>
-      </c>
-      <c r="AI31" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(29, chicken = v(t(29, "chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(1, 0, 0, 0, 0, 3, 0, 1), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
-      </c>
-      <c r="AJ31" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.chicken.name=Chickenia</v>
-      </c>
-      <c r="AK31" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.chicken.name=チッケーニャ</v>
-      </c>
-      <c r="AL31" s="13"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2</v>
-      </c>
-      <c r="I32" s="8">
-        <v>72</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7">
-        <v>2</v>
-      </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7">
-        <v>10</v>
-      </c>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7">
-        <v>11</v>
-      </c>
-      <c r="P32" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
-      </c>
-      <c r="Q32" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J32:O32)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.8596481407459281</v>
-      </c>
-      <c r="R32" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0222996853739181</v>
-      </c>
-      <c r="S32" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>73.605577346922104</v>
-      </c>
-      <c r="T32" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.4004849866888787</v>
-      </c>
-      <c r="V32" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>32.002424933444395</v>
-      </c>
-      <c r="X32" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>35.202667426788828</v>
-      </c>
-      <c r="Z32" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="14">
-        <v>13</v>
-      </c>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD32" s="14">
-        <v>10</v>
-      </c>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH32" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] furnace;</v>
-      </c>
-      <c r="AI32" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(30, furnace = v(t(30, "furnace", 2, 72, m(0, 2, 0, 10, 0, 11), a(1, 13, 0, 6, 10, 0, 0, 2), c(0xFFFFFF, 0xFF7F19, 0x8E8E8E, 0x383838))));</v>
-      </c>
-      <c r="AJ32" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.furnace.name=Furnacia</v>
-      </c>
-      <c r="AK32" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.furnace.name=フルナーキャ</v>
-      </c>
-      <c r="AL32" s="13"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="H33" s="3">
-        <v>3</v>
-      </c>
-      <c r="I33" s="8">
-        <v>60</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7">
-        <v>1</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7">
-        <v>10</v>
-      </c>
-      <c r="N33" s="7">
-        <v>6</v>
-      </c>
-      <c r="O33" s="7">
-        <v>4</v>
-      </c>
-      <c r="P33" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="Q33" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J33:O33)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85856543643775374</v>
-      </c>
-      <c r="R33" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.214194884395047</v>
-      </c>
-      <c r="S33" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>72.851693063702811</v>
-      </c>
-      <c r="T33" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.4691282411287054</v>
-      </c>
-      <c r="V33" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.691282411287048</v>
-      </c>
-      <c r="X33" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>20.814769446772232</v>
-      </c>
-      <c r="Y33" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.876512964514822</v>
-      </c>
-      <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
       <c r="AF33" s="14"/>
-      <c r="AG33" s="14">
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14">
         <v>10</v>
       </c>
-      <c r="AH33" s="13" t="str">
+      <c r="AI33" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] magentaglazedterracotta;</v>
       </c>
-      <c r="AI33" s="13" t="str">
+      <c r="AJ33" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(31, magentaglazedterracotta = v(t(31, "magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 6, 4), a(0, 0, 0, 0, 0, 0, 0, 10), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
-      </c>
-      <c r="AJ33" s="13" t="str">
+        <v>r(31, magentaglazedterracotta = v(t(31, "magentaglazedterracotta", 3, 60, m(0, 1, 0, 10, 11, 0), a(0, 0, 0, 0, 0, 0, 0, 10), c(0xFFFFFF, 0xF4B5CB, 0xCB58C2, 0x9D2D95))));</v>
+      </c>
+      <c r="AK33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.magentaglazedterracotta.name=Magenteglazedeterracottia</v>
       </c>
-      <c r="AK33" s="13" t="str">
+      <c r="AL33" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.magentaglazedterracotta.name=マゲンテグラゼデテッラコッチャ</v>
       </c>
-      <c r="AL33" s="13"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM33" s="13"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <v>2</v>
       </c>
-      <c r="I34" s="8">
+      <c r="J34" s="8">
         <v>35</v>
       </c>
-      <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="7">
+      <c r="M34" s="7"/>
+      <c r="N34" s="7">
+        <v>5</v>
+      </c>
+      <c r="O34" s="7">
         <v>10</v>
       </c>
-      <c r="N34" s="7">
-        <v>9</v>
-      </c>
-      <c r="O34" s="7">
-        <v>8</v>
-      </c>
-      <c r="P34" s="5">
+      <c r="P34" s="7"/>
+      <c r="Q34" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
-      <c r="Q34" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J34:O34)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.79004131186337712</v>
-      </c>
       <c r="R34" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K34:P34)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.93303299153680741</v>
+      </c>
+      <c r="S34" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.93952274921401169</v>
-      </c>
-      <c r="S34" s="10">
+        <v>1.1095694720678451</v>
+      </c>
+      <c r="T34" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>32.883296222490408</v>
-      </c>
-      <c r="T34" s="9">
+        <v>38.834931522374575</v>
+      </c>
+      <c r="U34" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U34" s="9">
+      <c r="V34" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V34" s="9">
+      <c r="W34" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="W34" s="9">
+      <c r="X34" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.178998600922373</v>
-      </c>
-      <c r="X34" s="9">
+        <v>12.944977174124858</v>
+      </c>
+      <c r="Y34" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.961098740830137</v>
-      </c>
-      <c r="Y34" s="9">
+        <v>25.889954348249717</v>
+      </c>
+      <c r="Z34" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.7431988807378982</v>
-      </c>
-      <c r="Z34" s="14"/>
+        <v>0</v>
+      </c>
       <c r="AA34" s="14"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
       <c r="AF34" s="14"/>
-      <c r="AG34" s="14">
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14">
         <v>7</v>
       </c>
-      <c r="AH34" s="13" t="str">
+      <c r="AI34" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] bread;</v>
       </c>
-      <c r="AI34" s="13" t="str">
+      <c r="AJ34" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(32, bread = v(t(32, "bread", 2, 35, m(0, 0, 0, 10, 9, 8), a(0, 0, 0, 0, 0, 0, 0, 7), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
-      </c>
-      <c r="AJ34" s="13" t="str">
+        <v>r(32, bread = v(t(32, "bread", 2, 35, m(0, 0, 0, 5, 10, 0), a(0, 0, 0, 0, 0, 0, 0, 7), c(0xCC850C, 0x9E7325, 0x654B17, 0x3F2E0E))));</v>
+      </c>
+      <c r="AK34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.bread.name=Breadia</v>
       </c>
-      <c r="AK34" s="13" t="str">
+      <c r="AL34" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.bread.name=ブレアージャ</v>
       </c>
-      <c r="AL34" s="13"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM34" s="13"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="8">
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8">
         <v>88</v>
       </c>
-      <c r="J35" s="7">
-        <v>1</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7">
+      <c r="K35" s="7">
+        <v>1</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7">
         <v>10</v>
       </c>
-      <c r="M35" s="7">
+      <c r="N35" s="7">
+        <v>3</v>
+      </c>
+      <c r="O35" s="7">
         <v>7</v>
       </c>
-      <c r="N35" s="7">
-        <v>7</v>
-      </c>
-      <c r="O35" s="7">
-        <v>6</v>
-      </c>
-      <c r="P35" s="5">
+      <c r="P35" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1</v>
       </c>
-      <c r="Q35" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J35:O35)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.74742462431746914</v>
-      </c>
       <c r="R35" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K35:P35)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.88576751910236062</v>
+      </c>
+      <c r="S35" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.74742462431746914</v>
-      </c>
-      <c r="S35" s="10">
+        <v>0.88576751910236062</v>
+      </c>
+      <c r="T35" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>65.77336693993729</v>
-      </c>
-      <c r="T35" s="9">
+        <v>77.947541681007735</v>
+      </c>
+      <c r="U35" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.1217215141915253</v>
-      </c>
-      <c r="U35" s="9">
+        <v>1.732167592911283</v>
+      </c>
+      <c r="V35" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V35" s="9">
+      <c r="W35" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.217215141915258</v>
-      </c>
-      <c r="W35" s="9">
+        <v>17.321675929112832</v>
+      </c>
+      <c r="X35" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.852050599340677</v>
-      </c>
-      <c r="X35" s="9">
+        <v>5.1965027787338487</v>
+      </c>
+      <c r="Y35" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.852050599340677</v>
-      </c>
-      <c r="Y35" s="9">
+        <v>12.125173150378982</v>
+      </c>
+      <c r="Z35" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.730329085149153</v>
-      </c>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14">
-        <v>1</v>
-      </c>
+        <v>41.57202222987079</v>
+      </c>
+      <c r="AA35" s="14"/>
       <c r="AB35" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="14">
         <v>2</v>
       </c>
-      <c r="AC35" s="14">
+      <c r="AD35" s="14">
         <v>11</v>
       </c>
-      <c r="AD35" s="14">
+      <c r="AE35" s="14">
         <v>2</v>
       </c>
-      <c r="AE35" s="14"/>
       <c r="AF35" s="14"/>
-      <c r="AG35" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="13" t="str">
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] daytime;</v>
       </c>
-      <c r="AI35" s="13" t="str">
+      <c r="AJ35" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(33, daytime = v(t(33, "daytime", 1, 88, m(1, 0, 10, 7, 7, 6), a(0, 1, 2, 11, 2, 0, 0, 1), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
-      </c>
-      <c r="AJ35" s="13" t="str">
+        <v>r(33, daytime = v(t(33, "daytime", 1, 88, m(1, 0, 10, 3, 7, 24), a(0, 1, 2, 11, 2, 0, 0, 1), c(0xFFE260, 0xAACAEF, 0x84B5EF, 0xFFE7B2))));</v>
+      </c>
+      <c r="AK35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.daytime.name=Daytimia</v>
       </c>
-      <c r="AK35" s="13" t="str">
+      <c r="AL35" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.daytime.name=ダイティーミャ</v>
       </c>
-      <c r="AL35" s="13"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM35" s="13"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8">
         <v>83</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7">
+      <c r="K36" s="7"/>
+      <c r="L36" s="7">
         <v>7</v>
       </c>
-      <c r="L36" s="7">
+      <c r="M36" s="7">
         <v>10</v>
       </c>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7">
+      <c r="N36" s="7"/>
+      <c r="O36" s="7">
         <v>7</v>
       </c>
-      <c r="O36" s="7">
-        <v>26</v>
-      </c>
-      <c r="P36" s="5">
+      <c r="P36" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J36:O36)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.87988361729131659</v>
-      </c>
       <c r="R36" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K36:P36)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.87055056329612412</v>
+      </c>
+      <c r="S36" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.87988361729131659</v>
-      </c>
-      <c r="S36" s="10">
+        <v>0.87055056329612412</v>
+      </c>
+      <c r="T36" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>73.030340235179281</v>
-      </c>
-      <c r="T36" s="9">
+        <v>72.255696753578306</v>
+      </c>
+      <c r="U36" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="U36" s="9">
+      <c r="V36" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.224247632925099</v>
-      </c>
-      <c r="V36" s="9">
+        <v>10.537289109896836</v>
+      </c>
+      <c r="W36" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.606068047035855</v>
-      </c>
-      <c r="W36" s="9">
+        <v>15.053270156995481</v>
+      </c>
+      <c r="X36" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X36" s="9">
+      <c r="Y36" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.224247632925099</v>
-      </c>
-      <c r="Y36" s="9">
+        <v>10.537289109896836</v>
+      </c>
+      <c r="Z36" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.975776922293228</v>
-      </c>
-      <c r="Z36" s="14"/>
+        <v>36.127848376789153</v>
+      </c>
       <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
-      <c r="AC36" s="14">
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14">
         <v>2</v>
       </c>
-      <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
       <c r="AF36" s="14"/>
-      <c r="AG36" s="14">
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14">
         <v>4</v>
       </c>
-      <c r="AH36" s="13" t="str">
+      <c r="AI36" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] night;</v>
       </c>
-      <c r="AI36" s="13" t="str">
+      <c r="AJ36" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(34, night = v(t(34, "night", 1, 83, m(0, 7, 10, 0, 7, 26), a(0, 0, 0, 2, 0, 0, 0, 4), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
-      </c>
-      <c r="AJ36" s="13" t="str">
+        <v>r(34, night = v(t(34, "night", 1, 83, m(0, 7, 10, 0, 7, 24), a(0, 0, 0, 2, 0, 0, 0, 4), c(0xFFE260, 0x2C2C2E, 0x0E0E10, 0x2D4272))));</v>
+      </c>
+      <c r="AK36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.night.name=Nightia</v>
       </c>
-      <c r="AK36" s="13" t="str">
+      <c r="AL36" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.night.name=ニグチャ</v>
       </c>
-      <c r="AL36" s="13"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM36" s="13"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>2</v>
       </c>
-      <c r="I37" s="8">
+      <c r="J37" s="8">
         <v>85</v>
       </c>
-      <c r="J37" s="7">
-        <v>1</v>
-      </c>
       <c r="K37" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L37" s="7">
+        <v>5</v>
+      </c>
+      <c r="M37" s="7">
         <v>10</v>
       </c>
-      <c r="M37" s="7">
-        <v>8</v>
-      </c>
       <c r="N37" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O37" s="7">
-        <v>8</v>
-      </c>
-      <c r="P37" s="5">
+        <v>7</v>
+      </c>
+      <c r="P37" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.189207115002721</v>
       </c>
-      <c r="Q37" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J37:O37)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.66741992708501718</v>
-      </c>
       <c r="R37" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K37:P37)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.83123789614278776</v>
+      </c>
+      <c r="S37" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.79370052598409968</v>
-      </c>
-      <c r="S37" s="10">
+        <v>0.98851402035289604</v>
+      </c>
+      <c r="T37" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>67.464544708648475</v>
-      </c>
-      <c r="T37" s="9">
+        <v>84.023691729996159</v>
+      </c>
+      <c r="U37" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.4354158448648611</v>
-      </c>
-      <c r="U37" s="9">
+        <v>2.0005640888094325</v>
+      </c>
+      <c r="V37" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.483326758918889</v>
-      </c>
-      <c r="V37" s="9">
+        <v>10.002820444047162</v>
+      </c>
+      <c r="W37" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.354158448648612</v>
-      </c>
-      <c r="W37" s="9">
+        <v>20.005640888094323</v>
+      </c>
+      <c r="X37" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.483326758918889</v>
-      </c>
-      <c r="X37" s="9">
+        <v>2.0005640888094325</v>
+      </c>
+      <c r="Y37" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.224990138378335</v>
-      </c>
-      <c r="Y37" s="9">
+        <v>14.003948621666026</v>
+      </c>
+      <c r="Z37" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.483326758918889</v>
-      </c>
-      <c r="Z37" s="14"/>
+        <v>36.010153598569779</v>
+      </c>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
-      <c r="AC37" s="14">
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14">
         <v>9</v>
       </c>
-      <c r="AD37" s="14">
-        <v>1</v>
-      </c>
       <c r="AE37" s="14">
         <v>1</v>
       </c>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14">
+      <c r="AF37" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14">
         <v>3</v>
       </c>
-      <c r="AH37" s="13" t="str">
+      <c r="AI37" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] morning;</v>
       </c>
-      <c r="AI37" s="13" t="str">
+      <c r="AJ37" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(35, morning = v(t(35, "morning", 2, 85, m(1, 8, 10, 8, 12, 8), a(0, 0, 0, 9, 1, 1, 0, 3), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
-      </c>
-      <c r="AJ37" s="13" t="str">
+        <v>r(35, morning = v(t(35, "morning", 2, 85, m(1, 5, 10, 1, 7, 18), a(0, 0, 0, 9, 1, 1, 0, 3), c(0xFFE260, 0x91C4D9, 0x4570A6, 0xFF7017))));</v>
+      </c>
+      <c r="AK37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.morning.name=Morningia</v>
       </c>
-      <c r="AK37" s="13" t="str">
+      <c r="AL37" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.morning.name=モルニンギャ</v>
       </c>
-      <c r="AL37" s="13"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AM37" s="13"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="8">
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8">
         <v>22</v>
       </c>
-      <c r="J38" s="7">
-        <v>1</v>
-      </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7">
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7">
         <v>10</v>
       </c>
-      <c r="M38" s="7"/>
       <c r="N38" s="7">
+        <v>4</v>
+      </c>
+      <c r="O38" s="7">
         <v>12</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="5">
+      <c r="P38" s="7">
+        <v>28</v>
+      </c>
+      <c r="Q38" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1</v>
       </c>
-      <c r="Q38" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J38:O38)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.88066587359614845</v>
-      </c>
       <c r="R38" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K38:P38)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.87487139127943736</v>
+      </c>
+      <c r="S38" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.88066587359614845</v>
-      </c>
-      <c r="S38" s="10">
+        <v>0.87487139127943736</v>
+      </c>
+      <c r="T38" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>19.374649219115266</v>
-      </c>
-      <c r="T38" s="9">
+        <v>19.247170608147623</v>
+      </c>
+      <c r="U38" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.84237605300501162</v>
-      </c>
-      <c r="U38" s="9">
+        <v>0.34994855651177498</v>
+      </c>
+      <c r="V38" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V38" s="9">
+      <c r="W38" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>8.4237605300501155</v>
-      </c>
-      <c r="W38" s="9">
+        <v>3.4994855651177499</v>
+      </c>
+      <c r="X38" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>1.3997942260470999</v>
+      </c>
+      <c r="Y38" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>4.1993826781412995</v>
+      </c>
+      <c r="Z38" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>9.7985595823296983</v>
+      </c>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="14">
+        <v>16</v>
+      </c>
+      <c r="AE38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] fine;</v>
+      </c>
+      <c r="AJ38" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(36, fine = v(t(36, "fine", 1, 22, m(1, 0, 10, 4, 12, 28), a(0, 1, 2, 16, 1, 0, 0, 1), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
+      </c>
+      <c r="AK38" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.fine.name=Finia</v>
+      </c>
+      <c r="AL38" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.fine.name=フィーニャ</v>
+      </c>
+      <c r="AM38" s="13"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="8">
+        <v>25</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7">
+        <v>2</v>
+      </c>
+      <c r="M39" s="7">
+        <v>10</v>
+      </c>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7">
+        <v>19</v>
+      </c>
+      <c r="P39" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q39" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1.189207115002721</v>
+      </c>
+      <c r="R39" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K39:P39)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.80929458196256043</v>
+      </c>
+      <c r="S39" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>0.96241887500302969</v>
+      </c>
+      <c r="T39" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>24.060471875075741</v>
+      </c>
+      <c r="U39" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>1.0025196614614893</v>
+      </c>
+      <c r="W39" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>5.0125983073074458</v>
+      </c>
+      <c r="X39" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="X38" s="9">
+      <c r="Y39" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.108512636060139</v>
-      </c>
-      <c r="Y38" s="9">
+        <v>9.5239367838841478</v>
+      </c>
+      <c r="Z39" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>8.5214171224226583</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14">
+        <v>17</v>
+      </c>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI39" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] rain;</v>
+      </c>
+      <c r="AJ39" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(37, rain = v(t(37, "rain", 2, 25, m(0, 2, 10, 0, 19, 17), a(1, 0, 0, 2, 0, 17, 0, 2), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
+      </c>
+      <c r="AK39" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.rain.name=Rainia</v>
+      </c>
+      <c r="AL39" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.rain.name=ライニャ</v>
+      </c>
+      <c r="AM39" s="13"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8">
+        <v>79</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7">
+        <v>3</v>
+      </c>
+      <c r="O40" s="7">
+        <v>18</v>
+      </c>
+      <c r="P40" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1</v>
+      </c>
+      <c r="R40" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K40:P40)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.90472770463271524</v>
+      </c>
+      <c r="S40" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>0.90472770463271524</v>
+      </c>
+      <c r="T40" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>71.473488665984505</v>
+      </c>
+      <c r="U40" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>6.9167892257404358</v>
+      </c>
+      <c r="Y40" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>41.500735354442618</v>
+      </c>
+      <c r="Z40" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>23.055964085801453</v>
+      </c>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14">
+        <v>7</v>
+      </c>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] plains;</v>
+      </c>
+      <c r="AJ40" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(38, plains = v(t(38, "plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(0, 0, 7, 0, 0, 6, 0, 1), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
+      </c>
+      <c r="AK40" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.plains.name=Plainsia</v>
+      </c>
+      <c r="AL40" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.plains.name=プラインシャ</v>
+      </c>
+      <c r="AM40" s="13"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2</v>
+      </c>
+      <c r="J41" s="8">
+        <v>83</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7">
+        <v>2</v>
+      </c>
+      <c r="N41" s="7">
+        <v>12</v>
+      </c>
+      <c r="O41" s="7">
+        <v>32</v>
+      </c>
+      <c r="P41" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>1.189207115002721</v>
+      </c>
+      <c r="R41" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K41:P41)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.90125046261083019</v>
+      </c>
+      <c r="S41" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>1.0717734625362931</v>
+      </c>
+      <c r="T41" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>88.957197390512334</v>
+      </c>
+      <c r="U41" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>3.177042763946869</v>
+      </c>
+      <c r="X41" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>19.062256583681215</v>
+      </c>
+      <c r="Y41" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>50.832684223149904</v>
+      </c>
+      <c r="Z41" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>15.885213819734345</v>
+      </c>
+      <c r="AA41" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14">
+        <v>6</v>
+      </c>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI41" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] forest;</v>
+      </c>
+      <c r="AJ41" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(39, forest = v(t(39, "forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(1, 0, 10, 0, 0, 6, 0, 2), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
+      </c>
+      <c r="AK41" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.forest.name=Forestia</v>
+      </c>
+      <c r="AL41" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.forest.name=フォレスチャ</v>
+      </c>
+      <c r="AM41" s="13"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I42" s="3">
+        <v>6</v>
+      </c>
+      <c r="J42" s="8">
+        <v>15</v>
+      </c>
+      <c r="K42" s="7">
+        <v>1</v>
+      </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7">
+        <v>10</v>
+      </c>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>2.3784142300054421</v>
+      </c>
+      <c r="R42" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K42:P42)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.9862327044933592</v>
+      </c>
+      <c r="S42" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>2.3456698984637576</v>
+      </c>
+      <c r="T42" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>35.185048476956368</v>
+      </c>
+      <c r="U42" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>3.1986407706323972</v>
+      </c>
+      <c r="V42" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>31.98640770632397</v>
+      </c>
+      <c r="X42" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="14">
+      <c r="AA42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] air;</v>
+      </c>
+      <c r="AJ42" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(, air = v(t(, "air", 6, 15, m(1, 0, 10, 0, 0, 0), a(1, 0, 0, 0, 0, 0, 0, 1), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
+      </c>
+      <c r="AK42" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.air.name=Airika</v>
+      </c>
+      <c r="AL42" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.air.name=アイリカ</v>
+      </c>
+      <c r="AM42" s="13"/>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4">
         <v>2</v>
       </c>
-      <c r="AC38" s="14">
-        <v>16</v>
-      </c>
-      <c r="AD38" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] fine;</v>
-      </c>
-      <c r="AI38" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(36, fine = v(t(36, "fine", 1, 22, m(1, 0, 10, 0, 12, 0), a(0, 1, 2, 16, 1, 0, 0, 1), c(0xB4FFFF, 0xAACAEF, 0x84B5EF, 0xffe7b2))));</v>
-      </c>
-      <c r="AJ38" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.fine.name=Finia</v>
-      </c>
-      <c r="AK38" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.fine.name=フィーニャ</v>
-      </c>
-      <c r="AL38" s="13"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="C43" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5</v>
+      </c>
+      <c r="J43" s="8">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7">
+        <v>3</v>
+      </c>
+      <c r="O43" s="7">
+        <v>10</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>2</v>
       </c>
-      <c r="I39" s="8">
-        <v>25</v>
-      </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7">
-        <v>10</v>
-      </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7">
-        <v>12</v>
-      </c>
-      <c r="O39" s="7"/>
-      <c r="P39" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
-      </c>
-      <c r="Q39" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J39:O39)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89089871814033927</v>
-      </c>
-      <c r="R39" s="5">
+      <c r="R43" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K43:P43)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.94605764672559589</v>
+      </c>
+      <c r="S43" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0594630943592951</v>
-      </c>
-      <c r="S39" s="10">
+        <v>1.8921152934511918</v>
+      </c>
+      <c r="T43" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>26.486577358982377</v>
-      </c>
-      <c r="T39" s="9">
+        <v>94.605764672559587</v>
+      </c>
+      <c r="U43" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="9">
+        <v>6.7575546194685421</v>
+      </c>
+      <c r="V43" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="V39" s="9">
+      <c r="W43" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.039353344991991</v>
-      </c>
-      <c r="W39" s="9">
+        <v>0</v>
+      </c>
+      <c r="X43" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="X39" s="9">
+        <v>20.272663858405625</v>
+      </c>
+      <c r="Y43" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.447224013990388</v>
-      </c>
-      <c r="Y39" s="9">
+        <v>67.575546194685415</v>
+      </c>
+      <c r="Z43" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14">
+      <c r="AA43" s="14">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14">
+        <v>18</v>
+      </c>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14">
+        <v>3</v>
+      </c>
+      <c r="AI43" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] water;</v>
+      </c>
+      <c r="AJ43" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(, water = v(t(, "water", 5, 50, m(1, 0, 0, 3, 10, 0), a(5, 0, 0, 0, 0, 18, 0, 3), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
+      </c>
+      <c r="AK43" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.water.name=Waterika</v>
+      </c>
+      <c r="AL43" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.water.name=ワテーリカ</v>
+      </c>
+      <c r="AM43" s="13"/>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4">
         <v>2</v>
       </c>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14">
-        <v>17</v>
-      </c>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH39" s="13" t="str">
+      <c r="C44" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="I44" s="3">
+        <v>10</v>
+      </c>
+      <c r="J44" s="8">
+        <v>99</v>
+      </c>
+      <c r="K44" s="7">
+        <v>10</v>
+      </c>
+      <c r="L44" s="7">
+        <v>15</v>
+      </c>
+      <c r="M44" s="7">
+        <v>14</v>
+      </c>
+      <c r="N44" s="7">
+        <v>8</v>
+      </c>
+      <c r="O44" s="7">
+        <v>8</v>
+      </c>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="5">
+        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
+        <v>4.7568284600108841</v>
+      </c>
+      <c r="R44" s="5">
+        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K44:P44)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
+        <v>0.69095643998388812</v>
+      </c>
+      <c r="S44" s="5">
+        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
+        <v>3.2867612583431614</v>
+      </c>
+      <c r="T44" s="10">
+        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
+        <v>325.38936457597299</v>
+      </c>
+      <c r="U44" s="9">
+        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>59.161702650176913</v>
+      </c>
+      <c r="V44" s="9">
+        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>88.742553975265366</v>
+      </c>
+      <c r="W44" s="9">
+        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>82.826383710247669</v>
+      </c>
+      <c r="X44" s="9">
+        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>47.329362120141525</v>
+      </c>
+      <c r="Y44" s="9">
+        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>47.329362120141525</v>
+      </c>
+      <c r="Z44" s="9">
+        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="14">
+        <v>11</v>
+      </c>
+      <c r="AB44" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14">
+        <v>31</v>
+      </c>
+      <c r="AE44" s="14">
+        <v>13</v>
+      </c>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14">
+        <v>6</v>
+      </c>
+      <c r="AI44" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] rain;</v>
-      </c>
-      <c r="AI39" s="13" t="str">
+        <v>public static VariantMirageFairy[] sun;</v>
+      </c>
+      <c r="AJ44" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(37, rain = v(t(37, "rain", 2, 25, m(0, 0, 10, 0, 12, 0), a(1, 0, 0, 2, 0, 17, 0, 2), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0x2D40F4))));</v>
-      </c>
-      <c r="AJ39" s="13" t="str">
+        <v>r(, sun = v(t(, "sun", 10, 99, m(10, 15, 14, 8, 8, 0), a(11, 3, 0, 31, 13, 0, 0, 6), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
+      </c>
+      <c r="AK44" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.rain.name=Rainia</v>
-      </c>
-      <c r="AK39" s="13" t="str">
+        <v>item.mirageFairy.sun.name=Sunika</v>
+      </c>
+      <c r="AL44" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.rain.name=ライニャ</v>
-      </c>
-      <c r="AL39" s="13"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-      <c r="I40" s="8">
-        <v>79</v>
-      </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7">
-        <v>3</v>
-      </c>
-      <c r="N40" s="7">
-        <v>18</v>
-      </c>
-      <c r="O40" s="7">
-        <v>10</v>
-      </c>
-      <c r="P40" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
-      </c>
-      <c r="Q40" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J40:O40)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90472770463271524</v>
-      </c>
-      <c r="R40" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.90472770463271524</v>
-      </c>
-      <c r="S40" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>71.473488665984505</v>
-      </c>
-      <c r="T40" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="V40" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.9167892257404358</v>
-      </c>
-      <c r="X40" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>41.500735354442618</v>
-      </c>
-      <c r="Y40" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>23.055964085801453</v>
-      </c>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14">
-        <v>7</v>
-      </c>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14">
-        <v>6</v>
-      </c>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] plains;</v>
-      </c>
-      <c r="AI40" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(38, plains = v(t(38, "plains", 1, 79, m(0, 0, 0, 3, 18, 10), a(0, 0, 7, 0, 0, 6, 0, 1), c(0x80FF00, 0xD4FF82, 0x86C91C, 0xBB5400))));</v>
-      </c>
-      <c r="AJ40" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.plains.name=Plainsia</v>
-      </c>
-      <c r="AK40" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.plains.name=プラインシャ</v>
-      </c>
-      <c r="AL40" s="13"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
-        <v>39</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2</v>
-      </c>
-      <c r="I41" s="8">
-        <v>83</v>
-      </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7">
-        <v>2</v>
-      </c>
-      <c r="M41" s="7">
-        <v>12</v>
-      </c>
-      <c r="N41" s="7">
-        <v>32</v>
-      </c>
-      <c r="O41" s="7">
-        <v>10</v>
-      </c>
-      <c r="P41" s="5">
-        <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
-      </c>
-      <c r="Q41" s="5">
-        <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(J41:O41)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90125046261083019</v>
-      </c>
-      <c r="R41" s="5">
-        <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0717734625362931</v>
-      </c>
-      <c r="S41" s="10">
-        <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>88.957197390512334</v>
-      </c>
-      <c r="T41" s="9">
-        <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="9">
-        <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="V41" s="9">
-        <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.177042763946869</v>
-      </c>
-      <c r="W41" s="9">
-        <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>19.062256583681215</v>
-      </c>
-      <c r="X41" s="9">
-        <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>50.832684223149904</v>
-      </c>
-      <c r="Y41" s="9">
-        <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>15.885213819734345</v>
-      </c>
-      <c r="Z41" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14">
-        <v>10</v>
-      </c>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14">
-        <v>6</v>
-      </c>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14">
-        <v>2</v>
-      </c>
-      <c r="AH41" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] forest;</v>
-      </c>
-      <c r="AI41" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(39, forest = v(t(39, "forest", 2, 83, m(0, 0, 2, 12, 32, 10), a(1, 0, 10, 0, 0, 6, 0, 2), c(0x80FF00, 0x7B9C62, 0x89591D, 0x2E6E14))));</v>
-      </c>
-      <c r="AJ41" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.forest.name=Forestia</v>
-      </c>
-      <c r="AK41" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.forest.name=フォレスチャ</v>
-      </c>
-      <c r="AL41" s="13"/>
+        <v>item.mirageFairy.sun.name=スーニカ</v>
+      </c>
+      <c r="AM44" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/FairyList.xlsx
+++ b/FairyList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MirageFairyMod-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29F7E2-1E85-4BC0-9B03-4F33E0A4B488}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6618898E-2FAA-4681-92E0-7053334244F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="1245" windowWidth="19410" windowHeight="14100" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
+    <workbookView xWindow="2940" yWindow="2115" windowWidth="24885" windowHeight="13170" xr2:uid="{50F21D03-37BB-40FB-A570-1AD8030E22E9}"/>
   </bookViews>
   <sheets>
     <sheet name="妖精リスト" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="502">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1758,6 +1758,134 @@
     <rPh sb="0" eb="2">
       <t>カイキュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>axe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STORE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WARP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftingtable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>potion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dispenser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carrot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cactus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ocean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーシャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフティンゲターブリャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポティオーニャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップーリャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スウォルジャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジスペンセーリャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カッローチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カクトゥーシャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オセアーニャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cactusia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Carrotia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dispenseria</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Axia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chestia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Craftingtablia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Potionia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Applia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swordia</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1899,12 +2027,13 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="48">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
@@ -1914,7 +2043,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
@@ -1935,6 +2064,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2294,6 +2433,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2313,70 +2461,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AM44" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A1:AM44" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM44">
-    <sortCondition ref="B1:B44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BEE06BC-4D34-4495-81F3-FC4A209E4578}" name="テーブル1" displayName="テーブル1" ref="A1:AO51" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:AO51" xr:uid="{75B54AD4-ACAB-4F59-97B1-A32EA130B0BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
-  <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="43"/>
-    <tableColumn id="26" xr3:uid="{7E104AB5-5E29-4B6A-BFBB-37072B207152}" name="階級" dataDxfId="0"/>
-    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="42"/>
-    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="38"/>
-    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{592C3106-789F-46C6-84E7-D4D3A1566511}" name="基礎Fire" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{B7A1B9A3-3658-4251-9488-C7EB28DDA828}" name="基礎Wind" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{53D9BDAB-CC6B-4E70-8605-30718A287EC4}" name="基礎Gaia" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{EB888AF3-8815-48CE-A95E-C5931929A1AC}" name="基礎Aqua" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{68F80D1D-DFED-4D2F-92EF-7D17590D4A36}" name="基礎Dark" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{D846AE64-655F-4052-B5F1-3F4B9699D0FA}" name="レア度倍率" dataDxfId="28">
+  <tableColumns count="41">
+    <tableColumn id="1" xr3:uid="{6147C270-8C7A-4819-9E28-350D0331C4D0}" name="No" dataDxfId="45"/>
+    <tableColumn id="26" xr3:uid="{7E104AB5-5E29-4B6A-BFBB-37072B207152}" name="階級" dataDxfId="44"/>
+    <tableColumn id="34" xr3:uid="{BEFDB93C-CC3C-473D-9156-A784BE96DC6E}" name="分類" dataDxfId="43"/>
+    <tableColumn id="23" xr3:uid="{5638B175-C2AF-4D6D-86F0-67835CFC7917}" name="タイプ" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{D470D4EF-3C6C-4E71-B7BA-8C149342046D}" name="Type" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{E535B2E0-7C7F-41D2-9743-A0F1B6F764D8}" name="和名" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{3F619E31-811F-4382-B4D5-C3C1F037EFDB}" name="英名" dataDxfId="39"/>
+    <tableColumn id="39" xr3:uid="{3E7A2936-ACD6-4A23-BE81-BBC7A14460E4}" name="Color" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{D5C273B8-52B3-4C00-894E-8AE8DCF70728}" name="レア" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{021ADF5F-C1D6-4992-85B6-7C4ACFCBE005}" name="コスト" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{AE6F6DC2-97AF-475D-917F-B914349AE42C}" name="基礎Shine" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{592C3106-789F-46C6-84E7-D4D3A1566511}" name="基礎Fire" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{B7A1B9A3-3658-4251-9488-C7EB28DDA828}" name="基礎Wind" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{53D9BDAB-CC6B-4E70-8605-30718A287EC4}" name="基礎Gaia" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{EB888AF3-8815-48CE-A95E-C5931929A1AC}" name="基礎Aqua" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{68F80D1D-DFED-4D2F-92EF-7D17590D4A36}" name="基礎Dark" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{D846AE64-655F-4052-B5F1-3F4B9699D0FA}" name="レア度倍率" dataDxfId="29">
       <calculatedColumnFormula>2^((テーブル1[[#This Row],[レア]]-1)/4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{833C82E7-E230-4A58-9D49-6C1CDD4BBDAD}" name="分散度倍率　" dataDxfId="27">
+    <tableColumn id="11" xr3:uid="{833C82E7-E230-4A58-9D49-6C1CDD4BBDAD}" name="分散度倍率　" dataDxfId="28">
       <calculatedColumnFormula>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K2:P2)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{434606B6-C04F-47DC-9277-0797C7617151}" name="効率" dataDxfId="26">
+    <tableColumn id="22" xr3:uid="{434606B6-C04F-47DC-9277-0797C7617151}" name="効率" dataDxfId="27">
       <calculatedColumnFormula>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B031CBD1-7BDB-4552-BC58-A8FCCA491403}" name="合計値" dataDxfId="25">
+    <tableColumn id="15" xr3:uid="{B031CBD1-7BDB-4552-BC58-A8FCCA491403}" name="合計値" dataDxfId="26">
       <calculatedColumnFormula>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{FCD4377E-4837-4BD9-8716-12CB589EDF74}" name="Shine" dataDxfId="24">
+    <tableColumn id="16" xr3:uid="{FCD4377E-4837-4BD9-8716-12CB589EDF74}" name="Shine" dataDxfId="25">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{192E8193-ED35-4778-87AC-0C1CF273DBF9}" name="Fire" dataDxfId="23">
+    <tableColumn id="17" xr3:uid="{192E8193-ED35-4778-87AC-0C1CF273DBF9}" name="Fire" dataDxfId="24">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{FDD6FC8F-4CBF-4964-A0D2-682E72230537}" name="Wind" dataDxfId="22">
+    <tableColumn id="18" xr3:uid="{FDD6FC8F-4CBF-4964-A0D2-682E72230537}" name="Wind" dataDxfId="23">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DE083808-871E-4527-B7C9-FF57A44BDF23}" name="Gaia" dataDxfId="21">
+    <tableColumn id="19" xr3:uid="{DE083808-871E-4527-B7C9-FF57A44BDF23}" name="Gaia" dataDxfId="22">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{EEDF52F6-D7AB-4A1B-B203-856E8CD45BA9}" name="Aqua" dataDxfId="20">
+    <tableColumn id="20" xr3:uid="{EEDF52F6-D7AB-4A1B-B203-856E8CD45BA9}" name="Aqua" dataDxfId="21">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{61A17369-9D3E-4EE3-B6BB-316F47062244}" name="Dark" dataDxfId="19">
+    <tableColumn id="21" xr3:uid="{61A17369-9D3E-4EE3-B6BB-316F47062244}" name="Dark" dataDxfId="20">
       <calculatedColumnFormula>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{FF31EB97-6C72-4B4F-9C7D-7FE5546BDC56}" name="ATTACK" dataDxfId="18"/>
-    <tableColumn id="44" xr3:uid="{D91E944B-F524-4F9B-9D06-B8EE217F8C86}" name="CRAFT" dataDxfId="17"/>
-    <tableColumn id="48" xr3:uid="{FDAEB361-38D6-4EFA-B314-79F5DF42167E}" name="FELL" dataDxfId="16"/>
-    <tableColumn id="46" xr3:uid="{ECCD46C1-F4EB-408C-AEB7-098E1A6BA65B}" name="LIGHT" dataDxfId="15"/>
-    <tableColumn id="47" xr3:uid="{E006FC6A-6503-4BBD-94D8-3FBB62985153}" name="FLAME" dataDxfId="14"/>
-    <tableColumn id="49" xr3:uid="{2BF29954-473B-4B0C-9781-028B561200CB}" name="WATER" dataDxfId="13"/>
-    <tableColumn id="24" xr3:uid="{E078FC75-CC53-492A-A97D-107EA20B4296}" name="CRYSTAL" dataDxfId="12"/>
-    <tableColumn id="25" xr3:uid="{3CFDC570-BDAB-4914-ABC3-2C36BC441EFF}" name="ART" dataDxfId="11"/>
-    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="10">
+    <tableColumn id="40" xr3:uid="{FF31EB97-6C72-4B4F-9C7D-7FE5546BDC56}" name="ATTACK" dataDxfId="19"/>
+    <tableColumn id="44" xr3:uid="{D91E944B-F524-4F9B-9D06-B8EE217F8C86}" name="CRAFT" dataDxfId="18"/>
+    <tableColumn id="48" xr3:uid="{FDAEB361-38D6-4EFA-B314-79F5DF42167E}" name="FELL" dataDxfId="17"/>
+    <tableColumn id="46" xr3:uid="{ECCD46C1-F4EB-408C-AEB7-098E1A6BA65B}" name="LIGHT" dataDxfId="16"/>
+    <tableColumn id="47" xr3:uid="{E006FC6A-6503-4BBD-94D8-3FBB62985153}" name="FLAME" dataDxfId="15"/>
+    <tableColumn id="49" xr3:uid="{2BF29954-473B-4B0C-9781-028B561200CB}" name="WATER" dataDxfId="14"/>
+    <tableColumn id="24" xr3:uid="{E078FC75-CC53-492A-A97D-107EA20B4296}" name="CRYSTAL" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{3CFDC570-BDAB-4914-ABC3-2C36BC441EFF}" name="ART" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{57B5D258-645E-405C-8646-A5BA9977E94A}" name="STORE" dataDxfId="1"/>
+    <tableColumn id="28" xr3:uid="{FC7CB677-4A50-4B6E-A9B9-30E79C62F98D}" name="WARP" dataDxfId="0"/>
+    <tableColumn id="36" xr3:uid="{6E6ACD45-A41E-49C5-B88F-DADA04458437}" name="Code宣言" dataDxfId="11">
       <calculatedColumnFormula>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="1">
+    <tableColumn id="35" xr3:uid="{163385B1-C9C9-410C-ABD5-0FB9C9D39FBB}" name="Code登録" dataDxfId="10">
       <calculatedColumnFormula>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="37" xr3:uid="{4F31450C-EC23-4854-A316-C804DD0EAC46}" name="Code英名" dataDxfId="9">
@@ -2694,13 +2844,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0BFE0B-651F-45A6-A399-6D829AC20A31}">
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2714,15 +2864,15 @@
     <col min="17" max="19" width="4" style="1" customWidth="1"/>
     <col min="20" max="20" width="4.75" style="1" customWidth="1"/>
     <col min="21" max="26" width="4" style="1" customWidth="1"/>
-    <col min="27" max="34" width="2.625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.75" style="1" customWidth="1"/>
-    <col min="36" max="36" width="44.75" style="1" customWidth="1"/>
-    <col min="37" max="38" width="12.75" style="1" customWidth="1"/>
-    <col min="39" max="39" width="25.875" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9" style="1"/>
+    <col min="27" max="36" width="2.625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="12.75" style="1" customWidth="1"/>
+    <col min="38" max="38" width="44.75" style="1" customWidth="1"/>
+    <col min="39" max="40" width="12.75" style="1" customWidth="1"/>
+    <col min="41" max="41" width="25.875" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:41" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2826,22 +2976,28 @@
         <v>462</v>
       </c>
       <c r="AI1" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -2934,25 +3090,27 @@
       <c r="AH2" s="14">
         <v>1</v>
       </c>
-      <c r="AI2" s="13" t="str">
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] air;</v>
       </c>
-      <c r="AJ2" s="13" t="str">
+      <c r="AL2" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
         <v>r(0, air = v(t(0, "air", 1, 15, m(0, 0, 2, 0, 1, 10), a(0, 0, 0, 0, 0, 0, 0, 1), c(0xFFBE80, 0xDEFFFF, 0xDEFFFF, 0xB0FFFF))));</v>
       </c>
-      <c r="AK2" s="13" t="str">
+      <c r="AM2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.air.name=Airia</v>
       </c>
-      <c r="AL2" s="13" t="str">
+      <c r="AN2" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.air.name=アイリャ</v>
       </c>
-      <c r="AM2" s="13"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AO2" s="13"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3049,29 +3207,31 @@
       </c>
       <c r="AG3" s="14"/>
       <c r="AH3" s="14">
-        <v>3</v>
-      </c>
-      <c r="AI3" s="13" t="str">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
         <v>public static VariantMirageFairy[] water;</v>
       </c>
-      <c r="AJ3" s="13" t="str">
+      <c r="AL3" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(1, water = v(t(1, "water", 1, 50, m(0, 0, 1, 4, 8, 10), a(1, 0, 0, 0, 0, 10, 0, 3), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
-      </c>
-      <c r="AK3" s="13" t="str">
+        <v>r(1, water = v(t(1, "water", 1, 50, m(0, 0, 1, 4, 8, 10), a(1, 0, 0, 0, 0, 10, 0, 5), c(0x5469F2, 0x5985FF, 0x172AD3, 0x2D40F4))));</v>
+      </c>
+      <c r="AM3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
         <v>item.mirageFairy.water.name=Wateria</v>
       </c>
-      <c r="AL3" s="13" t="str">
+      <c r="AN3" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
         <v>item.mirageFairy.water.name=ワテーリャ</v>
       </c>
-      <c r="AM3" s="13"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="AO3" s="13"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -3080,34 +3240,36 @@
         <v>399</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
       </c>
       <c r="J4" s="8">
-        <v>58</v>
-      </c>
-      <c r="K4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
       <c r="L4" s="7">
-        <v>18</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7">
         <v>10</v>
@@ -3118,31 +3280,31 @@
       </c>
       <c r="R4" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K4:P4)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89778658506536924</v>
+        <v>0.90677940481012742</v>
       </c>
       <c r="S4" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0676541947137328</v>
+        <v>1.0783485199381362</v>
       </c>
       <c r="T4" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>61.923943293396505</v>
+        <v>21.566970398762724</v>
       </c>
       <c r="U4" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>0.74368863444009392</v>
       </c>
       <c r="V4" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.832218102535535</v>
+        <v>12.642706785481597</v>
       </c>
       <c r="W4" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>0.74368863444009392</v>
       </c>
       <c r="X4" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.7404929116745631</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3150,49 +3312,51 @@
       </c>
       <c r="Z4" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>19.351232279186409</v>
+        <v>7.4368863444009392</v>
       </c>
       <c r="AA4" s="14">
         <v>7</v>
       </c>
       <c r="AB4" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4" s="14">
         <v>1</v>
       </c>
       <c r="AD4" s="14">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="14">
         <v>15</v>
-      </c>
-      <c r="AE4" s="14">
-        <v>18</v>
       </c>
       <c r="AF4" s="14"/>
       <c r="AG4" s="14"/>
       <c r="AH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="13" t="str">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] lava;</v>
-      </c>
-      <c r="AJ4" s="13" t="str">
+        <v>public static VariantMirageFairy[] fire;</v>
+      </c>
+      <c r="AL4" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(20, lava = v(t(20, "lava", 2, 58, m(0, 18, 0, 4, 0, 10), a(7, 3, 1, 15, 18, 0, 0, 1), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
-      </c>
-      <c r="AK4" s="13" t="str">
+        <v>r(2, fire = v(t(2, "fire", 2, 20, m(1, 17, 1, 0, 0, 10), a(7, 2, 1, 10, 15, 0, 0, 6), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
+      </c>
+      <c r="AM4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lava.name=Lavia</v>
-      </c>
-      <c r="AL4" s="13" t="str">
+        <v>item.mirageFairy.fire.name=Firia</v>
+      </c>
+      <c r="AN4" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lava.name=ラービャ</v>
-      </c>
-      <c r="AM4" s="13"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.fire.name=フィーリャ</v>
+      </c>
+      <c r="AO4" s="13"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -3201,160 +3365,156 @@
         <v>399</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7">
+        <v>40</v>
+      </c>
+      <c r="M5" s="7">
+        <v>40</v>
+      </c>
+      <c r="N5" s="7">
         <v>20</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="O5" s="7">
         <v>20</v>
       </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
       <c r="P5" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>2</v>
       </c>
       <c r="R5" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K5:P5)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.90677940481012742</v>
+        <v>0.74054877614328218</v>
       </c>
       <c r="S5" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0783485199381362</v>
+        <v>1.4810975522865644</v>
       </c>
       <c r="T5" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>21.566970398762724</v>
+        <v>146.62865767636987</v>
       </c>
       <c r="U5" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.74368863444009392</v>
+        <v>7.717297772440519</v>
       </c>
       <c r="V5" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.642706785481597</v>
+        <v>30.869191089762076</v>
       </c>
       <c r="W5" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.74368863444009392</v>
+        <v>30.869191089762076</v>
       </c>
       <c r="X5" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>15.434595544881038</v>
       </c>
       <c r="Y5" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>15.434595544881038</v>
       </c>
       <c r="Z5" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.4368863444009392</v>
+        <v>46.30378663464311</v>
       </c>
       <c r="AA5" s="14">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="14">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
       <c r="AD5" s="14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE5" s="14">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AF5" s="14"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="14">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="13" t="str">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] fire;</v>
-      </c>
-      <c r="AJ5" s="13" t="str">
+        <v>public static VariantMirageFairy[] sun;</v>
+      </c>
+      <c r="AL5" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(2, fire = v(t(2, "fire", 2, 20, m(1, 17, 1, 0, 0, 10), a(9, 4, 7, 13, 15, 0, 0, 3), c(0xFF6C01, 0xF9DFA4, 0xFF7324, 0xFF4000))));</v>
-      </c>
-      <c r="AK5" s="13" t="str">
+        <v>r(3, sun = v(t(3, "sun", 5, 99, m(10, 40, 40, 20, 20, 60), a(2, 0, 0, 21, 6, 0, 0, 6), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
+      </c>
+      <c r="AM5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.fire.name=Firia</v>
-      </c>
-      <c r="AL5" s="13" t="str">
+        <v>item.mirageFairy.sun.name=Sunia</v>
+      </c>
+      <c r="AN5" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.fire.name=フィーリャ</v>
-      </c>
-      <c r="AM5" s="13"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.sun.name=スーニャ</v>
+      </c>
+      <c r="AO5" s="13"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="8">
-        <v>18</v>
-      </c>
-      <c r="K6" s="7">
-        <v>2</v>
-      </c>
-      <c r="L6" s="7">
-        <v>9</v>
-      </c>
-      <c r="M6" s="7">
-        <v>3</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7">
@@ -3362,35 +3522,35 @@
       </c>
       <c r="Q6" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>1</v>
       </c>
       <c r="R6" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K6:P6)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.80106987758962211</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="S6" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1328838852957988</v>
+        <v>0.89502507092797245</v>
       </c>
       <c r="T6" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>20.391909935324378</v>
+        <v>74.287080887021716</v>
       </c>
       <c r="U6" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.5686084565634137</v>
+        <v>0</v>
       </c>
       <c r="V6" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.058738054535362</v>
+        <v>0</v>
       </c>
       <c r="W6" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.3529126848451205</v>
+        <v>0</v>
       </c>
       <c r="X6" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.5686084565634137</v>
+        <v>33.016480394231877</v>
       </c>
       <c r="Y6" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3398,457 +3558,459 @@
       </c>
       <c r="Z6" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.8430422828170681</v>
+        <v>41.270600492789839</v>
       </c>
       <c r="AA6" s="14">
-        <v>8</v>
-      </c>
-      <c r="AB6" s="14">
         <v>2</v>
       </c>
+      <c r="AB6" s="14"/>
       <c r="AC6" s="14">
         <v>2</v>
       </c>
-      <c r="AD6" s="14">
-        <v>6</v>
-      </c>
-      <c r="AE6" s="14">
-        <v>11</v>
-      </c>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
+      <c r="AG6" s="14">
+        <v>3</v>
+      </c>
       <c r="AH6" s="14">
-        <v>4</v>
-      </c>
-      <c r="AI6" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] thunder;</v>
-      </c>
-      <c r="AJ6" s="13" t="str">
+        <v>public static VariantMirageFairy[] stone;</v>
+      </c>
+      <c r="AL6" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(28, thunder = v(t(28, "thunder", 3, 18, m(2, 9, 3, 2, 0, 10), a(8, 2, 2, 6, 11, 0, 0, 4), c(0xB4FFFF, 0x4D5670, 0x4D5670, 0xFFEB00))));</v>
-      </c>
-      <c r="AK6" s="13" t="str">
+        <v>r(4, stone = v(t(4, "stone", 1, 83, m(0, 0, 0, 8, 0, 10), a(2, 0, 2, 0, 0, 0, 3, 2), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
+      </c>
+      <c r="AM6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.thunder.name=Thunderia</v>
-      </c>
-      <c r="AL6" s="13" t="str">
+        <v>item.mirageFairy.stone.name=Stonia</v>
+      </c>
+      <c r="AN6" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.thunder.name=ツンデーリャ</v>
-      </c>
-      <c r="AM6" s="13"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.stone.name=ストーニャ</v>
+      </c>
+      <c r="AO6" s="13"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>303</v>
+        <v>225</v>
       </c>
       <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>70</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
         <v>5</v>
       </c>
-      <c r="J7" s="8">
-        <v>99</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="P7" s="7">
         <v>10</v>
-      </c>
-      <c r="L7" s="7">
-        <v>40</v>
-      </c>
-      <c r="M7" s="7">
-        <v>40</v>
-      </c>
-      <c r="N7" s="7">
-        <v>20</v>
-      </c>
-      <c r="O7" s="7">
-        <v>20</v>
-      </c>
-      <c r="P7" s="7">
-        <v>60</v>
       </c>
       <c r="Q7" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K7:P7)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.74054877614328218</v>
+        <v>0.93303299153680741</v>
       </c>
       <c r="S7" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4810975522865644</v>
+        <v>0.93303299153680741</v>
       </c>
       <c r="T7" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>146.62865767636987</v>
+        <v>65.312309407576521</v>
       </c>
       <c r="U7" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>7.717297772440519</v>
+        <v>0</v>
       </c>
       <c r="V7" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.869191089762076</v>
+        <v>0</v>
       </c>
       <c r="W7" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.869191089762076</v>
+        <v>0</v>
       </c>
       <c r="X7" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>15.434595544881038</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>15.434595544881038</v>
+        <v>21.770769802525511</v>
       </c>
       <c r="Z7" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>46.30378663464311</v>
+        <v>43.541539605051021</v>
       </c>
       <c r="AA7" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
-      <c r="AD7" s="14">
-        <v>18</v>
-      </c>
-      <c r="AE7" s="14">
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] dirt;</v>
+      </c>
+      <c r="AL7" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(5, dirt = v(t(5, "dirt", 1, 70, m(0, 0, 0, 0, 5, 10), a(1, 0, 0, 0, 0, 1, 1, 1), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
+      </c>
+      <c r="AM7" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.dirt.name=Dirtia</v>
+      </c>
+      <c r="AN7" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.dirt.name=ディルチャ</v>
+      </c>
+      <c r="AO7" s="13"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14">
-        <v>6</v>
-      </c>
-      <c r="AI7" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] sun;</v>
-      </c>
-      <c r="AJ7" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(3, sun = v(t(3, "sun", 5, 99, m(10, 40, 40, 20, 20, 60), a(5, 0, 0, 18, 6, 0, 0, 6), c(0xff2f00, 0xff972b, 0xff7500, 0xffe7b2))));</v>
-      </c>
-      <c r="AK7" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.sun.name=Sunia</v>
-      </c>
-      <c r="AL7" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.sun.name=スーニャ</v>
-      </c>
-      <c r="AM7" s="13"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>86</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5</v>
-      </c>
-      <c r="J8" s="8">
-        <v>95</v>
-      </c>
-      <c r="K8" s="7">
-        <v>10</v>
-      </c>
-      <c r="L8" s="7">
-        <v>25</v>
-      </c>
-      <c r="M8" s="7">
-        <v>25</v>
-      </c>
-      <c r="N8" s="7">
-        <v>20</v>
-      </c>
       <c r="O8" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P8" s="7">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R8" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K8:P8)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85724398285307279</v>
+        <v>0.92018765062487506</v>
       </c>
       <c r="S8" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.7144879657061456</v>
+        <v>1.0942937012607394</v>
       </c>
       <c r="T8" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>162.87635674208383</v>
+        <v>94.109258308423591</v>
       </c>
       <c r="U8" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>8.5724398285307277</v>
+        <v>0</v>
       </c>
       <c r="V8" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.431099571326818</v>
+        <v>5.8818286442764744</v>
       </c>
       <c r="W8" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.431099571326818</v>
+        <v>0</v>
       </c>
       <c r="X8" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.144879657061455</v>
+        <v>58.818286442764744</v>
       </c>
       <c r="Y8" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.144879657061455</v>
+        <v>5.8818286442764744</v>
       </c>
       <c r="Z8" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>77.151958456776555</v>
-      </c>
-      <c r="AA8" s="14"/>
+        <v>23.527314577105898</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>2</v>
+      </c>
       <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
+      <c r="AC8" s="14">
+        <v>2</v>
+      </c>
       <c r="AD8" s="14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH8" s="14">
-        <v>6</v>
-      </c>
-      <c r="AI8" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] moon;</v>
-      </c>
-      <c r="AJ8" s="13" t="str">
+        <v>public static VariantMirageFairy[] iron;</v>
+      </c>
+      <c r="AL8" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(10, moon = v(t(10, "moon", 5, 95, m(10, 25, 25, 20, 20, 90), a(0, 0, 0, 6, 0, 0, 3, 6), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
-      </c>
-      <c r="AK8" s="13" t="str">
+        <v>r(6, iron = v(t(6, "iron", 2, 86, m(0, 1, 0, 10, 1, 4), a(2, 0, 2, 1, 0, 0, 4, 2), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
+      </c>
+      <c r="AM8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.moon.name=Moonia</v>
-      </c>
-      <c r="AL8" s="13" t="str">
+        <v>item.mirageFairy.iron.name=Ironia</v>
+      </c>
+      <c r="AN8" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.moon.name=モーニャ</v>
-      </c>
-      <c r="AM8" s="13"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.iron.name=イローニャ</v>
+      </c>
+      <c r="AO8" s="13"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="I9" s="3">
         <v>4</v>
       </c>
       <c r="J9" s="8">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="K9" s="7">
         <v>10</v>
       </c>
       <c r="L9" s="7">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N9" s="7">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="O9" s="7">
-        <v>30</v>
-      </c>
-      <c r="P9" s="7">
-        <v>90</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="P9" s="7"/>
       <c r="Q9" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.681792830507429</v>
       </c>
       <c r="R9" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K9:P9)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.81853221952998167</v>
+        <v>0.83202217093230291</v>
       </c>
       <c r="S9" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3766016183448562</v>
+        <v>1.3992889218971736</v>
       </c>
       <c r="T9" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>134.90695859779589</v>
+        <v>106.3459580641852</v>
       </c>
       <c r="U9" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.132134481717995</v>
+        <v>9.328592812647825</v>
       </c>
       <c r="V9" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.396403445153986</v>
+        <v>12.127170656442171</v>
       </c>
       <c r="W9" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>30.660672408589974</v>
+        <v>17.724326344030867</v>
       </c>
       <c r="X9" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.132134481717995</v>
+        <v>45.710104781974337</v>
       </c>
       <c r="Y9" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.396403445153986</v>
+        <v>21.455763469089995</v>
       </c>
       <c r="Z9" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>55.189210335461958</v>
-      </c>
-      <c r="AA9" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>1</v>
+      </c>
       <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
+      <c r="AC9" s="14">
+        <v>2</v>
+      </c>
       <c r="AD9" s="14">
-        <v>7</v>
-      </c>
-      <c r="AE9" s="14">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
       <c r="AG9" s="14">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AH9" s="14">
-        <v>7</v>
-      </c>
-      <c r="AI9" s="13" t="str">
+        <v>8</v>
+      </c>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] star;</v>
-      </c>
-      <c r="AJ9" s="13" t="str">
+        <v>public static VariantMirageFairy[] diamond;</v>
+      </c>
+      <c r="AL9" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(21, star = v(t(21, "star", 4, 98, m(10, 30, 50, 10, 30, 90), a(0, 0, 0, 7, 6, 0, 1, 7), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
-      </c>
-      <c r="AK9" s="13" t="str">
+        <v>r(7, diamond = v(t(7, "diamond", 4, 76, m(10, 13, 19, 49, 23, 0), a(1, 0, 2, 1, 0, 0, 17, 8), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
+      </c>
+      <c r="AM9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.star.name=Staria</v>
-      </c>
-      <c r="AL9" s="13" t="str">
+        <v>item.mirageFairy.diamond.name=Diamondia</v>
+      </c>
+      <c r="AN9" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.star.name=スターリャ</v>
-      </c>
-      <c r="AM9" s="13"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
+      </c>
+      <c r="AO9" s="13"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="8">
-        <v>83</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>35</v>
+      </c>
+      <c r="M10" s="7">
+        <v>11</v>
+      </c>
       <c r="N10" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="R10" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K10:P10)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
@@ -3856,27 +4018,27 @@
       </c>
       <c r="S10" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.89502507092797245</v>
+        <v>1.2657565939702802</v>
       </c>
       <c r="T10" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>74.287080887021716</v>
+        <v>68.350856074395125</v>
       </c>
       <c r="U10" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>1.0849342234030972</v>
       </c>
       <c r="V10" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>37.972697819108404</v>
       </c>
       <c r="W10" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>11.93427645743407</v>
       </c>
       <c r="X10" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>33.016480394231877</v>
+        <v>10.849342234030971</v>
       </c>
       <c r="Y10" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -3884,279 +4046,305 @@
       </c>
       <c r="Z10" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>41.270600492789839</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>6</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD10" s="14"/>
+        <v>6.5096053404185836</v>
+      </c>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14">
+        <v>7</v>
+      </c>
       <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
       <c r="AG10" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH10" s="14">
-        <v>3</v>
-      </c>
-      <c r="AI10" s="13" t="str">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] stone;</v>
-      </c>
-      <c r="AJ10" s="13" t="str">
+        <v>public static VariantMirageFairy[] redstone;</v>
+      </c>
+      <c r="AL10" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(4, stone = v(t(4, "stone", 1, 83, m(0, 0, 0, 8, 0, 10), a(6, 1, 4, 0, 0, 0, 5, 3), c(0x333333, 0x8F8F8F, 0x686868, 0x747474))));</v>
-      </c>
-      <c r="AK10" s="13" t="str">
+        <v>r(8, redstone = v(t(8, "redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(0, 0, 0, 7, 0, 0, 6, 4), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
+      </c>
+      <c r="AM10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.stone.name=Stonia</v>
-      </c>
-      <c r="AL10" s="13" t="str">
+        <v>item.mirageFairy.redstone.name=Redstonia</v>
+      </c>
+      <c r="AN10" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.stone.name=ストーニャ</v>
-      </c>
-      <c r="AM10" s="13"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.redstone.name=レドストーニャ</v>
+      </c>
+      <c r="AO10" s="13"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" s="8">
-        <v>70</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>12</v>
+      </c>
+      <c r="M11" s="7">
+        <v>12</v>
+      </c>
+      <c r="N11" s="7">
+        <v>16</v>
+      </c>
       <c r="O11" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P11" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R11" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K11:P11)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.93303299153680741</v>
+        <v>0.73204284797281272</v>
       </c>
       <c r="S11" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.93303299153680741</v>
+        <v>1.2311444133449163</v>
       </c>
       <c r="T11" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>65.312309407576521</v>
+        <v>59.094931840555986</v>
       </c>
       <c r="U11" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>1.136440996933769</v>
       </c>
       <c r="V11" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>13.637291963205227</v>
       </c>
       <c r="W11" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>13.637291963205227</v>
       </c>
       <c r="X11" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>18.183055950940304</v>
       </c>
       <c r="Y11" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.770769802525511</v>
+        <v>11.364409969337689</v>
       </c>
       <c r="Z11" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>43.541539605051021</v>
-      </c>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
+        <v>1.136440996933769</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>11</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>2</v>
+      </c>
       <c r="AE11" s="14"/>
       <c r="AF11" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="14">
         <v>2</v>
       </c>
       <c r="AH11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="13" t="str">
+        <v>6</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="14">
+        <v>12</v>
+      </c>
+      <c r="AK11" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] dirt;</v>
-      </c>
-      <c r="AJ11" s="13" t="str">
+        <v>public static VariantMirageFairy[] enderman;</v>
+      </c>
+      <c r="AL11" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(5, dirt = v(t(5, "dirt", 1, 70, m(0, 0, 0, 0, 5, 10), a(0, 0, 0, 0, 0, 2, 2, 1), c(0xB87440, 0xB9855C, 0x593D29, 0x914A18))));</v>
-      </c>
-      <c r="AK11" s="13" t="str">
+        <v>r(9, enderman = v(t(9, "enderman", 4, 48, m(1, 12, 12, 16, 10, 1), a(11, 3, 5, 2, 0, 1, 2, 6), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
+      </c>
+      <c r="AM11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.dirt.name=Dirtia</v>
-      </c>
-      <c r="AL11" s="13" t="str">
+        <v>item.mirageFairy.enderman.name=Endermania</v>
+      </c>
+      <c r="AN11" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.dirt.name=ディルチャ</v>
-      </c>
-      <c r="AM11" s="13"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
+      </c>
+      <c r="AO11" s="13"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" s="8">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="K12" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="L12" s="7">
+        <v>25</v>
+      </c>
+      <c r="M12" s="7">
+        <v>25</v>
+      </c>
       <c r="N12" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="O12" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K12:P12)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.93174042930477308</v>
+        <v>0.85724398285307279</v>
       </c>
       <c r="S12" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.93174042930477308</v>
+        <v>1.7144879657061456</v>
       </c>
       <c r="T12" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>59.631387475505477</v>
+        <v>162.87635674208383</v>
       </c>
       <c r="U12" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0.39490985083116215</v>
+        <v>8.5724398285307277</v>
       </c>
       <c r="V12" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>21.431099571326818</v>
       </c>
       <c r="W12" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>21.431099571326818</v>
       </c>
       <c r="X12" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>15.796394033246484</v>
+        <v>17.144879657061455</v>
       </c>
       <c r="Y12" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.949098508311621</v>
+        <v>17.144879657061455</v>
       </c>
       <c r="Z12" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>39.490985083116207</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="14">
-        <v>1</v>
-      </c>
+        <v>77.151958456776555</v>
+      </c>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
+      <c r="AD12" s="14">
+        <v>6</v>
+      </c>
       <c r="AE12" s="14"/>
       <c r="AF12" s="14"/>
       <c r="AG12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="14">
         <v>6</v>
       </c>
-      <c r="AH12" s="14">
-        <v>3</v>
-      </c>
-      <c r="AI12" s="13" t="str">
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] sand;</v>
-      </c>
-      <c r="AJ12" s="13" t="str">
+        <v>public static VariantMirageFairy[] moon;</v>
+      </c>
+      <c r="AL12" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(11, sand = v(t(11, "sand", 1, 64, m(0.1, 0, 0, 4, 1, 10), a(2, 1, 0, 0, 0, 0, 6, 3), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
-      </c>
-      <c r="AK12" s="13" t="str">
+        <v>r(10, moon = v(t(10, "moon", 5, 95, m(10, 25, 25, 20, 20, 90), a(0, 0, 0, 6, 0, 0, 2, 6), c(0xD9E4FF, 0x747D93, 0x0C121F, 0x2D4272))));</v>
+      </c>
+      <c r="AM12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.sand.name=Sandia</v>
-      </c>
-      <c r="AL12" s="13" t="str">
+        <v>item.mirageFairy.moon.name=Moonia</v>
+      </c>
+      <c r="AN12" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.sand.name=サンジャ</v>
-      </c>
-      <c r="AM12" s="13"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.moon.name=モーニャ</v>
+      </c>
+      <c r="AO12" s="13"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -4168,52 +4356,56 @@
         <v>418</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="8">
-        <v>77</v>
-      </c>
-      <c r="K13" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.1</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7">
-        <v>12</v>
-      </c>
-      <c r="O13" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
       <c r="P13" s="7">
         <v>10</v>
       </c>
       <c r="Q13" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1</v>
       </c>
       <c r="R13" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K13:P13)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89089871814033927</v>
+        <v>0.93174042930477308</v>
       </c>
       <c r="S13" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0594630943592951</v>
+        <v>0.93174042930477308</v>
       </c>
       <c r="T13" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>81.578658265665723</v>
+        <v>59.631387475505477</v>
       </c>
       <c r="U13" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>0.39490985083116215</v>
       </c>
       <c r="V13" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4225,18 +4417,18 @@
       </c>
       <c r="X13" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>44.497449963090396</v>
+        <v>15.796394033246484</v>
       </c>
       <c r="Y13" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>3.949098508311621</v>
       </c>
       <c r="Z13" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.081208302575327</v>
+        <v>39.490985083116207</v>
       </c>
       <c r="AA13" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
@@ -4244,32 +4436,34 @@
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
       <c r="AG13" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH13" s="14">
-        <v>2</v>
-      </c>
-      <c r="AI13" s="13" t="str">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] gravel;</v>
-      </c>
-      <c r="AJ13" s="13" t="str">
+        <v>public static VariantMirageFairy[] sand;</v>
+      </c>
+      <c r="AL13" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(22, gravel = v(t(22, "gravel", 2, 77, m(0, 0, 0, 12, 0, 10), a(3, 0, 0, 0, 0, 0, 6, 2), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
-      </c>
-      <c r="AK13" s="13" t="str">
+        <v>r(11, sand = v(t(11, "sand", 1, 64, m(0.1, 0, 0, 4, 1, 10), a(1, 0, 0, 0, 0, 0, 7, 3), c(0xB87440, 0xEEE4B6, 0xC2BC84, 0xD8D09B))));</v>
+      </c>
+      <c r="AM13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.gravel.name=Gravelia</v>
-      </c>
-      <c r="AL13" s="13" t="str">
+        <v>item.mirageFairy.sand.name=Sandia</v>
+      </c>
+      <c r="AN13" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.gravel.name=グラベーリャ</v>
-      </c>
-      <c r="AM13" s="13"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.sand.name=サンジャ</v>
+      </c>
+      <c r="AO13" s="13"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -4281,175 +4475,177 @@
         <v>419</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="8">
-        <v>86</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7">
+        <v>12</v>
+      </c>
       <c r="N14" s="7">
         <v>10</v>
       </c>
       <c r="O14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="R14" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K14:P14)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.92018765062487506</v>
+        <v>0.78639896789398112</v>
       </c>
       <c r="S14" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0942937012607394</v>
+        <v>1.1121360858318723</v>
       </c>
       <c r="T14" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>94.109258308423591</v>
+        <v>103.42865598236412</v>
       </c>
       <c r="U14" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>2.52265014591132</v>
       </c>
       <c r="V14" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.8818286442764744</v>
+        <v>0</v>
       </c>
       <c r="W14" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>30.271801750935836</v>
       </c>
       <c r="X14" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>58.818286442764744</v>
+        <v>25.226501459113202</v>
       </c>
       <c r="Y14" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.8818286442764744</v>
+        <v>7.567950437733959</v>
       </c>
       <c r="Z14" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>23.527314577105898</v>
-      </c>
-      <c r="AA14" s="14"/>
+        <v>37.839752188669799</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>1</v>
+      </c>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
       <c r="AG14" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH14" s="14">
+        <v>12</v>
+      </c>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] gold;</v>
+      </c>
+      <c r="AL14" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(12, gold = v(t(12, "gold", 3, 93, m(1, 0, 12, 10, 3, 15), a(1, 0, 1, 1, 0, 0, 3, 12), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
+      </c>
+      <c r="AM14" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.gold.name=Goldia</v>
+      </c>
+      <c r="AN14" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.gold.name=ゴルジャ</v>
+      </c>
+      <c r="AO14" s="13"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="AI14" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] iron;</v>
-      </c>
-      <c r="AJ14" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(6, iron = v(t(6, "iron", 2, 86, m(0, 1, 0, 10, 1, 4), a(0, 0, 2, 2, 0, 0, 1, 2), c(0xA0A0A0, 0xD8D8D8, 0x727272, 0xD8AF93))));</v>
-      </c>
-      <c r="AK14" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.iron.name=Ironia</v>
-      </c>
-      <c r="AL14" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.iron.name=イローニャ</v>
-      </c>
-      <c r="AM14" s="13"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3</v>
-      </c>
       <c r="J15" s="8">
-        <v>93</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7">
-        <v>12</v>
-      </c>
-      <c r="N15" s="7">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
         <v>10</v>
       </c>
-      <c r="O15" s="7">
-        <v>3</v>
-      </c>
-      <c r="P15" s="7"/>
+      <c r="P15" s="7">
+        <v>4</v>
+      </c>
       <c r="Q15" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R15" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K15:P15)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85066716095085571</v>
+        <v>0.94605764672559589</v>
       </c>
       <c r="S15" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2030250360821166</v>
+        <v>1.1250584846888094</v>
       </c>
       <c r="T15" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>111.88132835563685</v>
+        <v>48.377514841618805</v>
       </c>
       <c r="U15" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.3031280136783403</v>
+        <v>0</v>
       </c>
       <c r="V15" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4457,247 +4653,251 @@
       </c>
       <c r="W15" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>51.637536164140087</v>
+        <v>0</v>
       </c>
       <c r="X15" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>43.031280136783408</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.909384041035022</v>
+        <v>34.555367744013431</v>
       </c>
       <c r="Z15" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="14"/>
+        <v>13.822147097605372</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>10</v>
+      </c>
       <c r="AB15" s="14"/>
-      <c r="AC15" s="14">
-        <v>1</v>
-      </c>
+      <c r="AC15" s="14"/>
       <c r="AD15" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14">
-        <v>1</v>
-      </c>
+      <c r="AF15" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="14"/>
       <c r="AH15" s="14">
-        <v>12</v>
-      </c>
-      <c r="AI15" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] gold;</v>
-      </c>
-      <c r="AJ15" s="13" t="str">
+        <v>public static VariantMirageFairy[] spider;</v>
+      </c>
+      <c r="AL15" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(12, gold = v(t(12, "gold", 3, 93, m(1, 0, 12, 10, 3, 0), a(0, 0, 1, 3, 0, 0, 1, 12), c(0xA0A0A0, 0xFFFF0B, 0xDC7613, 0xDEDE00))));</v>
-      </c>
-      <c r="AK15" s="13" t="str">
+        <v>r(13, spider = v(t(13, "spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(10, 0, 0, 2, 0, 2, 0, 2), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
+      </c>
+      <c r="AM15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.gold.name=Goldia</v>
-      </c>
-      <c r="AL15" s="13" t="str">
+        <v>item.mirageFairy.spider.name=Spideria</v>
+      </c>
+      <c r="AN15" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.gold.name=ゴルジャ</v>
-      </c>
-      <c r="AM15" s="13"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.spider.name=スピデーリャ</v>
+      </c>
+      <c r="AO15" s="13"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" s="8">
-        <v>76</v>
-      </c>
-      <c r="K16" s="7">
+        <v>49</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <v>8</v>
+      </c>
+      <c r="M16" s="7">
         <v>10</v>
       </c>
-      <c r="L16" s="7">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>19</v>
-      </c>
       <c r="N16" s="7">
-        <v>49</v>
-      </c>
-      <c r="O16" s="7">
-        <v>23</v>
-      </c>
-      <c r="P16" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7">
+        <v>8</v>
+      </c>
       <c r="Q16" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1</v>
       </c>
       <c r="R16" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K16:P16)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.83202217093230291</v>
+        <v>0.74742462431746925</v>
       </c>
       <c r="S16" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3992889218971736</v>
+        <v>0.74742462431746925</v>
       </c>
       <c r="T16" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>106.3459580641852</v>
+        <v>36.62380659155599</v>
       </c>
       <c r="U16" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.328592812647825</v>
+        <v>0</v>
       </c>
       <c r="V16" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.127170656442171</v>
+        <v>9.4513049268531582</v>
       </c>
       <c r="W16" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>17.724326344030867</v>
+        <v>11.814131158566449</v>
       </c>
       <c r="X16" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>45.710104781974337</v>
+        <v>5.9070655792832243</v>
       </c>
       <c r="Y16" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>21.455763469089995</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
+        <v>9.4513049268531582</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>1</v>
+      </c>
       <c r="AC16" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="14">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
-      <c r="AG16" s="14">
-        <v>17</v>
-      </c>
+      <c r="AG16" s="14"/>
       <c r="AH16" s="14">
-        <v>8</v>
-      </c>
-      <c r="AI16" s="13" t="str">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] diamond;</v>
-      </c>
-      <c r="AJ16" s="13" t="str">
+        <v>public static VariantMirageFairy[] skeleton;</v>
+      </c>
+      <c r="AL16" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(7, diamond = v(t(7, "diamond", 4, 76, m(10, 13, 19, 49, 23, 0), a(0, 0, 1, 4, 0, 0, 17, 8), c(0x97FFE3, 0xD1FAF3, 0x70FFD9, 0x30DBBD))));</v>
-      </c>
-      <c r="AK16" s="13" t="str">
+        <v>r(14, skeleton = v(t(14, "skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(12, 1, 3, 0, 0, 0, 0, 2), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
+      </c>
+      <c r="AM16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.diamond.name=Diamondia</v>
-      </c>
-      <c r="AL16" s="13" t="str">
+        <v>item.mirageFairy.skeleton.name=Skeletonia</v>
+      </c>
+      <c r="AN16" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.diamond.name=ディアモンジャ</v>
-      </c>
-      <c r="AM16" s="13"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
+      </c>
+      <c r="AO16" s="13"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8">
         <v>55</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4</v>
-      </c>
-      <c r="J17" s="8">
-        <v>73</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
+        <v>9</v>
+      </c>
+      <c r="M17" s="7">
         <v>10</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7">
-        <v>6</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="P17" s="7">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1</v>
       </c>
       <c r="R17" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K17:P17)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89293045273660088</v>
+        <v>0.75785828325519911</v>
       </c>
       <c r="S17" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.5017240335541679</v>
+        <v>0.75785828325519911</v>
       </c>
       <c r="T17" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>109.62585444945427</v>
+        <v>41.682205579035951</v>
       </c>
       <c r="U17" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>8.4981282518956789</v>
+        <v>0</v>
       </c>
       <c r="V17" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>12.504661673710785</v>
       </c>
       <c r="W17" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.0988769511374077</v>
+        <v>13.894068526345317</v>
       </c>
       <c r="X17" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4705,229 +4905,231 @@
       </c>
       <c r="Y17" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>35.692138657961856</v>
+        <v>2.7788137052690636</v>
       </c>
       <c r="Z17" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>60.336710588459326</v>
-      </c>
-      <c r="AA17" s="14"/>
+        <v>12.504661673710785</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>13</v>
+      </c>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14">
+      <c r="AC17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14">
+        <v>4</v>
+      </c>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="14">
         <v>2</v>
       </c>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14">
-        <v>15</v>
-      </c>
-      <c r="AH17" s="14">
-        <v>9</v>
-      </c>
-      <c r="AI17" s="13" t="str">
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] emerald;</v>
-      </c>
-      <c r="AJ17" s="13" t="str">
+        <v>public static VariantMirageFairy[] zombie;</v>
+      </c>
+      <c r="AL17" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(23, emerald = v(t(23, "emerald", 4, 73, m(10, 0, 6, 0, 42, 71), a(0, 0, 0, 2, 0, 0, 15, 9), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
-      </c>
-      <c r="AK17" s="13" t="str">
+        <v>r(15, zombie = v(t(15, "zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(13, 0, 1, 0, 0, 4, 0, 1), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
+      </c>
+      <c r="AM17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.emerald.name=Emeraldia</v>
-      </c>
-      <c r="AL17" s="13" t="str">
+        <v>item.mirageFairy.zombie.name=Zombia</v>
+      </c>
+      <c r="AN17" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.emerald.name=エメラルジャ</v>
-      </c>
-      <c r="AM17" s="13"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.zombie.name=ゾンビャ</v>
+      </c>
+      <c r="AO17" s="13"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="I18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="8">
-        <v>54</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7">
         <v>35</v>
       </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="7">
-        <v>11</v>
-      </c>
-      <c r="N18" s="7">
         <v>10</v>
       </c>
-      <c r="O18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7">
+        <v>12</v>
+      </c>
       <c r="P18" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.4142135623730951</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R18" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K18:P18)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
+        <v>0.85066716095085571</v>
       </c>
       <c r="S18" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2657565939702802</v>
+        <v>1.0116194403019225</v>
       </c>
       <c r="T18" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>68.350856074395125</v>
+        <v>35.40668041056729</v>
       </c>
       <c r="U18" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.0849342234030972</v>
+        <v>0</v>
       </c>
       <c r="V18" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>37.972697819108404</v>
+        <v>0</v>
       </c>
       <c r="W18" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.93427645743407</v>
+        <v>13.617954004064341</v>
       </c>
       <c r="X18" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>10.849342234030971</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>16.341544804877209</v>
       </c>
       <c r="Z18" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>6.5096053404185836</v>
-      </c>
-      <c r="AA18" s="14"/>
+        <v>5.4471816016257373</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>10</v>
+      </c>
       <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14">
-        <v>7</v>
-      </c>
+      <c r="AC18" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="14"/>
       <c r="AE18" s="14">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="14">
         <v>2</v>
       </c>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14">
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] creeper;</v>
+      </c>
+      <c r="AL18" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(16, creeper = v(t(16, "creeper", 2, 35, m(0, 0, 10, 0, 12, 4), a(10, 0, 3, 0, 3, 2, 0, 4), c(0x5BAA53, 0xD6FFCF, 0x5EE74C, 0x000000))));</v>
+      </c>
+      <c r="AM18" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.creeper.name=Creeperia</v>
+      </c>
+      <c r="AN18" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.creeper.name=クレペーリャ</v>
+      </c>
+      <c r="AO18" s="13"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>31</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7">
         <v>10</v>
       </c>
-      <c r="AH18" s="14">
-        <v>7</v>
-      </c>
-      <c r="AI18" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] redstone;</v>
-      </c>
-      <c r="AJ18" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(8, redstone = v(t(8, "redstone", 3, 54, m(1, 35, 11, 10, 0, 6), a(0, 0, 0, 7, 2, 0, 10, 7), c(0xFF5959, 0xFF0000, 0xCD0000, 0xBA0000))));</v>
-      </c>
-      <c r="AK18" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.redstone.name=Redstonia</v>
-      </c>
-      <c r="AL18" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.redstone.name=レドストーニャ</v>
-      </c>
-      <c r="AM18" s="13"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="I19" s="3">
-        <v>4</v>
-      </c>
-      <c r="J19" s="8">
-        <v>62</v>
-      </c>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7">
-        <v>8</v>
-      </c>
-      <c r="N19" s="7">
-        <v>10</v>
-      </c>
-      <c r="O19" s="7">
-        <v>18</v>
-      </c>
-      <c r="P19" s="7"/>
+      <c r="P19" s="7">
+        <v>5</v>
+      </c>
       <c r="Q19" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R19" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K19:P19)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.86387165259369147</v>
+        <v>0.93303299153680741</v>
       </c>
       <c r="S19" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.4528531518106746</v>
+        <v>1.1095694720678451</v>
       </c>
       <c r="T19" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>90.076895412261834</v>
+        <v>34.396653634103195</v>
       </c>
       <c r="U19" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.4345106868178874</v>
+        <v>0</v>
       </c>
       <c r="V19" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -4935,586 +5137,602 @@
       </c>
       <c r="W19" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>19.476085494543099</v>
+        <v>0</v>
       </c>
       <c r="X19" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>24.345106868178874</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>43.821192362721973</v>
+        <v>22.931102422735464</v>
       </c>
       <c r="Z19" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>11.465551211367732</v>
       </c>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
+      <c r="AC19" s="14">
+        <v>1</v>
+      </c>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14">
-        <v>13</v>
-      </c>
+      <c r="AF19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="14"/>
       <c r="AH19" s="14">
-        <v>10</v>
-      </c>
-      <c r="AI19" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] lapislazuli;</v>
-      </c>
-      <c r="AJ19" s="13" t="str">
+        <v>public static VariantMirageFairy[] wheat;</v>
+      </c>
+      <c r="AL19" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(24, lapislazuli = v(t(24, "lapislazuli", 4, 62, m(1, 0, 8, 10, 18, 0), a(0, 0, 0, 0, 0, 0, 13, 10), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
-      </c>
-      <c r="AK19" s="13" t="str">
+        <v>r(17, wheat = v(t(17, "wheat", 2, 31, m(0, 0, 0, 0, 10, 5), a(0, 0, 1, 0, 0, 1, 0, 1), c(0x168700, 0xD5DA45, 0x716125, 0x9E8714))));</v>
+      </c>
+      <c r="AM19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
-      </c>
-      <c r="AL19" s="13" t="str">
+        <v>item.mirageFairy.wheat.name=Wheatia</v>
+      </c>
+      <c r="AN19" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
-      </c>
-      <c r="AM19" s="13"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.wheat.name=ウェアーチャ</v>
+      </c>
+      <c r="AO19" s="13"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" s="8">
-        <v>48</v>
-      </c>
-      <c r="K20" s="7">
-        <v>1</v>
-      </c>
-      <c r="L20" s="7">
-        <v>12</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O20" s="7">
         <v>10</v>
       </c>
-      <c r="P20" s="7">
-        <v>1</v>
-      </c>
+      <c r="P20" s="7"/>
       <c r="Q20" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.681792830507429</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="R20" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K20:P20)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.73204284797281272</v>
+        <v>0.97265494741228553</v>
       </c>
       <c r="S20" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.2311444133449163</v>
+        <v>1.3755418181397439</v>
       </c>
       <c r="T20" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>59.094931840555986</v>
+        <v>38.515170907912825</v>
       </c>
       <c r="U20" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.136440996933769</v>
+        <v>0</v>
       </c>
       <c r="V20" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.637291963205227</v>
+        <v>0</v>
       </c>
       <c r="W20" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.637291963205227</v>
+        <v>3.209597575659402</v>
       </c>
       <c r="X20" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.183055950940304</v>
+        <v>3.209597575659402</v>
       </c>
       <c r="Y20" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.364409969337689</v>
+        <v>32.095975756594022</v>
       </c>
       <c r="Z20" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.136440996933769</v>
-      </c>
-      <c r="AA20" s="14">
-        <v>11</v>
-      </c>
-      <c r="AB20" s="14">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
       <c r="AC20" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD20" s="14">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AD20" s="14"/>
       <c r="AE20" s="14"/>
       <c r="AF20" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14">
+        <v>11</v>
+      </c>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] lilac;</v>
+      </c>
+      <c r="AL20" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(18, lilac = v(t(18, "lilac", 3, 28, m(0, 0, 1, 1, 10, 0), a(0, 0, 1, 0, 0, 2, 0, 11), c(0x63D700, 0xF0C9FF, 0xDC8CE6, 0xA22CFF))));</v>
+      </c>
+      <c r="AM20" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.lilac.name=Lilacia</v>
+      </c>
+      <c r="AN20" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.lilac.name=リラーキャ</v>
+      </c>
+      <c r="AO20" s="13"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8">
+        <v>19</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7">
+        <v>10</v>
+      </c>
+      <c r="O21" s="7">
         <v>4</v>
       </c>
-      <c r="AH20" s="14">
-        <v>3</v>
-      </c>
-      <c r="AI20" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] enderman;</v>
-      </c>
-      <c r="AJ20" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(9, enderman = v(t(9, "enderman", 4, 48, m(1, 12, 12, 16, 10, 1), a(11, 7, 6, 4, 0, 1, 4, 3), c(0x000000, 0x161616, 0x161616, 0xEF84FA))));</v>
-      </c>
-      <c r="AK20" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.enderman.name=Endermania</v>
-      </c>
-      <c r="AL20" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.enderman.name=エンデルマーニャ</v>
-      </c>
-      <c r="AM20" s="13"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
-        <v>13</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2</v>
-      </c>
-      <c r="J21" s="8">
-        <v>43</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7">
-        <v>10</v>
-      </c>
-      <c r="P21" s="7">
-        <v>4</v>
-      </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1</v>
       </c>
       <c r="R21" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K21:P21)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.94605764672559589</v>
+        <v>0.91891288347904987</v>
       </c>
       <c r="S21" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.1250584846888094</v>
+        <v>0.91891288347904987</v>
       </c>
       <c r="T21" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>48.377514841618805</v>
+        <v>17.459344786101948</v>
       </c>
       <c r="U21" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>0.10844313531740341</v>
       </c>
       <c r="V21" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>1.0844313531740339</v>
       </c>
       <c r="W21" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>1.0844313531740339</v>
       </c>
       <c r="X21" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>10.84431353174034</v>
       </c>
       <c r="Y21" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>34.555367744013431</v>
+        <v>4.3377254126961358</v>
       </c>
       <c r="Z21" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.822147097605372</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="14">
-        <v>10</v>
-      </c>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>2</v>
+      </c>
       <c r="AD21" s="14">
-        <v>3</v>
-      </c>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AE21" s="14">
+        <v>8</v>
+      </c>
+      <c r="AF21" s="14"/>
       <c r="AG21" s="14"/>
       <c r="AH21" s="14">
         <v>2</v>
       </c>
-      <c r="AI21" s="13" t="str">
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] spider;</v>
-      </c>
-      <c r="AJ21" s="13" t="str">
+        <v>public static VariantMirageFairy[] torch;</v>
+      </c>
+      <c r="AL21" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(13, spider = v(t(13, "spider", 2, 43, m(0, 0, 0, 0, 10, 4), a(10, 0, 0, 3, 0, 2, 0, 2), c(0x494422, 0x61554A, 0x52483F, 0xA80E0E))));</v>
-      </c>
-      <c r="AK21" s="13" t="str">
+        <v>r(19, torch = v(t(19, "torch", 1, 19, m(0.1, 1, 1, 10, 4, 0), a(1, 1, 2, 12, 8, 0, 0, 2), c(0xFFFFFF, 0xFFC52C, 0xFF5800, 0xFFE6A5))));</v>
+      </c>
+      <c r="AM21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.spider.name=Spideria</v>
-      </c>
-      <c r="AL21" s="13" t="str">
+        <v>item.mirageFairy.torch.name=Torchia</v>
+      </c>
+      <c r="AN21" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.spider.name=スピデーリャ</v>
-      </c>
-      <c r="AM21" s="13"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.torch.name=トルキャ</v>
+      </c>
+      <c r="AO21" s="13"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="I22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J22" s="8">
-        <v>61</v>
-      </c>
-      <c r="K22" s="7">
-        <v>3</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7">
-        <v>51</v>
-      </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7">
+        <v>58</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7">
+        <v>18</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7">
+        <v>4</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7">
         <v>10</v>
       </c>
-      <c r="P22" s="7"/>
       <c r="Q22" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>2</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R22" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K22:P22)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.965280144022022</v>
+        <v>0.89778658506536924</v>
       </c>
       <c r="S22" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.930560288044044</v>
+        <v>1.0676541947137328</v>
       </c>
       <c r="T22" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>117.76417757068668</v>
+        <v>61.923943293396505</v>
       </c>
       <c r="U22" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.5201958236259383</v>
+        <v>0</v>
       </c>
       <c r="V22" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>34.832218102535535</v>
       </c>
       <c r="W22" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>93.843329001640953</v>
+        <v>0</v>
       </c>
       <c r="X22" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>7.7404929116745631</v>
       </c>
       <c r="Y22" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>18.400652745419794</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>19.351232279186409</v>
       </c>
       <c r="AA22" s="14">
-        <v>20</v>
-      </c>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>1</v>
+      </c>
       <c r="AD22" s="14">
-        <v>2</v>
-      </c>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>18</v>
+      </c>
+      <c r="AF22" s="14"/>
       <c r="AG22" s="14"/>
       <c r="AH22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="13" t="str">
+        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
+        <v>public static VariantMirageFairy[] lava;</v>
+      </c>
+      <c r="AL22" s="13" t="str">
+        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
+        <v>r(20, lava = v(t(20, "lava", 2, 58, m(0, 18, 0, 4, 0, 10), a(8, 1, 1, 13, 18, 0, 0, 1), c(0xCD4208, 0xEDB54A, 0xCC4108, 0x4C1500))));</v>
+      </c>
+      <c r="AM22" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
+        <v>item.mirageFairy.lava.name=Lavia</v>
+      </c>
+      <c r="AN22" s="13" t="str">
+        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
+        <v>item.mirageFairy.lava.name=ラービャ</v>
+      </c>
+      <c r="AO22" s="13"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
         <v>4</v>
       </c>
-      <c r="AI22" s="13" t="str">
-        <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] enderdragon;</v>
-      </c>
-      <c r="AJ22" s="13" t="str">
-        <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(25, enderdragon = v(t(25, "enderdragon", 5, 61, m(3, 0, 51, 0, 10, 0), a(20, 0, 0, 2, 0, 2, 0, 4), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
-      </c>
-      <c r="AK22" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
-      </c>
-      <c r="AL22" s="13" t="str">
-        <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
-      </c>
-      <c r="AM22" s="13"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
-        <v>29</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
       <c r="J23" s="8">
-        <v>39</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="K23" s="7">
+        <v>10</v>
+      </c>
+      <c r="L23" s="7">
+        <v>30</v>
+      </c>
       <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="N23" s="7">
+        <v>10</v>
+      </c>
       <c r="O23" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R23" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K23:P23)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.89502507092797245</v>
+        <v>0.81853221952998167</v>
       </c>
       <c r="S23" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.89502507092797245</v>
+        <v>1.3766016183448562</v>
       </c>
       <c r="T23" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>34.905977766190922</v>
+        <v>134.90695859779589</v>
       </c>
       <c r="U23" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>6.132134481717995</v>
       </c>
       <c r="V23" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>18.396403445153986</v>
       </c>
       <c r="W23" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>1.9392209870106067</v>
+        <v>30.660672408589974</v>
       </c>
       <c r="X23" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>6.132134481717995</v>
       </c>
       <c r="Y23" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>19.392209870106068</v>
+        <v>18.396403445153986</v>
       </c>
       <c r="Z23" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.574546909074249</v>
-      </c>
-      <c r="AA23" s="14">
-        <v>1</v>
-      </c>
+        <v>55.189210335461958</v>
+      </c>
+      <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14">
-        <v>3</v>
-      </c>
-      <c r="AG23" s="14"/>
+      <c r="AD23" s="14">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14">
+        <v>1</v>
+      </c>
       <c r="AH23" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="13" t="str">
+        <v>7</v>
+      </c>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] chicken;</v>
-      </c>
-      <c r="AJ23" s="13" t="str">
+        <v>public static VariantMirageFairy[] star;</v>
+      </c>
+      <c r="AL23" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(29, chicken = v(t(29, "chicken", 1, 39, m(0, 0, 1, 0, 10, 7), a(1, 0, 0, 0, 0, 3, 0, 1), c(0xFFDFA3, 0xFFFFFF, 0xFFFFFF, 0xD93117))));</v>
-      </c>
-      <c r="AK23" s="13" t="str">
+        <v>r(21, star = v(t(21, "star", 4, 98, m(10, 30, 50, 10, 30, 90), a(0, 0, 0, 4, 2, 0, 1, 7), c(0xffffff, 0x2C2C2E, 0x0E0E10, 0x191919))));</v>
+      </c>
+      <c r="AM23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.chicken.name=Chickenia</v>
-      </c>
-      <c r="AL23" s="13" t="str">
+        <v>item.mirageFairy.star.name=Staria</v>
+      </c>
+      <c r="AN23" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.chicken.name=チッケーニャ</v>
-      </c>
-      <c r="AM23" s="13"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.star.name=スターリャ</v>
+      </c>
+      <c r="AO23" s="13"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>307</v>
+        <v>441</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="8">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="7">
-        <v>8</v>
-      </c>
-      <c r="M24" s="7">
-        <v>10</v>
-      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.189207115002721</v>
       </c>
       <c r="R24" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K24:P24)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.74742462431746925</v>
+        <v>0.89089871814033927</v>
       </c>
       <c r="S24" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.74742462431746925</v>
+        <v>1.0594630943592951</v>
       </c>
       <c r="T24" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>36.62380659155599</v>
+        <v>81.578658265665723</v>
       </c>
       <c r="U24" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5522,15 +5740,15 @@
       </c>
       <c r="V24" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.4513049268531582</v>
+        <v>0</v>
       </c>
       <c r="W24" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>11.814131158566449</v>
+        <v>0</v>
       </c>
       <c r="X24" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.9070655792832243</v>
+        <v>44.497449963090396</v>
       </c>
       <c r="Y24" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5538,114 +5756,114 @@
       </c>
       <c r="Z24" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>9.4513049268531582</v>
+        <v>37.081208302575327</v>
       </c>
       <c r="AA24" s="14">
-        <v>12</v>
-      </c>
-      <c r="AB24" s="14">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="14">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
+      <c r="AG24" s="14">
+        <v>3</v>
+      </c>
       <c r="AH24" s="14">
-        <v>2</v>
-      </c>
-      <c r="AI24" s="13" t="str">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] skeleton;</v>
-      </c>
-      <c r="AJ24" s="13" t="str">
+        <v>public static VariantMirageFairy[] gravel;</v>
+      </c>
+      <c r="AL24" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(14, skeleton = v(t(14, "skeleton", 1, 49, m(0, 8, 10, 5, 0, 8), a(12, 5, 8, 0, 0, 0, 0, 2), c(0xCACACA, 0xCFCFCF, 0xCFCFCF, 0x494949))));</v>
-      </c>
-      <c r="AK24" s="13" t="str">
+        <v>r(22, gravel = v(t(22, "gravel", 2, 77, m(0, 0, 0, 12, 0, 10), a(1, 0, 0, 0, 0, 0, 3, 1), c(0x333333, 0xC0B5B6, 0x968B8E, 0x63565C))));</v>
+      </c>
+      <c r="AM24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.skeleton.name=Skeletonia</v>
-      </c>
-      <c r="AL24" s="13" t="str">
+        <v>item.mirageFairy.gravel.name=Gravelia</v>
+      </c>
+      <c r="AN24" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.skeleton.name=スケレトーニャ</v>
-      </c>
-      <c r="AM24" s="13"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.gravel.name=グラベーリャ</v>
+      </c>
+      <c r="AO24" s="13"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="I25" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" s="8">
-        <v>55</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7">
-        <v>9</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K25" s="7">
+        <v>10</v>
+      </c>
+      <c r="L25" s="7"/>
       <c r="M25" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="P25" s="7">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="Q25" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R25" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K25:P25)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.75785828325519911</v>
+        <v>0.89293045273660088</v>
       </c>
       <c r="S25" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>0.75785828325519911</v>
+        <v>1.5017240335541679</v>
       </c>
       <c r="T25" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>41.682205579035951</v>
+        <v>109.62585444945427</v>
       </c>
       <c r="U25" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>8.4981282518956789</v>
       </c>
       <c r="V25" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.504661673710785</v>
+        <v>0</v>
       </c>
       <c r="W25" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.894068526345317</v>
+        <v>5.0988769511374077</v>
       </c>
       <c r="X25" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -5653,170 +5871,166 @@
       </c>
       <c r="Y25" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>2.7788137052690636</v>
+        <v>35.692138657961856</v>
       </c>
       <c r="Z25" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.504661673710785</v>
-      </c>
-      <c r="AA25" s="14">
-        <v>13</v>
-      </c>
+        <v>60.336710588459326</v>
+      </c>
+      <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="14">
-        <v>6</v>
-      </c>
-      <c r="AD25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14">
+        <v>1</v>
+      </c>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="14">
-        <v>4</v>
-      </c>
-      <c r="AG25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14">
+        <v>15</v>
+      </c>
       <c r="AH25" s="14">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="13" t="str">
+        <v>9</v>
+      </c>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] zombie;</v>
-      </c>
-      <c r="AJ25" s="13" t="str">
+        <v>public static VariantMirageFairy[] emerald;</v>
+      </c>
+      <c r="AL25" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(15, zombie = v(t(15, "zombie", 1, 55, m(0, 9, 10, 0, 2, 9), a(13, 0, 6, 0, 0, 4, 0, 1), c(0x2B4219, 0x00AAAA, 0x322976, 0x2B4219))));</v>
-      </c>
-      <c r="AK25" s="13" t="str">
+        <v>r(23, emerald = v(t(23, "emerald", 4, 73, m(10, 0, 6, 0, 42, 71), a(0, 0, 0, 1, 0, 0, 15, 9), c(0x9FF9B5, 0x81F99E, 0x17DD62, 0x008A25))));</v>
+      </c>
+      <c r="AM25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.zombie.name=Zombia</v>
-      </c>
-      <c r="AL25" s="13" t="str">
+        <v>item.mirageFairy.emerald.name=Emeraldia</v>
+      </c>
+      <c r="AN25" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.zombie.name=ゾンビャ</v>
-      </c>
-      <c r="AM25" s="13"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.emerald.name=エメラルジャ</v>
+      </c>
+      <c r="AO25" s="13"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I26" s="3">
         <v>4</v>
       </c>
       <c r="J26" s="8">
-        <v>69</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7">
-        <v>11</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7"/>
       <c r="M26" s="7">
+        <v>8</v>
+      </c>
+      <c r="N26" s="7">
         <v>10</v>
       </c>
-      <c r="N26" s="7">
-        <v>4</v>
-      </c>
       <c r="O26" s="7">
-        <v>1</v>
-      </c>
-      <c r="P26" s="7">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="P26" s="7"/>
       <c r="Q26" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
         <v>1.681792830507429</v>
       </c>
       <c r="R26" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K26:P26)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.81738683317269123</v>
+        <v>0.86387165259369147</v>
       </c>
       <c r="S26" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.3746753157810041</v>
+        <v>1.4528531518106746</v>
       </c>
       <c r="T26" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>94.852596788889286</v>
+        <v>90.076895412261834</v>
       </c>
       <c r="U26" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>2.4345106868178874</v>
       </c>
       <c r="V26" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>38.643650543621561</v>
+        <v>0</v>
       </c>
       <c r="W26" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>35.130591403292328</v>
+        <v>19.476085494543099</v>
       </c>
       <c r="X26" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>14.052236561316931</v>
+        <v>24.345106868178874</v>
       </c>
       <c r="Y26" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.5130591403292328</v>
+        <v>43.821192362721973</v>
       </c>
       <c r="Z26" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>3.5130591403292328</v>
-      </c>
-      <c r="AA26" s="14">
-        <v>17</v>
-      </c>
-      <c r="AB26" s="14">
-        <v>6</v>
-      </c>
-      <c r="AC26" s="14">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
+      <c r="AG26" s="14">
+        <v>9</v>
+      </c>
       <c r="AH26" s="14">
-        <v>2</v>
-      </c>
-      <c r="AI26" s="13" t="str">
+        <v>10</v>
+      </c>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] witherskeleton;</v>
-      </c>
-      <c r="AJ26" s="13" t="str">
+        <v>public static VariantMirageFairy[] lapislazuli;</v>
+      </c>
+      <c r="AL26" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(26, witherskeleton = v(t(26, "witherskeleton", 4, 69, m(0, 11, 10, 4, 1, 1), a(17, 6, 2, 0, 0, 0, 0, 2), c(0x505252, 0x1C1C1C, 0x1C1C1C, 0x060606))));</v>
-      </c>
-      <c r="AK26" s="13" t="str">
+        <v>r(24, lapislazuli = v(t(24, "lapislazuli", 4, 62, m(1, 0, 8, 10, 18, 0), a(0, 0, 0, 0, 0, 0, 9, 10), c(0xA2B7E8, 0x4064EC, 0x224BD5, 0x0A33C2))));</v>
+      </c>
+      <c r="AM26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.witherskeleton.name=Withereskeletonia</v>
-      </c>
-      <c r="AL26" s="13" t="str">
+        <v>item.mirageFairy.lapislazuli.name=Lapislazulia</v>
+      </c>
+      <c r="AN26" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.witherskeleton.name=ウィーテレスケレトーニャ</v>
-      </c>
-      <c r="AM26" s="13"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.lapislazuli.name=ラピスラズーリャ</v>
+      </c>
+      <c r="AO26" s="13"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -5825,38 +6039,36 @@
         <v>408</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I27" s="3">
         <v>5</v>
       </c>
       <c r="J27" s="8">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7">
-        <v>8</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K27" s="7">
+        <v>3</v>
+      </c>
+      <c r="L27" s="7"/>
       <c r="M27" s="7">
+        <v>51</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7">
         <v>10</v>
-      </c>
-      <c r="N27" s="7">
-        <v>3</v>
-      </c>
-      <c r="O27" s="7">
-        <v>1</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="5">
@@ -5865,81 +6077,81 @@
       </c>
       <c r="R27" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K27:P27)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.84674531236252715</v>
+        <v>0.965280144022022</v>
       </c>
       <c r="S27" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.6934906247250543</v>
+        <v>1.930560288044044</v>
       </c>
       <c r="T27" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>88.061512485702821</v>
+        <v>117.76417757068668</v>
       </c>
       <c r="U27" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>5.5201958236259383</v>
       </c>
       <c r="V27" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>32.02236817661921</v>
+        <v>0</v>
       </c>
       <c r="W27" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>40.027960220774006</v>
+        <v>93.843329001640953</v>
       </c>
       <c r="X27" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>12.008388066232204</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>4.0027960220774013</v>
+        <v>18.400652745419794</v>
       </c>
       <c r="Z27" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
         <v>0</v>
       </c>
       <c r="AA27" s="14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="14">
-        <v>4</v>
-      </c>
+      <c r="AC27" s="14"/>
       <c r="AD27" s="14">
-        <v>3</v>
-      </c>
-      <c r="AE27" s="14">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AE27" s="14"/>
       <c r="AF27" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG27" s="14"/>
       <c r="AH27" s="14">
+        <v>5</v>
+      </c>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14">
         <v>2</v>
       </c>
-      <c r="AI27" s="13" t="str">
+      <c r="AK27" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] wither;</v>
-      </c>
-      <c r="AJ27" s="13" t="str">
+        <v>public static VariantMirageFairy[] enderdragon;</v>
+      </c>
+      <c r="AL27" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1&amp;", "&amp;テーブル1[[#This Row],[WATER]]*1&amp;", "&amp;テーブル1[[#This Row],[CRYSTAL]]*1&amp;", "&amp;テーブル1[[#This Row],[ART]]*1&amp;"), c("&amp;テーブル1[[#This Row],[Color]]&amp;"))));"</f>
-        <v>r(27, wither = v(t(27, "wither", 5, 52, m(0, 8, 10, 3, 1, 0), a(25, 0, 4, 3, 4, 1, 0, 2), c(0x181818, 0x3C3C3C, 0x141414, 0x557272))));</v>
-      </c>
-      <c r="AK27" s="13" t="str">
+        <v>r(25, enderdragon = v(t(25, "enderdragon", 5, 61, m(3, 0, 51, 0, 10, 0), a(20, 0, 0, 2, 0, 2, 0, 5), c(0x000000, 0x181818, 0x181818, 0xA500E2))));</v>
+      </c>
+      <c r="AM27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[英名]]</f>
-        <v>item.mirageFairy.wither.name=Witheria</v>
-      </c>
-      <c r="AL27" s="13" t="str">
+        <v>item.mirageFairy.enderdragon.name=Enderedragonia</v>
+      </c>
+      <c r="AN27" s="13" t="str">
         <f>"item.mirageFairy."&amp;テーブル1[[#This Row],[Type]]&amp;".name="&amp;テーブル1[[#This Row],[和名]]</f>
-        <v>item.mirageFairy.wither.name=ウィテーリャ</v>
-      </c>
-      <c r="AM27" s="13"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
+        <v>item.mirageFairy.enderdragon.name=エンデレドラゴーニャ</v>
+      </c>
+      <c r="AO27" s="13"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -5948,53 +6160,57 @@
         <v>408</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J28" s="8">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="L28" s="7">
+        <v>11</v>
+      </c>
       <c r="M28" s="7">
         <v>10</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="7">
+        <v>4</v>
+      </c>
       <c r="O28" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P28" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="5">
         <f>2^((テーブル1[[#This Row],[レア]]-1)/4)</f>
-        <v>1.189207115002721</v>
+        <v>1.681792830507429</v>
       </c>
       <c r="R28" s="5">
         <f>0.5^(((テーブル1[[#This Row],[基礎Shine]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Fire]]/MAX(K28:P28)+テーブル1[[#This Row],[基礎Wind]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Gaia]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Aqua]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])+テーブル1[[#This Row],[基礎Dark]]/MAX(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]]))-1)/5)</f>
-        <v>0.85066716095085571</v>
+        <v>0.81738683317269123</v>
       </c>
       <c r="S28" s="5">
         <f>テーブル1[[#This Row],[分散度倍率　]]*テーブル1[[#This Row],[レア度倍率]]</f>
-        <v>1.0116194403019225</v>
+        <v>1.3746753157810041</v>
       </c>
       <c r="T28" s="10">
         <f>テーブル1[[#This Row],[コスト]]*テーブル1[[#This Row],[効率]]</f>
-        <v>35.40668041056729</v>
+        <v>94.852596788889286</v>
       </c>
       <c r="U28" s="9">
         <f>テーブル1[[#This Row],[基礎Shine]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
@@ -6002,116 +6218,120 @@
       </c>
       <c r="V28" s="9">
         <f>テーブル1[[#This Row],[基礎Fire]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>38.643650543621561</v>
       </c>
       <c r="W28" s="9">
         <f>テーブル1[[#This Row],[基礎Wind]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>13.617954004064341</v>
+        <v>35.130591403292328</v>
       </c>
       <c r="X28" s="9">
         <f>テーブル1[[#This Row],[基礎Gaia]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>0</v>
+        <v>14.052236561316931</v>
       </c>
       <c r="Y28" s="9">
         <f>テーブル1[[#This Row],[基礎Aqua]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>16.341544804877209</v>
+        <v>3.5130591403292328</v>
       </c>
       <c r="Z28" s="9">
         <f>テーブル1[[#This Row],[基礎Dark]]*テーブル1[[#This Row],[合計値]]/SUM(テーブル1[[#This Row],[基礎Shine]:[基礎Dark]])</f>
-        <v>5.4471816016257373</v>
+        <v>3.5130591403292328</v>
       </c>
       <c r="AA28" s="14">
-        <v>10</v>
-      </c>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14">
-        <v>2</v>
-      </c>
-      <c r="AE28" s="14">
-        <v>7</v>
-      </c>
-      <c r="AF28" s="14">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
       <c r="AG28" s="14"/>
       <c r="AH28" s="14">
         <v>3</v>
       </c>
-      <c r="AI28" s="13" t="str">
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="13" t="str">
         <f>"public static VariantMirageFairy[] "&amp;テーブル1[[#This Row],[Type]]&amp;";"</f>
-        <v>public static VariantMirageFairy[] creeper;</v>
-      </c>
-      <c r="AJ28" s="13" t="str">
+        <v>public static VariantMirageFairy[] witherskeleton;</v>
+      </c>
+      <c r="AL28" s="13" t="str">
         <f>"r("&amp;テーブル1[[#This Row],[No]]&amp;", "&amp;テーブル1[[#This Row],[Type]]&amp;" = v(t("&amp;テーブル1[[#This Row],[No]]&amp;", """&amp;テーブル1[[#This Row],[Type]]&amp;""", "&amp;テーブル1[[#This Row],[レア]]&amp;", "&amp;テーブル1[[#This Row],[コスト]]&amp;", m("&amp;テーブル1[[#This Row],[基礎Shine]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Fire]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Wind]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Gaia]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Aqua]]*1&amp;", "&amp;テーブル1[[#This Row],[基礎Dark]]*1&amp;"), a("&amp;テーブル1[[#This Row],[ATTACK]]*1&amp;", "&amp;テーブル1[[#This Row],[CRAFT]]*1&amp;", "&amp;テーブル1[[#This Row],[FELL]]*1&amp;", "&amp;テーブル1[[#This Row],[LIGHT]]*1&amp;", "&amp;テーブル1[[#This Row],[FLAME]]*1